--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{509418BC-6A6C-4273-97E0-4027D468E0D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B5910A-B5E6-43C4-AEF2-25BB05324E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-4620" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
   <si>
     <t>导出类型</t>
   </si>
@@ -218,6 +218,36 @@
   </si>
   <si>
     <t>务农：回合开始阶段获得一点费用\n晋升1</t>
+  </si>
+  <si>
+    <t>农夫7</t>
+  </si>
+  <si>
+    <t>农夫8</t>
+  </si>
+  <si>
+    <t>农夫9</t>
+  </si>
+  <si>
+    <t>农夫10</t>
+  </si>
+  <si>
+    <t>农夫11</t>
+  </si>
+  <si>
+    <t>农夫12</t>
+  </si>
+  <si>
+    <t>农夫13</t>
+  </si>
+  <si>
+    <t>农夫14</t>
+  </si>
+  <si>
+    <t>农夫15</t>
+  </si>
+  <si>
+    <t>农夫16</t>
   </si>
 </sst>
 </file>
@@ -1238,10 +1268,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="H21" sqref="H21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1453,10 +1483,10 @@
         <v>3</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -1479,7 +1509,7 @@
         <v>1</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F9">
         <v>1</v>
@@ -1494,10 +1524,10 @@
         <v>4</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -1517,10 +1547,10 @@
         <v>40</v>
       </c>
       <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
         <v>2</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
       </c>
       <c r="F10">
         <v>1</v>
@@ -1535,10 +1565,10 @@
         <v>7</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -1558,10 +1588,10 @@
         <v>41</v>
       </c>
       <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
         <v>3</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
       </c>
       <c r="F11">
         <v>1</v>
@@ -1576,10 +1606,10 @@
         <v>3</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -1599,10 +1629,10 @@
         <v>42</v>
       </c>
       <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
         <v>4</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -1617,10 +1647,10 @@
         <v>5</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -1640,7 +1670,7 @@
         <v>43</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1658,10 +1688,10 @@
         <v>3</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -1681,10 +1711,10 @@
         <v>45</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -1699,10 +1729,10 @@
         <v>8</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1714,7 +1744,416 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" ht="14" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="15" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="11">
+        <v>7</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>7</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>8</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="11">
+        <v>8</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>9</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="11">
+        <v>9</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17">
+        <v>4</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>8</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="11">
+        <v>10</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>4</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+      <c r="K18">
+        <v>2</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="11">
+        <v>11</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19">
+        <v>2</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>3</v>
+      </c>
+      <c r="H19">
+        <v>1</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11">
+        <v>12</v>
+      </c>
+      <c r="C20" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20">
+        <v>3</v>
+      </c>
+      <c r="E20">
+        <v>2</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>1</v>
+      </c>
+      <c r="I20">
+        <v>5</v>
+      </c>
+      <c r="J20">
+        <v>5</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="11">
+        <v>13</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D21">
+        <v>4</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>5</v>
+      </c>
+      <c r="H21">
+        <v>1</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+      <c r="J21">
+        <v>6</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="11">
+        <v>14</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22">
+        <v>5</v>
+      </c>
+      <c r="E22">
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>1</v>
+      </c>
+      <c r="I22">
+        <v>7</v>
+      </c>
+      <c r="J22">
+        <v>7</v>
+      </c>
+      <c r="K22">
+        <v>3</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="11">
+        <v>15</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23">
+        <v>6</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23">
+        <v>1</v>
+      </c>
+      <c r="I23">
+        <v>9</v>
+      </c>
+      <c r="J23">
+        <v>8</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="11">
+        <v>16</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="D24">
+        <v>0</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>3</v>
+      </c>
+      <c r="H24">
+        <v>1</v>
+      </c>
+      <c r="I24">
+        <v>6</v>
+      </c>
+      <c r="J24">
+        <v>4</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" t="s">
+        <v>47</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="B1:B3">

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9B5910A-B5E6-43C4-AEF2-25BB05324E3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2576A6F7-E8E7-4E4D-AD75-C3105CC185E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1271,7 +1271,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1483,7 +1483,7 @@
         <v>3</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K8">
         <v>1</v>
@@ -1688,7 +1688,7 @@
         <v>3</v>
       </c>
       <c r="J13">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="K13">
         <v>2</v>
@@ -1893,7 +1893,7 @@
         <v>4</v>
       </c>
       <c r="J18">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K18">
         <v>2</v>
@@ -2098,7 +2098,7 @@
         <v>9</v>
       </c>
       <c r="J23">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="K23">
         <v>2</v>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2576A6F7-E8E7-4E4D-AD75-C3105CC185E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9E6B26-DE75-4535-8BB2-B7CF3BA9FF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-30828" yWindow="-4620" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -19,8 +19,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -65,10 +63,6 @@
   </si>
   <si>
     <t>c</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>c</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -248,6 +242,10 @@
   </si>
   <si>
     <t>农夫16</t>
+  </si>
+  <si>
+    <t>sc</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1271,7 +1269,7 @@
   <dimension ref="A1:N24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1296,7 +1294,7 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.3">
@@ -1304,14 +1302,14 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.3">
@@ -1333,40 +1331,40 @@
         <v>9</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E5" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F5" s="13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G5" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I5" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="H5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>19</v>
-      </c>
       <c r="J5" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="M5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="M5" s="8" t="s">
-        <v>28</v>
-      </c>
       <c r="N5" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
@@ -1374,43 +1372,43 @@
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
       <c r="D6" s="9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="L6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N6" s="9" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.3">
@@ -1418,43 +1416,43 @@
         <v>8</v>
       </c>
       <c r="B7" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="D7" s="10" t="s">
-        <v>14</v>
-      </c>
       <c r="E7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="J7" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="10" t="s">
-        <v>37</v>
-      </c>
-      <c r="G7" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="H7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="10" t="s">
-        <v>23</v>
-      </c>
       <c r="K7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="L7" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="L7" s="10" t="s">
-        <v>26</v>
-      </c>
       <c r="M7" s="10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1462,7 +1460,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1492,10 +1490,10 @@
         <v>0</v>
       </c>
       <c r="M8" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1503,7 +1501,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1533,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="M9" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1544,7 +1542,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1574,10 +1572,10 @@
         <v>0</v>
       </c>
       <c r="M10" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1585,7 +1583,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1615,10 +1613,10 @@
         <v>0</v>
       </c>
       <c r="M11" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1626,7 +1624,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1656,10 +1654,10 @@
         <v>0</v>
       </c>
       <c r="M12" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1667,7 +1665,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1697,10 +1695,10 @@
         <v>0</v>
       </c>
       <c r="M13" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1708,7 +1706,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1738,10 +1736,10 @@
         <v>0</v>
       </c>
       <c r="M14" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1749,7 +1747,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1779,10 +1777,10 @@
         <v>0</v>
       </c>
       <c r="M15" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1790,7 +1788,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1820,10 +1818,10 @@
         <v>0</v>
       </c>
       <c r="M16" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1831,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1861,10 +1859,10 @@
         <v>0</v>
       </c>
       <c r="M17" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1872,7 +1870,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1902,10 +1900,10 @@
         <v>0</v>
       </c>
       <c r="M18" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1913,7 +1911,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1943,10 +1941,10 @@
         <v>0</v>
       </c>
       <c r="M19" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1954,7 +1952,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1984,10 +1982,10 @@
         <v>0</v>
       </c>
       <c r="M20" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="21" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -1995,7 +1993,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -2025,10 +2023,10 @@
         <v>0</v>
       </c>
       <c r="M21" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2036,7 +2034,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -2066,10 +2064,10 @@
         <v>0</v>
       </c>
       <c r="M22" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="23" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2077,7 +2075,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -2107,10 +2105,10 @@
         <v>0</v>
       </c>
       <c r="M23" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
@@ -2118,7 +2116,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2148,10 +2146,10 @@
         <v>0</v>
       </c>
       <c r="M24" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
@@ -2162,10 +2160,10 @@
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B6 C5:N5 B7:N7">
+  <conditionalFormatting sqref="B5:N5 B7:N7">
     <cfRule type="duplicateValues" dxfId="1" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:B6 C5:N5 B7:N7">
+  <conditionalFormatting sqref="B5:N5 B7:N7">
     <cfRule type="duplicateValues" dxfId="0" priority="49"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25928"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D9E6B26-DE75-4535-8BB2-B7CF3BA9FF4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C8B995-0F8E-445D-9DA2-CE54474F27E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30828" yWindow="-4620" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-37640" yWindow="-9040" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="57">
   <si>
     <t>导出类型</t>
   </si>
@@ -119,14 +119,6 @@
   </si>
   <si>
     <t>quality</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>imgId</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
-    <t>卡牌原画id</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
@@ -1266,10 +1258,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:N24"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R14" sqref="R14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
@@ -1280,9 +1272,11 @@
     <col min="6" max="6" width="13.58203125" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="15.9140625" customWidth="1"/>
+    <col min="11" max="11" width="17.25" customWidth="1"/>
+    <col min="12" max="12" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1294,15 +1288,15 @@
         <v>1</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -1312,7 +1306,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1323,7 +1317,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="5" spans="1:14" ht="57" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>6</v>
       </c>
@@ -1337,16 +1331,16 @@
         <v>14</v>
       </c>
       <c r="E5" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="F5" s="13" t="s">
         <v>35</v>
-      </c>
-      <c r="F5" s="13" t="s">
-        <v>37</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>17</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="I5" s="8" t="s">
         <v>18</v>
@@ -1355,63 +1349,57 @@
         <v>23</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="L5" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="M5" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="N5" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K6" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L6" s="9" t="s">
         <v>10</v>
       </c>
       <c r="M6" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="N6" s="9" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>8</v>
       </c>
@@ -1428,13 +1416,13 @@
         <v>21</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>19</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="I7" s="10" t="s">
         <v>20</v>
@@ -1446,21 +1434,18 @@
         <v>24</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="N7" s="10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B8" s="11">
         <v>0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -1486,22 +1471,19 @@
       <c r="K8">
         <v>1</v>
       </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L8" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B9" s="11">
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -1527,22 +1509,19 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9">
-        <v>0</v>
-      </c>
-      <c r="M9" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N9" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L9" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M9" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B10" s="11">
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D10">
         <v>1</v>
@@ -1568,22 +1547,19 @@
       <c r="K10">
         <v>2</v>
       </c>
-      <c r="L10">
-        <v>0</v>
-      </c>
-      <c r="M10" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L10" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M10" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B11" s="11">
         <v>3</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -1609,22 +1585,19 @@
       <c r="K11">
         <v>3</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N11" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L11" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B12" s="11">
         <v>4</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -1650,22 +1623,19 @@
       <c r="K12">
         <v>1</v>
       </c>
-      <c r="L12">
-        <v>0</v>
-      </c>
-      <c r="M12" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N12" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L12" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M12" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B13" s="11">
         <v>5</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1691,22 +1661,19 @@
       <c r="K13">
         <v>2</v>
       </c>
-      <c r="L13">
-        <v>0</v>
-      </c>
-      <c r="M13" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M13" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B14" s="11">
         <v>6</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1732,22 +1699,19 @@
       <c r="K14">
         <v>2</v>
       </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N14" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L14" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B15" s="11">
         <v>7</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1773,22 +1737,19 @@
       <c r="K15">
         <v>0</v>
       </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N15" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L15" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="11">
         <v>8</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -1814,22 +1775,19 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16">
-        <v>0</v>
-      </c>
-      <c r="M16" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="17" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L16" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M16" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="2:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="11">
         <v>9</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -1855,22 +1813,19 @@
       <c r="K17">
         <v>1</v>
       </c>
-      <c r="L17">
-        <v>0</v>
-      </c>
-      <c r="M17" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="18" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L17" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="2:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B18" s="11">
         <v>10</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -1896,22 +1851,19 @@
       <c r="K18">
         <v>2</v>
       </c>
-      <c r="L18">
-        <v>0</v>
-      </c>
-      <c r="M18" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N18" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="2:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B19" s="11">
         <v>11</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D19">
         <v>2</v>
@@ -1937,22 +1889,19 @@
       <c r="K19">
         <v>3</v>
       </c>
-      <c r="L19">
-        <v>0</v>
-      </c>
-      <c r="M19" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N19" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L19" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="11">
         <v>12</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D20">
         <v>3</v>
@@ -1978,22 +1927,19 @@
       <c r="K20">
         <v>0</v>
       </c>
-      <c r="L20">
-        <v>0</v>
-      </c>
-      <c r="M20" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L20" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B21" s="11">
         <v>13</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D21">
         <v>4</v>
@@ -2019,22 +1965,19 @@
       <c r="K21">
         <v>1</v>
       </c>
-      <c r="L21">
-        <v>0</v>
-      </c>
-      <c r="M21" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N21" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="22" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L21" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B22" s="11">
         <v>14</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D22">
         <v>5</v>
@@ -2060,22 +2003,19 @@
       <c r="K22">
         <v>3</v>
       </c>
-      <c r="L22">
-        <v>0</v>
-      </c>
-      <c r="M22" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N22" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L22" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B23" s="11">
         <v>15</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D23">
         <v>6</v>
@@ -2101,22 +2041,19 @@
       <c r="K23">
         <v>2</v>
       </c>
-      <c r="L23">
-        <v>0</v>
-      </c>
-      <c r="M23" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N23" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:14" ht="14" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="L23" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" ht="14" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B24" s="11">
         <v>16</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D24">
         <v>0</v>
@@ -2142,14 +2079,11 @@
       <c r="K24">
         <v>0</v>
       </c>
-      <c r="L24">
-        <v>0</v>
-      </c>
-      <c r="M24" s="12" t="s">
-        <v>47</v>
-      </c>
-      <c r="N24" t="s">
-        <v>46</v>
+      <c r="L24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M24" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2160,11 +2094,11 @@
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="2" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:N5 B7:N7">
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+  <conditionalFormatting sqref="B5:M5 B7:M7">
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:N5 B7:N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+  <conditionalFormatting sqref="B5:M5 B7:M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="56"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17810"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -762,12 +762,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149540696432386"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -776,6 +770,12 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.149540696432386"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1011,13 +1011,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1164,13 +1164,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1180,9 +1180,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1193,6 +1190,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1364,9 +1364,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="黑色单元格1 2" xfId="17"/>
+    <cellStyle name="黑色单元格1 2" xfId="15"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1419,16 +1419,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="黑色单元格2 3" xfId="70"/>
-    <cellStyle name="我的标题" xfId="71"/>
+    <cellStyle name="我的标题" xfId="70"/>
+    <cellStyle name="黑色单元格2 3" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的单元格2 3" xfId="78"/>
-    <cellStyle name="我的公式 2" xfId="79"/>
+    <cellStyle name="我的公式 2" xfId="78"/>
+    <cellStyle name="我的单元格2 3" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1750,10 +1750,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N32"/>
+  <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1766,6 +1766,7 @@
     <col min="8" max="8" width="15.9166666666667" customWidth="1"/>
     <col min="11" max="11" width="17.25" customWidth="1"/>
     <col min="12" max="12" width="17.3333333333333" customWidth="1"/>
+    <col min="14" max="14" width="39.0583333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -2638,7 +2639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" ht="42" spans="2:14">
+    <row r="25" customHeight="1" spans="2:14">
       <c r="B25" s="12">
         <v>17</v>
       </c>
@@ -2679,7 +2680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" ht="42" spans="2:14">
+    <row r="26" customHeight="1" spans="2:14">
       <c r="B26" s="12">
         <v>18</v>
       </c>
@@ -2720,7 +2721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" ht="42" spans="2:14">
+    <row r="27" customHeight="1" spans="2:14">
       <c r="B27" s="12">
         <v>19</v>
       </c>
@@ -2761,7 +2762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" ht="42" spans="2:14">
+    <row r="28" customHeight="1" spans="2:14">
       <c r="B28" s="12">
         <v>20</v>
       </c>
@@ -2802,7 +2803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" ht="42" spans="2:14">
+    <row r="29" customHeight="1" spans="2:14">
       <c r="B29" s="12">
         <v>21</v>
       </c>
@@ -2843,7 +2844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" ht="42" spans="2:14">
+    <row r="30" customHeight="1" spans="2:14">
       <c r="B30" s="12">
         <v>22</v>
       </c>
@@ -2884,7 +2885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" ht="42" spans="2:14">
+    <row r="31" customHeight="1" spans="2:14">
       <c r="B31" s="12">
         <v>23</v>
       </c>
@@ -2925,7 +2926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" ht="42" spans="2:14">
+    <row r="32" customHeight="1" spans="2:14">
       <c r="B32" s="12">
         <v>24</v>
       </c>
@@ -2966,6 +2967,7 @@
         <v>0</v>
       </c>
     </row>
+    <row r="33" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="M5">
     <cfRule type="duplicateValues" dxfId="0" priority="12"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
   <si>
     <t>导出类型</t>
   </si>
@@ -143,13 +143,16 @@
     <t>获得一点费用</t>
   </si>
   <si>
-    <t>TBD</t>
+    <t>{"1":123}</t>
   </si>
   <si>
     <t>农夫0</t>
   </si>
   <si>
     <t>务农：回合开始阶段获得一点费用\n晋升1</t>
+  </si>
+  <si>
+    <t>{}</t>
   </si>
   <si>
     <t>农夫1</t>
@@ -240,7 +243,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="38">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -289,6 +292,13 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -341,13 +351,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -356,6 +359,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -510,7 +520,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="44">
+  <fills count="48">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -585,7 +595,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -745,19 +767,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149571214941862"/>
+        <fgColor theme="0" tint="-0.149540696432386"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149937437055574"/>
+        <fgColor theme="0" tint="-0.149906918546098"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149906918546098"/>
+        <fgColor theme="0" tint="-0.149876400036622"/>
         <bgColor rgb="FFFFFFFF"/>
       </patternFill>
     </fill>
@@ -773,8 +795,20 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149540696432386"/>
+        <fgColor theme="0" tint="-0.14951017792291"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -972,171 +1006,171 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1152,141 +1186,132 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="40" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="29" fillId="27" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="41" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="44" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="45" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="44" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="46" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="47" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1305,8 +1330,17 @@
     <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -1344,6 +1378,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1354,8 +1389,8 @@
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="我的单元格1 2 2" xfId="6"/>
+    <cellStyle name="我的单元格1 2 2" xfId="5"/>
+    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
     <cellStyle name="差" xfId="8" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
@@ -1367,16 +1402,16 @@
     <cellStyle name="黑色单元格1 2" xfId="15"/>
     <cellStyle name="注释" xfId="16" builtinId="10"/>
     <cellStyle name="常规 6" xfId="17"/>
-    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
-    <cellStyle name="我的单元格2 2 2" xfId="19"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="21" builtinId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
+    <cellStyle name="我的单元格2 2 2" xfId="20"/>
+    <cellStyle name="警告文本" xfId="21" builtinId="11"/>
     <cellStyle name="标题" xfId="22" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
     <cellStyle name="标题 1" xfId="24" builtinId="16"/>
     <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
-    <cellStyle name="我的强调" xfId="27"/>
+    <cellStyle name="我的强调" xfId="26"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
     <cellStyle name="标题 3" xfId="28" builtinId="18"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
     <cellStyle name="输出" xfId="30" builtinId="21"/>
@@ -1753,7 +1788,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1766,7 +1801,8 @@
     <col min="8" max="8" width="15.9166666666667" customWidth="1"/>
     <col min="11" max="11" width="17.25" customWidth="1"/>
     <col min="12" max="12" width="17.3333333333333" customWidth="1"/>
-    <col min="14" max="14" width="39.0583333333333" customWidth="1"/>
+    <col min="13" max="13" width="63.0833333333333" customWidth="1"/>
+    <col min="14" max="14" width="39.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1976,7 +2012,7 @@
       <c r="L8" t="s">
         <v>41</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N8">
@@ -2014,11 +2050,11 @@
       <c r="K9">
         <v>1</v>
       </c>
-      <c r="L9" s="13" t="s">
+      <c r="L9" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M9" t="s">
-        <v>42</v>
+      <c r="M9" s="13" t="s">
+        <v>45</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2029,7 +2065,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2055,11 +2091,11 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="13" t="s">
+      <c r="L10" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2070,7 +2106,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2096,11 +2132,11 @@
       <c r="K11">
         <v>2</v>
       </c>
-      <c r="L11" s="13" t="s">
+      <c r="L11" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2111,7 +2147,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -2137,11 +2173,11 @@
       <c r="K12">
         <v>3</v>
       </c>
-      <c r="L12" s="13" t="s">
+      <c r="L12" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2152,7 +2188,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2178,11 +2214,11 @@
       <c r="K13">
         <v>1</v>
       </c>
-      <c r="L13" s="13" t="s">
+      <c r="L13" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2193,7 +2229,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2219,11 +2255,11 @@
       <c r="K14">
         <v>2</v>
       </c>
-      <c r="L14" s="13" t="s">
+      <c r="L14" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2234,7 +2270,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2260,11 +2296,11 @@
       <c r="K15">
         <v>2</v>
       </c>
-      <c r="L15" s="13" t="s">
+      <c r="L15" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2275,7 +2311,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2301,11 +2337,11 @@
       <c r="K16">
         <v>0</v>
       </c>
-      <c r="L16" s="13" t="s">
+      <c r="L16" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2316,7 +2352,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2342,11 +2378,11 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" s="13" t="s">
+      <c r="L17" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M17" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2357,7 +2393,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2383,11 +2419,11 @@
       <c r="K18">
         <v>1</v>
       </c>
-      <c r="L18" s="13" t="s">
+      <c r="L18" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2398,7 +2434,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2424,11 +2460,11 @@
       <c r="K19">
         <v>2</v>
       </c>
-      <c r="L19" s="13" t="s">
+      <c r="L19" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2439,7 +2475,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2465,11 +2501,11 @@
       <c r="K20">
         <v>3</v>
       </c>
-      <c r="L20" s="13" t="s">
+      <c r="L20" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M20" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2480,7 +2516,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2506,11 +2542,11 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21" s="13" t="s">
+      <c r="L21" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M21" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2521,7 +2557,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -2547,11 +2583,11 @@
       <c r="K22">
         <v>1</v>
       </c>
-      <c r="L22" s="13" t="s">
+      <c r="L22" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2562,7 +2598,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2588,11 +2624,11 @@
       <c r="K23">
         <v>3</v>
       </c>
-      <c r="L23" s="13" t="s">
+      <c r="L23" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M23" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2603,7 +2639,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -2629,11 +2665,11 @@
       <c r="K24">
         <v>2</v>
       </c>
-      <c r="L24" s="13" t="s">
+      <c r="L24" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M24" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2644,7 +2680,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2670,11 +2706,11 @@
       <c r="K25">
         <v>0</v>
       </c>
-      <c r="L25" s="13" t="s">
+      <c r="L25" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M25" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2685,7 +2721,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2711,11 +2747,11 @@
       <c r="K26">
         <v>1</v>
       </c>
-      <c r="L26" s="13" t="s">
+      <c r="L26" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M26" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2726,7 +2762,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2752,11 +2788,11 @@
       <c r="K27">
         <v>1</v>
       </c>
-      <c r="L27" s="13" t="s">
+      <c r="L27" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M27" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2767,7 +2803,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2793,11 +2829,11 @@
       <c r="K28">
         <v>1</v>
       </c>
-      <c r="L28" s="13" t="s">
+      <c r="L28" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M28" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2808,7 +2844,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2834,11 +2870,11 @@
       <c r="K29">
         <v>1</v>
       </c>
-      <c r="L29" s="13" t="s">
+      <c r="L29" s="14" t="s">
         <v>44</v>
       </c>
       <c r="M29" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2849,7 +2885,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2875,11 +2911,11 @@
       <c r="K30">
         <v>1</v>
       </c>
-      <c r="L30" s="13" t="s">
-        <v>66</v>
+      <c r="L30" s="14" t="s">
+        <v>67</v>
       </c>
       <c r="M30" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2890,7 +2926,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2916,11 +2952,11 @@
       <c r="K31">
         <v>1</v>
       </c>
-      <c r="L31" s="13" t="s">
-        <v>68</v>
+      <c r="L31" s="14" t="s">
+        <v>69</v>
       </c>
       <c r="M31" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2931,7 +2967,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2957,11 +2993,11 @@
       <c r="K32">
         <v>1</v>
       </c>
-      <c r="L32" s="13" t="s">
-        <v>70</v>
+      <c r="L32" s="14" t="s">
+        <v>71</v>
       </c>
       <c r="M32" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="N32">
         <v>0</v>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="25600" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
+    <sheet name="card_attr_map" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
   <si>
     <t>导出类型</t>
   </si>
@@ -143,7 +144,7 @@
     <t>获得一点费用</t>
   </si>
   <si>
-    <t>{"1":123}</t>
+    <t>{"0":0}</t>
   </si>
   <si>
     <t>农夫0</t>
@@ -231,6 +232,30 @@
   </si>
   <si>
     <t>务农：回合开始阶段获得一点费用\n晋升4</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>cardAttrMap={</t>
+  </si>
+  <si>
+    <t>cardAttrMap.json</t>
+  </si>
+  <si>
+    <t>通用key</t>
+  </si>
+  <si>
+    <t>通用值</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>冲锋</t>
   </si>
 </sst>
 </file>
@@ -243,7 +268,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="39">
+  <fonts count="38">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -292,13 +317,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
@@ -351,6 +369,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -359,13 +384,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -520,7 +538,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="48">
+  <fills count="44">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,19 +613,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -797,18 +803,6 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14951017792291"/>
         <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -1006,171 +1000,171 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1186,131 +1180,140 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="27" borderId="14" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="41" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="44" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="45" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="44" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="28" fillId="25" borderId="14" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="39" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="40" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="46" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="47" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1328,15 +1331,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1366,19 +1360,19 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1389,8 +1383,8 @@
     <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
     <cellStyle name="输入" xfId="3" builtinId="20"/>
     <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="我的单元格1 2 2" xfId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="6" builtinId="6"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="我的单元格1 2 2" xfId="6"/>
     <cellStyle name="40% - 强调文字颜色 3" xfId="7" builtinId="39"/>
     <cellStyle name="差" xfId="8" builtinId="27"/>
     <cellStyle name="千位分隔" xfId="9" builtinId="3"/>
@@ -1402,16 +1396,16 @@
     <cellStyle name="黑色单元格1 2" xfId="15"/>
     <cellStyle name="注释" xfId="16" builtinId="10"/>
     <cellStyle name="常规 6" xfId="17"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="18" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="19" builtinId="19"/>
-    <cellStyle name="我的单元格2 2 2" xfId="20"/>
-    <cellStyle name="警告文本" xfId="21" builtinId="11"/>
+    <cellStyle name="警告文本" xfId="18" builtinId="11"/>
+    <cellStyle name="我的单元格2 2 2" xfId="19"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="21" builtinId="19"/>
     <cellStyle name="标题" xfId="22" builtinId="15"/>
     <cellStyle name="解释性文本" xfId="23" builtinId="53"/>
     <cellStyle name="标题 1" xfId="24" builtinId="16"/>
     <cellStyle name="标题 2" xfId="25" builtinId="17"/>
-    <cellStyle name="我的强调" xfId="26"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="27" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="26" builtinId="32"/>
+    <cellStyle name="我的强调" xfId="27"/>
     <cellStyle name="标题 3" xfId="28" builtinId="18"/>
     <cellStyle name="60% - 强调文字颜色 4" xfId="29" builtinId="44"/>
     <cellStyle name="输出" xfId="30" builtinId="21"/>
@@ -1787,8 +1781,8 @@
   <sheetPr/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1862,7 +1856,7 @@
       <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="F5" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -1891,90 +1885,90 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="E6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="F6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="10" t="s">
+      <c r="G6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="10" t="s">
+      <c r="H6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="10" t="s">
+      <c r="I6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="10" t="s">
+      <c r="J6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="10" t="s">
+      <c r="K6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="10" t="s">
+      <c r="L6" s="9" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="10" t="s">
+      <c r="M6" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="10" t="s">
+      <c r="N6" s="9" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="11" t="s">
+      <c r="H7" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="11" t="s">
+      <c r="I7" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="11" t="s">
+      <c r="J7" s="10" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="11" t="s">
+      <c r="K7" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="11" t="s">
+      <c r="L7" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="11" t="s">
+      <c r="M7" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="11" t="s">
+      <c r="N7" s="10" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2020,10 +2014,10 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:14">
-      <c r="B9" s="12">
-        <v>1</v>
-      </c>
-      <c r="C9" s="12" t="s">
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
         <v>43</v>
       </c>
       <c r="D9">
@@ -2061,10 +2055,10 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
-      <c r="B10" s="12">
+      <c r="B10" s="11">
         <v>2</v>
       </c>
-      <c r="C10" s="12" t="s">
+      <c r="C10" s="11" t="s">
         <v>46</v>
       </c>
       <c r="D10">
@@ -2102,10 +2096,10 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:14">
-      <c r="B11" s="12">
+      <c r="B11" s="11">
         <v>3</v>
       </c>
-      <c r="C11" s="12" t="s">
+      <c r="C11" s="11" t="s">
         <v>47</v>
       </c>
       <c r="D11">
@@ -2143,10 +2137,10 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:14">
-      <c r="B12" s="12">
+      <c r="B12" s="11">
         <v>4</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="11" t="s">
         <v>48</v>
       </c>
       <c r="D12">
@@ -2184,10 +2178,10 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:14">
-      <c r="B13" s="12">
+      <c r="B13" s="11">
         <v>5</v>
       </c>
-      <c r="C13" s="12" t="s">
+      <c r="C13" s="11" t="s">
         <v>49</v>
       </c>
       <c r="D13">
@@ -2225,10 +2219,10 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:14">
-      <c r="B14" s="12">
+      <c r="B14" s="11">
         <v>6</v>
       </c>
-      <c r="C14" s="12" t="s">
+      <c r="C14" s="11" t="s">
         <v>50</v>
       </c>
       <c r="D14">
@@ -2266,10 +2260,10 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:14">
-      <c r="B15" s="12">
+      <c r="B15" s="11">
         <v>7</v>
       </c>
-      <c r="C15" s="12" t="s">
+      <c r="C15" s="11" t="s">
         <v>51</v>
       </c>
       <c r="D15">
@@ -2307,10 +2301,10 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:14">
-      <c r="B16" s="12">
+      <c r="B16" s="11">
         <v>8</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="11" t="s">
         <v>52</v>
       </c>
       <c r="D16">
@@ -2348,10 +2342,10 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:14">
-      <c r="B17" s="12">
+      <c r="B17" s="11">
         <v>9</v>
       </c>
-      <c r="C17" s="12" t="s">
+      <c r="C17" s="11" t="s">
         <v>53</v>
       </c>
       <c r="D17">
@@ -2389,10 +2383,10 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:14">
-      <c r="B18" s="12">
+      <c r="B18" s="11">
         <v>10</v>
       </c>
-      <c r="C18" s="12" t="s">
+      <c r="C18" s="11" t="s">
         <v>54</v>
       </c>
       <c r="D18">
@@ -2430,10 +2424,10 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:14">
-      <c r="B19" s="12">
+      <c r="B19" s="11">
         <v>11</v>
       </c>
-      <c r="C19" s="12" t="s">
+      <c r="C19" s="11" t="s">
         <v>55</v>
       </c>
       <c r="D19">
@@ -2471,10 +2465,10 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:14">
-      <c r="B20" s="12">
+      <c r="B20" s="11">
         <v>12</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="11" t="s">
         <v>56</v>
       </c>
       <c r="D20">
@@ -2512,10 +2506,10 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:14">
-      <c r="B21" s="12">
+      <c r="B21" s="11">
         <v>13</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="11" t="s">
         <v>57</v>
       </c>
       <c r="D21">
@@ -2553,10 +2547,10 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:14">
-      <c r="B22" s="12">
+      <c r="B22" s="11">
         <v>14</v>
       </c>
-      <c r="C22" s="12" t="s">
+      <c r="C22" s="11" t="s">
         <v>58</v>
       </c>
       <c r="D22">
@@ -2594,10 +2588,10 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:14">
-      <c r="B23" s="12">
+      <c r="B23" s="11">
         <v>15</v>
       </c>
-      <c r="C23" s="12" t="s">
+      <c r="C23" s="11" t="s">
         <v>59</v>
       </c>
       <c r="D23">
@@ -2635,10 +2629,10 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:14">
-      <c r="B24" s="12">
+      <c r="B24" s="11">
         <v>16</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>60</v>
       </c>
       <c r="D24">
@@ -2676,10 +2670,10 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:14">
-      <c r="B25" s="12">
+      <c r="B25" s="11">
         <v>17</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>61</v>
       </c>
       <c r="D25">
@@ -2717,10 +2711,10 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:14">
-      <c r="B26" s="12">
+      <c r="B26" s="11">
         <v>18</v>
       </c>
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>62</v>
       </c>
       <c r="D26">
@@ -2758,10 +2752,10 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:14">
-      <c r="B27" s="12">
+      <c r="B27" s="11">
         <v>19</v>
       </c>
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>63</v>
       </c>
       <c r="D27">
@@ -2799,10 +2793,10 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:14">
-      <c r="B28" s="12">
+      <c r="B28" s="11">
         <v>20</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>64</v>
       </c>
       <c r="D28">
@@ -2840,10 +2834,10 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:14">
-      <c r="B29" s="12">
+      <c r="B29" s="11">
         <v>21</v>
       </c>
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>65</v>
       </c>
       <c r="D29">
@@ -2881,10 +2875,10 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:14">
-      <c r="B30" s="12">
+      <c r="B30" s="11">
         <v>22</v>
       </c>
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>66</v>
       </c>
       <c r="D30">
@@ -2922,10 +2916,10 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:14">
-      <c r="B31" s="12">
+      <c r="B31" s="11">
         <v>23</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>68</v>
       </c>
       <c r="D31">
@@ -2963,10 +2957,10 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:14">
-      <c r="B32" s="12">
+      <c r="B32" s="11">
         <v>24</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>70</v>
       </c>
       <c r="D32">
@@ -3031,4 +3025,145 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="4"/>
+  <cols>
+    <col min="1" max="1" width="18.9833333333333" customWidth="1"/>
+    <col min="2" max="2" width="16.4" customWidth="1"/>
+    <col min="3" max="3" width="14.9166666666667" customWidth="1"/>
+    <col min="4" max="4" width="14.0416666666667" customWidth="1"/>
+    <col min="5" max="5" width="12.1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="10"/>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="11">
+        <v>0</v>
+      </c>
+      <c r="C8" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B5:C5 B7:C7 B6">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210" activeTab="1"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -144,22 +144,22 @@
     <t>获得一点费用</t>
   </si>
   <si>
+    <t>{}</t>
+  </si>
+  <si>
+    <t>安度因</t>
+  </si>
+  <si>
+    <t>务农：回合开始阶段获得一点费用\n晋升1</t>
+  </si>
+  <si>
     <t>{"0":0}</t>
   </si>
   <si>
-    <t>农夫0</t>
-  </si>
-  <si>
-    <t>务农：回合开始阶段获得一点费用\n晋升1</t>
-  </si>
-  <si>
-    <t>{}</t>
-  </si>
-  <si>
-    <t>农夫1</t>
-  </si>
-  <si>
-    <t>农夫2</t>
+    <t>小兵</t>
+  </si>
+  <si>
+    <t>弓箭手</t>
   </si>
   <si>
     <t>农夫3</t>
@@ -790,6 +790,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -798,12 +804,6 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1039,13 +1039,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,13 +1192,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1208,6 +1208,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1218,9 +1221,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1393,9 +1393,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="黑色单元格1 2" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="黑色单元格1 2" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1448,16 +1448,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="我的标题" xfId="70"/>
-    <cellStyle name="黑色单元格2 3" xfId="71"/>
+    <cellStyle name="黑色单元格2 3" xfId="70"/>
+    <cellStyle name="我的标题" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的公式 2" xfId="78"/>
-    <cellStyle name="我的单元格2 3" xfId="79"/>
+    <cellStyle name="我的单元格2 3" xfId="78"/>
+    <cellStyle name="我的公式 2" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1781,8 +1781,8 @@
   <sheetPr/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="145" zoomScaleNormal="145" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2030,13 +2030,13 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="J9">
         <v>0</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -2080,7 +2080,7 @@
         <v>4</v>
       </c>
       <c r="J10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -2088,7 +2088,7 @@
       <c r="L10" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M10" t="s">
+      <c r="M10" s="13" t="s">
         <v>45</v>
       </c>
       <c r="N10">
@@ -2106,22 +2106,22 @@
         <v>0</v>
       </c>
       <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>1</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
         <v>2</v>
       </c>
-      <c r="F11">
-        <v>1</v>
-      </c>
-      <c r="G11">
-        <v>4</v>
-      </c>
-      <c r="H11">
-        <v>1</v>
-      </c>
-      <c r="I11">
-        <v>7</v>
-      </c>
       <c r="J11">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -2130,7 +2130,7 @@
         <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -2171,7 +2171,7 @@
         <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2212,7 +2212,7 @@
         <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -2294,7 +2294,7 @@
         <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -2335,7 +2335,7 @@
         <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -2376,7 +2376,7 @@
         <v>44</v>
       </c>
       <c r="M17" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -2417,7 +2417,7 @@
         <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2458,7 +2458,7 @@
         <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -2499,7 +2499,7 @@
         <v>44</v>
       </c>
       <c r="M20" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -2540,7 +2540,7 @@
         <v>44</v>
       </c>
       <c r="M21" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -2581,7 +2581,7 @@
         <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -2622,7 +2622,7 @@
         <v>44</v>
       </c>
       <c r="M23" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>44</v>
       </c>
       <c r="M24" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -2704,7 +2704,7 @@
         <v>44</v>
       </c>
       <c r="M25" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -2745,7 +2745,7 @@
         <v>44</v>
       </c>
       <c r="M26" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N26">
         <v>0</v>
@@ -2786,7 +2786,7 @@
         <v>44</v>
       </c>
       <c r="M27" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2827,7 +2827,7 @@
         <v>44</v>
       </c>
       <c r="M28" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N28">
         <v>0</v>
@@ -2868,7 +2868,7 @@
         <v>44</v>
       </c>
       <c r="M29" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N29">
         <v>0</v>
@@ -2909,7 +2909,7 @@
         <v>67</v>
       </c>
       <c r="M30" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N30">
         <v>0</v>
@@ -2950,7 +2950,7 @@
         <v>69</v>
       </c>
       <c r="M31" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -2991,7 +2991,7 @@
         <v>71</v>
       </c>
       <c r="M32" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N32">
         <v>0</v>
@@ -3032,7 +3032,7 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
   <si>
     <t>导出类型</t>
   </si>
@@ -144,7 +144,7 @@
     <t>获得一点费用</t>
   </si>
   <si>
-    <t>{}</t>
+    <t>[]</t>
   </si>
   <si>
     <t>安度因</t>
@@ -153,16 +153,25 @@
     <t>务农：回合开始阶段获得一点费用\n晋升1</t>
   </si>
   <si>
-    <t>{"0":0}</t>
-  </si>
-  <si>
     <t>小兵</t>
   </si>
   <si>
+    <t>冲锋</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
     <t>弓箭手</t>
   </si>
   <si>
-    <t>农夫3</t>
+    <t>护卫</t>
+  </si>
+  <si>
+    <t>举盾：自身和相邻友军受到远程攻击时伤害-1</t>
+  </si>
+  <si>
+    <t>[1]</t>
   </si>
   <si>
     <t>农夫4</t>
@@ -255,7 +264,7 @@
     <t>value</t>
   </si>
   <si>
-    <t>冲锋</t>
+    <t>举盾</t>
   </si>
 </sst>
 </file>
@@ -790,12 +799,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -804,6 +807,12 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1039,13 +1048,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1192,13 +1201,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1208,9 +1217,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1221,6 +1227,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1393,9 +1402,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="黑色单元格1 2" xfId="17"/>
+    <cellStyle name="黑色单元格1 2" xfId="15"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1448,16 +1457,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="黑色单元格2 3" xfId="70"/>
-    <cellStyle name="我的标题" xfId="71"/>
+    <cellStyle name="我的标题" xfId="70"/>
+    <cellStyle name="黑色单元格2 3" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的单元格2 3" xfId="78"/>
-    <cellStyle name="我的公式 2" xfId="79"/>
+    <cellStyle name="我的公式 2" xfId="78"/>
+    <cellStyle name="我的单元格2 3" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1781,8 +1790,8 @@
   <sheetPr/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1795,7 +1804,7 @@
     <col min="8" max="8" width="15.9166666666667" customWidth="1"/>
     <col min="11" max="11" width="17.25" customWidth="1"/>
     <col min="12" max="12" width="17.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="63.0833333333333" customWidth="1"/>
+    <col min="13" max="13" width="38.9166666666667" customWidth="1"/>
     <col min="14" max="14" width="39.0833333333333" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2048,7 +2057,7 @@
         <v>44</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -2059,7 +2068,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2086,10 +2095,10 @@
         <v>1</v>
       </c>
       <c r="L10" s="14" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="M10" s="13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2100,7 +2109,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2126,9 +2135,7 @@
       <c r="K11">
         <v>2</v>
       </c>
-      <c r="L11" s="14" t="s">
-        <v>44</v>
-      </c>
+      <c r="L11" s="14"/>
       <c r="M11" t="s">
         <v>42</v>
       </c>
@@ -2141,13 +2148,13 @@
         <v>4</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
@@ -2159,19 +2166,19 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J12">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="K12">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="M12" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2182,7 +2189,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -2211,7 +2218,7 @@
       <c r="L13" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M13" t="s">
+      <c r="M13" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N13">
@@ -2223,7 +2230,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2252,7 +2259,7 @@
       <c r="L14" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M14" t="s">
+      <c r="M14" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N14">
@@ -2264,7 +2271,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2293,7 +2300,7 @@
       <c r="L15" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M15" t="s">
+      <c r="M15" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N15">
@@ -2305,7 +2312,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2334,7 +2341,7 @@
       <c r="L16" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M16" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N16">
@@ -2346,7 +2353,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2375,7 +2382,7 @@
       <c r="L17" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M17" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N17">
@@ -2387,7 +2394,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2416,7 +2423,7 @@
       <c r="L18" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M18" t="s">
+      <c r="M18" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N18">
@@ -2428,7 +2435,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2457,7 +2464,7 @@
       <c r="L19" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M19" t="s">
+      <c r="M19" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N19">
@@ -2469,7 +2476,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2498,7 +2505,7 @@
       <c r="L20" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M20" t="s">
+      <c r="M20" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N20">
@@ -2510,7 +2517,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2539,7 +2546,7 @@
       <c r="L21" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M21" t="s">
+      <c r="M21" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N21">
@@ -2551,7 +2558,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -2580,7 +2587,7 @@
       <c r="L22" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M22" t="s">
+      <c r="M22" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N22">
@@ -2592,7 +2599,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2621,7 +2628,7 @@
       <c r="L23" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M23" t="s">
+      <c r="M23" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N23">
@@ -2633,7 +2640,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -2662,7 +2669,7 @@
       <c r="L24" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N24">
@@ -2674,7 +2681,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2703,7 +2710,7 @@
       <c r="L25" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N25">
@@ -2715,7 +2722,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2744,7 +2751,7 @@
       <c r="L26" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M26" t="s">
+      <c r="M26" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N26">
@@ -2756,7 +2763,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2785,7 +2792,7 @@
       <c r="L27" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M27" t="s">
+      <c r="M27" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N27">
@@ -2797,7 +2804,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2826,7 +2833,7 @@
       <c r="L28" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M28" t="s">
+      <c r="M28" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N28">
@@ -2838,7 +2845,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2867,7 +2874,7 @@
       <c r="L29" s="14" t="s">
         <v>44</v>
       </c>
-      <c r="M29" t="s">
+      <c r="M29" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N29">
@@ -2879,7 +2886,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="11" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2906,9 +2913,9 @@
         <v>1</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="M30" t="s">
+        <v>70</v>
+      </c>
+      <c r="M30" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N30">
@@ -2920,7 +2927,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2947,9 +2954,9 @@
         <v>1</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="M31" t="s">
+        <v>72</v>
+      </c>
+      <c r="M31" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N31">
@@ -2961,7 +2968,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2988,9 +2995,9 @@
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="M32" t="s">
+        <v>74</v>
+      </c>
+      <c r="M32" s="13" t="s">
         <v>42</v>
       </c>
       <c r="N32">
@@ -3033,7 +3040,7 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -3050,14 +3057,14 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -3065,7 +3072,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -3091,10 +3098,10 @@
         <v>9</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -3113,10 +3120,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D7" s="10"/>
     </row>
@@ -3125,12 +3132,16 @@
         <v>0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>79</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
+      <c r="B9" s="11">
+        <v>1</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="11"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210"/>
+    <workbookView windowWidth="25600" windowHeight="12210" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -799,6 +799,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -807,12 +813,6 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1048,13 +1048,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1201,13 +1201,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1217,6 +1217,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1227,9 +1230,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1402,9 +1402,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="黑色单元格1 2" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="黑色单元格1 2" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1457,16 +1457,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="我的标题" xfId="70"/>
-    <cellStyle name="黑色单元格2 3" xfId="71"/>
+    <cellStyle name="黑色单元格2 3" xfId="70"/>
+    <cellStyle name="我的标题" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的公式 2" xfId="78"/>
-    <cellStyle name="我的单元格2 3" xfId="79"/>
+    <cellStyle name="我的单元格2 3" xfId="78"/>
+    <cellStyle name="我的公式 2" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1790,7 +1790,7 @@
   <sheetPr/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
@@ -3039,7 +3039,7 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25600" windowHeight="12210" activeTab="1"/>
+    <workbookView windowHeight="17810"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
   <si>
     <t>导出类型</t>
   </si>
@@ -132,7 +132,7 @@
     <t>desc</t>
   </si>
   <si>
-    <t>attr</t>
+    <t>buffs</t>
   </si>
   <si>
     <t>isDerivation</t>
@@ -156,112 +156,115 @@
     <t>小兵</t>
   </si>
   <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
+    <t>护卫</t>
+  </si>
+  <si>
+    <t>举盾：自身和相邻友军受到远程攻击时伤害-1</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>农夫</t>
+  </si>
+  <si>
+    <t>务农：回合开始阶段获得一点费用</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>农夫5</t>
+  </si>
+  <si>
+    <t>农夫6</t>
+  </si>
+  <si>
+    <t>农夫7</t>
+  </si>
+  <si>
+    <t>农夫8</t>
+  </si>
+  <si>
+    <t>农夫9</t>
+  </si>
+  <si>
+    <t>农夫10</t>
+  </si>
+  <si>
+    <t>农夫11</t>
+  </si>
+  <si>
+    <t>农夫12</t>
+  </si>
+  <si>
+    <t>农夫13</t>
+  </si>
+  <si>
+    <t>农夫14</t>
+  </si>
+  <si>
+    <t>农夫15</t>
+  </si>
+  <si>
+    <t>农夫16</t>
+  </si>
+  <si>
+    <t>农夫17</t>
+  </si>
+  <si>
+    <t>农夫18</t>
+  </si>
+  <si>
+    <t>农夫19</t>
+  </si>
+  <si>
+    <t>农夫20</t>
+  </si>
+  <si>
+    <t>农夫21</t>
+  </si>
+  <si>
+    <t>务农：回合开始阶段获得一点费用\n晋升2</t>
+  </si>
+  <si>
+    <t>农夫22</t>
+  </si>
+  <si>
+    <t>务农：回合开始阶段获得一点费用\n晋升3</t>
+  </si>
+  <si>
+    <t>农夫23</t>
+  </si>
+  <si>
+    <t>务农：回合开始阶段获得一点费用\n晋升4</t>
+  </si>
+  <si>
+    <t>tiny</t>
+  </si>
+  <si>
+    <t>cardAttrMap={</t>
+  </si>
+  <si>
+    <t>cardAttrMap.json</t>
+  </si>
+  <si>
+    <t>通用key</t>
+  </si>
+  <si>
+    <t>通用值</t>
+  </si>
+  <si>
+    <t>key</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
     <t>冲锋</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>弓箭手</t>
-  </si>
-  <si>
-    <t>护卫</t>
-  </si>
-  <si>
-    <t>举盾：自身和相邻友军受到远程攻击时伤害-1</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>农夫4</t>
-  </si>
-  <si>
-    <t>农夫5</t>
-  </si>
-  <si>
-    <t>农夫6</t>
-  </si>
-  <si>
-    <t>农夫7</t>
-  </si>
-  <si>
-    <t>农夫8</t>
-  </si>
-  <si>
-    <t>农夫9</t>
-  </si>
-  <si>
-    <t>农夫10</t>
-  </si>
-  <si>
-    <t>农夫11</t>
-  </si>
-  <si>
-    <t>农夫12</t>
-  </si>
-  <si>
-    <t>农夫13</t>
-  </si>
-  <si>
-    <t>农夫14</t>
-  </si>
-  <si>
-    <t>农夫15</t>
-  </si>
-  <si>
-    <t>农夫16</t>
-  </si>
-  <si>
-    <t>农夫17</t>
-  </si>
-  <si>
-    <t>农夫18</t>
-  </si>
-  <si>
-    <t>农夫19</t>
-  </si>
-  <si>
-    <t>农夫20</t>
-  </si>
-  <si>
-    <t>农夫21</t>
-  </si>
-  <si>
-    <t>务农：回合开始阶段获得一点费用\n晋升2</t>
-  </si>
-  <si>
-    <t>农夫22</t>
-  </si>
-  <si>
-    <t>务农：回合开始阶段获得一点费用\n晋升3</t>
-  </si>
-  <si>
-    <t>农夫23</t>
-  </si>
-  <si>
-    <t>务农：回合开始阶段获得一点费用\n晋升4</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>cardAttrMap={</t>
-  </si>
-  <si>
-    <t>cardAttrMap.json</t>
-  </si>
-  <si>
-    <t>通用key</t>
-  </si>
-  <si>
-    <t>通用值</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>value</t>
   </si>
   <si>
     <t>举盾</t>
@@ -799,12 +802,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -813,6 +810,12 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1048,13 +1051,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1201,13 +1204,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1217,9 +1220,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1230,6 +1230,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1402,9 +1405,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="黑色单元格1 2" xfId="17"/>
+    <cellStyle name="黑色单元格1 2" xfId="15"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1457,16 +1460,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="黑色单元格2 3" xfId="70"/>
-    <cellStyle name="我的标题" xfId="71"/>
+    <cellStyle name="我的标题" xfId="70"/>
+    <cellStyle name="黑色单元格2 3" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的单元格2 3" xfId="78"/>
-    <cellStyle name="我的公式 2" xfId="79"/>
+    <cellStyle name="我的公式 2" xfId="78"/>
+    <cellStyle name="我的单元格2 3" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1790,8 +1793,8 @@
   <sheetPr/>
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2094,11 +2097,9 @@
       <c r="K10">
         <v>1</v>
       </c>
-      <c r="L10" s="14" t="s">
-        <v>46</v>
-      </c>
+      <c r="L10" s="14"/>
       <c r="M10" s="13" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -2109,7 +2110,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2148,7 +2149,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2175,10 +2176,10 @@
         <v>1</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="M12" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -2189,37 +2190,37 @@
         <v>5</v>
       </c>
       <c r="C13" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>2</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" s="13" t="s">
         <v>52</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
-        <v>4</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>3</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
-      </c>
-      <c r="I13">
-        <v>5</v>
-      </c>
-      <c r="J13">
-        <v>5</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" s="13" t="s">
-        <v>42</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -3039,7 +3040,7 @@
   <sheetPr/>
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -3132,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="2:3">
@@ -3140,7 +3141,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="2:3">

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -802,6 +802,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -810,12 +816,6 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1051,13 +1051,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1204,13 +1204,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1220,6 +1220,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1230,9 +1233,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1405,9 +1405,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="黑色单元格1 2" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="黑色单元格1 2" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1460,16 +1460,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="我的标题" xfId="70"/>
-    <cellStyle name="黑色单元格2 3" xfId="71"/>
+    <cellStyle name="黑色单元格2 3" xfId="70"/>
+    <cellStyle name="我的标题" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的公式 2" xfId="78"/>
-    <cellStyle name="我的单元格2 3" xfId="79"/>
+    <cellStyle name="我的单元格2 3" xfId="78"/>
+    <cellStyle name="我的公式 2" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1794,7 +1794,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -8,14 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
-    <sheet name="card_attr_map" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
   <si>
     <t>导出类型</t>
   </si>
@@ -241,33 +240,6 @@
   </si>
   <si>
     <t>务农：回合开始阶段获得一点费用\n晋升4</t>
-  </si>
-  <si>
-    <t>tiny</t>
-  </si>
-  <si>
-    <t>cardAttrMap={</t>
-  </si>
-  <si>
-    <t>cardAttrMap.json</t>
-  </si>
-  <si>
-    <t>通用key</t>
-  </si>
-  <si>
-    <t>通用值</t>
-  </si>
-  <si>
-    <t>key</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>冲锋</t>
-  </si>
-  <si>
-    <t>举盾</t>
   </si>
 </sst>
 </file>
@@ -802,12 +774,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -816,6 +782,12 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1051,13 +1023,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1204,13 +1176,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1220,9 +1192,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1233,6 +1202,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1372,17 +1344,17 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1405,9 +1377,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="黑色单元格1 2" xfId="17"/>
+    <cellStyle name="黑色单元格1 2" xfId="15"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1460,16 +1432,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="黑色单元格2 3" xfId="70"/>
-    <cellStyle name="我的标题" xfId="71"/>
+    <cellStyle name="我的标题" xfId="70"/>
+    <cellStyle name="黑色单元格2 3" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的单元格2 3" xfId="78"/>
-    <cellStyle name="我的公式 2" xfId="79"/>
+    <cellStyle name="我的公式 2" xfId="78"/>
+    <cellStyle name="我的单元格2 3" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1794,7 +1766,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1868,7 +1840,7 @@
       <c r="E5" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="12" t="s">
+      <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
       <c r="G5" s="8" t="s">
@@ -1897,90 +1869,90 @@
       </c>
     </row>
     <row r="6" spans="1:14">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="C6" s="9" t="s">
+      <c r="C6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="E6" s="9" t="s">
+      <c r="E6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="H6" s="9" t="s">
+      <c r="H6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="I6" s="9" t="s">
+      <c r="I6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="J6" s="9" t="s">
+      <c r="J6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="K6" s="9" t="s">
+      <c r="K6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L6" s="9" t="s">
+      <c r="L6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="9" t="s">
+      <c r="M6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="N6" s="9" t="s">
+      <c r="N6" s="10" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="7" spans="1:14">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="E7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="F7" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="G7" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="10" t="s">
+      <c r="H7" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="I7" s="10" t="s">
+      <c r="I7" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="J7" s="10" t="s">
+      <c r="J7" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="K7" s="10" t="s">
+      <c r="K7" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="L7" s="10" t="s">
+      <c r="L7" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="M7" s="10" t="s">
+      <c r="M7" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N7" s="10" t="s">
+      <c r="N7" s="11" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2026,10 +1998,10 @@
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:14">
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
+      <c r="B9" s="12">
+        <v>1</v>
+      </c>
+      <c r="C9" s="12" t="s">
         <v>43</v>
       </c>
       <c r="D9">
@@ -2067,10 +2039,10 @@
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:14">
-      <c r="B10" s="11">
+      <c r="B10" s="12">
         <v>2</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="12" t="s">
         <v>45</v>
       </c>
       <c r="D10">
@@ -2106,10 +2078,10 @@
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:14">
-      <c r="B11" s="11">
+      <c r="B11" s="12">
         <v>3</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="12" t="s">
         <v>46</v>
       </c>
       <c r="D11">
@@ -2145,10 +2117,10 @@
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:14">
-      <c r="B12" s="11">
+      <c r="B12" s="12">
         <v>4</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="12" t="s">
         <v>47</v>
       </c>
       <c r="D12">
@@ -2186,10 +2158,10 @@
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:14">
-      <c r="B13" s="11">
+      <c r="B13" s="12">
         <v>5</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C13" s="12" t="s">
         <v>50</v>
       </c>
       <c r="D13">
@@ -2227,10 +2199,10 @@
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:14">
-      <c r="B14" s="11">
+      <c r="B14" s="12">
         <v>6</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="12" t="s">
         <v>53</v>
       </c>
       <c r="D14">
@@ -2268,10 +2240,10 @@
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:14">
-      <c r="B15" s="11">
+      <c r="B15" s="12">
         <v>7</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="12" t="s">
         <v>54</v>
       </c>
       <c r="D15">
@@ -2309,10 +2281,10 @@
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:14">
-      <c r="B16" s="11">
+      <c r="B16" s="12">
         <v>8</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="12" t="s">
         <v>55</v>
       </c>
       <c r="D16">
@@ -2350,10 +2322,10 @@
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:14">
-      <c r="B17" s="11">
+      <c r="B17" s="12">
         <v>9</v>
       </c>
-      <c r="C17" s="11" t="s">
+      <c r="C17" s="12" t="s">
         <v>56</v>
       </c>
       <c r="D17">
@@ -2391,10 +2363,10 @@
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:14">
-      <c r="B18" s="11">
+      <c r="B18" s="12">
         <v>10</v>
       </c>
-      <c r="C18" s="11" t="s">
+      <c r="C18" s="12" t="s">
         <v>57</v>
       </c>
       <c r="D18">
@@ -2432,10 +2404,10 @@
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:14">
-      <c r="B19" s="11">
+      <c r="B19" s="12">
         <v>11</v>
       </c>
-      <c r="C19" s="11" t="s">
+      <c r="C19" s="12" t="s">
         <v>58</v>
       </c>
       <c r="D19">
@@ -2473,10 +2445,10 @@
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:14">
-      <c r="B20" s="11">
+      <c r="B20" s="12">
         <v>12</v>
       </c>
-      <c r="C20" s="11" t="s">
+      <c r="C20" s="12" t="s">
         <v>59</v>
       </c>
       <c r="D20">
@@ -2514,10 +2486,10 @@
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:14">
-      <c r="B21" s="11">
+      <c r="B21" s="12">
         <v>13</v>
       </c>
-      <c r="C21" s="11" t="s">
+      <c r="C21" s="12" t="s">
         <v>60</v>
       </c>
       <c r="D21">
@@ -2555,10 +2527,10 @@
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:14">
-      <c r="B22" s="11">
+      <c r="B22" s="12">
         <v>14</v>
       </c>
-      <c r="C22" s="11" t="s">
+      <c r="C22" s="12" t="s">
         <v>61</v>
       </c>
       <c r="D22">
@@ -2596,10 +2568,10 @@
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:14">
-      <c r="B23" s="11">
+      <c r="B23" s="12">
         <v>15</v>
       </c>
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="12" t="s">
         <v>62</v>
       </c>
       <c r="D23">
@@ -2637,10 +2609,10 @@
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:14">
-      <c r="B24" s="11">
+      <c r="B24" s="12">
         <v>16</v>
       </c>
-      <c r="C24" s="11" t="s">
+      <c r="C24" s="12" t="s">
         <v>63</v>
       </c>
       <c r="D24">
@@ -2678,10 +2650,10 @@
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:14">
-      <c r="B25" s="11">
+      <c r="B25" s="12">
         <v>17</v>
       </c>
-      <c r="C25" s="11" t="s">
+      <c r="C25" s="12" t="s">
         <v>64</v>
       </c>
       <c r="D25">
@@ -2719,10 +2691,10 @@
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:14">
-      <c r="B26" s="11">
+      <c r="B26" s="12">
         <v>18</v>
       </c>
-      <c r="C26" s="11" t="s">
+      <c r="C26" s="12" t="s">
         <v>65</v>
       </c>
       <c r="D26">
@@ -2760,10 +2732,10 @@
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:14">
-      <c r="B27" s="11">
+      <c r="B27" s="12">
         <v>19</v>
       </c>
-      <c r="C27" s="11" t="s">
+      <c r="C27" s="12" t="s">
         <v>66</v>
       </c>
       <c r="D27">
@@ -2801,10 +2773,10 @@
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:14">
-      <c r="B28" s="11">
+      <c r="B28" s="12">
         <v>20</v>
       </c>
-      <c r="C28" s="11" t="s">
+      <c r="C28" s="12" t="s">
         <v>67</v>
       </c>
       <c r="D28">
@@ -2842,10 +2814,10 @@
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:14">
-      <c r="B29" s="11">
+      <c r="B29" s="12">
         <v>21</v>
       </c>
-      <c r="C29" s="11" t="s">
+      <c r="C29" s="12" t="s">
         <v>68</v>
       </c>
       <c r="D29">
@@ -2883,10 +2855,10 @@
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:14">
-      <c r="B30" s="11">
+      <c r="B30" s="12">
         <v>22</v>
       </c>
-      <c r="C30" s="11" t="s">
+      <c r="C30" s="12" t="s">
         <v>69</v>
       </c>
       <c r="D30">
@@ -2924,10 +2896,10 @@
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:14">
-      <c r="B31" s="11">
+      <c r="B31" s="12">
         <v>23</v>
       </c>
-      <c r="C31" s="11" t="s">
+      <c r="C31" s="12" t="s">
         <v>71</v>
       </c>
       <c r="D31">
@@ -2965,10 +2937,10 @@
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:14">
-      <c r="B32" s="11">
+      <c r="B32" s="12">
         <v>24</v>
       </c>
-      <c r="C32" s="11" t="s">
+      <c r="C32" s="12" t="s">
         <v>73</v>
       </c>
       <c r="D32">
@@ -3033,149 +3005,4 @@
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:E14"/>
-  <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="8.66666666666667" defaultRowHeight="14" outlineLevelCol="4"/>
-  <cols>
-    <col min="1" max="1" width="18.9833333333333" customWidth="1"/>
-    <col min="2" max="2" width="16.4" customWidth="1"/>
-    <col min="3" max="3" width="14.9166666666667" customWidth="1"/>
-    <col min="4" max="4" width="14.0416666666667" customWidth="1"/>
-    <col min="5" max="5" width="12.1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" s="2"/>
-      <c r="D2" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="10"/>
-    </row>
-    <row r="8" spans="2:3">
-      <c r="B8" s="11">
-        <v>0</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3">
-      <c r="B9" s="11">
-        <v>1</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3">
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-    </row>
-    <row r="11" spans="2:3">
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-    </row>
-    <row r="12" spans="2:3">
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-    </row>
-    <row r="13" spans="2:3">
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-    </row>
-    <row r="14" spans="2:3">
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-    </row>
-  </sheetData>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B5:C5 B7:C7 B6">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17810"/>
+    <workbookView windowWidth="25600" windowHeight="12210"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
   <si>
     <t>导出类型</t>
   </si>
@@ -86,6 +86,12 @@
     <t>是否是衍生卡:0不是、1是</t>
   </si>
   <si>
+    <t xml:space="preserve">使用条件
+下标0数据表示:{0:无条件,1:作用于友方,2:作用于敌方,3:作用于任意单位,4:作用于空格子}
+下标1数据表示作用者数量,有的卡可能要选择多个目标
+</t>
+  </si>
+  <si>
     <t>导出参数</t>
   </si>
   <si>
@@ -137,6 +143,9 @@
     <t>isDerivation</t>
   </si>
   <si>
+    <t>useCondition</t>
+  </si>
+  <si>
     <t>硬币</t>
   </si>
   <si>
@@ -146,6 +155,9 @@
     <t>[]</t>
   </si>
   <si>
+    <t>[0]</t>
+  </si>
+  <si>
     <t>安度因</t>
   </si>
   <si>
@@ -173,13 +185,19 @@
     <t>务农：回合开始阶段获得一点费用</t>
   </si>
   <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>农夫5</t>
-  </si>
-  <si>
-    <t>农夫6</t>
+    <t>魔法神箭</t>
+  </si>
+  <si>
+    <t>对一个单位造成两点伤害</t>
+  </si>
+  <si>
+    <t>[2,1]</t>
+  </si>
+  <si>
+    <t>单位反制</t>
+  </si>
+  <si>
+    <t>反制一张建筑卡牌或者单位卡牌</t>
   </si>
   <si>
     <t>农夫7</t>
@@ -774,6 +792,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -782,12 +806,6 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1023,13 +1041,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1176,13 +1194,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1192,6 +1210,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1202,9 +1223,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1377,9 +1395,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="黑色单元格1 2" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="黑色单元格1 2" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1432,16 +1450,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="我的标题" xfId="70"/>
-    <cellStyle name="黑色单元格2 3" xfId="71"/>
+    <cellStyle name="黑色单元格2 3" xfId="70"/>
+    <cellStyle name="我的标题" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的公式 2" xfId="78"/>
-    <cellStyle name="我的单元格2 3" xfId="79"/>
+    <cellStyle name="我的单元格2 3" xfId="78"/>
+    <cellStyle name="我的公式 2" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1763,10 +1781,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N33"/>
+  <dimension ref="A1:O33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1780,7 +1798,8 @@
     <col min="11" max="11" width="17.25" customWidth="1"/>
     <col min="12" max="12" width="17.3333333333333" customWidth="1"/>
     <col min="13" max="13" width="38.9166666666667" customWidth="1"/>
-    <col min="14" max="14" width="39.0833333333333" customWidth="1"/>
+    <col min="14" max="14" width="18.0333333333333" customWidth="1"/>
+    <col min="15" max="15" width="10.2916666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1824,7 +1843,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:14">
+    <row r="5" ht="57" customHeight="1" spans="1:15">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1867,101 +1886,110 @@
       <c r="N5" s="8" t="s">
         <v>22</v>
       </c>
+      <c r="O5" s="9" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:15">
       <c r="A6" s="10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>24</v>
-      </c>
       <c r="N6" s="10" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:15">
       <c r="A7" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:14">
+    <row r="8" customHeight="1" spans="2:15">
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -1988,21 +2016,24 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
+      <c r="O8" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="9" customHeight="1" spans="2:14">
+    <row r="9" customHeight="1" spans="2:15">
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2029,21 +2060,24 @@
         <v>1</v>
       </c>
       <c r="L9" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M9" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N9">
         <v>0</v>
       </c>
+      <c r="O9" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="10" customHeight="1" spans="2:14">
+    <row r="10" customHeight="1" spans="2:15">
       <c r="B10" s="12">
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2071,18 +2105,21 @@
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
+      <c r="O10" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="11" customHeight="1" spans="2:14">
+    <row r="11" customHeight="1" spans="2:15">
       <c r="B11" s="12">
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2110,18 +2147,21 @@
       </c>
       <c r="L11" s="14"/>
       <c r="M11" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
+      <c r="O11" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="12" customHeight="1" spans="2:14">
+    <row r="12" customHeight="1" spans="2:15">
       <c r="B12" s="12">
         <v>4</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2148,21 +2188,24 @@
         <v>1</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="M12" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
+      <c r="O12" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="13" customHeight="1" spans="2:14">
+    <row r="13" customHeight="1" spans="2:15">
       <c r="B13" s="12">
         <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2189,33 +2232,36 @@
         <v>0</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
+      <c r="O13" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="14" customHeight="1" spans="2:14">
+    <row r="14" customHeight="1" spans="2:15">
       <c r="B14" s="12">
         <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -2224,33 +2270,36 @@
         <v>3</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L14" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="M14" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M14" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N14">
         <v>0</v>
       </c>
+      <c r="O14" t="s">
+        <v>57</v>
+      </c>
     </row>
-    <row r="15" customHeight="1" spans="2:14">
+    <row r="15" customHeight="1" spans="2:15">
       <c r="B15" s="12">
         <v>7</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15">
         <v>1</v>
@@ -2262,30 +2311,33 @@
         <v>1</v>
       </c>
       <c r="I15">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="J15">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="K15">
         <v>2</v>
       </c>
       <c r="L15" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M15" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M15" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N15">
         <v>0</v>
       </c>
+      <c r="O15" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="16" customHeight="1" spans="2:14">
+    <row r="16" customHeight="1" spans="2:15">
       <c r="B16" s="12">
         <v>8</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2312,21 +2364,24 @@
         <v>0</v>
       </c>
       <c r="L16" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M16" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M16" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N16">
         <v>0</v>
       </c>
+      <c r="O16" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="17" customHeight="1" spans="2:14">
+    <row r="17" customHeight="1" spans="2:15">
       <c r="B17" s="12">
         <v>9</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2353,21 +2408,24 @@
         <v>0</v>
       </c>
       <c r="L17" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M17" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M17" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N17">
         <v>0</v>
       </c>
+      <c r="O17" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="18" customHeight="1" spans="2:14">
+    <row r="18" customHeight="1" spans="2:15">
       <c r="B18" s="12">
         <v>10</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2394,21 +2452,24 @@
         <v>1</v>
       </c>
       <c r="L18" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M18" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M18" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N18">
         <v>0</v>
       </c>
+      <c r="O18" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="19" customHeight="1" spans="2:14">
+    <row r="19" customHeight="1" spans="2:15">
       <c r="B19" s="12">
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2435,21 +2496,24 @@
         <v>2</v>
       </c>
       <c r="L19" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M19" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M19" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N19">
         <v>0</v>
       </c>
+      <c r="O19" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="20" customHeight="1" spans="2:14">
+    <row r="20" customHeight="1" spans="2:15">
       <c r="B20" s="12">
         <v>12</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2476,21 +2540,24 @@
         <v>3</v>
       </c>
       <c r="L20" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M20" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M20" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N20">
         <v>0</v>
       </c>
+      <c r="O20" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="21" customHeight="1" spans="2:14">
+    <row r="21" customHeight="1" spans="2:15">
       <c r="B21" s="12">
         <v>13</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2517,21 +2584,24 @@
         <v>0</v>
       </c>
       <c r="L21" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M21" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M21" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N21">
         <v>0</v>
       </c>
+      <c r="O21" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="22" customHeight="1" spans="2:14">
+    <row r="22" customHeight="1" spans="2:15">
       <c r="B22" s="12">
         <v>14</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -2558,21 +2628,24 @@
         <v>1</v>
       </c>
       <c r="L22" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M22" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M22" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N22">
         <v>0</v>
       </c>
+      <c r="O22" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="23" customHeight="1" spans="2:14">
+    <row r="23" customHeight="1" spans="2:15">
       <c r="B23" s="12">
         <v>15</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2599,21 +2672,24 @@
         <v>3</v>
       </c>
       <c r="L23" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M23" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M23" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N23">
         <v>0</v>
       </c>
+      <c r="O23" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="24" customHeight="1" spans="2:14">
+    <row r="24" customHeight="1" spans="2:15">
       <c r="B24" s="12">
         <v>16</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -2640,21 +2716,24 @@
         <v>2</v>
       </c>
       <c r="L24" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M24" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M24" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N24">
         <v>0</v>
       </c>
+      <c r="O24" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="25" customHeight="1" spans="2:14">
+    <row r="25" customHeight="1" spans="2:15">
       <c r="B25" s="12">
         <v>17</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2681,21 +2760,24 @@
         <v>0</v>
       </c>
       <c r="L25" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M25" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M25" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N25">
         <v>0</v>
       </c>
+      <c r="O25" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="26" customHeight="1" spans="2:14">
+    <row r="26" customHeight="1" spans="2:15">
       <c r="B26" s="12">
         <v>18</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2722,21 +2804,24 @@
         <v>1</v>
       </c>
       <c r="L26" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M26" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M26" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N26">
         <v>0</v>
       </c>
+      <c r="O26" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="27" customHeight="1" spans="2:14">
+    <row r="27" customHeight="1" spans="2:15">
       <c r="B27" s="12">
         <v>19</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2763,21 +2848,24 @@
         <v>1</v>
       </c>
       <c r="L27" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M27" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M27" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N27">
         <v>0</v>
       </c>
+      <c r="O27" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="28" customHeight="1" spans="2:14">
+    <row r="28" customHeight="1" spans="2:15">
       <c r="B28" s="12">
         <v>20</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2804,21 +2892,24 @@
         <v>1</v>
       </c>
       <c r="L28" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M28" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M28" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N28">
         <v>0</v>
       </c>
+      <c r="O28" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="29" customHeight="1" spans="2:14">
+    <row r="29" customHeight="1" spans="2:15">
       <c r="B29" s="12">
         <v>21</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2845,21 +2936,24 @@
         <v>1</v>
       </c>
       <c r="L29" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="M29" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="M29" s="13" t="s">
-        <v>42</v>
-      </c>
       <c r="N29">
         <v>0</v>
       </c>
+      <c r="O29" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="30" customHeight="1" spans="2:14">
+    <row r="30" customHeight="1" spans="2:15">
       <c r="B30" s="12">
         <v>22</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2886,21 +2980,24 @@
         <v>1</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
+      <c r="O30" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="31" customHeight="1" spans="2:14">
+    <row r="31" customHeight="1" spans="2:15">
       <c r="B31" s="12">
         <v>23</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -2927,21 +3024,24 @@
         <v>1</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
+      <c r="O31" t="s">
+        <v>45</v>
+      </c>
     </row>
-    <row r="32" customHeight="1" spans="2:14">
+    <row r="32" customHeight="1" spans="2:15">
       <c r="B32" s="12">
         <v>24</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -2968,38 +3068,49 @@
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N32">
         <v>0</v>
+      </c>
+      <c r="O32" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="33" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
     <cfRule type="duplicateValues" dxfId="0" priority="12"/>
     <cfRule type="duplicateValues" dxfId="1" priority="11"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
+  <conditionalFormatting sqref="O7">
     <cfRule type="duplicateValues" dxfId="0" priority="2"/>
     <cfRule type="duplicateValues" dxfId="1" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:L5 B7:M7">
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="68"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="84">
   <si>
     <t>导出类型</t>
   </si>
@@ -87,11 +87,17 @@
   </si>
   <si>
     <t xml:space="preserve">使用条件
-下标0数据表示:{0:无条件,1:作用于友方,2:作用于敌方,3:作用于任意单位,4:作用于空格子}
-下标1数据表示作用者数量,有的卡可能要选择多个目标
+下标0数据表示:{0:无条件,1:友方单位,2:友方建筑,3:敌方单位,4:敌方建筑,5:所有单位,6:所有建筑,7:友方地图实体,8:敌方地图实体,9:所有地图实体,10:空格子}
+下标1数据表示作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
   </si>
   <si>
+    <t>特效id</t>
+  </si>
+  <si>
+    <t>音效id</t>
+  </si>
+  <si>
     <t>导出参数</t>
   </si>
   <si>
@@ -146,6 +152,12 @@
     <t>useCondition</t>
   </si>
   <si>
+    <t>effectId</t>
+  </si>
+  <si>
+    <t>soundId</t>
+  </si>
+  <si>
     <t>硬币</t>
   </si>
   <si>
@@ -191,7 +203,7 @@
     <t>对一个单位造成两点伤害</t>
   </si>
   <si>
-    <t>[2,1]</t>
+    <t>[8,1]</t>
   </si>
   <si>
     <t>单位反制</t>
@@ -792,12 +804,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -806,6 +812,12 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1041,13 +1053,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1194,13 +1206,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1210,9 +1222,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1223,6 +1232,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1395,9 +1407,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="黑色单元格1 2" xfId="17"/>
+    <cellStyle name="黑色单元格1 2" xfId="15"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1450,16 +1462,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="黑色单元格2 3" xfId="70"/>
-    <cellStyle name="我的标题" xfId="71"/>
+    <cellStyle name="我的标题" xfId="70"/>
+    <cellStyle name="黑色单元格2 3" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的单元格2 3" xfId="78"/>
-    <cellStyle name="我的公式 2" xfId="79"/>
+    <cellStyle name="我的公式 2" xfId="78"/>
+    <cellStyle name="我的单元格2 3" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1781,24 +1793,24 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O33"/>
+  <dimension ref="A1:Q33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="3" max="3" width="16.3333333333333" customWidth="1"/>
-    <col min="4" max="4" width="8.08333333333333" customWidth="1"/>
+    <col min="4" max="4" width="17.35" customWidth="1"/>
     <col min="5" max="5" width="33.8333333333333" customWidth="1"/>
     <col min="6" max="6" width="13.5833333333333" customWidth="1"/>
     <col min="7" max="7" width="6" customWidth="1"/>
     <col min="8" max="8" width="15.9166666666667" customWidth="1"/>
     <col min="11" max="11" width="17.25" customWidth="1"/>
     <col min="12" max="12" width="17.3333333333333" customWidth="1"/>
-    <col min="13" max="13" width="38.9166666666667" customWidth="1"/>
-    <col min="14" max="14" width="18.0333333333333" customWidth="1"/>
+    <col min="13" max="13" width="11.6666666666667" customWidth="1"/>
+    <col min="14" max="14" width="17.5416666666667" customWidth="1"/>
     <col min="15" max="15" width="10.2916666666667" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1843,7 +1855,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:15">
+    <row r="5" ht="57" customHeight="1" spans="1:17">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1889,99 +1901,117 @@
       <c r="O5" s="9" t="s">
         <v>23</v>
       </c>
+      <c r="P5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="8" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:17">
       <c r="A6" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q6" s="10" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:17">
       <c r="A7" s="10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
+      </c>
+      <c r="P7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" customHeight="1" spans="2:15">
@@ -1989,7 +2019,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2016,16 +2046,16 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:15">
@@ -2033,7 +2063,7 @@
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2060,16 +2090,16 @@
         <v>1</v>
       </c>
       <c r="L9" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M9" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:15">
@@ -2077,7 +2107,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2105,21 +2135,21 @@
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:15">
+    <row r="11" customHeight="1" spans="2:16">
       <c r="B11" s="12">
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2147,13 +2177,16 @@
       </c>
       <c r="L11" s="14"/>
       <c r="M11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="P11">
+        <v>1</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:15">
@@ -2161,7 +2194,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2188,24 +2221,24 @@
         <v>1</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="M12" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="2:15">
+    <row r="13" customHeight="1" spans="2:16">
       <c r="B13" s="12">
         <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2232,24 +2265,27 @@
         <v>0</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>45</v>
+        <v>49</v>
+      </c>
+      <c r="P13">
+        <v>2</v>
       </c>
     </row>
-    <row r="14" customHeight="1" spans="2:15">
+    <row r="14" customHeight="1" spans="2:16">
       <c r="B14" s="12">
         <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2276,16 +2312,19 @@
         <v>0</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>57</v>
+        <v>61</v>
+      </c>
+      <c r="P14">
+        <v>3</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:15">
@@ -2293,7 +2332,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2320,16 +2359,16 @@
         <v>2</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:15">
@@ -2337,7 +2376,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2364,16 +2403,16 @@
         <v>0</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:15">
@@ -2381,7 +2420,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2408,16 +2447,16 @@
         <v>0</v>
       </c>
       <c r="L17" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M17" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:15">
@@ -2425,7 +2464,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2452,16 +2491,16 @@
         <v>1</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:15">
@@ -2469,7 +2508,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2496,16 +2535,16 @@
         <v>2</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M19" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:15">
@@ -2513,7 +2552,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2540,16 +2579,16 @@
         <v>3</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M20" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:15">
@@ -2557,7 +2596,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2584,16 +2623,16 @@
         <v>0</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M21" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:15">
@@ -2601,7 +2640,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -2628,16 +2667,16 @@
         <v>1</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M22" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:15">
@@ -2645,7 +2684,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2672,16 +2711,16 @@
         <v>3</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M23" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:15">
@@ -2689,7 +2728,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -2716,16 +2755,16 @@
         <v>2</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M24" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:15">
@@ -2733,7 +2772,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2760,16 +2799,16 @@
         <v>0</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M25" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:15">
@@ -2777,7 +2816,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2804,16 +2843,16 @@
         <v>1</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M26" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N26">
         <v>0</v>
       </c>
       <c r="O26" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:15">
@@ -2821,7 +2860,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2848,16 +2887,16 @@
         <v>1</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M27" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N27">
         <v>0</v>
       </c>
       <c r="O27" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:15">
@@ -2865,7 +2904,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2892,16 +2931,16 @@
         <v>1</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M28" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N28">
         <v>0</v>
       </c>
       <c r="O28" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:15">
@@ -2909,7 +2948,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2936,16 +2975,16 @@
         <v>1</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="M29" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N29">
         <v>0</v>
       </c>
       <c r="O29" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:15">
@@ -2953,7 +2992,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -2980,16 +3019,16 @@
         <v>1</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:15">
@@ -2997,7 +3036,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3024,16 +3063,16 @@
         <v>1</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:15">
@@ -3041,7 +3080,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3068,49 +3107,57 @@
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="0" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
     <cfRule type="duplicateValues" dxfId="0" priority="16"/>
     <cfRule type="duplicateValues" dxfId="1" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
+  <conditionalFormatting sqref="O7">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
     <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:L5 B7:M7">
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="72"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
   <si>
     <t>导出类型</t>
   </si>
@@ -174,6 +174,9 @@
   </si>
   <si>
     <t>务农：回合开始阶段获得一点费用\n晋升1</t>
+  </si>
+  <si>
+    <t>[10]</t>
   </si>
   <si>
     <t>小兵</t>
@@ -1796,7 +1799,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K39" sqref="K39"/>
+      <selection activeCell="Q21" sqref="Q21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2014,7 +2017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="8" customHeight="1" spans="2:15">
+    <row r="8" customHeight="1" spans="2:17">
       <c r="B8">
         <v>0</v>
       </c>
@@ -2057,8 +2060,14 @@
       <c r="O8" t="s">
         <v>49</v>
       </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" customHeight="1" spans="2:15">
+    <row r="9" customHeight="1" spans="2:17">
       <c r="B9" s="12">
         <v>1</v>
       </c>
@@ -2099,15 +2108,21 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
       </c>
     </row>
-    <row r="10" customHeight="1" spans="2:15">
+    <row r="10" customHeight="1" spans="2:17">
       <c r="B10" s="12">
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2141,15 +2156,21 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
       </c>
     </row>
-    <row r="11" customHeight="1" spans="2:16">
+    <row r="11" customHeight="1" spans="2:17">
       <c r="B11" s="12">
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2183,18 +2204,21 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P11">
         <v>1</v>
       </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" customHeight="1" spans="2:15">
+    <row r="12" customHeight="1" spans="2:17">
       <c r="B12" s="12">
         <v>4</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2221,24 +2245,30 @@
         <v>1</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>49</v>
+        <v>52</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
       </c>
     </row>
-    <row r="13" customHeight="1" spans="2:16">
+    <row r="13" customHeight="1" spans="2:17">
       <c r="B13" s="12">
         <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2265,7 +2295,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>49</v>
@@ -2274,18 +2304,21 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="P13">
         <v>2</v>
       </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
     </row>
-    <row r="14" customHeight="1" spans="2:16">
+    <row r="14" customHeight="1" spans="2:17">
       <c r="B14" s="12">
         <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2312,7 +2345,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>48</v>
@@ -2321,18 +2354,21 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P14">
         <v>3</v>
       </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
     </row>
-    <row r="15" customHeight="1" spans="2:15">
+    <row r="15" customHeight="1" spans="2:17">
       <c r="B15" s="12">
         <v>7</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2359,7 +2395,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>48</v>
@@ -2370,13 +2406,19 @@
       <c r="O15" t="s">
         <v>49</v>
       </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" customHeight="1" spans="2:15">
+    <row r="16" customHeight="1" spans="2:17">
       <c r="B16" s="12">
         <v>8</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -2414,13 +2456,19 @@
       <c r="O16" t="s">
         <v>49</v>
       </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
     </row>
-    <row r="17" customHeight="1" spans="2:15">
+    <row r="17" customHeight="1" spans="2:17">
       <c r="B17" s="12">
         <v>9</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2458,13 +2506,19 @@
       <c r="O17" t="s">
         <v>49</v>
       </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
     </row>
-    <row r="18" customHeight="1" spans="2:15">
+    <row r="18" customHeight="1" spans="2:17">
       <c r="B18" s="12">
         <v>10</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2502,13 +2556,19 @@
       <c r="O18" t="s">
         <v>49</v>
       </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
     </row>
-    <row r="19" customHeight="1" spans="2:15">
+    <row r="19" customHeight="1" spans="2:17">
       <c r="B19" s="12">
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2546,13 +2606,19 @@
       <c r="O19" t="s">
         <v>49</v>
       </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
     </row>
-    <row r="20" customHeight="1" spans="2:15">
+    <row r="20" customHeight="1" spans="2:17">
       <c r="B20" s="12">
         <v>12</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2590,13 +2656,19 @@
       <c r="O20" t="s">
         <v>49</v>
       </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
     </row>
-    <row r="21" customHeight="1" spans="2:15">
+    <row r="21" customHeight="1" spans="2:17">
       <c r="B21" s="12">
         <v>13</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2634,13 +2706,19 @@
       <c r="O21" t="s">
         <v>49</v>
       </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
     </row>
-    <row r="22" customHeight="1" spans="2:15">
+    <row r="22" customHeight="1" spans="2:17">
       <c r="B22" s="12">
         <v>14</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -2678,13 +2756,19 @@
       <c r="O22" t="s">
         <v>49</v>
       </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" customHeight="1" spans="2:15">
+    <row r="23" customHeight="1" spans="2:17">
       <c r="B23" s="12">
         <v>15</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2722,13 +2806,19 @@
       <c r="O23" t="s">
         <v>49</v>
       </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
     </row>
-    <row r="24" customHeight="1" spans="2:15">
+    <row r="24" customHeight="1" spans="2:17">
       <c r="B24" s="12">
         <v>16</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -2766,13 +2856,19 @@
       <c r="O24" t="s">
         <v>49</v>
       </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
     </row>
-    <row r="25" customHeight="1" spans="2:15">
+    <row r="25" customHeight="1" spans="2:17">
       <c r="B25" s="12">
         <v>17</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2810,13 +2906,19 @@
       <c r="O25" t="s">
         <v>49</v>
       </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
+      </c>
     </row>
-    <row r="26" customHeight="1" spans="2:15">
+    <row r="26" customHeight="1" spans="2:17">
       <c r="B26" s="12">
         <v>18</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2854,13 +2956,19 @@
       <c r="O26" t="s">
         <v>49</v>
       </c>
+      <c r="P26">
+        <v>0</v>
+      </c>
+      <c r="Q26">
+        <v>0</v>
+      </c>
     </row>
-    <row r="27" customHeight="1" spans="2:15">
+    <row r="27" customHeight="1" spans="2:17">
       <c r="B27" s="12">
         <v>19</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -2898,13 +3006,19 @@
       <c r="O27" t="s">
         <v>49</v>
       </c>
+      <c r="P27">
+        <v>0</v>
+      </c>
+      <c r="Q27">
+        <v>0</v>
+      </c>
     </row>
-    <row r="28" customHeight="1" spans="2:15">
+    <row r="28" customHeight="1" spans="2:17">
       <c r="B28" s="12">
         <v>20</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -2942,13 +3056,19 @@
       <c r="O28" t="s">
         <v>49</v>
       </c>
+      <c r="P28">
+        <v>0</v>
+      </c>
+      <c r="Q28">
+        <v>0</v>
+      </c>
     </row>
-    <row r="29" customHeight="1" spans="2:15">
+    <row r="29" customHeight="1" spans="2:17">
       <c r="B29" s="12">
         <v>21</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -2986,13 +3106,19 @@
       <c r="O29" t="s">
         <v>49</v>
       </c>
+      <c r="P29">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>0</v>
+      </c>
     </row>
-    <row r="30" customHeight="1" spans="2:15">
+    <row r="30" customHeight="1" spans="2:17">
       <c r="B30" s="12">
         <v>22</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3019,7 +3145,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>48</v>
@@ -3030,13 +3156,19 @@
       <c r="O30" t="s">
         <v>49</v>
       </c>
+      <c r="P30">
+        <v>0</v>
+      </c>
+      <c r="Q30">
+        <v>0</v>
+      </c>
     </row>
-    <row r="31" customHeight="1" spans="2:15">
+    <row r="31" customHeight="1" spans="2:17">
       <c r="B31" s="12">
         <v>23</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3063,7 +3195,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>48</v>
@@ -3074,13 +3206,19 @@
       <c r="O31" t="s">
         <v>49</v>
       </c>
+      <c r="P31">
+        <v>0</v>
+      </c>
+      <c r="Q31">
+        <v>0</v>
+      </c>
     </row>
-    <row r="32" customHeight="1" spans="2:15">
+    <row r="32" customHeight="1" spans="2:17">
       <c r="B32" s="12">
         <v>24</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3107,7 +3245,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M32" s="13" t="s">
         <v>48</v>
@@ -3117,6 +3255,12 @@
       </c>
       <c r="O32" t="s">
         <v>49</v>
+      </c>
+      <c r="P32">
+        <v>0</v>
+      </c>
+      <c r="Q32">
+        <v>0</v>
       </c>
     </row>
     <row r="33" customHeight="1"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
   <si>
     <t>导出类型</t>
   </si>
@@ -176,9 +176,6 @@
     <t>务农：回合开始阶段获得一点费用\n晋升1</t>
   </si>
   <si>
-    <t>[10]</t>
-  </si>
-  <si>
     <t>小兵</t>
   </si>
   <si>
@@ -215,7 +212,13 @@
     <t>反制一张建筑卡牌或者单位卡牌</t>
   </si>
   <si>
-    <t>农夫7</t>
+    <t>巫师学徒</t>
+  </si>
+  <si>
+    <t>部署：对一个单位造成一点伤害</t>
+  </si>
+  <si>
+    <t>[9,1]</t>
   </si>
   <si>
     <t>农夫8</t>
@@ -807,6 +810,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -815,12 +824,6 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1056,13 +1059,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1209,13 +1212,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1225,6 +1228,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1235,9 +1241,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1410,9 +1413,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="黑色单元格1 2" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="黑色单元格1 2" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1465,16 +1468,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="我的标题" xfId="70"/>
-    <cellStyle name="黑色单元格2 3" xfId="71"/>
+    <cellStyle name="黑色单元格2 3" xfId="70"/>
+    <cellStyle name="我的标题" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的公式 2" xfId="78"/>
-    <cellStyle name="我的单元格2 3" xfId="79"/>
+    <cellStyle name="我的单元格2 3" xfId="78"/>
+    <cellStyle name="我的公式 2" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1799,7 +1802,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="Q21" sqref="Q21"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2108,7 +2111,7 @@
         <v>0</v>
       </c>
       <c r="O9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P9">
         <v>0</v>
@@ -2122,7 +2125,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2156,7 +2159,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2170,7 +2173,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2204,7 +2207,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P11">
         <v>1</v>
@@ -2218,7 +2221,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2245,16 +2248,16 @@
         <v>1</v>
       </c>
       <c r="L12" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" t="s">
         <v>56</v>
       </c>
-      <c r="M12" t="s">
-        <v>57</v>
-      </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2268,7 +2271,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2295,7 +2298,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="M13" s="13" t="s">
         <v>49</v>
@@ -2304,7 +2307,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -2318,7 +2321,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2345,7 +2348,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>48</v>
@@ -2354,7 +2357,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="P14">
         <v>3</v>
@@ -2368,7 +2371,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2395,7 +2398,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>48</v>
@@ -2418,34 +2421,34 @@
         <v>8</v>
       </c>
       <c r="C16" s="12" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2</v>
+      </c>
+      <c r="H16">
+        <v>1</v>
+      </c>
+      <c r="I16">
+        <v>2</v>
+      </c>
+      <c r="J16">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
+      <c r="L16" s="14" t="s">
         <v>65</v>
-      </c>
-      <c r="D16">
-        <v>0</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16">
-        <v>7</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16">
-        <v>3</v>
-      </c>
-      <c r="J16">
-        <v>8</v>
-      </c>
-      <c r="K16">
-        <v>0</v>
-      </c>
-      <c r="L16" s="14" t="s">
-        <v>51</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>48</v>
@@ -2454,7 +2457,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -2468,7 +2471,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -2518,7 +2521,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2568,7 +2571,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2618,7 +2621,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2668,7 +2671,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2718,7 +2721,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -2768,7 +2771,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2818,7 +2821,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -2868,7 +2871,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2918,7 +2921,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2968,7 +2971,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3018,7 +3021,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3068,7 +3071,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3118,7 +3121,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3145,7 +3148,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>48</v>
@@ -3168,7 +3171,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3195,7 +3198,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>48</v>
@@ -3218,7 +3221,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3245,7 +3248,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M32" s="13" t="s">
         <v>48</v>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -810,12 +810,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -824,6 +818,12 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1059,13 +1059,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1212,13 +1212,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1228,9 +1228,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1241,6 +1238,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1413,9 +1413,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="黑色单元格1 2" xfId="17"/>
+    <cellStyle name="黑色单元格1 2" xfId="15"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1468,16 +1468,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="黑色单元格2 3" xfId="70"/>
-    <cellStyle name="我的标题" xfId="71"/>
+    <cellStyle name="我的标题" xfId="70"/>
+    <cellStyle name="黑色单元格2 3" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的单元格2 3" xfId="78"/>
-    <cellStyle name="我的公式 2" xfId="79"/>
+    <cellStyle name="我的公式 2" xfId="78"/>
+    <cellStyle name="我的单元格2 3" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1802,7 +1802,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="P20" sqref="P20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2064,10 +2064,10 @@
         <v>49</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q8">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="2:17">
@@ -2114,10 +2114,10 @@
         <v>49</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="10" customHeight="1" spans="2:17">
@@ -2162,10 +2162,10 @@
         <v>49</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="2:17">
@@ -2210,10 +2210,10 @@
         <v>49</v>
       </c>
       <c r="P11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="12" customHeight="1" spans="2:17">
@@ -2260,10 +2260,10 @@
         <v>49</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="13" customHeight="1" spans="2:17">
@@ -2313,7 +2313,7 @@
         <v>2</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:17">
@@ -2360,10 +2360,10 @@
         <v>61</v>
       </c>
       <c r="P14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q14">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="15" customHeight="1" spans="2:17">
@@ -2410,10 +2410,10 @@
         <v>49</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q15">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="16" customHeight="1" spans="2:17">
@@ -2460,10 +2460,10 @@
         <v>66</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:17">
@@ -2510,10 +2510,10 @@
         <v>49</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q17">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="18" customHeight="1" spans="2:17">
@@ -2560,10 +2560,10 @@
         <v>49</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="2:17">
@@ -2610,10 +2610,10 @@
         <v>49</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="20" customHeight="1" spans="2:17">
@@ -2660,10 +2660,10 @@
         <v>49</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q20">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="21" customHeight="1" spans="2:17">
@@ -2710,10 +2710,10 @@
         <v>49</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q21">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="22" customHeight="1" spans="2:17">
@@ -2760,10 +2760,10 @@
         <v>49</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q22">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="23" customHeight="1" spans="2:17">
@@ -2810,10 +2810,10 @@
         <v>49</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="24" customHeight="1" spans="2:17">
@@ -2860,10 +2860,10 @@
         <v>49</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q24">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="25" customHeight="1" spans="2:17">
@@ -2910,10 +2910,10 @@
         <v>49</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="26" customHeight="1" spans="2:17">
@@ -2960,10 +2960,10 @@
         <v>49</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="27" customHeight="1" spans="2:17">
@@ -3010,10 +3010,10 @@
         <v>49</v>
       </c>
       <c r="P27">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q27">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="28" customHeight="1" spans="2:17">
@@ -3060,10 +3060,10 @@
         <v>49</v>
       </c>
       <c r="P28">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q28">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="29" customHeight="1" spans="2:17">
@@ -3110,10 +3110,10 @@
         <v>49</v>
       </c>
       <c r="P29">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q29">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="30" customHeight="1" spans="2:17">
@@ -3160,10 +3160,10 @@
         <v>49</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="31" customHeight="1" spans="2:17">
@@ -3210,10 +3210,10 @@
         <v>49</v>
       </c>
       <c r="P31">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q31">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="32" customHeight="1" spans="2:17">
@@ -3260,10 +3260,10 @@
         <v>49</v>
       </c>
       <c r="P32">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="Q32">
-        <v>0</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="33" customHeight="1"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -65,7 +65,8 @@
     <t>攻击力</t>
   </si>
   <si>
-    <t>攻击类型(0近战,1远程)</t>
+    <t>攻击类型(0近战,1远程)
+事件类型(0公共,1秘密)</t>
   </si>
   <si>
     <t>生命值</t>
@@ -1802,7 +1803,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="P20" sqref="P20"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1883,7 +1884,7 @@
       <c r="G5" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -2460,7 +2461,7 @@
         <v>66</v>
       </c>
       <c r="P16">
-        <v>-1</v>
+        <v>3</v>
       </c>
       <c r="Q16">
         <v>-1</v>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -811,6 +811,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -819,12 +825,6 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1060,13 +1060,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1213,13 +1213,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1229,6 +1229,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1239,9 +1242,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1414,9 +1414,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="黑色单元格1 2" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="黑色单元格1 2" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1469,16 +1469,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="我的标题" xfId="70"/>
-    <cellStyle name="黑色单元格2 3" xfId="71"/>
+    <cellStyle name="黑色单元格2 3" xfId="70"/>
+    <cellStyle name="我的标题" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的公式 2" xfId="78"/>
-    <cellStyle name="我的单元格2 3" xfId="79"/>
+    <cellStyle name="我的单元格2 3" xfId="78"/>
+    <cellStyle name="我的公式 2" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1803,7 +1803,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="N15" sqref="N15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -66,7 +66,8 @@
   </si>
   <si>
     <t>攻击类型(0近战,1远程)
-事件类型(0公共,1秘密)</t>
+事件类型(0公共,1秘密)
+建筑类型(0出兵建筑,1待定)</t>
   </si>
   <si>
     <t>生命值</t>
@@ -129,7 +130,7 @@
     <t>attack</t>
   </si>
   <si>
-    <t>atkType</t>
+    <t>detailType</t>
   </si>
   <si>
     <t>health</t>
@@ -1803,7 +1804,7 @@
   <dimension ref="A1:Q33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N15" sqref="N15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
   <si>
     <t>导出类型</t>
   </si>
@@ -60,14 +60,14 @@
   <si>
     <t>根据卡牌类型决定type2的作用，
 如果是单位，那么type2=种族…</t>
-  </si>
-  <si>
-    <t>攻击力</t>
   </si>
   <si>
     <t>攻击类型(0近战,1远程)
 事件类型(0公共,1秘密)
 建筑类型(0出兵建筑,1待定)</t>
+  </si>
+  <si>
+    <t>攻击力</t>
   </si>
   <si>
     <t>生命值</t>
@@ -127,12 +127,12 @@
     <t>type2</t>
   </si>
   <si>
+    <t>detailType</t>
+  </si>
+  <si>
     <t>attack</t>
   </si>
   <si>
-    <t>detailType</t>
-  </si>
-  <si>
     <t>health</t>
   </si>
   <si>
@@ -223,7 +223,7 @@
     <t>[9,1]</t>
   </si>
   <si>
-    <t>农夫8</t>
+    <t>兵营</t>
   </si>
   <si>
     <t>农夫9</t>
@@ -812,12 +812,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -826,6 +820,12 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1061,13 +1061,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1214,13 +1214,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1230,9 +1230,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1243,6 +1240,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1415,9 +1415,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="黑色单元格1 2" xfId="17"/>
+    <cellStyle name="黑色单元格1 2" xfId="15"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1470,16 +1470,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="黑色单元格2 3" xfId="70"/>
-    <cellStyle name="我的标题" xfId="71"/>
+    <cellStyle name="我的标题" xfId="70"/>
+    <cellStyle name="黑色单元格2 3" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的单元格2 3" xfId="78"/>
-    <cellStyle name="我的公式 2" xfId="79"/>
+    <cellStyle name="我的公式 2" xfId="78"/>
+    <cellStyle name="我的单元格2 3" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1801,10 +1801,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:Q33"/>
+  <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1813,7 +1813,7 @@
     <col min="4" max="4" width="17.35" customWidth="1"/>
     <col min="5" max="5" width="33.8333333333333" customWidth="1"/>
     <col min="6" max="6" width="13.5833333333333" customWidth="1"/>
-    <col min="7" max="7" width="6" customWidth="1"/>
+    <col min="7" max="7" width="14.2083333333333" customWidth="1"/>
     <col min="8" max="8" width="15.9166666666667" customWidth="1"/>
     <col min="11" max="11" width="17.25" customWidth="1"/>
     <col min="12" max="12" width="17.3333333333333" customWidth="1"/>
@@ -1882,10 +1882,10 @@
       <c r="F5" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="8" t="s">
+      <c r="G5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="H5" s="9" t="s">
+      <c r="H5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="I5" s="8" t="s">
@@ -1969,7 +1969,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:17">
+    <row r="7" spans="1:18">
       <c r="A7" s="10" t="s">
         <v>29</v>
       </c>
@@ -2021,6 +2021,7 @@
       <c r="Q7" t="s">
         <v>45</v>
       </c>
+      <c r="R7" s="11"/>
     </row>
     <row r="8" customHeight="1" spans="2:17">
       <c r="B8">
@@ -2089,10 +2090,10 @@
         <v>1</v>
       </c>
       <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
         <v>4</v>
-      </c>
-      <c r="H9">
-        <v>0</v>
       </c>
       <c r="I9">
         <v>10</v>
@@ -2139,10 +2140,10 @@
         <v>1</v>
       </c>
       <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
         <v>2</v>
-      </c>
-      <c r="H10">
-        <v>0</v>
       </c>
       <c r="I10">
         <v>4</v>
@@ -2235,10 +2236,10 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12">
         <v>4</v>
@@ -2285,10 +2286,10 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13">
         <v>2</v>
@@ -2335,10 +2336,10 @@
         <v>1</v>
       </c>
       <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
         <v>2</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
       </c>
       <c r="I14">
         <v>3</v>
@@ -2385,10 +2386,10 @@
         <v>1</v>
       </c>
       <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
         <v>2</v>
-      </c>
-      <c r="H15">
-        <v>1</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -2435,10 +2436,10 @@
         <v>1</v>
       </c>
       <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>2</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -2476,7 +2477,7 @@
         <v>67</v>
       </c>
       <c r="D17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E17">
         <v>3</v>
@@ -2485,23 +2486,21 @@
         <v>1</v>
       </c>
       <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
         <v>2</v>
       </c>
-      <c r="H17">
-        <v>1</v>
-      </c>
       <c r="I17">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J17">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" s="14" t="s">
-        <v>51</v>
-      </c>
+      <c r="L17" s="14"/>
       <c r="M17" s="13" t="s">
         <v>48</v>
       </c>
@@ -2535,10 +2534,10 @@
         <v>1</v>
       </c>
       <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>8</v>
-      </c>
-      <c r="H18">
-        <v>1</v>
       </c>
       <c r="I18">
         <v>2</v>
@@ -2585,10 +2584,10 @@
         <v>1</v>
       </c>
       <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>3</v>
-      </c>
-      <c r="H19">
-        <v>1</v>
       </c>
       <c r="I19">
         <v>4</v>
@@ -2635,10 +2634,10 @@
         <v>1</v>
       </c>
       <c r="G20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>3</v>
-      </c>
-      <c r="H20">
-        <v>1</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -2685,10 +2684,10 @@
         <v>1</v>
       </c>
       <c r="G21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>2</v>
-      </c>
-      <c r="H21">
-        <v>1</v>
       </c>
       <c r="I21">
         <v>5</v>
@@ -2735,10 +2734,10 @@
         <v>1</v>
       </c>
       <c r="G22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>5</v>
-      </c>
-      <c r="H22">
-        <v>1</v>
       </c>
       <c r="I22">
         <v>8</v>
@@ -2785,10 +2784,10 @@
         <v>1</v>
       </c>
       <c r="G23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>2</v>
-      </c>
-      <c r="H23">
-        <v>1</v>
       </c>
       <c r="I23">
         <v>7</v>
@@ -2835,10 +2834,10 @@
         <v>1</v>
       </c>
       <c r="G24">
+        <v>1</v>
+      </c>
+      <c r="H24">
         <v>4</v>
-      </c>
-      <c r="H24">
-        <v>1</v>
       </c>
       <c r="I24">
         <v>9</v>
@@ -2885,10 +2884,10 @@
         <v>1</v>
       </c>
       <c r="G25">
+        <v>1</v>
+      </c>
+      <c r="H25">
         <v>3</v>
-      </c>
-      <c r="H25">
-        <v>1</v>
       </c>
       <c r="I25">
         <v>6</v>
@@ -2935,10 +2934,10 @@
         <v>1</v>
       </c>
       <c r="G26">
+        <v>1</v>
+      </c>
+      <c r="H26">
         <v>3</v>
-      </c>
-      <c r="H26">
-        <v>1</v>
       </c>
       <c r="I26">
         <v>5</v>
@@ -2985,10 +2984,10 @@
         <v>1</v>
       </c>
       <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>3</v>
-      </c>
-      <c r="H27">
-        <v>1</v>
       </c>
       <c r="I27">
         <v>5</v>
@@ -3035,10 +3034,10 @@
         <v>1</v>
       </c>
       <c r="G28">
+        <v>1</v>
+      </c>
+      <c r="H28">
         <v>3</v>
-      </c>
-      <c r="H28">
-        <v>1</v>
       </c>
       <c r="I28">
         <v>5</v>
@@ -3085,10 +3084,10 @@
         <v>1</v>
       </c>
       <c r="G29">
+        <v>1</v>
+      </c>
+      <c r="H29">
         <v>3</v>
-      </c>
-      <c r="H29">
-        <v>1</v>
       </c>
       <c r="I29">
         <v>5</v>
@@ -3135,10 +3134,10 @@
         <v>1</v>
       </c>
       <c r="G30">
+        <v>1</v>
+      </c>
+      <c r="H30">
         <v>3</v>
-      </c>
-      <c r="H30">
-        <v>1</v>
       </c>
       <c r="I30">
         <v>5</v>
@@ -3185,10 +3184,10 @@
         <v>1</v>
       </c>
       <c r="G31">
+        <v>1</v>
+      </c>
+      <c r="H31">
         <v>3</v>
-      </c>
-      <c r="H31">
-        <v>1</v>
       </c>
       <c r="I31">
         <v>5</v>
@@ -3235,10 +3234,10 @@
         <v>1</v>
       </c>
       <c r="G32">
+        <v>1</v>
+      </c>
+      <c r="H32">
         <v>3</v>
-      </c>
-      <c r="H32">
-        <v>1</v>
       </c>
       <c r="I32">
         <v>5</v>
@@ -3271,42 +3270,54 @@
     <row r="33" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
     <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
+  <conditionalFormatting sqref="Q5">
     <cfRule type="duplicateValues" dxfId="0" priority="8"/>
     <cfRule type="duplicateValues" dxfId="1" priority="7"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="16"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O7">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R7">
     <cfRule type="duplicateValues" dxfId="0" priority="6"/>
     <cfRule type="duplicateValues" dxfId="1" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:L5 B7:M7">
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="76"/>
+  <conditionalFormatting sqref="B5:F5 I5:L5 B7:F7 I7:M7">
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="G5 G7">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5 H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="86">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
   <si>
     <t>导出类型</t>
   </si>
@@ -89,7 +89,7 @@
   </si>
   <si>
     <t xml:space="preserve">使用条件
-下标0数据表示:{0:无条件,1:友方单位,2:友方建筑,3:敌方单位,4:敌方建筑,5:所有单位,6:所有建筑,7:友方地图实体,8:敌方地图实体,9:所有地图实体,10:空格子}
+下标0数据表示:{0:无条件,1:建筑部署限制,2:单位部署限制,3:空格子,4:友方单位,5:友方建筑,6:敌方单位,7:敌方建筑,8:所有单位,9:所有建筑,10:友方地图实体,11:敌方地图实体,12:所有地图实体}
 下标1数据表示作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
   </si>
@@ -169,43 +169,49 @@
     <t>[]</t>
   </si>
   <si>
+    <t>[0,0]</t>
+  </si>
+  <si>
+    <t>安度因</t>
+  </si>
+  <si>
+    <t>务农：回合开始阶段获得一点费用\n晋升1</t>
+  </si>
+  <si>
+    <t>小兵</t>
+  </si>
+  <si>
+    <t>[2,0]</t>
+  </si>
+  <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
+    <t>护卫</t>
+  </si>
+  <si>
+    <t>举盾：自身和相邻友军受到远程攻击时伤害-1</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>农夫</t>
+  </si>
+  <si>
+    <t>务农：回合开始阶段获得一点费用</t>
+  </si>
+  <si>
     <t>[0]</t>
   </si>
   <si>
-    <t>安度因</t>
-  </si>
-  <si>
-    <t>务农：回合开始阶段获得一点费用\n晋升1</t>
-  </si>
-  <si>
-    <t>小兵</t>
-  </si>
-  <si>
-    <t>弓箭手</t>
-  </si>
-  <si>
-    <t>护卫</t>
-  </si>
-  <si>
-    <t>举盾：自身和相邻友军受到远程攻击时伤害-1</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>农夫</t>
-  </si>
-  <si>
-    <t>务农：回合开始阶段获得一点费用</t>
-  </si>
-  <si>
     <t>魔法神箭</t>
   </si>
   <si>
     <t>对一个单位造成两点伤害</t>
   </si>
   <si>
-    <t>[8,1]</t>
+    <t>[11,1]</t>
   </si>
   <si>
     <t>单位反制</t>
@@ -220,10 +226,13 @@
     <t>部署：对一个单位造成一点伤害</t>
   </si>
   <si>
-    <t>[9,1]</t>
+    <t>[2,0,12,1]</t>
   </si>
   <si>
     <t>兵营</t>
+  </si>
+  <si>
+    <t>[1,0]</t>
   </si>
   <si>
     <t>农夫9</t>
@@ -1804,7 +1813,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2162,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -2176,7 +2185,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2210,7 +2219,7 @@
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2224,7 +2233,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2251,16 +2260,16 @@
         <v>1</v>
       </c>
       <c r="L12" s="14" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="M12" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P12">
         <v>-1</v>
@@ -2274,7 +2283,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2301,16 +2310,16 @@
         <v>0</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>49</v>
+        <v>60</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="P13">
         <v>2</v>
@@ -2324,7 +2333,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2351,7 +2360,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="M14" s="13" t="s">
         <v>48</v>
@@ -2360,7 +2369,7 @@
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -2374,7 +2383,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2401,7 +2410,7 @@
         <v>2</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="M15" s="13" t="s">
         <v>48</v>
@@ -2424,7 +2433,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2451,7 +2460,7 @@
         <v>1</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="M16" s="13" t="s">
         <v>48</v>
@@ -2460,7 +2469,7 @@
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="P16">
         <v>3</v>
@@ -2474,7 +2483,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2508,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>49</v>
+        <v>70</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -2522,7 +2531,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2572,7 +2581,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2622,7 +2631,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2672,7 +2681,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2722,7 +2731,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -2772,7 +2781,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2822,7 +2831,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -2872,7 +2881,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2922,7 +2931,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2972,7 +2981,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3022,7 +3031,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3072,7 +3081,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3122,7 +3131,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3149,7 +3158,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>48</v>
@@ -3172,7 +3181,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3199,7 +3208,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>48</v>
@@ -3222,7 +3231,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3249,7 +3258,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="M32" s="13" t="s">
         <v>48</v>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -181,7 +181,7 @@
     <t>小兵</t>
   </si>
   <si>
-    <t>[2,0]</t>
+    <t>[2,1]</t>
   </si>
   <si>
     <t>弓箭手</t>
@@ -226,13 +226,13 @@
     <t>部署：对一个单位造成一点伤害</t>
   </si>
   <si>
-    <t>[2,0,12,1]</t>
+    <t>[2,1,12,1]</t>
   </si>
   <si>
     <t>兵营</t>
   </si>
   <si>
-    <t>[1,0]</t>
+    <t>[1,1]</t>
   </si>
   <si>
     <t>农夫9</t>
@@ -1813,7 +1813,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
   <si>
     <t>导出类型</t>
   </si>
@@ -100,6 +100,9 @@
     <t>音效id</t>
   </si>
   <si>
+    <t>移动力(负值代表飞行)</t>
+  </si>
+  <si>
     <t>导出参数</t>
   </si>
   <si>
@@ -160,6 +163,9 @@
     <t>soundId</t>
   </si>
   <si>
+    <t>movement</t>
+  </si>
+  <si>
     <t>硬币</t>
   </si>
   <si>
@@ -172,73 +178,85 @@
     <t>[0,0]</t>
   </si>
   <si>
-    <t>安度因</t>
+    <t>神圣骑士王</t>
+  </si>
+  <si>
+    <t>神圣护甲：受到的所有伤害-1\n英雄集结：5费及以上的卡牌需要的费用降低1</t>
+  </si>
+  <si>
+    <t>[3,4]</t>
+  </si>
+  <si>
+    <t>小兵</t>
+  </si>
+  <si>
+    <t>[2,1]</t>
+  </si>
+  <si>
+    <t>弓箭手</t>
+  </si>
+  <si>
+    <t>护卫</t>
+  </si>
+  <si>
+    <t>举盾：自身和相邻友军受到远程攻击时伤害-1</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>农夫</t>
+  </si>
+  <si>
+    <t>务农：回合开始阶段获得一点费用</t>
+  </si>
+  <si>
+    <t>[0]</t>
+  </si>
+  <si>
+    <t>魔法神箭</t>
+  </si>
+  <si>
+    <t>对一个单位造成两点伤害</t>
+  </si>
+  <si>
+    <t>[11,1]</t>
+  </si>
+  <si>
+    <t>单位反制</t>
+  </si>
+  <si>
+    <t>反制一张建筑卡牌或者单位卡牌</t>
+  </si>
+  <si>
+    <t>巫师学徒</t>
+  </si>
+  <si>
+    <t>部署：对一个单位造成一点伤害</t>
+  </si>
+  <si>
+    <t>[2,1,12,1]</t>
+  </si>
+  <si>
+    <t>兵营</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
+  </si>
+  <si>
+    <t>冠军骑士</t>
+  </si>
+  <si>
+    <t>机动：移动力+1\n冲锋：本回合每移动一格，攻击力+1，且对目标背后的单位造成同等伤害</t>
+  </si>
+  <si>
+    <t>[2]</t>
+  </si>
+  <si>
+    <t>农夫10</t>
   </si>
   <si>
     <t>务农：回合开始阶段获得一点费用\n晋升1</t>
-  </si>
-  <si>
-    <t>小兵</t>
-  </si>
-  <si>
-    <t>[2,1]</t>
-  </si>
-  <si>
-    <t>弓箭手</t>
-  </si>
-  <si>
-    <t>护卫</t>
-  </si>
-  <si>
-    <t>举盾：自身和相邻友军受到远程攻击时伤害-1</t>
-  </si>
-  <si>
-    <t>[1]</t>
-  </si>
-  <si>
-    <t>农夫</t>
-  </si>
-  <si>
-    <t>务农：回合开始阶段获得一点费用</t>
-  </si>
-  <si>
-    <t>[0]</t>
-  </si>
-  <si>
-    <t>魔法神箭</t>
-  </si>
-  <si>
-    <t>对一个单位造成两点伤害</t>
-  </si>
-  <si>
-    <t>[11,1]</t>
-  </si>
-  <si>
-    <t>单位反制</t>
-  </si>
-  <si>
-    <t>反制一张建筑卡牌或者单位卡牌</t>
-  </si>
-  <si>
-    <t>巫师学徒</t>
-  </si>
-  <si>
-    <t>部署：对一个单位造成一点伤害</t>
-  </si>
-  <si>
-    <t>[2,1,12,1]</t>
-  </si>
-  <si>
-    <t>兵营</t>
-  </si>
-  <si>
-    <t>[1,1]</t>
-  </si>
-  <si>
-    <t>农夫9</t>
-  </si>
-  <si>
-    <t>农夫10</t>
   </si>
   <si>
     <t>农夫11</t>
@@ -821,6 +839,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -829,12 +853,6 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1070,13 +1088,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1223,13 +1241,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1239,6 +1257,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1249,9 +1270,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1424,9 +1442,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="黑色单元格1 2" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="黑色单元格1 2" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1479,16 +1497,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="我的标题" xfId="70"/>
-    <cellStyle name="黑色单元格2 3" xfId="71"/>
+    <cellStyle name="黑色单元格2 3" xfId="70"/>
+    <cellStyle name="我的标题" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的公式 2" xfId="78"/>
-    <cellStyle name="我的单元格2 3" xfId="79"/>
+    <cellStyle name="我的单元格2 3" xfId="78"/>
+    <cellStyle name="我的公式 2" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1812,8 +1830,8 @@
   <sheetPr/>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L23" sqref="L23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1829,6 +1847,7 @@
     <col min="13" max="13" width="11.6666666666667" customWidth="1"/>
     <col min="14" max="14" width="17.5416666666667" customWidth="1"/>
     <col min="15" max="15" width="10.2916666666667" customWidth="1"/>
+    <col min="18" max="18" width="13.3333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -1872,7 +1891,7 @@
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="5" ht="57" customHeight="1" spans="1:17">
+    <row r="5" ht="57" customHeight="1" spans="1:18">
       <c r="A5" s="6" t="s">
         <v>9</v>
       </c>
@@ -1924,120 +1943,128 @@
       <c r="Q5" s="8" t="s">
         <v>25</v>
       </c>
+      <c r="R5" s="8" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="6" spans="1:17">
+    <row r="6" spans="1:18">
       <c r="A6" s="10" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="L6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="M6" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="10" t="s">
-        <v>27</v>
-      </c>
       <c r="N6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="10" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P6" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="Q6" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="R6" s="10" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:18">
       <c r="A7" s="10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="11" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="11" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" s="11" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="11" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="11" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N7" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O7" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7" t="s">
-        <v>45</v>
-      </c>
-      <c r="R7" s="11"/>
+        <v>46</v>
+      </c>
+      <c r="R7" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="8" customHeight="1" spans="2:17">
       <c r="B8">
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8">
         <v>0</v>
@@ -2064,16 +2091,16 @@
         <v>1</v>
       </c>
       <c r="L8" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M8" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N8">
         <v>1</v>
       </c>
       <c r="O8" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P8">
         <v>-1</v>
@@ -2082,12 +2109,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="9" customHeight="1" spans="2:17">
+    <row r="9" customHeight="1" spans="2:18">
       <c r="B9" s="12">
         <v>1</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -2102,42 +2129,45 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I9">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9" t="s">
         <v>51</v>
       </c>
-      <c r="M9" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N9">
-        <v>0</v>
-      </c>
-      <c r="O9" t="s">
-        <v>49</v>
-      </c>
       <c r="P9">
         <v>-1</v>
       </c>
       <c r="Q9">
         <v>-1</v>
       </c>
+      <c r="R9">
+        <v>2</v>
+      </c>
     </row>
-    <row r="10" customHeight="1" spans="2:17">
+    <row r="10" customHeight="1" spans="2:18">
       <c r="B10" s="12">
         <v>2</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2165,13 +2195,13 @@
       </c>
       <c r="L10" s="14"/>
       <c r="M10" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P10">
         <v>-1</v>
@@ -2179,13 +2209,16 @@
       <c r="Q10">
         <v>-1</v>
       </c>
+      <c r="R10">
+        <v>2</v>
+      </c>
     </row>
-    <row r="11" customHeight="1" spans="2:17">
+    <row r="11" customHeight="1" spans="2:18">
       <c r="B11" s="12">
         <v>3</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2200,7 +2233,7 @@
         <v>1</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I11">
         <v>2</v>
@@ -2213,13 +2246,13 @@
       </c>
       <c r="L11" s="14"/>
       <c r="M11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P11">
         <v>0</v>
@@ -2227,13 +2260,16 @@
       <c r="Q11">
         <v>-1</v>
       </c>
+      <c r="R11">
+        <v>2</v>
+      </c>
     </row>
-    <row r="12" customHeight="1" spans="2:17">
+    <row r="12" customHeight="1" spans="2:18">
       <c r="B12" s="12">
         <v>4</v>
       </c>
       <c r="C12" s="12" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D12">
         <v>1</v>
@@ -2260,30 +2296,33 @@
         <v>1</v>
       </c>
       <c r="L12" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="M12" t="s">
+        <v>60</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12" t="s">
         <v>56</v>
       </c>
-      <c r="M12" t="s">
-        <v>57</v>
-      </c>
-      <c r="N12">
-        <v>0</v>
-      </c>
-      <c r="O12" t="s">
-        <v>53</v>
-      </c>
       <c r="P12">
         <v>-1</v>
       </c>
       <c r="Q12">
         <v>-1</v>
       </c>
+      <c r="R12">
+        <v>2</v>
+      </c>
     </row>
-    <row r="13" customHeight="1" spans="2:17">
+    <row r="13" customHeight="1" spans="2:18">
       <c r="B13" s="12">
         <v>5</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -2310,22 +2349,25 @@
         <v>0</v>
       </c>
       <c r="L13" s="14" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="M13" s="13" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="P13">
         <v>2</v>
       </c>
       <c r="Q13">
         <v>-1</v>
+      </c>
+      <c r="R13">
+        <v>2</v>
       </c>
     </row>
     <row r="14" customHeight="1" spans="2:17">
@@ -2333,7 +2375,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="12" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -2360,16 +2402,16 @@
         <v>0</v>
       </c>
       <c r="L14" s="14" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="M14" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="P14">
         <v>1</v>
@@ -2383,7 +2425,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="12" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2410,16 +2452,16 @@
         <v>2</v>
       </c>
       <c r="L15" s="14" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M15" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P15">
         <v>-1</v>
@@ -2428,12 +2470,12 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="16" customHeight="1" spans="2:17">
+    <row r="16" customHeight="1" spans="2:18">
       <c r="B16" s="12">
         <v>8</v>
       </c>
       <c r="C16" s="12" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="D16">
         <v>1</v>
@@ -2460,22 +2502,25 @@
         <v>1</v>
       </c>
       <c r="L16" s="14" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="M16" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="P16">
         <v>3</v>
       </c>
       <c r="Q16">
         <v>-1</v>
+      </c>
+      <c r="R16">
+        <v>2</v>
       </c>
     </row>
     <row r="17" customHeight="1" spans="2:17">
@@ -2483,7 +2528,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="D17">
         <v>1</v>
@@ -2511,13 +2556,13 @@
       </c>
       <c r="L17" s="14"/>
       <c r="M17" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -2526,48 +2571,48 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="18" customHeight="1" spans="2:17">
+    <row r="18" customHeight="1" spans="2:18">
       <c r="B18" s="12">
         <v>10</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
         <v>4</v>
       </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18">
-        <v>1</v>
-      </c>
-      <c r="H18">
+      <c r="I18">
         <v>8</v>
       </c>
-      <c r="I18">
-        <v>2</v>
-      </c>
       <c r="J18">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>48</v>
+        <v>76</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="P18">
         <v>-1</v>
@@ -2575,13 +2620,16 @@
       <c r="Q18">
         <v>-1</v>
       </c>
+      <c r="R18">
+        <v>3</v>
+      </c>
     </row>
-    <row r="19" customHeight="1" spans="2:17">
+    <row r="19" customHeight="1" spans="2:18">
       <c r="B19" s="12">
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2608,30 +2656,33 @@
         <v>2</v>
       </c>
       <c r="L19" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M19" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19" t="s">
         <v>51</v>
       </c>
-      <c r="M19" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19" t="s">
-        <v>49</v>
-      </c>
       <c r="P19">
         <v>-1</v>
       </c>
       <c r="Q19">
         <v>-1</v>
       </c>
+      <c r="R19">
+        <v>2</v>
+      </c>
     </row>
-    <row r="20" customHeight="1" spans="2:17">
+    <row r="20" customHeight="1" spans="2:18">
       <c r="B20" s="12">
         <v>12</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2658,30 +2709,33 @@
         <v>3</v>
       </c>
       <c r="L20" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20" t="s">
         <v>51</v>
       </c>
-      <c r="M20" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N20">
-        <v>0</v>
-      </c>
-      <c r="O20" t="s">
-        <v>49</v>
-      </c>
       <c r="P20">
         <v>-1</v>
       </c>
       <c r="Q20">
         <v>-1</v>
       </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
     </row>
-    <row r="21" customHeight="1" spans="2:17">
+    <row r="21" customHeight="1" spans="2:18">
       <c r="B21" s="12">
         <v>13</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2708,30 +2762,33 @@
         <v>0</v>
       </c>
       <c r="L21" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M21" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21" t="s">
         <v>51</v>
       </c>
-      <c r="M21" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N21">
-        <v>0</v>
-      </c>
-      <c r="O21" t="s">
-        <v>49</v>
-      </c>
       <c r="P21">
         <v>-1</v>
       </c>
       <c r="Q21">
         <v>-1</v>
       </c>
+      <c r="R21">
+        <v>2</v>
+      </c>
     </row>
-    <row r="22" customHeight="1" spans="2:17">
+    <row r="22" customHeight="1" spans="2:18">
       <c r="B22" s="12">
         <v>14</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -2758,30 +2815,33 @@
         <v>1</v>
       </c>
       <c r="L22" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M22" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22" t="s">
         <v>51</v>
       </c>
-      <c r="M22" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N22">
-        <v>0</v>
-      </c>
-      <c r="O22" t="s">
-        <v>49</v>
-      </c>
       <c r="P22">
         <v>-1</v>
       </c>
       <c r="Q22">
         <v>-1</v>
       </c>
+      <c r="R22">
+        <v>2</v>
+      </c>
     </row>
-    <row r="23" customHeight="1" spans="2:17">
+    <row r="23" customHeight="1" spans="2:18">
       <c r="B23" s="12">
         <v>15</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>76</v>
+        <v>82</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2808,30 +2868,33 @@
         <v>3</v>
       </c>
       <c r="L23" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M23" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23" t="s">
         <v>51</v>
       </c>
-      <c r="M23" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N23">
-        <v>0</v>
-      </c>
-      <c r="O23" t="s">
-        <v>49</v>
-      </c>
       <c r="P23">
         <v>-1</v>
       </c>
       <c r="Q23">
         <v>-1</v>
       </c>
+      <c r="R23">
+        <v>2</v>
+      </c>
     </row>
-    <row r="24" customHeight="1" spans="2:17">
+    <row r="24" customHeight="1" spans="2:18">
       <c r="B24" s="12">
         <v>16</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -2858,30 +2921,33 @@
         <v>2</v>
       </c>
       <c r="L24" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M24" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24" t="s">
         <v>51</v>
       </c>
-      <c r="M24" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N24">
-        <v>0</v>
-      </c>
-      <c r="O24" t="s">
-        <v>49</v>
-      </c>
       <c r="P24">
         <v>-1</v>
       </c>
       <c r="Q24">
         <v>-1</v>
       </c>
+      <c r="R24">
+        <v>2</v>
+      </c>
     </row>
-    <row r="25" customHeight="1" spans="2:17">
+    <row r="25" customHeight="1" spans="2:18">
       <c r="B25" s="12">
         <v>17</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2908,30 +2974,33 @@
         <v>0</v>
       </c>
       <c r="L25" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M25" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N25">
-        <v>0</v>
-      </c>
-      <c r="O25" t="s">
-        <v>49</v>
-      </c>
       <c r="P25">
         <v>-1</v>
       </c>
       <c r="Q25">
         <v>-1</v>
       </c>
+      <c r="R25">
+        <v>2</v>
+      </c>
     </row>
-    <row r="26" customHeight="1" spans="2:17">
+    <row r="26" customHeight="1" spans="2:18">
       <c r="B26" s="12">
         <v>18</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -2958,30 +3027,33 @@
         <v>1</v>
       </c>
       <c r="L26" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
         <v>51</v>
       </c>
-      <c r="M26" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N26">
-        <v>0</v>
-      </c>
-      <c r="O26" t="s">
-        <v>49</v>
-      </c>
       <c r="P26">
         <v>-1</v>
       </c>
       <c r="Q26">
         <v>-1</v>
       </c>
+      <c r="R26">
+        <v>2</v>
+      </c>
     </row>
-    <row r="27" customHeight="1" spans="2:17">
+    <row r="27" customHeight="1" spans="2:18">
       <c r="B27" s="12">
         <v>19</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3008,30 +3080,33 @@
         <v>1</v>
       </c>
       <c r="L27" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N27">
+        <v>0</v>
+      </c>
+      <c r="O27" t="s">
         <v>51</v>
       </c>
-      <c r="M27" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N27">
-        <v>0</v>
-      </c>
-      <c r="O27" t="s">
-        <v>49</v>
-      </c>
       <c r="P27">
         <v>-1</v>
       </c>
       <c r="Q27">
         <v>-1</v>
       </c>
+      <c r="R27">
+        <v>2</v>
+      </c>
     </row>
-    <row r="28" customHeight="1" spans="2:17">
+    <row r="28" customHeight="1" spans="2:18">
       <c r="B28" s="12">
         <v>20</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3058,30 +3133,33 @@
         <v>1</v>
       </c>
       <c r="L28" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M28" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N28">
+        <v>0</v>
+      </c>
+      <c r="O28" t="s">
         <v>51</v>
       </c>
-      <c r="M28" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N28">
-        <v>0</v>
-      </c>
-      <c r="O28" t="s">
-        <v>49</v>
-      </c>
       <c r="P28">
         <v>-1</v>
       </c>
       <c r="Q28">
         <v>-1</v>
       </c>
+      <c r="R28">
+        <v>2</v>
+      </c>
     </row>
-    <row r="29" customHeight="1" spans="2:17">
+    <row r="29" customHeight="1" spans="2:18">
       <c r="B29" s="12">
         <v>21</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3108,30 +3186,33 @@
         <v>1</v>
       </c>
       <c r="L29" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="M29" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N29">
+        <v>0</v>
+      </c>
+      <c r="O29" t="s">
         <v>51</v>
       </c>
-      <c r="M29" s="13" t="s">
-        <v>48</v>
-      </c>
-      <c r="N29">
-        <v>0</v>
-      </c>
-      <c r="O29" t="s">
-        <v>49</v>
-      </c>
       <c r="P29">
         <v>-1</v>
       </c>
       <c r="Q29">
         <v>-1</v>
       </c>
+      <c r="R29">
+        <v>2</v>
+      </c>
     </row>
-    <row r="30" customHeight="1" spans="2:17">
+    <row r="30" customHeight="1" spans="2:18">
       <c r="B30" s="12">
         <v>22</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3158,16 +3239,16 @@
         <v>1</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="M30" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N30">
         <v>0</v>
       </c>
       <c r="O30" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P30">
         <v>-1</v>
@@ -3175,13 +3256,16 @@
       <c r="Q30">
         <v>-1</v>
       </c>
+      <c r="R30">
+        <v>2</v>
+      </c>
     </row>
-    <row r="31" customHeight="1" spans="2:17">
+    <row r="31" customHeight="1" spans="2:18">
       <c r="B31" s="12">
         <v>23</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3208,16 +3292,16 @@
         <v>1</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="M31" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N31">
         <v>0</v>
       </c>
       <c r="O31" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P31">
         <v>-1</v>
@@ -3225,13 +3309,16 @@
       <c r="Q31">
         <v>-1</v>
       </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
     </row>
-    <row r="32" customHeight="1" spans="2:17">
+    <row r="32" customHeight="1" spans="2:18">
       <c r="B32" s="12">
         <v>24</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3258,75 +3345,82 @@
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M32" s="13" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="P32">
         <v>-1</v>
       </c>
       <c r="Q32">
         <v>-1</v>
+      </c>
+      <c r="R32">
+        <v>2</v>
       </c>
     </row>
     <row r="33" customHeight="1"/>
   </sheetData>
   <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="26"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="18"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="17"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
     <cfRule type="duplicateValues" dxfId="0" priority="16"/>
     <cfRule type="duplicateValues" dxfId="1" priority="15"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="14"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="13"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
+  <conditionalFormatting sqref="O7">
     <cfRule type="duplicateValues" dxfId="0" priority="10"/>
     <cfRule type="duplicateValues" dxfId="1" priority="9"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="22"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="21"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O7">
-    <cfRule type="duplicateValues" dxfId="0" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R7">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="5"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B5:F5 I5:L5 B7:F7 I7:M7">
-    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="82"/>
+  <conditionalFormatting sqref="B5:F5 B7:F7">
+    <cfRule type="duplicateValues" dxfId="1" priority="114"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="120"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="G5 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="39"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="H5 H7">
     <cfRule type="duplicateValues" dxfId="0" priority="4"/>
     <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:L5 I7:M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="20"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="19"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -839,12 +839,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -853,6 +847,12 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1088,13 +1088,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,13 +1241,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1257,9 +1257,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1270,6 +1267,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1442,9 +1442,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="黑色单元格1 2" xfId="17"/>
+    <cellStyle name="黑色单元格1 2" xfId="15"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1497,16 +1497,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="黑色单元格2 3" xfId="70"/>
-    <cellStyle name="我的标题" xfId="71"/>
+    <cellStyle name="我的标题" xfId="70"/>
+    <cellStyle name="黑色单元格2 3" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的单元格2 3" xfId="78"/>
-    <cellStyle name="我的公式 2" xfId="79"/>
+    <cellStyle name="我的公式 2" xfId="78"/>
+    <cellStyle name="我的单元格2 3" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1830,8 +1830,8 @@
   <sheetPr/>
   <dimension ref="A1:R33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -839,6 +839,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -847,12 +853,6 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1088,13 +1088,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,13 +1241,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1257,6 +1257,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1267,9 +1270,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1442,9 +1442,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="黑色单元格1 2" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="黑色单元格1 2" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1497,16 +1497,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="我的标题" xfId="70"/>
-    <cellStyle name="黑色单元格2 3" xfId="71"/>
+    <cellStyle name="黑色单元格2 3" xfId="70"/>
+    <cellStyle name="我的标题" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的公式 2" xfId="78"/>
-    <cellStyle name="我的单元格2 3" xfId="79"/>
+    <cellStyle name="我的单元格2 3" xfId="78"/>
+    <cellStyle name="我的公式 2" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1831,7 +1831,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -839,12 +839,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -853,6 +847,12 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1088,13 +1088,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,13 +1241,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1257,9 +1257,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1270,6 +1267,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1442,9 +1442,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="黑色单元格1 2" xfId="17"/>
+    <cellStyle name="黑色单元格1 2" xfId="15"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1497,16 +1497,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="黑色单元格2 3" xfId="70"/>
-    <cellStyle name="我的标题" xfId="71"/>
+    <cellStyle name="我的标题" xfId="70"/>
+    <cellStyle name="黑色单元格2 3" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的单元格2 3" xfId="78"/>
-    <cellStyle name="我的公式 2" xfId="79"/>
+    <cellStyle name="我的公式 2" xfId="78"/>
+    <cellStyle name="我的单元格2 3" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1831,7 +1831,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -62,9 +62,9 @@
 如果是单位，那么type2=种族…</t>
   </si>
   <si>
-    <t>攻击类型(0近战,1远程)
-事件类型(0公共,1秘密)
-建筑类型(0出兵建筑,1待定)</t>
+    <t>攻击类型:0近战,1远程
+事件类型:0公共,1秘密
+建筑类型:0基础兵营建筑(每个职业只有一个),1出兵建筑</t>
   </si>
   <si>
     <t>攻击力</t>
@@ -839,6 +839,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -847,12 +853,6 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1088,13 +1088,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,13 +1241,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1257,6 +1257,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1267,9 +1270,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1442,9 +1442,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="黑色单元格1 2" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="黑色单元格1 2" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1497,16 +1497,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="我的标题" xfId="70"/>
-    <cellStyle name="黑色单元格2 3" xfId="71"/>
+    <cellStyle name="黑色单元格2 3" xfId="70"/>
+    <cellStyle name="我的标题" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的公式 2" xfId="78"/>
-    <cellStyle name="我的单元格2 3" xfId="79"/>
+    <cellStyle name="我的单元格2 3" xfId="78"/>
+    <cellStyle name="我的公式 2" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1831,7 +1831,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1839,8 +1839,8 @@
     <col min="3" max="3" width="16.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="17.35" customWidth="1"/>
     <col min="5" max="5" width="33.8333333333333" customWidth="1"/>
-    <col min="6" max="6" width="13.5833333333333" customWidth="1"/>
-    <col min="7" max="7" width="14.2083333333333" customWidth="1"/>
+    <col min="6" max="6" width="25.6833333333333" customWidth="1"/>
+    <col min="7" max="7" width="27.5416666666667" customWidth="1"/>
     <col min="8" max="8" width="15.9166666666667" customWidth="1"/>
     <col min="11" max="11" width="17.25" customWidth="1"/>
     <col min="12" max="12" width="17.3333333333333" customWidth="1"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -839,12 +839,6 @@
       </patternFill>
     </fill>
     <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
-    </fill>
-    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -853,6 +847,12 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1088,13 +1088,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,13 +1241,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1257,9 +1257,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1270,6 +1267,9 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1442,9 +1442,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="注释" xfId="15" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="16"/>
-    <cellStyle name="黑色单元格1 2" xfId="17"/>
+    <cellStyle name="黑色单元格1 2" xfId="15"/>
+    <cellStyle name="注释" xfId="16" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1497,16 +1497,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="黑色单元格2 3" xfId="70"/>
-    <cellStyle name="我的标题" xfId="71"/>
+    <cellStyle name="我的标题" xfId="70"/>
+    <cellStyle name="黑色单元格2 3" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的单元格2 3" xfId="78"/>
-    <cellStyle name="我的公式 2" xfId="79"/>
+    <cellStyle name="我的公式 2" xfId="78"/>
+    <cellStyle name="我的单元格2 3" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1831,7 +1831,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="96">
   <si>
     <t>导出类型</t>
   </si>
@@ -239,6 +239,9 @@
   </si>
   <si>
     <t>兵营</t>
+  </si>
+  <si>
+    <t>出兵建筑:单位必须放置于出兵建筑附近</t>
   </si>
   <si>
     <t>[1,1]</t>
@@ -839,6 +842,12 @@
       </patternFill>
     </fill>
     <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
       <gradientFill degree="90">
         <stop position="0">
           <color theme="0"/>
@@ -847,12 +856,6 @@
           <color theme="9" tint="0.599993896298105"/>
         </stop>
       </gradientFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291"/>
-        <bgColor rgb="FFFFFFFF"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="15">
@@ -1088,13 +1091,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -1241,13 +1244,13 @@
     <xf numFmtId="0" fontId="12" fillId="41" borderId="7" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="43" borderId="7" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="42" borderId="6">
+    <xf numFmtId="0" fontId="12" fillId="42" borderId="7" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="43" borderId="6">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
@@ -1257,6 +1260,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="8" borderId="6" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
@@ -1267,9 +1273,6 @@
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="6" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="34" borderId="6" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1442,9 +1445,9 @@
     <cellStyle name="黑色单元格1" xfId="12"/>
     <cellStyle name="百分比" xfId="13" builtinId="5"/>
     <cellStyle name="已访问的超链接" xfId="14" builtinId="9"/>
-    <cellStyle name="黑色单元格1 2" xfId="15"/>
-    <cellStyle name="注释" xfId="16" builtinId="10"/>
-    <cellStyle name="常规 6" xfId="17"/>
+    <cellStyle name="注释" xfId="15" builtinId="10"/>
+    <cellStyle name="常规 6" xfId="16"/>
+    <cellStyle name="黑色单元格1 2" xfId="17"/>
     <cellStyle name="警告文本" xfId="18" builtinId="11"/>
     <cellStyle name="我的单元格2 2 2" xfId="19"/>
     <cellStyle name="60% - 强调文字颜色 2" xfId="20" builtinId="36"/>
@@ -1497,16 +1500,16 @@
     <cellStyle name="黑色单元格2" xfId="67"/>
     <cellStyle name="黑色单元格2 2" xfId="68"/>
     <cellStyle name="黑色单元格2 2 2" xfId="69"/>
-    <cellStyle name="我的标题" xfId="70"/>
-    <cellStyle name="黑色单元格2 3" xfId="71"/>
+    <cellStyle name="黑色单元格2 3" xfId="70"/>
+    <cellStyle name="我的标题" xfId="71"/>
     <cellStyle name="我的标题 2" xfId="72"/>
     <cellStyle name="我的单元格1" xfId="73"/>
     <cellStyle name="我的单元格1 2" xfId="74"/>
     <cellStyle name="我的单元格1 3" xfId="75"/>
     <cellStyle name="我的单元格2" xfId="76"/>
     <cellStyle name="我的单元格2 2" xfId="77"/>
-    <cellStyle name="我的公式 2" xfId="78"/>
-    <cellStyle name="我的单元格2 3" xfId="79"/>
+    <cellStyle name="我的单元格2 3" xfId="78"/>
+    <cellStyle name="我的公式 2" xfId="79"/>
     <cellStyle name="我的单元格3" xfId="80"/>
     <cellStyle name="我的单元格3 2" xfId="81"/>
     <cellStyle name="我的单元格4" xfId="82"/>
@@ -1831,7 +1834,7 @@
   <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -2554,7 +2557,9 @@
       <c r="K17">
         <v>0</v>
       </c>
-      <c r="L17" s="14"/>
+      <c r="L17" s="14" t="s">
+        <v>73</v>
+      </c>
       <c r="M17" s="13" t="s">
         <v>50</v>
       </c>
@@ -2562,7 +2567,7 @@
         <v>0</v>
       </c>
       <c r="O17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="P17">
         <v>-1</v>
@@ -2576,7 +2581,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D18">
         <v>1</v>
@@ -2603,10 +2608,10 @@
         <v>2</v>
       </c>
       <c r="L18" s="14" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="M18" s="13" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -2629,7 +2634,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -2656,7 +2661,7 @@
         <v>2</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M19" s="13" t="s">
         <v>50</v>
@@ -2682,7 +2687,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="D20">
         <v>2</v>
@@ -2709,7 +2714,7 @@
         <v>3</v>
       </c>
       <c r="L20" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M20" s="13" t="s">
         <v>50</v>
@@ -2735,7 +2740,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D21">
         <v>3</v>
@@ -2762,7 +2767,7 @@
         <v>0</v>
       </c>
       <c r="L21" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M21" s="13" t="s">
         <v>50</v>
@@ -2788,7 +2793,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="12" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D22">
         <v>4</v>
@@ -2815,7 +2820,7 @@
         <v>1</v>
       </c>
       <c r="L22" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M22" s="13" t="s">
         <v>50</v>
@@ -2841,7 +2846,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="12" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D23">
         <v>5</v>
@@ -2868,7 +2873,7 @@
         <v>3</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M23" s="13" t="s">
         <v>50</v>
@@ -2894,7 +2899,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="12" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D24">
         <v>6</v>
@@ -2921,7 +2926,7 @@
         <v>2</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M24" s="13" t="s">
         <v>50</v>
@@ -2947,7 +2952,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -2974,7 +2979,7 @@
         <v>0</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M25" s="13" t="s">
         <v>50</v>
@@ -3000,7 +3005,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="12" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -3027,7 +3032,7 @@
         <v>1</v>
       </c>
       <c r="L26" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M26" s="13" t="s">
         <v>50</v>
@@ -3053,7 +3058,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="12" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="D27">
         <v>0</v>
@@ -3080,7 +3085,7 @@
         <v>1</v>
       </c>
       <c r="L27" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M27" s="13" t="s">
         <v>50</v>
@@ -3106,7 +3111,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="12" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="D28">
         <v>0</v>
@@ -3133,7 +3138,7 @@
         <v>1</v>
       </c>
       <c r="L28" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M28" s="13" t="s">
         <v>50</v>
@@ -3159,7 +3164,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -3186,7 +3191,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="M29" s="13" t="s">
         <v>50</v>
@@ -3212,7 +3217,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -3239,7 +3244,7 @@
         <v>1</v>
       </c>
       <c r="L30" s="14" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="M30" s="13" t="s">
         <v>50</v>
@@ -3265,7 +3270,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -3292,7 +3297,7 @@
         <v>1</v>
       </c>
       <c r="L31" s="14" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="M31" s="13" t="s">
         <v>50</v>
@@ -3318,7 +3323,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -3345,7 +3350,7 @@
         <v>1</v>
       </c>
       <c r="L32" s="14" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="M32" s="13" t="s">
         <v>50</v>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="24045" windowHeight="12255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -1974,12 +1974,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3234,7 +3234,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3798,7 +3798,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O13" s="4">
         <v>-1</v>
@@ -3847,7 +3847,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O14" s="4">
         <v>-1</v>
@@ -3896,7 +3896,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O15" s="4">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="4">
         <v>3</v>
@@ -3994,7 +3994,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O17" s="4">
         <v>-1</v>
@@ -4043,7 +4043,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O18" s="4">
         <v>4</v>
@@ -4092,7 +4092,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O19" s="4">
         <v>-1</v>
@@ -4141,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O20" s="4">
         <v>5</v>
@@ -4244,8 +4244,8 @@
   <sheetPr/>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="N13" sqref="N13:N21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4868,7 +4868,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O14" s="4">
         <v>-1</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O15" s="4">
         <v>-1</v>
@@ -4964,7 +4964,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="4">
         <v>0</v>
@@ -5012,7 +5012,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O17" s="4">
         <v>3</v>
@@ -5060,7 +5060,7 @@
         <v>0</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O18" s="4">
         <v>-1</v>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O19" s="4">
         <v>4</v>
@@ -5156,7 +5156,7 @@
         <v>0</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O20" s="4">
         <v>-1</v>
@@ -5204,7 +5204,7 @@
         <v>0</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O21" s="4">
         <v>5</v>
@@ -5303,7 +5303,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:Q17"/>
+      <selection activeCell="N9" sqref="N9:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5672,7 +5672,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O9" s="4">
         <v>-1</v>
@@ -5721,7 +5721,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O10" s="4">
         <v>-1</v>
@@ -5769,7 +5769,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O11" s="4">
         <v>-1</v>
@@ -5818,7 +5818,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -5867,7 +5867,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O13" s="4">
         <v>3</v>
@@ -5916,7 +5916,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O14" s="4">
         <v>-1</v>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O15" s="4">
         <v>4</v>
@@ -6014,7 +6014,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="4">
         <v>-1</v>
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O17" s="4">
         <v>5</v>
@@ -6162,7 +6162,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:Q17"/>
+      <selection activeCell="N9" sqref="N9:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6529,7 +6529,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O9" s="4">
         <v>-1</v>
@@ -6577,7 +6577,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O10" s="4">
         <v>-1</v>
@@ -6624,7 +6624,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O11" s="4">
         <v>-1</v>
@@ -6672,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -6720,7 +6720,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O13" s="4">
         <v>3</v>
@@ -6768,7 +6768,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O14" s="4">
         <v>-1</v>
@@ -6816,7 +6816,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O15" s="4">
         <v>4</v>
@@ -6864,7 +6864,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="4">
         <v>-1</v>
@@ -6912,7 +6912,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O17" s="4">
         <v>5</v>
@@ -7011,7 +7011,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5:Q17"/>
+      <selection activeCell="N9" sqref="N9:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7378,7 +7378,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O9" s="4">
         <v>-1</v>
@@ -7426,7 +7426,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O10" s="4">
         <v>-1</v>
@@ -7473,7 +7473,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O11" s="4">
         <v>-1</v>
@@ -7521,7 +7521,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -7569,7 +7569,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O13" s="4">
         <v>3</v>
@@ -7617,7 +7617,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O14" s="4">
         <v>-1</v>
@@ -7665,7 +7665,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O15" s="4">
         <v>4</v>
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="4">
         <v>-1</v>
@@ -7761,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O17" s="4">
         <v>5</v>
@@ -7860,7 +7860,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="N9" sqref="N9:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8227,7 +8227,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O9" s="4">
         <v>-1</v>
@@ -8275,7 +8275,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O10" s="4">
         <v>-1</v>
@@ -8322,7 +8322,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O11" s="4">
         <v>-1</v>
@@ -8370,7 +8370,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -8418,7 +8418,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O13" s="4">
         <v>3</v>
@@ -8466,7 +8466,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O14" s="4">
         <v>-1</v>
@@ -8514,7 +8514,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O15" s="4">
         <v>4</v>
@@ -8562,7 +8562,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="4">
         <v>-1</v>
@@ -8610,7 +8610,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O17" s="4">
         <v>5</v>
@@ -8708,8 +8708,8 @@
   <sheetPr/>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J38" sqref="J38"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9078,7 +9078,7 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O9" s="4">
         <v>-1</v>
@@ -9127,7 +9127,7 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O10" s="4">
         <v>-1</v>
@@ -9176,7 +9176,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O11" s="4">
         <v>-1</v>
@@ -9225,7 +9225,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -9274,7 +9274,7 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O13" s="4">
         <v>3</v>
@@ -9323,7 +9323,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O14" s="4">
         <v>-1</v>
@@ -9372,7 +9372,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O15" s="4">
         <v>4</v>
@@ -9421,7 +9421,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O16" s="4">
         <v>-1</v>
@@ -9470,7 +9470,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O17" s="4">
         <v>5</v>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="6"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="XueYuan" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">common!$A$5:$Q$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">common!$A$5:$Q$18</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1212,7 +1212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="665" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="166">
   <si>
     <t>导出类型</t>
   </si>
@@ -1259,13 +1259,13 @@
     <t>详细类型</t>
   </si>
   <si>
+    <t>卡牌费用</t>
+  </si>
+  <si>
     <t>攻击力</t>
   </si>
   <si>
     <t>生命值</t>
-  </si>
-  <si>
-    <t>卡牌费用</t>
   </si>
   <si>
     <t>品质</t>
@@ -1293,6 +1293,9 @@
     <t>移动力(负值代表飞行)</t>
   </si>
   <si>
+    <t>射程</t>
+  </si>
+  <si>
     <t>导出参数</t>
   </si>
   <si>
@@ -1320,15 +1323,15 @@
     <t>detailType</t>
   </si>
   <si>
+    <t>fee</t>
+  </si>
+  <si>
     <t>attack</t>
   </si>
   <si>
     <t>health</t>
   </si>
   <si>
-    <t>fee</t>
-  </si>
-  <si>
     <t>quality</t>
   </si>
   <si>
@@ -1353,6 +1356,9 @@
     <t>movement</t>
   </si>
   <si>
+    <t>atkRange</t>
+  </si>
+  <si>
     <t>硬币</t>
   </si>
   <si>
@@ -1365,52 +1371,82 @@
     <t>[0,0]</t>
   </si>
   <si>
-    <t>小兵</t>
+    <t>魔法神箭</t>
+  </si>
+  <si>
+    <t>对一个单位造成两点伤害</t>
+  </si>
+  <si>
+    <t>[11,1]</t>
+  </si>
+  <si>
+    <t>单位反制</t>
+  </si>
+  <si>
+    <t>反制一张建筑卡牌或者单位卡牌</t>
+  </si>
+  <si>
+    <t>民兵</t>
   </si>
   <si>
     <t>[2,1]</t>
   </si>
   <si>
-    <t>弓箭手</t>
-  </si>
-  <si>
-    <t>魔法神箭</t>
-  </si>
-  <si>
-    <t>对一个单位造成两点伤害</t>
-  </si>
-  <si>
-    <t>[11,1]</t>
-  </si>
-  <si>
-    <t>单位反制</t>
-  </si>
-  <si>
-    <t>反制一张建筑卡牌或者单位卡牌</t>
-  </si>
-  <si>
-    <t>公共近战凑数1</t>
-  </si>
-  <si>
-    <t>公共近战凑数2</t>
-  </si>
-  <si>
-    <t>公共远程凑数1</t>
-  </si>
-  <si>
-    <t>公共远程凑数2</t>
-  </si>
-  <si>
-    <t>公共近战凑数3</t>
-  </si>
-  <si>
-    <t>公共远程凑数3</t>
-  </si>
-  <si>
-    <t>公共近战凑数4</t>
-  </si>
-  <si>
-    <t>公共远程凑数4</t>
+    <t>剑士</t>
+  </si>
+  <si>
+    <t>长矛兵</t>
+  </si>
+  <si>
+    <t>长剑士</t>
+  </si>
+  <si>
+    <t>长枪兵</t>
+  </si>
+  <si>
+    <t>双手剑士</t>
+  </si>
+  <si>
+    <t>长戟兵</t>
+  </si>
+  <si>
+    <t>骑士</t>
+  </si>
+  <si>
+    <t>翼骑兵</t>
+  </si>
+  <si>
+    <t>重装骑士</t>
+  </si>
+  <si>
+    <t>勇者剑士</t>
+  </si>
+  <si>
+    <t>圣殿骑士</t>
+  </si>
+  <si>
+    <t>步弓手</t>
+  </si>
+  <si>
+    <t>弩手</t>
+  </si>
+  <si>
+    <t>掷矛战士</t>
+  </si>
+  <si>
+    <t>精锐掷矛战士</t>
+  </si>
+  <si>
+    <t>长弓手</t>
+  </si>
+  <si>
+    <t>劲弩手</t>
+  </si>
+  <si>
+    <t>骑射手</t>
+  </si>
+  <si>
+    <t>精锐骑射手</t>
   </si>
   <si>
     <t>Cards1={</t>
@@ -1687,7 +1723,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="43">
+  <fonts count="48">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1746,6 +1782,38 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="8"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF00B050"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -2459,159 +2527,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="13" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="29" fillId="37" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="37" borderId="13" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="14" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="14" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2627,161 +2695,161 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="14" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="38" borderId="14" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="39" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="39" borderId="13" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="40" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="40" borderId="13" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="41" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="41" borderId="13" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="42" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="42" borderId="13" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="5">
+    <xf numFmtId="0" fontId="38" fillId="43" borderId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="43" borderId="5">
+    <xf numFmtId="0" fontId="38" fillId="43" borderId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="6" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="7" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="7" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="31" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2827,6 +2895,17 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -2965,6 +3044,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="001552D1"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3231,10 +3315,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3247,7 +3331,7 @@
     <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
     <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
     <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.00833333333333" customWidth="1"/>
+    <col min="11" max="11" width="16.9083333333333" customWidth="1"/>
     <col min="12" max="12" width="33.0083333333333" customWidth="1"/>
     <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
     <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
@@ -3357,7 +3441,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:17">
+    <row r="5" ht="35" customHeight="1" spans="1:18">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -3409,120 +3493,129 @@
       <c r="Q5" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:18">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="M6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="P6" s="11" t="s">
+      <c r="R6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="Q6" s="11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:17">
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:18">
       <c r="A7" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="8" ht="18.5" customHeight="1" spans="1:17">
+        <v>46</v>
+      </c>
+      <c r="R7" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:18">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>0</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
@@ -3533,29 +3626,29 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>0</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="G8" s="16">
+        <v>0</v>
+      </c>
+      <c r="H8" s="17">
+        <v>0</v>
+      </c>
+      <c r="I8" s="20">
         <v>0</v>
       </c>
       <c r="J8" s="4">
         <v>1</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="4">
         <v>1</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -3564,66 +3657,72 @@
         <v>-1</v>
       </c>
       <c r="Q8" s="4"/>
-    </row>
-    <row r="9" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="1:18">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1</v>
+      </c>
+      <c r="F9" s="4">
+        <v>0</v>
+      </c>
+      <c r="G9" s="16">
+        <v>1</v>
+      </c>
+      <c r="H9" s="17">
+        <v>2</v>
+      </c>
+      <c r="I9" s="20">
+        <v>3</v>
+      </c>
+      <c r="J9" s="4">
+        <v>0</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="L9" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D9" s="4">
-        <v>1</v>
-      </c>
-      <c r="E9" s="4">
-        <v>1</v>
-      </c>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="4">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>4</v>
-      </c>
-      <c r="I9" s="4">
-        <v>1</v>
-      </c>
-      <c r="J9" s="4">
-        <v>1</v>
-      </c>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4" t="s">
-        <v>48</v>
-      </c>
       <c r="M9" s="4">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="O9" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P9" s="4">
         <v>-1</v>
       </c>
-      <c r="Q9" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="10" ht="18.5" customHeight="1" spans="1:17">
+      <c r="Q9" s="4"/>
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="18.5" customHeight="1" spans="1:18">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D10" s="4">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" s="4">
         <v>1</v>
@@ -3631,21 +3730,23 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="4">
-        <v>2</v>
-      </c>
-      <c r="H10" s="4">
-        <v>2</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="16">
+        <v>2</v>
+      </c>
+      <c r="H10" s="17">
+        <v>2</v>
+      </c>
+      <c r="I10" s="20">
         <v>1</v>
       </c>
       <c r="J10" s="4">
         <v>2</v>
       </c>
-      <c r="K10" s="4"/>
+      <c r="K10" s="4" t="s">
+        <v>56</v>
+      </c>
       <c r="L10" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
@@ -3654,25 +3755,26 @@
         <v>51</v>
       </c>
       <c r="O10" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P10" s="4">
         <v>-1</v>
       </c>
-      <c r="Q10" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="11" ht="18.5" customHeight="1" spans="1:17">
+      <c r="Q10" s="4"/>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:18">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="D11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E11" s="4">
         <v>1</v>
@@ -3680,78 +3782,79 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="4">
-        <v>2</v>
-      </c>
-      <c r="H11" s="4">
-        <v>3</v>
-      </c>
-      <c r="I11" s="4">
-        <v>1</v>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17">
+        <v>1</v>
+      </c>
+      <c r="I11" s="20">
+        <v>2</v>
       </c>
       <c r="J11" s="4">
         <v>0</v>
       </c>
-      <c r="K11" s="4" t="s">
-        <v>54</v>
-      </c>
+      <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="O11" s="4">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="P11" s="4">
         <v>-1</v>
       </c>
-      <c r="Q11" s="4"/>
-    </row>
-    <row r="12" ht="18.5" customHeight="1" spans="1:17">
+      <c r="Q11" s="4">
+        <v>2</v>
+      </c>
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18.5" customHeight="1" spans="1:18">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="D12" s="4">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E12" s="4">
         <v>1</v>
       </c>
       <c r="F12" s="4">
-        <v>1</v>
-      </c>
-      <c r="G12" s="4">
-        <v>2</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G12" s="16">
+        <v>2</v>
+      </c>
+      <c r="H12" s="17">
+        <v>2</v>
+      </c>
+      <c r="I12" s="20">
+        <v>3</v>
       </c>
       <c r="J12" s="4">
-        <v>2</v>
-      </c>
-      <c r="K12" s="4" t="s">
-        <v>57</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>49</v>
+        <v>58</v>
       </c>
       <c r="O12" s="4">
         <v>-1</v>
@@ -3759,15 +3862,20 @@
       <c r="P12" s="4">
         <v>-1</v>
       </c>
-      <c r="Q12" s="4"/>
-    </row>
-    <row r="13" ht="18.5" customHeight="1" spans="1:17">
+      <c r="Q12" s="4">
+        <v>2</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="18.5" customHeight="1" spans="1:18">
       <c r="A13" s="4"/>
       <c r="B13" s="4">
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -3778,27 +3886,27 @@
       <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="4">
-        <v>3</v>
-      </c>
-      <c r="H13" s="4">
-        <v>3</v>
-      </c>
-      <c r="I13" s="4">
-        <v>1</v>
+      <c r="G13" s="16">
+        <v>2</v>
+      </c>
+      <c r="H13" s="17">
+        <v>3</v>
+      </c>
+      <c r="I13" s="20">
+        <v>2</v>
       </c>
       <c r="J13" s="4">
         <v>0</v>
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O13" s="4">
         <v>-1</v>
@@ -3809,14 +3917,17 @@
       <c r="Q13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:18">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -3827,27 +3938,27 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="16">
+        <v>3</v>
+      </c>
+      <c r="H14" s="17">
+        <v>3</v>
+      </c>
+      <c r="I14" s="20">
         <v>4</v>
       </c>
-      <c r="H14" s="4">
-        <v>2</v>
-      </c>
-      <c r="I14" s="4">
-        <v>1</v>
-      </c>
       <c r="J14" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O14" s="4">
         <v>-1</v>
@@ -3858,14 +3969,17 @@
       <c r="Q14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18.5" customHeight="1" spans="1:18">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -3874,32 +3988,32 @@
         <v>1</v>
       </c>
       <c r="F15" s="4">
-        <v>1</v>
-      </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3</v>
-      </c>
-      <c r="I15" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>3</v>
+      </c>
+      <c r="H15" s="17">
+        <v>4</v>
+      </c>
+      <c r="I15" s="20">
+        <v>3</v>
       </c>
       <c r="J15" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O15" s="4">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="P15" s="4">
         <v>-1</v>
@@ -3907,14 +4021,17 @@
       <c r="Q15" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="18.5" customHeight="1" spans="1:18">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -3923,32 +4040,32 @@
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="4">
-        <v>3</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="16">
+        <v>4</v>
+      </c>
+      <c r="H16" s="17">
+        <v>4</v>
+      </c>
+      <c r="I16" s="20">
+        <v>5</v>
       </c>
       <c r="J16" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O16" s="4">
-        <v>3</v>
+        <v>-1</v>
       </c>
       <c r="P16" s="4">
         <v>-1</v>
@@ -3956,14 +4073,17 @@
       <c r="Q16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="18.5" customHeight="1" spans="1:18">
       <c r="A17" s="4"/>
       <c r="B17" s="4">
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -3974,27 +4094,27 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="4">
-        <v>3</v>
-      </c>
-      <c r="H17" s="4">
+      <c r="G17" s="16">
+        <v>4</v>
+      </c>
+      <c r="H17" s="17">
         <v>5</v>
       </c>
-      <c r="I17" s="4">
-        <v>2</v>
+      <c r="I17" s="20">
+        <v>4</v>
       </c>
       <c r="J17" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O17" s="4">
         <v>-1</v>
@@ -4005,14 +4125,17 @@
       <c r="Q17" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" ht="18.5" customHeight="1" spans="1:18">
       <c r="A18" s="4"/>
       <c r="B18" s="4">
         <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -4021,32 +4144,32 @@
         <v>1</v>
       </c>
       <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="4">
-        <v>3</v>
-      </c>
-      <c r="H18" s="4">
-        <v>3</v>
-      </c>
-      <c r="I18" s="4">
-        <v>2</v>
+        <v>0</v>
+      </c>
+      <c r="G18" s="16">
+        <v>5</v>
+      </c>
+      <c r="H18" s="17">
+        <v>5</v>
+      </c>
+      <c r="I18" s="20">
+        <v>6</v>
       </c>
       <c r="J18" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O18" s="4">
-        <v>4</v>
+        <v>-1</v>
       </c>
       <c r="P18" s="4">
         <v>-1</v>
@@ -4054,14 +4177,16 @@
       <c r="Q18" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" ht="18.5" customHeight="1" spans="1:17">
-      <c r="A19" s="4"/>
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="14" customHeight="1" spans="2:18">
       <c r="B19" s="4">
         <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -4072,27 +4197,27 @@
       <c r="F19" s="4">
         <v>0</v>
       </c>
-      <c r="G19" s="4">
-        <v>4</v>
-      </c>
-      <c r="H19" s="4">
-        <v>6</v>
-      </c>
-      <c r="I19" s="4">
-        <v>3</v>
+      <c r="G19" s="16">
+        <v>5</v>
+      </c>
+      <c r="H19" s="17">
+        <v>3</v>
+      </c>
+      <c r="I19" s="20">
+        <v>8</v>
       </c>
       <c r="J19" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O19" s="4">
         <v>-1</v>
@@ -4101,16 +4226,18 @@
         <v>-1</v>
       </c>
       <c r="Q19" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="20" ht="18.5" customHeight="1" spans="1:17">
-      <c r="A20" s="4"/>
+        <v>3</v>
+      </c>
+      <c r="R19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:18">
       <c r="B20" s="4">
         <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -4119,118 +4246,732 @@
         <v>1</v>
       </c>
       <c r="F20" s="4">
-        <v>1</v>
-      </c>
-      <c r="G20" s="4">
-        <v>3</v>
-      </c>
-      <c r="H20" s="4">
-        <v>5</v>
-      </c>
-      <c r="I20" s="4">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="G20" s="16">
+        <v>6</v>
+      </c>
+      <c r="H20" s="17">
+        <v>6</v>
+      </c>
+      <c r="I20" s="20">
+        <v>7</v>
       </c>
       <c r="J20" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P20" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q20" s="4">
+        <v>2</v>
+      </c>
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:18">
+      <c r="B21" s="4">
+        <v>13</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1</v>
+      </c>
+      <c r="E21" s="4">
+        <v>1</v>
+      </c>
+      <c r="F21" s="4">
+        <v>0</v>
+      </c>
+      <c r="G21" s="16">
+        <v>6</v>
+      </c>
+      <c r="H21" s="17">
+        <v>7</v>
+      </c>
+      <c r="I21" s="20">
+        <v>6</v>
+      </c>
+      <c r="J21" s="4">
+        <v>0</v>
+      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="4">
+        <v>0</v>
+      </c>
+      <c r="N21" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P21" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q21" s="4">
+        <v>2</v>
+      </c>
+      <c r="R21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="2:18">
+      <c r="B22" s="4">
+        <v>14</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D22" s="4">
+        <v>1</v>
+      </c>
+      <c r="E22" s="4">
+        <v>1</v>
+      </c>
+      <c r="F22" s="4">
+        <v>0</v>
+      </c>
+      <c r="G22" s="16">
+        <v>6</v>
+      </c>
+      <c r="H22" s="17">
+        <v>6</v>
+      </c>
+      <c r="I22" s="20">
+        <v>9</v>
+      </c>
+      <c r="J22" s="4">
+        <v>0</v>
+      </c>
+      <c r="K22" s="4"/>
+      <c r="L22" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M22" s="4">
+        <v>0</v>
+      </c>
+      <c r="N22" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P22" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q22" s="4">
+        <v>3</v>
+      </c>
+      <c r="R22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" ht="16.5" spans="2:18">
+      <c r="B23" s="4">
+        <v>15</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="4">
+        <v>1</v>
+      </c>
+      <c r="E23" s="4">
+        <v>1</v>
+      </c>
+      <c r="F23" s="4">
+        <v>1</v>
+      </c>
+      <c r="G23" s="16">
+        <v>2</v>
+      </c>
+      <c r="H23" s="17">
+        <v>2</v>
+      </c>
+      <c r="I23" s="20">
+        <v>1</v>
+      </c>
+      <c r="J23" s="4">
+        <v>1</v>
+      </c>
+      <c r="K23" s="4"/>
+      <c r="L23" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M23" s="4">
+        <v>0</v>
+      </c>
+      <c r="N23" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O23" s="4">
+        <v>0</v>
+      </c>
+      <c r="P23" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q23" s="4">
+        <v>2</v>
+      </c>
+      <c r="R23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" ht="16.5" spans="2:18">
+      <c r="B24" s="4">
+        <v>16</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="4">
+        <v>1</v>
+      </c>
+      <c r="E24" s="4">
+        <v>1</v>
+      </c>
+      <c r="F24" s="4">
+        <v>1</v>
+      </c>
+      <c r="G24" s="16">
+        <v>3</v>
+      </c>
+      <c r="H24" s="17">
+        <v>3</v>
+      </c>
+      <c r="I24" s="20">
+        <v>2</v>
+      </c>
+      <c r="J24" s="4">
+        <v>1</v>
+      </c>
+      <c r="K24" s="4"/>
+      <c r="L24" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M24" s="4">
+        <v>0</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O24" s="4">
+        <v>0</v>
+      </c>
+      <c r="P24" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q24" s="4">
+        <v>2</v>
+      </c>
+      <c r="R24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" ht="16.5" spans="2:18">
+      <c r="B25" s="4">
+        <v>17</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="4">
+        <v>1</v>
+      </c>
+      <c r="E25" s="4">
+        <v>1</v>
+      </c>
+      <c r="F25" s="4">
+        <v>1</v>
+      </c>
+      <c r="G25" s="16">
+        <v>3</v>
+      </c>
+      <c r="H25" s="17">
+        <v>2</v>
+      </c>
+      <c r="I25" s="20">
+        <v>3</v>
+      </c>
+      <c r="J25" s="4">
+        <v>1</v>
+      </c>
+      <c r="K25" s="4"/>
+      <c r="L25" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M25" s="4">
+        <v>0</v>
+      </c>
+      <c r="N25" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O25" s="4">
+        <v>0</v>
+      </c>
+      <c r="P25" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q25" s="4">
+        <v>2</v>
+      </c>
+      <c r="R25" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" ht="16.5" spans="2:18">
+      <c r="B26" s="4">
+        <v>18</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="D26" s="4">
+        <v>1</v>
+      </c>
+      <c r="E26" s="4">
+        <v>1</v>
+      </c>
+      <c r="F26" s="4">
+        <v>1</v>
+      </c>
+      <c r="G26" s="16">
+        <v>4</v>
+      </c>
+      <c r="H26" s="17">
+        <v>4</v>
+      </c>
+      <c r="I26" s="20">
+        <v>3</v>
+      </c>
+      <c r="J26" s="4">
+        <v>1</v>
+      </c>
+      <c r="K26" s="4"/>
+      <c r="L26" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M26" s="4">
+        <v>0</v>
+      </c>
+      <c r="N26" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O26" s="4">
+        <v>0</v>
+      </c>
+      <c r="P26" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q26" s="4">
+        <v>2</v>
+      </c>
+      <c r="R26" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" ht="16.5" spans="2:18">
+      <c r="B27" s="4">
+        <v>19</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D27" s="4">
+        <v>1</v>
+      </c>
+      <c r="E27" s="4">
+        <v>1</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+      <c r="G27" s="16">
+        <v>4</v>
+      </c>
+      <c r="H27" s="17">
+        <v>2</v>
+      </c>
+      <c r="I27" s="20">
+        <v>4</v>
+      </c>
+      <c r="J27" s="4">
+        <v>1</v>
+      </c>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M27" s="4">
+        <v>0</v>
+      </c>
+      <c r="N27" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O27" s="4">
+        <v>0</v>
+      </c>
+      <c r="P27" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q27" s="4">
+        <v>2</v>
+      </c>
+      <c r="R27" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" ht="16.5" spans="2:18">
+      <c r="B28" s="4">
+        <v>20</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D28" s="4">
+        <v>1</v>
+      </c>
+      <c r="E28" s="4">
+        <v>1</v>
+      </c>
+      <c r="F28" s="4">
+        <v>1</v>
+      </c>
+      <c r="G28" s="16">
         <v>5</v>
       </c>
-      <c r="P20" s="4">
-        <v>-1</v>
-      </c>
-      <c r="Q20" s="4">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" ht="14" customHeight="1"/>
+      <c r="H28" s="17">
+        <v>5</v>
+      </c>
+      <c r="I28" s="20">
+        <v>4</v>
+      </c>
+      <c r="J28" s="4">
+        <v>1</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M28" s="4">
+        <v>0</v>
+      </c>
+      <c r="N28" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O28" s="4">
+        <v>0</v>
+      </c>
+      <c r="P28" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q28" s="4">
+        <v>2</v>
+      </c>
+      <c r="R28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" ht="16.5" spans="2:18">
+      <c r="B29" s="4">
+        <v>21</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4">
+        <v>1</v>
+      </c>
+      <c r="F29" s="4">
+        <v>1</v>
+      </c>
+      <c r="G29" s="16">
+        <v>5</v>
+      </c>
+      <c r="H29" s="17">
+        <v>4</v>
+      </c>
+      <c r="I29" s="20">
+        <v>5</v>
+      </c>
+      <c r="J29" s="4">
+        <v>1</v>
+      </c>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M29" s="4">
+        <v>0</v>
+      </c>
+      <c r="N29" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O29" s="4">
+        <v>0</v>
+      </c>
+      <c r="P29" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q29" s="4">
+        <v>2</v>
+      </c>
+      <c r="R29" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" ht="16.5" spans="2:18">
+      <c r="B30" s="4">
+        <v>22</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
+      </c>
+      <c r="E30" s="4">
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <v>1</v>
+      </c>
+      <c r="G30" s="16">
+        <v>5</v>
+      </c>
+      <c r="H30" s="17">
+        <v>5</v>
+      </c>
+      <c r="I30" s="20">
+        <v>6</v>
+      </c>
+      <c r="J30" s="4">
+        <v>1</v>
+      </c>
+      <c r="K30" s="4"/>
+      <c r="L30" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M30" s="4">
+        <v>0</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O30" s="4">
+        <v>0</v>
+      </c>
+      <c r="P30" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q30" s="4">
+        <v>2</v>
+      </c>
+      <c r="R30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" ht="16.5" spans="2:17">
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+      <c r="K31" s="4"/>
+      <c r="L31" s="4"/>
+      <c r="M31" s="4"/>
+      <c r="N31" s="4"/>
+      <c r="O31" s="4"/>
+      <c r="P31" s="4"/>
+      <c r="Q31" s="4"/>
+    </row>
+    <row r="32" spans="7:8">
+      <c r="G32" s="18"/>
+      <c r="H32" s="19"/>
+    </row>
+    <row r="33" spans="7:8">
+      <c r="G33" s="18"/>
+      <c r="H33" s="19"/>
+    </row>
+    <row r="34" spans="7:8">
+      <c r="G34" s="18"/>
+      <c r="H34" s="19"/>
+    </row>
+    <row r="35" spans="7:8">
+      <c r="G35" s="18"/>
+      <c r="H35" s="19"/>
+    </row>
+    <row r="36" spans="7:8">
+      <c r="G36" s="18"/>
+      <c r="H36" s="19"/>
+    </row>
+    <row r="37" spans="7:7">
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="7:7">
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="7:7">
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="7:7">
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="7:7">
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="7:7">
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="7:7">
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="7:7">
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="7:7">
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="7:7">
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="18"/>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" s="18"/>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51" s="18"/>
+    </row>
+    <row r="52" spans="7:7">
+      <c r="G52" s="18"/>
+    </row>
+    <row r="53" spans="7:7">
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54" spans="7:7">
+      <c r="G54" s="18"/>
+    </row>
+    <row r="55" spans="7:7">
+      <c r="G55" s="18"/>
+    </row>
+    <row r="56" spans="7:7">
+      <c r="G56" s="18"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:Q20">
+  <autoFilter ref="A5:Q18">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="156"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="162"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="81"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="82"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="110"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="111"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:K5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="154"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="160"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
-    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="80"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:L7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="108"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="109"/>
+  <conditionalFormatting sqref="I7:L7 G7">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4244,8 +4985,8 @@
   <sheetPr/>
   <dimension ref="A1:R21"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13:N21"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4258,7 +4999,7 @@
     <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
     <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
     <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.00833333333333" customWidth="1"/>
+    <col min="11" max="11" width="42.65" customWidth="1"/>
     <col min="12" max="12" width="40.625" customWidth="1"/>
     <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
     <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
@@ -4280,7 +5021,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -4301,7 +5042,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -4423,108 +5164,108 @@
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:17">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="M6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:17">
       <c r="A7" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="35" customHeight="1" spans="1:17">
@@ -4533,7 +5274,7 @@
         <v>100000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -4545,28 +5286,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H8" s="4">
+        <v>3</v>
+      </c>
+      <c r="I8" s="4">
         <v>22</v>
       </c>
-      <c r="I8" s="4">
-        <v>0</v>
-      </c>
       <c r="J8" s="4">
         <v>3</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -4584,7 +5325,7 @@
         <v>100001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -4596,28 +5337,28 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H9" s="4">
+        <v>1</v>
+      </c>
+      <c r="I9" s="4">
         <v>4</v>
       </c>
-      <c r="I9" s="4">
-        <v>2</v>
-      </c>
       <c r="J9" s="4">
         <v>1</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O9" s="4">
         <v>-1</v>
@@ -4635,7 +5376,7 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -4647,28 +5388,28 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H10" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" s="4">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O10" s="4">
         <v>2</v>
@@ -4686,7 +5427,7 @@
         <v>100003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -4698,28 +5439,28 @@
         <v>1</v>
       </c>
       <c r="G11" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H11" s="4">
         <v>2</v>
       </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="K11" s="15" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="O11" s="4">
         <v>3</v>
@@ -4737,7 +5478,7 @@
         <v>100004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -4749,28 +5490,28 @@
         <v>0</v>
       </c>
       <c r="G12" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" s="4">
+        <v>2</v>
+      </c>
+      <c r="I12" s="4">
         <v>5</v>
       </c>
-      <c r="I12" s="4">
-        <v>1</v>
-      </c>
       <c r="J12" s="4">
         <v>0</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="O12" s="4">
         <v>-1</v>
@@ -4786,7 +5527,7 @@
         <v>100005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -4798,28 +5539,28 @@
         <v>0</v>
       </c>
       <c r="G13" s="4">
+        <v>5</v>
+      </c>
+      <c r="H13" s="4">
         <v>4</v>
       </c>
-      <c r="H13" s="4">
+      <c r="I13" s="4">
         <v>8</v>
       </c>
-      <c r="I13" s="4">
-        <v>5</v>
-      </c>
       <c r="J13" s="4">
         <v>2</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O13" s="4">
         <v>-1</v>
@@ -4837,7 +5578,7 @@
         <v>100006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -4849,26 +5590,26 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H14" s="4">
         <v>3</v>
       </c>
       <c r="I14" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J14" s="4">
         <v>0</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O14" s="4">
         <v>-1</v>
@@ -4885,7 +5626,7 @@
         <v>100007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -4897,26 +5638,26 @@
         <v>0</v>
       </c>
       <c r="G15" s="4">
+        <v>1</v>
+      </c>
+      <c r="H15" s="4">
         <v>4</v>
       </c>
-      <c r="H15" s="4">
-        <v>2</v>
-      </c>
       <c r="I15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O15" s="4">
         <v>-1</v>
@@ -4933,7 +5674,7 @@
         <v>100008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -4948,23 +5689,23 @@
         <v>1</v>
       </c>
       <c r="H16" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I16" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O16" s="4">
         <v>0</v>
@@ -4981,7 +5722,7 @@
         <v>100009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -4993,10 +5734,10 @@
         <v>1</v>
       </c>
       <c r="G17" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H17" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4">
         <v>1</v>
@@ -5006,13 +5747,13 @@
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O17" s="4">
         <v>3</v>
@@ -5029,7 +5770,7 @@
         <v>100010</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -5041,26 +5782,26 @@
         <v>0</v>
       </c>
       <c r="G18" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H18" s="4">
+        <v>3</v>
+      </c>
+      <c r="I18" s="4">
         <v>5</v>
-      </c>
-      <c r="I18" s="4">
-        <v>2</v>
       </c>
       <c r="J18" s="4">
         <v>1</v>
       </c>
       <c r="K18" s="4"/>
       <c r="L18" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M18" s="4">
         <v>0</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O18" s="4">
         <v>-1</v>
@@ -5077,7 +5818,7 @@
         <v>100011</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -5089,26 +5830,26 @@
         <v>1</v>
       </c>
       <c r="G19" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H19" s="4">
         <v>3</v>
       </c>
       <c r="I19" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J19" s="4">
         <v>1</v>
       </c>
       <c r="K19" s="4"/>
       <c r="L19" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M19" s="4">
         <v>0</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O19" s="4">
         <v>4</v>
@@ -5125,7 +5866,7 @@
         <v>100012</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -5137,26 +5878,26 @@
         <v>0</v>
       </c>
       <c r="G20" s="4">
+        <v>3</v>
+      </c>
+      <c r="H20" s="4">
         <v>4</v>
       </c>
-      <c r="H20" s="4">
+      <c r="I20" s="4">
         <v>6</v>
-      </c>
-      <c r="I20" s="4">
-        <v>3</v>
       </c>
       <c r="J20" s="4">
         <v>1</v>
       </c>
       <c r="K20" s="4"/>
       <c r="L20" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M20" s="4">
         <v>0</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O20" s="4">
         <v>-1</v>
@@ -5173,7 +5914,7 @@
         <v>100013</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -5188,23 +5929,23 @@
         <v>3</v>
       </c>
       <c r="H21" s="4">
+        <v>3</v>
+      </c>
+      <c r="I21" s="4">
         <v>5</v>
-      </c>
-      <c r="I21" s="4">
-        <v>3</v>
       </c>
       <c r="J21" s="4">
         <v>1</v>
       </c>
       <c r="K21" s="4"/>
       <c r="L21" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M21" s="4">
         <v>0</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O21" s="4">
         <v>5</v>
@@ -5229,13 +5970,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="H5">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:K5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
@@ -5269,13 +6006,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="61"/>
     <cfRule type="duplicateValues" dxfId="1" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="H7">
     <cfRule type="duplicateValues" dxfId="0" priority="43"/>
     <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:L7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
     <cfRule type="duplicateValues" dxfId="0" priority="55"/>
@@ -5290,6 +6023,14 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:L7 G7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -5303,7 +6044,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N17"/>
+      <selection activeCell="C12" sqref="C12:Q12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5339,7 +6080,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -5360,7 +6101,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -5482,108 +6223,108 @@
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:17">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="M6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:17">
       <c r="A7" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="1:17">
@@ -5592,7 +6333,7 @@
         <v>200000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -5604,28 +6345,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -5641,7 +6382,7 @@
         <v>200001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -5653,26 +6394,26 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
         <v>22</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
       </c>
       <c r="J9" s="4">
         <v>3</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O9" s="4">
         <v>-1</v>
@@ -5690,7 +6431,7 @@
         <v>200002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -5702,26 +6443,26 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
         <v>3</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O10" s="4">
         <v>-1</v>
@@ -5739,7 +6480,7 @@
         <v>200003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -5751,25 +6492,25 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
         <v>4</v>
       </c>
-      <c r="H11" s="4">
-        <v>2</v>
-      </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O11" s="4">
         <v>-1</v>
@@ -5787,7 +6528,7 @@
         <v>200004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -5802,23 +6543,23 @@
         <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -5836,7 +6577,7 @@
         <v>200005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -5848,10 +6589,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -5861,13 +6602,13 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O13" s="4">
         <v>3</v>
@@ -5885,7 +6626,7 @@
         <v>200006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -5897,26 +6638,26 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="4">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4">
         <v>5</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O14" s="4">
         <v>-1</v>
@@ -5934,7 +6675,7 @@
         <v>200007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -5946,26 +6687,26 @@
         <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="4">
         <v>3</v>
       </c>
       <c r="I15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O15" s="4">
         <v>4</v>
@@ -5983,7 +6724,7 @@
         <v>200008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -5995,26 +6736,26 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
         <v>4</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>6</v>
-      </c>
-      <c r="I16" s="4">
-        <v>3</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O16" s="4">
         <v>-1</v>
@@ -6032,7 +6773,7 @@
         <v>200009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -6047,23 +6788,23 @@
         <v>3</v>
       </c>
       <c r="H17" s="4">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
         <v>5</v>
-      </c>
-      <c r="I17" s="4">
-        <v>3</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O17" s="4">
         <v>5</v>
@@ -6088,13 +6829,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="H5">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:K5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
@@ -6128,13 +6865,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="61"/>
     <cfRule type="duplicateValues" dxfId="1" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="H7">
     <cfRule type="duplicateValues" dxfId="0" priority="43"/>
     <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:L7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
     <cfRule type="duplicateValues" dxfId="0" priority="55"/>
@@ -6149,6 +6882,14 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:L7 G7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6161,8 +6902,8 @@
   <sheetPr/>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N17"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6197,7 +6938,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -6218,7 +6959,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -6340,108 +7081,108 @@
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:17">
       <c r="A6" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="M6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:17">
       <c r="A7" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="1:17">
@@ -6450,7 +7191,7 @@
         <v>300000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>108</v>
+        <v>120</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -6462,28 +7203,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -6498,7 +7239,7 @@
         <v>300001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>109</v>
+        <v>121</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -6510,26 +7251,26 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
         <v>22</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
       </c>
       <c r="J9" s="4">
         <v>3</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O9" s="4">
         <v>-1</v>
@@ -6546,7 +7287,7 @@
         <v>300002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -6558,26 +7299,26 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
         <v>3</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O10" s="4">
         <v>-1</v>
@@ -6594,7 +7335,7 @@
         <v>300003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>111</v>
+        <v>123</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -6606,25 +7347,25 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
         <v>4</v>
       </c>
-      <c r="H11" s="4">
-        <v>2</v>
-      </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O11" s="4">
         <v>-1</v>
@@ -6641,7 +7382,7 @@
         <v>300004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -6656,23 +7397,23 @@
         <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -6689,7 +7430,7 @@
         <v>300005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>113</v>
+        <v>125</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -6701,10 +7442,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -6714,13 +7455,13 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O13" s="4">
         <v>3</v>
@@ -6737,7 +7478,7 @@
         <v>300006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>114</v>
+        <v>126</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -6749,26 +7490,26 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="4">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4">
         <v>5</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O14" s="4">
         <v>-1</v>
@@ -6785,7 +7526,7 @@
         <v>300007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>115</v>
+        <v>127</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -6797,26 +7538,26 @@
         <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="4">
         <v>3</v>
       </c>
       <c r="I15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O15" s="4">
         <v>4</v>
@@ -6833,7 +7574,7 @@
         <v>300008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>116</v>
+        <v>128</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -6845,26 +7586,26 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
         <v>4</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>6</v>
-      </c>
-      <c r="I16" s="4">
-        <v>3</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O16" s="4">
         <v>-1</v>
@@ -6881,7 +7622,7 @@
         <v>300009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>117</v>
+        <v>129</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -6896,23 +7637,23 @@
         <v>3</v>
       </c>
       <c r="H17" s="4">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
         <v>5</v>
-      </c>
-      <c r="I17" s="4">
-        <v>3</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O17" s="4">
         <v>5</v>
@@ -6937,13 +7678,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="H5">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:K5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
@@ -6977,13 +7714,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="61"/>
     <cfRule type="duplicateValues" dxfId="1" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="H7">
     <cfRule type="duplicateValues" dxfId="0" priority="43"/>
     <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:L7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
     <cfRule type="duplicateValues" dxfId="0" priority="55"/>
@@ -6998,6 +7731,14 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:L7 G7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7011,7 +7752,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N17"/>
+      <selection activeCell="L17" sqref="L17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7046,7 +7787,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>118</v>
+        <v>130</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -7067,7 +7808,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -7189,108 +7930,108 @@
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:17">
       <c r="A6" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="M6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:17">
       <c r="A7" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="1:17">
@@ -7299,7 +8040,7 @@
         <v>400000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -7311,28 +8052,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -7347,7 +8088,7 @@
         <v>400001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -7359,26 +8100,26 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
         <v>22</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
       </c>
       <c r="J9" s="4">
         <v>3</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O9" s="4">
         <v>-1</v>
@@ -7395,7 +8136,7 @@
         <v>400002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -7407,26 +8148,26 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
         <v>3</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O10" s="4">
         <v>-1</v>
@@ -7443,7 +8184,7 @@
         <v>400003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -7455,25 +8196,25 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
         <v>4</v>
       </c>
-      <c r="H11" s="4">
-        <v>2</v>
-      </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O11" s="4">
         <v>-1</v>
@@ -7490,7 +8231,7 @@
         <v>400004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7505,23 +8246,23 @@
         <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -7538,7 +8279,7 @@
         <v>400005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7550,10 +8291,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -7563,13 +8304,13 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O13" s="4">
         <v>3</v>
@@ -7586,7 +8327,7 @@
         <v>400006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -7598,26 +8339,26 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="4">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4">
         <v>5</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O14" s="4">
         <v>-1</v>
@@ -7634,7 +8375,7 @@
         <v>400007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>127</v>
+        <v>139</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -7646,26 +8387,26 @@
         <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="4">
         <v>3</v>
       </c>
       <c r="I15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O15" s="4">
         <v>4</v>
@@ -7682,7 +8423,7 @@
         <v>400008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>128</v>
+        <v>140</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7694,26 +8435,26 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
         <v>4</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>6</v>
-      </c>
-      <c r="I16" s="4">
-        <v>3</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O16" s="4">
         <v>-1</v>
@@ -7730,7 +8471,7 @@
         <v>400009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>129</v>
+        <v>141</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -7745,23 +8486,23 @@
         <v>3</v>
       </c>
       <c r="H17" s="4">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
         <v>5</v>
-      </c>
-      <c r="I17" s="4">
-        <v>3</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O17" s="4">
         <v>5</v>
@@ -7786,13 +8527,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="H5">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:K5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
@@ -7826,13 +8563,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="61"/>
     <cfRule type="duplicateValues" dxfId="1" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="H7">
     <cfRule type="duplicateValues" dxfId="0" priority="43"/>
     <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:L7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
     <cfRule type="duplicateValues" dxfId="0" priority="55"/>
@@ -7847,6 +8580,14 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:L7 G7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7860,7 +8601,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9:N17"/>
+      <selection activeCell="G5" sqref="G5:G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7895,7 +8636,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>130</v>
+        <v>142</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -7916,7 +8657,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>143</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -8038,108 +8779,108 @@
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:17">
       <c r="A6" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="13" t="s">
-        <v>27</v>
-      </c>
       <c r="M6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="13" t="s">
         <v>28</v>
-      </c>
-      <c r="P6" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:17">
       <c r="A7" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="14" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="14" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="14" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="14" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N7" s="14" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O7" s="14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="1:17">
@@ -8148,7 +8889,7 @@
         <v>500000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>132</v>
+        <v>144</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -8160,28 +8901,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -8196,7 +8937,7 @@
         <v>500001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>133</v>
+        <v>145</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -8208,26 +8949,26 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
         <v>22</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
       </c>
       <c r="J9" s="4">
         <v>3</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O9" s="4">
         <v>-1</v>
@@ -8244,7 +8985,7 @@
         <v>500002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>134</v>
+        <v>146</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -8256,26 +8997,26 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
         <v>3</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O10" s="4">
         <v>-1</v>
@@ -8292,7 +9033,7 @@
         <v>500003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>135</v>
+        <v>147</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -8304,25 +9045,25 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
         <v>4</v>
       </c>
-      <c r="H11" s="4">
-        <v>2</v>
-      </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O11" s="4">
         <v>-1</v>
@@ -8339,7 +9080,7 @@
         <v>500004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>136</v>
+        <v>148</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -8354,23 +9095,23 @@
         <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -8387,7 +9128,7 @@
         <v>500005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>137</v>
+        <v>149</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -8399,10 +9140,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -8412,13 +9153,13 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O13" s="4">
         <v>3</v>
@@ -8435,7 +9176,7 @@
         <v>500006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>138</v>
+        <v>150</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -8447,26 +9188,26 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="4">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4">
         <v>5</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O14" s="4">
         <v>-1</v>
@@ -8483,7 +9224,7 @@
         <v>500007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>139</v>
+        <v>151</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -8495,26 +9236,26 @@
         <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="4">
         <v>3</v>
       </c>
       <c r="I15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O15" s="4">
         <v>4</v>
@@ -8531,7 +9272,7 @@
         <v>500008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>140</v>
+        <v>152</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -8543,26 +9284,26 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
         <v>4</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>6</v>
-      </c>
-      <c r="I16" s="4">
-        <v>3</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O16" s="4">
         <v>-1</v>
@@ -8579,7 +9320,7 @@
         <v>500009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -8594,23 +9335,23 @@
         <v>3</v>
       </c>
       <c r="H17" s="4">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
         <v>5</v>
-      </c>
-      <c r="I17" s="4">
-        <v>3</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O17" s="4">
         <v>5</v>
@@ -8635,13 +9376,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="H5">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:K5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
@@ -8675,13 +9412,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="61"/>
     <cfRule type="duplicateValues" dxfId="1" priority="62"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="H7">
     <cfRule type="duplicateValues" dxfId="0" priority="43"/>
     <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:L7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
     <cfRule type="duplicateValues" dxfId="0" priority="55"/>
@@ -8696,6 +9429,14 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:L7 G7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8708,8 +9449,8 @@
   <sheetPr/>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="Q23" sqref="Q23"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8745,7 +9486,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>142</v>
+        <v>154</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -8766,7 +9507,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>155</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -8888,108 +9629,108 @@
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:17">
       <c r="A6" s="11" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="D6" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="E6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="H6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="J6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="K6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="L6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="L6" s="11" t="s">
-        <v>27</v>
-      </c>
       <c r="M6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N6" s="11" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="O6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="P6" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q6" s="11" t="s">
         <v>28</v>
-      </c>
-      <c r="P6" s="11" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q6" s="11" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:17">
       <c r="A7" s="11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D7" s="12" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E7" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="I7" s="12" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="J7" s="12" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K7" s="12" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="L7" s="12" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="M7" s="12" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N7" s="12" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O7" s="12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="P7" s="12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="Q7" s="12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="8" ht="18.5" customHeight="1" spans="1:17">
@@ -8998,7 +9739,7 @@
         <v>600000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>144</v>
+        <v>156</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -9010,28 +9751,28 @@
         <v>0</v>
       </c>
       <c r="G8" s="4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H8" s="4">
+        <v>2</v>
+      </c>
+      <c r="I8" s="4">
         <v>5</v>
       </c>
-      <c r="I8" s="4">
-        <v>1</v>
-      </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -9047,7 +9788,7 @@
         <v>600001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>145</v>
+        <v>157</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -9059,26 +9800,26 @@
         <v>0</v>
       </c>
       <c r="G9" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H9" s="4">
+        <v>3</v>
+      </c>
+      <c r="I9" s="4">
         <v>22</v>
-      </c>
-      <c r="I9" s="4">
-        <v>0</v>
       </c>
       <c r="J9" s="4">
         <v>3</v>
       </c>
       <c r="K9" s="4"/>
       <c r="L9" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O9" s="4">
         <v>-1</v>
@@ -9096,7 +9837,7 @@
         <v>600002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>146</v>
+        <v>158</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -9108,26 +9849,26 @@
         <v>0</v>
       </c>
       <c r="G10" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H10" s="4">
         <v>3</v>
       </c>
       <c r="I10" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
       </c>
       <c r="K10" s="4"/>
       <c r="L10" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O10" s="4">
         <v>-1</v>
@@ -9145,7 +9886,7 @@
         <v>600003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>147</v>
+        <v>159</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -9157,26 +9898,26 @@
         <v>0</v>
       </c>
       <c r="G11" s="4">
+        <v>1</v>
+      </c>
+      <c r="H11" s="4">
         <v>4</v>
       </c>
-      <c r="H11" s="4">
-        <v>2</v>
-      </c>
       <c r="I11" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
       <c r="K11" s="4"/>
       <c r="L11" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M11" s="4">
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O11" s="4">
         <v>-1</v>
@@ -9194,7 +9935,7 @@
         <v>600004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>148</v>
+        <v>160</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -9209,23 +9950,23 @@
         <v>1</v>
       </c>
       <c r="H12" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I12" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J12" s="4">
         <v>1</v>
       </c>
       <c r="K12" s="4"/>
       <c r="L12" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M12" s="4">
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O12" s="4">
         <v>0</v>
@@ -9243,7 +9984,7 @@
         <v>600005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>149</v>
+        <v>161</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -9255,10 +9996,10 @@
         <v>1</v>
       </c>
       <c r="G13" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H13" s="4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I13" s="4">
         <v>1</v>
@@ -9268,13 +10009,13 @@
       </c>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O13" s="4">
         <v>3</v>
@@ -9292,7 +10033,7 @@
         <v>600006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -9304,26 +10045,26 @@
         <v>0</v>
       </c>
       <c r="G14" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H14" s="4">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4">
         <v>5</v>
-      </c>
-      <c r="I14" s="4">
-        <v>2</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
       </c>
       <c r="K14" s="4"/>
       <c r="L14" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M14" s="4">
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O14" s="4">
         <v>-1</v>
@@ -9341,7 +10082,7 @@
         <v>600007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>151</v>
+        <v>163</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -9353,26 +10094,26 @@
         <v>1</v>
       </c>
       <c r="G15" s="4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H15" s="4">
         <v>3</v>
       </c>
       <c r="I15" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
       <c r="K15" s="4"/>
       <c r="L15" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M15" s="4">
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O15" s="4">
         <v>4</v>
@@ -9390,7 +10131,7 @@
         <v>600008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>152</v>
+        <v>164</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -9402,26 +10143,26 @@
         <v>0</v>
       </c>
       <c r="G16" s="4">
+        <v>3</v>
+      </c>
+      <c r="H16" s="4">
         <v>4</v>
       </c>
-      <c r="H16" s="4">
+      <c r="I16" s="4">
         <v>6</v>
-      </c>
-      <c r="I16" s="4">
-        <v>3</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
       <c r="K16" s="4"/>
       <c r="L16" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M16" s="4">
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O16" s="4">
         <v>-1</v>
@@ -9439,7 +10180,7 @@
         <v>600009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>153</v>
+        <v>165</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -9454,23 +10195,23 @@
         <v>3</v>
       </c>
       <c r="H17" s="4">
+        <v>3</v>
+      </c>
+      <c r="I17" s="4">
         <v>5</v>
-      </c>
-      <c r="I17" s="4">
-        <v>3</v>
       </c>
       <c r="J17" s="4">
         <v>1</v>
       </c>
       <c r="K17" s="4"/>
       <c r="L17" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M17" s="4">
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="O17" s="4">
         <v>5</v>
@@ -9491,13 +10232,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G5">
+  <conditionalFormatting sqref="H5">
     <cfRule type="duplicateValues" dxfId="0" priority="3"/>
     <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H5:K5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
@@ -9531,13 +10268,9 @@
     <cfRule type="duplicateValues" dxfId="0" priority="41"/>
     <cfRule type="duplicateValues" dxfId="1" priority="42"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="G7">
+  <conditionalFormatting sqref="H7">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7:L7">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="M7">
     <cfRule type="duplicateValues" dxfId="0" priority="35"/>
@@ -9552,6 +10285,14 @@
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:L7 G7">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="XueYuan" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">common!$A$5:$Q$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">common!$A$5:$Q$30</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1212,7 +1212,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="166">
   <si>
     <t>导出类型</t>
   </si>
@@ -3317,8 +3317,8 @@
   <sheetPr/>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R5" sqref="R5:R30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4892,7 +4892,7 @@
       <c r="G56" s="18"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:Q18">
+  <autoFilter ref="A5:Q30">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B5:C5">
@@ -4983,10 +4983,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R21"/>
+  <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4999,8 +4999,8 @@
     <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
     <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
     <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="42.65" customWidth="1"/>
-    <col min="12" max="12" width="40.625" customWidth="1"/>
+    <col min="11" max="11" width="22.2" customWidth="1"/>
+    <col min="12" max="12" width="8.675" customWidth="1"/>
     <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
     <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
     <col min="15" max="15" width="14.675" customWidth="1"/>
@@ -5109,7 +5109,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:17">
+    <row r="5" ht="35" customHeight="1" spans="1:18">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -5161,8 +5161,11 @@
       <c r="Q5" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:18">
       <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
@@ -5214,8 +5217,11 @@
       <c r="Q6" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R6" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:18">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
@@ -5267,8 +5273,11 @@
       <c r="Q7" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" ht="35" customHeight="1" spans="1:17">
+      <c r="R7" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="35" customHeight="1" spans="1:18">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>100000</v>
@@ -5318,8 +5327,11 @@
       <c r="Q8" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="9" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="1:18">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>100001</v>
@@ -5369,8 +5381,11 @@
       <c r="Q9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="18.5" customHeight="1" spans="1:18">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>100002</v>
@@ -5420,8 +5435,11 @@
       <c r="Q10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:18">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>100003</v>
@@ -5471,8 +5489,11 @@
       <c r="Q11" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R11" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" ht="18.5" customHeight="1" spans="1:18">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>100004</v>
@@ -5520,8 +5541,11 @@
         <v>-1</v>
       </c>
       <c r="Q12" s="4"/>
-    </row>
-    <row r="13" ht="35" customHeight="1" spans="1:17">
+      <c r="R12" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="35" customHeight="1" spans="1:18">
       <c r="A13" s="4"/>
       <c r="B13" s="4">
         <v>100005</v>
@@ -5571,8 +5595,11 @@
       <c r="Q13" s="4">
         <v>3</v>
       </c>
-    </row>
-    <row r="14" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R13" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:18">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
         <v>100006</v>
@@ -5620,8 +5647,11 @@
       <c r="Q14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" ht="16.5" spans="2:17">
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="16.5" spans="2:18">
       <c r="B15" s="4">
         <v>100007</v>
       </c>
@@ -5668,8 +5698,11 @@
       <c r="Q15" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" ht="16.5" spans="2:17">
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" ht="16.5" spans="2:18">
       <c r="B16" s="4">
         <v>100008</v>
       </c>
@@ -5716,8 +5749,11 @@
       <c r="Q16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" ht="16.5" spans="2:17">
+      <c r="R16" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" ht="16.5" spans="2:18">
       <c r="B17" s="4">
         <v>100009</v>
       </c>
@@ -5764,8 +5800,11 @@
       <c r="Q17" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="18" ht="16.5" spans="2:17">
+      <c r="R17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="2:18">
       <c r="B18" s="4">
         <v>100010</v>
       </c>
@@ -5812,8 +5851,11 @@
       <c r="Q18" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="19" ht="16.5" spans="2:17">
+      <c r="R18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="16.5" spans="2:18">
       <c r="B19" s="4">
         <v>100011</v>
       </c>
@@ -5860,8 +5902,11 @@
       <c r="Q19" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="20" ht="16.5" spans="2:17">
+      <c r="R19" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" ht="16.5" spans="2:18">
       <c r="B20" s="4">
         <v>100012</v>
       </c>
@@ -5908,8 +5953,11 @@
       <c r="Q20" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="21" ht="16.5" spans="2:17">
+      <c r="R20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="16.5" spans="2:18">
       <c r="B21" s="4">
         <v>100013</v>
       </c>
@@ -5956,81 +6004,115 @@
       <c r="Q21" s="4">
         <v>2</v>
       </c>
+      <c r="R21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" ht="16.5" spans="18:18">
+      <c r="R22" s="4"/>
+    </row>
+    <row r="23" ht="16.5" spans="18:18">
+      <c r="R23" s="4"/>
+    </row>
+    <row r="24" ht="16.5" spans="18:18">
+      <c r="R24" s="4"/>
+    </row>
+    <row r="25" ht="16.5" spans="18:18">
+      <c r="R25" s="4"/>
+    </row>
+    <row r="26" ht="16.5" spans="18:18">
+      <c r="R26" s="4"/>
+    </row>
+    <row r="27" ht="16.5" spans="18:18">
+      <c r="R27" s="4"/>
+    </row>
+    <row r="28" ht="16.5" spans="18:18">
+      <c r="R28" s="4"/>
+    </row>
+    <row r="29" ht="16.5" spans="18:18">
+      <c r="R29" s="4"/>
+    </row>
+    <row r="30" ht="16.5" spans="18:18">
+      <c r="R30" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="61"/>
     <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6041,10 +6123,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12:Q12"/>
+      <selection activeCell="R5" sqref="R5:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6168,7 +6250,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:17">
+    <row r="5" ht="35" customHeight="1" spans="1:18">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -6220,8 +6302,11 @@
       <c r="Q5" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:18">
       <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
@@ -6273,8 +6358,11 @@
       <c r="Q6" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R6" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:18">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
@@ -6326,8 +6414,11 @@
       <c r="Q7" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R7" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:18">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>200000</v>
@@ -6375,8 +6466,11 @@
         <v>-1</v>
       </c>
       <c r="Q8" s="4"/>
-    </row>
-    <row r="9" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="1:18">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>200001</v>
@@ -6424,8 +6518,11 @@
       <c r="Q9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="18.5" customHeight="1" spans="1:18">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>200002</v>
@@ -6473,8 +6570,11 @@
       <c r="Q10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:18">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>200003</v>
@@ -6521,8 +6621,11 @@
       <c r="Q11" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18.5" customHeight="1" spans="1:18">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>200004</v>
@@ -6570,8 +6673,11 @@
       <c r="Q12" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="18.5" customHeight="1" spans="1:18">
       <c r="A13" s="4"/>
       <c r="B13" s="4">
         <v>200005</v>
@@ -6619,8 +6725,11 @@
       <c r="Q13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:18">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
         <v>200006</v>
@@ -6668,8 +6777,11 @@
       <c r="Q14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18.5" customHeight="1" spans="1:18">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>200007</v>
@@ -6717,8 +6829,11 @@
       <c r="Q15" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="18.5" customHeight="1" spans="1:18">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <v>200008</v>
@@ -6766,8 +6881,11 @@
       <c r="Q16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="18.5" customHeight="1" spans="1:18">
       <c r="A17" s="4"/>
       <c r="B17" s="4">
         <v>200009</v>
@@ -6815,81 +6933,100 @@
       <c r="Q17" s="4">
         <v>2</v>
       </c>
+      <c r="R17" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" ht="16.5" spans="18:18">
+      <c r="R18" s="4"/>
+    </row>
+    <row r="19" ht="16.5" spans="18:18">
+      <c r="R19" s="4"/>
+    </row>
+    <row r="20" ht="16.5" spans="18:18">
+      <c r="R20" s="4"/>
+    </row>
+    <row r="21" ht="16.5" spans="18:18">
+      <c r="R21" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="61"/>
     <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6903,7 +7040,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="R5" sqref="R5:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7026,7 +7163,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:17">
+    <row r="5" ht="35" customHeight="1" spans="1:18">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -7078,8 +7215,11 @@
       <c r="Q5" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:18">
       <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
@@ -7131,8 +7271,11 @@
       <c r="Q6" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R6" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:18">
       <c r="A7" s="13" t="s">
         <v>30</v>
       </c>
@@ -7184,8 +7327,11 @@
       <c r="Q7" s="14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R7" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:18">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>300000</v>
@@ -7233,8 +7379,11 @@
         <v>-1</v>
       </c>
       <c r="Q8" s="4"/>
-    </row>
-    <row r="9" ht="33" spans="2:17">
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="33" spans="2:18">
       <c r="B9" s="4">
         <v>300001</v>
       </c>
@@ -7281,8 +7430,11 @@
       <c r="Q9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" ht="33" spans="2:17">
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="33" spans="2:18">
       <c r="B10" s="4">
         <v>300002</v>
       </c>
@@ -7329,8 +7481,11 @@
       <c r="Q10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" ht="33" spans="2:17">
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="33" spans="2:18">
       <c r="B11" s="4">
         <v>300003</v>
       </c>
@@ -7376,8 +7531,11 @@
       <c r="Q11" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" ht="33" spans="2:17">
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="33" spans="2:18">
       <c r="B12" s="4">
         <v>300004</v>
       </c>
@@ -7424,8 +7582,11 @@
       <c r="Q12" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" ht="33" spans="2:17">
+      <c r="R12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="33" spans="2:18">
       <c r="B13" s="4">
         <v>300005</v>
       </c>
@@ -7472,8 +7633,11 @@
       <c r="Q13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" ht="33" spans="2:17">
+      <c r="R13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="33" spans="2:18">
       <c r="B14" s="4">
         <v>300006</v>
       </c>
@@ -7520,8 +7684,11 @@
       <c r="Q14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" ht="33" spans="2:17">
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="33" spans="2:18">
       <c r="B15" s="4">
         <v>300007</v>
       </c>
@@ -7568,8 +7735,11 @@
       <c r="Q15" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" ht="33" spans="2:17">
+      <c r="R15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="33" spans="2:18">
       <c r="B16" s="4">
         <v>300008</v>
       </c>
@@ -7616,8 +7786,11 @@
       <c r="Q16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" ht="33" spans="2:17">
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="33" spans="2:18">
       <c r="B17" s="4">
         <v>300009</v>
       </c>
@@ -7664,81 +7837,88 @@
       <c r="Q17" s="4">
         <v>2</v>
       </c>
+      <c r="R17" s="4">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="61"/>
     <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7752,7 +7932,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L17" sqref="L17"/>
+      <selection activeCell="R5" sqref="R5:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7875,7 +8055,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:17">
+    <row r="5" ht="35" customHeight="1" spans="1:18">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -7927,8 +8107,11 @@
       <c r="Q5" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:18">
       <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
@@ -7980,8 +8163,11 @@
       <c r="Q6" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R6" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:18">
       <c r="A7" s="13" t="s">
         <v>30</v>
       </c>
@@ -8033,8 +8219,11 @@
       <c r="Q7" s="14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R7" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:18">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>400000</v>
@@ -8082,8 +8271,11 @@
         <v>-1</v>
       </c>
       <c r="Q8" s="4"/>
-    </row>
-    <row r="9" ht="33" spans="2:17">
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="33" spans="2:18">
       <c r="B9" s="4">
         <v>400001</v>
       </c>
@@ -8130,8 +8322,11 @@
       <c r="Q9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" ht="33" spans="2:17">
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="33" spans="2:18">
       <c r="B10" s="4">
         <v>400002</v>
       </c>
@@ -8178,8 +8373,11 @@
       <c r="Q10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" ht="33" spans="2:17">
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="33" spans="2:18">
       <c r="B11" s="4">
         <v>400003</v>
       </c>
@@ -8225,8 +8423,11 @@
       <c r="Q11" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" ht="33" spans="2:17">
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="33" spans="2:18">
       <c r="B12" s="4">
         <v>400004</v>
       </c>
@@ -8273,8 +8474,11 @@
       <c r="Q12" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" ht="33" spans="2:17">
+      <c r="R12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="33" spans="2:18">
       <c r="B13" s="4">
         <v>400005</v>
       </c>
@@ -8321,8 +8525,11 @@
       <c r="Q13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" ht="33" spans="2:17">
+      <c r="R13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="33" spans="2:18">
       <c r="B14" s="4">
         <v>400006</v>
       </c>
@@ -8369,8 +8576,11 @@
       <c r="Q14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" ht="33" spans="2:17">
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="33" spans="2:18">
       <c r="B15" s="4">
         <v>400007</v>
       </c>
@@ -8417,8 +8627,11 @@
       <c r="Q15" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" ht="33" spans="2:17">
+      <c r="R15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="33" spans="2:18">
       <c r="B16" s="4">
         <v>400008</v>
       </c>
@@ -8465,8 +8678,11 @@
       <c r="Q16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" ht="33" spans="2:17">
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="33" spans="2:18">
       <c r="B17" s="4">
         <v>400009</v>
       </c>
@@ -8513,81 +8729,88 @@
       <c r="Q17" s="4">
         <v>2</v>
       </c>
+      <c r="R17" s="4">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="61"/>
     <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8601,7 +8824,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:G17"/>
+      <selection activeCell="R5" sqref="R5:R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8724,7 +8947,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:17">
+    <row r="5" ht="35" customHeight="1" spans="1:18">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -8776,8 +8999,11 @@
       <c r="Q5" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:18">
       <c r="A6" s="13" t="s">
         <v>27</v>
       </c>
@@ -8829,8 +9055,11 @@
       <c r="Q6" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R6" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:18">
       <c r="A7" s="13" t="s">
         <v>30</v>
       </c>
@@ -8882,8 +9111,11 @@
       <c r="Q7" s="14" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R7" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:18">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>500000</v>
@@ -8931,8 +9163,11 @@
         <v>-1</v>
       </c>
       <c r="Q8" s="4"/>
-    </row>
-    <row r="9" ht="33" spans="2:17">
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="33" spans="2:18">
       <c r="B9" s="4">
         <v>500001</v>
       </c>
@@ -8979,8 +9214,11 @@
       <c r="Q9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" ht="33" spans="2:17">
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="33" spans="2:18">
       <c r="B10" s="4">
         <v>500002</v>
       </c>
@@ -9027,8 +9265,11 @@
       <c r="Q10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" ht="33" spans="2:17">
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="33" spans="2:18">
       <c r="B11" s="4">
         <v>500003</v>
       </c>
@@ -9074,8 +9315,11 @@
       <c r="Q11" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" ht="33" spans="2:17">
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="33" spans="2:18">
       <c r="B12" s="4">
         <v>500004</v>
       </c>
@@ -9122,8 +9366,11 @@
       <c r="Q12" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" ht="33" spans="2:17">
+      <c r="R12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="33" spans="2:18">
       <c r="B13" s="4">
         <v>500005</v>
       </c>
@@ -9170,8 +9417,11 @@
       <c r="Q13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" ht="33" spans="2:17">
+      <c r="R13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="33" spans="2:18">
       <c r="B14" s="4">
         <v>500006</v>
       </c>
@@ -9218,8 +9468,11 @@
       <c r="Q14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" ht="33" spans="2:17">
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="33" spans="2:18">
       <c r="B15" s="4">
         <v>500007</v>
       </c>
@@ -9266,8 +9519,11 @@
       <c r="Q15" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" ht="33" spans="2:17">
+      <c r="R15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="33" spans="2:18">
       <c r="B16" s="4">
         <v>500008</v>
       </c>
@@ -9314,8 +9570,11 @@
       <c r="Q16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" ht="33" spans="2:17">
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="33" spans="2:18">
       <c r="B17" s="4">
         <v>500009</v>
       </c>
@@ -9362,81 +9621,88 @@
       <c r="Q17" s="4">
         <v>2</v>
       </c>
+      <c r="R17" s="4">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="61"/>
     <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9449,8 +9715,8 @@
   <sheetPr/>
   <dimension ref="A1:R17"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="K22" sqref="K22"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="M19" sqref="M19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9574,7 +9840,7 @@
       <c r="Q4" s="7"/>
       <c r="R4" s="7"/>
     </row>
-    <row r="5" ht="35" customHeight="1" spans="1:17">
+    <row r="5" ht="35" customHeight="1" spans="1:18">
       <c r="A5" s="8" t="s">
         <v>9</v>
       </c>
@@ -9626,8 +9892,11 @@
       <c r="Q5" s="10" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="6" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R5" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" ht="18.5" customHeight="1" spans="1:18">
       <c r="A6" s="11" t="s">
         <v>27</v>
       </c>
@@ -9679,8 +9948,11 @@
       <c r="Q6" s="11" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="7" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R6" s="11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="7" ht="18.5" customHeight="1" spans="1:18">
       <c r="A7" s="11" t="s">
         <v>30</v>
       </c>
@@ -9732,8 +10004,11 @@
       <c r="Q7" s="12" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="8" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R7" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" ht="18.5" customHeight="1" spans="1:18">
       <c r="A8" s="4"/>
       <c r="B8" s="4">
         <v>600000</v>
@@ -9781,8 +10056,11 @@
         <v>-1</v>
       </c>
       <c r="Q8" s="4"/>
-    </row>
-    <row r="9" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R8" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="18.5" customHeight="1" spans="1:18">
       <c r="A9" s="4"/>
       <c r="B9" s="4">
         <v>600001</v>
@@ -9830,8 +10108,11 @@
       <c r="Q9" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="10" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="18.5" customHeight="1" spans="1:18">
       <c r="A10" s="4"/>
       <c r="B10" s="4">
         <v>600002</v>
@@ -9879,8 +10160,11 @@
       <c r="Q10" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="18.5" customHeight="1" spans="1:18">
       <c r="A11" s="4"/>
       <c r="B11" s="4">
         <v>600003</v>
@@ -9928,8 +10212,11 @@
       <c r="Q11" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="12" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R11" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="18.5" customHeight="1" spans="1:18">
       <c r="A12" s="4"/>
       <c r="B12" s="4">
         <v>600004</v>
@@ -9977,8 +10264,11 @@
       <c r="Q12" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R12" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" ht="18.5" customHeight="1" spans="1:18">
       <c r="A13" s="4"/>
       <c r="B13" s="4">
         <v>600005</v>
@@ -10026,8 +10316,11 @@
       <c r="Q13" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="14" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R13" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" ht="18.5" customHeight="1" spans="1:18">
       <c r="A14" s="4"/>
       <c r="B14" s="4">
         <v>600006</v>
@@ -10075,8 +10368,11 @@
       <c r="Q14" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="15" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" ht="18.5" customHeight="1" spans="1:18">
       <c r="A15" s="4"/>
       <c r="B15" s="4">
         <v>600007</v>
@@ -10124,8 +10420,11 @@
       <c r="Q15" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="16" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R15" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" ht="18.5" customHeight="1" spans="1:18">
       <c r="A16" s="4"/>
       <c r="B16" s="4">
         <v>600008</v>
@@ -10173,8 +10472,11 @@
       <c r="Q16" s="4">
         <v>2</v>
       </c>
-    </row>
-    <row r="17" ht="18.5" customHeight="1" spans="1:17">
+      <c r="R16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" ht="18.5" customHeight="1" spans="1:18">
       <c r="A17" s="4"/>
       <c r="B17" s="4">
         <v>600009</v>
@@ -10222,77 +10524,84 @@
       <c r="Q17" s="4">
         <v>2</v>
       </c>
+      <c r="R17" s="4">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="41"/>
     <cfRule type="duplicateValues" dxfId="1" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="6"/>
+    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -193,6 +193,9 @@
 10:友方地图实体,
 11:敌方地图实体,
 12:所有地图实体
+13:友方非英雄实体,
+14:敌方非英雄实体,
+15:所有非英雄实体
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -361,6 +364,9 @@
 10:友方地图实体,
 11:敌方地图实体,
 12:所有地图实体
+13:友方非英雄实体,
+14:敌方非英雄实体,
+15:所有非英雄实体
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -529,6 +535,9 @@
 10:友方地图实体,
 11:敌方地图实体,
 12:所有地图实体
+13:友方非英雄实体,
+14:敌方非英雄实体,
+15:所有非英雄实体
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -697,6 +706,9 @@
 10:友方地图实体,
 11:敌方地图实体,
 12:所有地图实体
+13:友方非英雄实体,
+14:敌方非英雄实体,
+15:所有非英雄实体
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -865,6 +877,9 @@
 10:友方地图实体,
 11:敌方地图实体,
 12:所有地图实体
+13:友方非英雄实体,
+14:敌方非英雄实体,
+15:所有非英雄实体
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -1033,6 +1048,9 @@
 10:友方地图实体,
 11:敌方地图实体,
 12:所有地图实体
+13:友方非英雄实体,
+14:敌方非英雄实体,
+15:所有非英雄实体
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -1201,6 +1219,9 @@
 10:友方地图实体,
 11:敌方地图实体,
 12:所有地图实体
+13:友方非英雄实体,
+14:敌方非英雄实体,
+15:所有非英雄实体
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -1212,7 +1233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="716" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="176">
   <si>
     <t>导出类型</t>
   </si>
@@ -1449,6 +1470,24 @@
     <t>精锐骑射手</t>
   </si>
   <si>
+    <t>搬运工</t>
+  </si>
+  <si>
+    <t>部署:抽一张卡</t>
+  </si>
+  <si>
+    <t>慷慨的路人</t>
+  </si>
+  <si>
+    <t>部署:抽两张卡</t>
+  </si>
+  <si>
+    <t>广积粮</t>
+  </si>
+  <si>
+    <t>抽两张卡</t>
+  </si>
+  <si>
     <t>Cards1={</t>
   </si>
   <si>
@@ -1509,10 +1548,22 @@
     <t>[2]</t>
   </si>
   <si>
-    <t>圣堂近战凑数1</t>
-  </si>
-  <si>
-    <t>圣堂近战凑数2</t>
+    <t>隐匿</t>
+  </si>
+  <si>
+    <t>使一个友方单位获得+2攻击力</t>
+  </si>
+  <si>
+    <t>[10,1]</t>
+  </si>
+  <si>
+    <t>刺杀</t>
+  </si>
+  <si>
+    <t>消灭一个敌方单位</t>
+  </si>
+  <si>
+    <t>[14,1]</t>
   </si>
   <si>
     <t>圣堂远程凑数1</t>
@@ -1723,7 +1774,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="48">
+  <fonts count="49">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1779,9 +1830,14 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color rgb="FF00B0F0"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1793,7 +1849,14 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF00B050"/>
+      <name val="Microsoft YaHei"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Microsoft YaHei"/>
       <charset val="134"/>
     </font>
@@ -1810,12 +1873,6 @@
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF00B050"/>
-      <name val="Microsoft YaHei"/>
-      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -2527,159 +2584,159 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="7" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="8" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="9" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="32" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="13" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="34" fillId="37" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="37" borderId="13" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="14" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="14" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2695,140 +2752,131 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="38" borderId="14" applyProtection="0">
+    <xf numFmtId="0" fontId="37" fillId="38" borderId="14" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="39" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="39" borderId="13" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="40" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="40" borderId="13" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="41" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="41" borderId="13" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="42" borderId="13" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="42" borderId="13" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="43" borderId="5">
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="43" borderId="5">
+    <xf numFmtId="0" fontId="39" fillId="43" borderId="5">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="6" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="6" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="7" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="7" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="31" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="31" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="19" borderId="5" applyProtection="0">
+    <xf numFmtId="0" fontId="34" fillId="19" borderId="5" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="42" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="5" applyNumberFormat="0" applyFont="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
       <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
@@ -2848,8 +2896,17 @@
     <xf numFmtId="0" fontId="45" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2887,24 +2944,52 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -3317,28 +3402,30 @@
   <sheetPr/>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:R30"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
-    <col min="2" max="3" width="12.0083333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="7.84166666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="16.9083333333333" customWidth="1"/>
-    <col min="12" max="12" width="33.0083333333333" customWidth="1"/>
-    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="14.675" customWidth="1"/>
-    <col min="16" max="16" width="9.675" customWidth="1"/>
-    <col min="17" max="17" width="10.175" customWidth="1"/>
-    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" style="22" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" style="22" customWidth="1"/>
+    <col min="3" max="3" width="13.0083333333333" style="22" customWidth="1"/>
+    <col min="4" max="4" width="11.3416666666667" style="22" customWidth="1"/>
+    <col min="5" max="5" width="10.3416666666667" style="22" customWidth="1"/>
+    <col min="6" max="6" width="12.0083333333333" style="22" customWidth="1"/>
+    <col min="7" max="7" width="10.3416666666667" style="22" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" style="22" customWidth="1"/>
+    <col min="10" max="10" width="9.00833333333333" style="22" customWidth="1"/>
+    <col min="11" max="11" width="25.3416666666667" style="22" customWidth="1"/>
+    <col min="12" max="12" width="10.3416666666667" style="22" customWidth="1"/>
+    <col min="13" max="13" width="14.0083333333333" style="22" customWidth="1"/>
+    <col min="14" max="14" width="14.675" style="22" customWidth="1"/>
+    <col min="15" max="15" width="9.675" style="22" customWidth="1"/>
+    <col min="16" max="16" width="10.175" style="22" customWidth="1"/>
+    <col min="17" max="17" width="21.8416666666667" style="22" customWidth="1"/>
+    <col min="18" max="18" width="11.175" style="22" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="22"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -3626,13 +3713,13 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="20">
+      <c r="G8" s="21">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
         <v>0</v>
       </c>
       <c r="J8" s="4">
@@ -3678,13 +3765,13 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="16">
-        <v>1</v>
-      </c>
-      <c r="H9" s="17">
-        <v>2</v>
-      </c>
-      <c r="I9" s="20">
+      <c r="G9" s="21">
+        <v>1</v>
+      </c>
+      <c r="H9" s="14">
+        <v>2</v>
+      </c>
+      <c r="I9" s="17">
         <v>3</v>
       </c>
       <c r="J9" s="4">
@@ -3730,13 +3817,13 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="16">
-        <v>2</v>
-      </c>
-      <c r="H10" s="17">
-        <v>2</v>
-      </c>
-      <c r="I10" s="20">
+      <c r="G10" s="21">
+        <v>2</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2</v>
+      </c>
+      <c r="I10" s="17">
         <v>1</v>
       </c>
       <c r="J10" s="4">
@@ -3782,13 +3869,13 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="16">
-        <v>1</v>
-      </c>
-      <c r="H11" s="17">
-        <v>1</v>
-      </c>
-      <c r="I11" s="20">
+      <c r="G11" s="21">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
+        <v>1</v>
+      </c>
+      <c r="I11" s="17">
         <v>2</v>
       </c>
       <c r="J11" s="4">
@@ -3834,13 +3921,13 @@
       <c r="F12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="16">
-        <v>2</v>
-      </c>
-      <c r="H12" s="17">
-        <v>2</v>
-      </c>
-      <c r="I12" s="20">
+      <c r="G12" s="21">
+        <v>2</v>
+      </c>
+      <c r="H12" s="14">
+        <v>2</v>
+      </c>
+      <c r="I12" s="17">
         <v>3</v>
       </c>
       <c r="J12" s="4">
@@ -3886,13 +3973,13 @@
       <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="16">
-        <v>2</v>
-      </c>
-      <c r="H13" s="17">
-        <v>3</v>
-      </c>
-      <c r="I13" s="20">
+      <c r="G13" s="21">
+        <v>2</v>
+      </c>
+      <c r="H13" s="14">
+        <v>3</v>
+      </c>
+      <c r="I13" s="17">
         <v>2</v>
       </c>
       <c r="J13" s="4">
@@ -3938,13 +4025,13 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="16">
-        <v>3</v>
-      </c>
-      <c r="H14" s="17">
-        <v>3</v>
-      </c>
-      <c r="I14" s="20">
+      <c r="G14" s="21">
+        <v>3</v>
+      </c>
+      <c r="H14" s="14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="17">
         <v>4</v>
       </c>
       <c r="J14" s="4">
@@ -3990,13 +4077,13 @@
       <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="16">
-        <v>3</v>
-      </c>
-      <c r="H15" s="17">
+      <c r="G15" s="21">
+        <v>3</v>
+      </c>
+      <c r="H15" s="14">
         <v>4</v>
       </c>
-      <c r="I15" s="20">
+      <c r="I15" s="17">
         <v>3</v>
       </c>
       <c r="J15" s="4">
@@ -4042,13 +4129,13 @@
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="16">
+      <c r="G16" s="21">
         <v>4</v>
       </c>
-      <c r="H16" s="17">
+      <c r="H16" s="14">
         <v>4</v>
       </c>
-      <c r="I16" s="20">
+      <c r="I16" s="17">
         <v>5</v>
       </c>
       <c r="J16" s="4">
@@ -4094,13 +4181,13 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="21">
         <v>4</v>
       </c>
-      <c r="H17" s="17">
+      <c r="H17" s="14">
         <v>5</v>
       </c>
-      <c r="I17" s="20">
+      <c r="I17" s="17">
         <v>4</v>
       </c>
       <c r="J17" s="4">
@@ -4146,13 +4233,13 @@
       <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="G18" s="16">
+      <c r="G18" s="21">
         <v>5</v>
       </c>
-      <c r="H18" s="17">
+      <c r="H18" s="14">
         <v>5</v>
       </c>
-      <c r="I18" s="20">
+      <c r="I18" s="17">
         <v>6</v>
       </c>
       <c r="J18" s="4">
@@ -4181,7 +4268,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="14" customHeight="1" spans="2:18">
+    <row r="19" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A19" s="23"/>
       <c r="B19" s="4">
         <v>11</v>
       </c>
@@ -4197,13 +4285,13 @@
       <c r="F19" s="4">
         <v>0</v>
       </c>
-      <c r="G19" s="16">
+      <c r="G19" s="21">
         <v>5</v>
       </c>
-      <c r="H19" s="17">
-        <v>3</v>
-      </c>
-      <c r="I19" s="20">
+      <c r="H19" s="14">
+        <v>3</v>
+      </c>
+      <c r="I19" s="17">
         <v>8</v>
       </c>
       <c r="J19" s="4">
@@ -4232,7 +4320,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="2:18">
+    <row r="20" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A20" s="23"/>
       <c r="B20" s="4">
         <v>12</v>
       </c>
@@ -4248,13 +4337,13 @@
       <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="16">
+      <c r="G20" s="21">
         <v>6</v>
       </c>
-      <c r="H20" s="17">
+      <c r="H20" s="14">
         <v>6</v>
       </c>
-      <c r="I20" s="20">
+      <c r="I20" s="17">
         <v>7</v>
       </c>
       <c r="J20" s="4">
@@ -4283,7 +4372,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="2:18">
+    <row r="21" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A21" s="23"/>
       <c r="B21" s="4">
         <v>13</v>
       </c>
@@ -4299,13 +4389,13 @@
       <c r="F21" s="4">
         <v>0</v>
       </c>
-      <c r="G21" s="16">
+      <c r="G21" s="21">
         <v>6</v>
       </c>
-      <c r="H21" s="17">
+      <c r="H21" s="14">
         <v>7</v>
       </c>
-      <c r="I21" s="20">
+      <c r="I21" s="17">
         <v>6</v>
       </c>
       <c r="J21" s="4">
@@ -4334,7 +4424,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="2:18">
+    <row r="22" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A22" s="23"/>
       <c r="B22" s="4">
         <v>14</v>
       </c>
@@ -4350,13 +4441,13 @@
       <c r="F22" s="4">
         <v>0</v>
       </c>
-      <c r="G22" s="16">
+      <c r="G22" s="21">
         <v>6</v>
       </c>
-      <c r="H22" s="17">
+      <c r="H22" s="14">
         <v>6</v>
       </c>
-      <c r="I22" s="20">
+      <c r="I22" s="17">
         <v>9</v>
       </c>
       <c r="J22" s="4">
@@ -4385,7 +4476,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" ht="16.5" spans="2:18">
+    <row r="23" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A23" s="23"/>
       <c r="B23" s="4">
         <v>15</v>
       </c>
@@ -4401,17 +4493,17 @@
       <c r="F23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="16">
-        <v>2</v>
-      </c>
-      <c r="H23" s="17">
-        <v>2</v>
-      </c>
-      <c r="I23" s="20">
+      <c r="G23" s="21">
+        <v>2</v>
+      </c>
+      <c r="H23" s="14">
+        <v>2</v>
+      </c>
+      <c r="I23" s="17">
         <v>1</v>
       </c>
       <c r="J23" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K23" s="4"/>
       <c r="L23" s="4" t="s">
@@ -4436,7 +4528,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" ht="16.5" spans="2:18">
+    <row r="24" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A24" s="23"/>
       <c r="B24" s="4">
         <v>16</v>
       </c>
@@ -4452,17 +4545,17 @@
       <c r="F24" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="16">
-        <v>3</v>
-      </c>
-      <c r="H24" s="17">
-        <v>3</v>
-      </c>
-      <c r="I24" s="20">
+      <c r="G24" s="21">
+        <v>3</v>
+      </c>
+      <c r="H24" s="14">
+        <v>3</v>
+      </c>
+      <c r="I24" s="17">
         <v>2</v>
       </c>
       <c r="J24" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K24" s="4"/>
       <c r="L24" s="4" t="s">
@@ -4487,7 +4580,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" ht="16.5" spans="2:18">
+    <row r="25" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A25" s="23"/>
       <c r="B25" s="4">
         <v>17</v>
       </c>
@@ -4503,17 +4597,17 @@
       <c r="F25" s="4">
         <v>1</v>
       </c>
-      <c r="G25" s="16">
-        <v>3</v>
-      </c>
-      <c r="H25" s="17">
-        <v>2</v>
-      </c>
-      <c r="I25" s="20">
+      <c r="G25" s="21">
+        <v>3</v>
+      </c>
+      <c r="H25" s="14">
+        <v>2</v>
+      </c>
+      <c r="I25" s="17">
         <v>3</v>
       </c>
       <c r="J25" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K25" s="4"/>
       <c r="L25" s="4" t="s">
@@ -4538,7 +4632,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" ht="16.5" spans="2:18">
+    <row r="26" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A26" s="23"/>
       <c r="B26" s="4">
         <v>18</v>
       </c>
@@ -4554,17 +4649,17 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="21">
         <v>4</v>
       </c>
-      <c r="H26" s="17">
+      <c r="H26" s="14">
         <v>4</v>
       </c>
-      <c r="I26" s="20">
+      <c r="I26" s="17">
         <v>3</v>
       </c>
       <c r="J26" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K26" s="4"/>
       <c r="L26" s="4" t="s">
@@ -4589,7 +4684,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" ht="16.5" spans="2:18">
+    <row r="27" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A27" s="23"/>
       <c r="B27" s="4">
         <v>19</v>
       </c>
@@ -4605,13 +4701,13 @@
       <c r="F27" s="4">
         <v>1</v>
       </c>
-      <c r="G27" s="16">
+      <c r="G27" s="21">
         <v>4</v>
       </c>
-      <c r="H27" s="17">
-        <v>2</v>
-      </c>
-      <c r="I27" s="20">
+      <c r="H27" s="14">
+        <v>2</v>
+      </c>
+      <c r="I27" s="17">
         <v>4</v>
       </c>
       <c r="J27" s="4">
@@ -4640,7 +4736,8 @@
         <v>4</v>
       </c>
     </row>
-    <row r="28" ht="16.5" spans="2:18">
+    <row r="28" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A28" s="23"/>
       <c r="B28" s="4">
         <v>20</v>
       </c>
@@ -4656,17 +4753,17 @@
       <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="16">
+      <c r="G28" s="21">
         <v>5</v>
       </c>
-      <c r="H28" s="17">
+      <c r="H28" s="14">
         <v>5</v>
       </c>
-      <c r="I28" s="20">
+      <c r="I28" s="17">
         <v>4</v>
       </c>
       <c r="J28" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K28" s="4"/>
       <c r="L28" s="4" t="s">
@@ -4691,7 +4788,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" ht="16.5" spans="2:18">
+    <row r="29" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A29" s="23"/>
       <c r="B29" s="4">
         <v>21</v>
       </c>
@@ -4707,17 +4805,17 @@
       <c r="F29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="16">
+      <c r="G29" s="21">
         <v>5</v>
       </c>
-      <c r="H29" s="17">
+      <c r="H29" s="14">
         <v>4</v>
       </c>
-      <c r="I29" s="20">
+      <c r="I29" s="17">
         <v>5</v>
       </c>
       <c r="J29" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29" s="4"/>
       <c r="L29" s="4" t="s">
@@ -4742,7 +4840,8 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" ht="16.5" spans="2:18">
+    <row r="30" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A30" s="23"/>
       <c r="B30" s="4">
         <v>22</v>
       </c>
@@ -4758,17 +4857,17 @@
       <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="16">
+      <c r="G30" s="21">
+        <v>6</v>
+      </c>
+      <c r="H30" s="14">
         <v>5</v>
       </c>
-      <c r="H30" s="17">
-        <v>5</v>
-      </c>
-      <c r="I30" s="20">
+      <c r="I30" s="17">
         <v>6</v>
       </c>
       <c r="J30" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30" s="4"/>
       <c r="L30" s="4" t="s">
@@ -4793,103 +4892,238 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" ht="16.5" spans="2:17">
-      <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="4"/>
-      <c r="E31" s="4"/>
-      <c r="F31" s="4"/>
-      <c r="G31" s="16"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="4"/>
-      <c r="J31" s="4"/>
-      <c r="K31" s="4"/>
-      <c r="L31" s="4"/>
-      <c r="M31" s="4"/>
-      <c r="N31" s="4"/>
-      <c r="O31" s="4"/>
-      <c r="P31" s="4"/>
-      <c r="Q31" s="4"/>
-    </row>
-    <row r="32" spans="7:8">
-      <c r="G32" s="18"/>
-      <c r="H32" s="19"/>
-    </row>
-    <row r="33" spans="7:8">
-      <c r="G33" s="18"/>
-      <c r="H33" s="19"/>
+    <row r="31" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A31" s="23"/>
+      <c r="B31" s="4">
+        <v>23</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D31" s="4">
+        <v>1</v>
+      </c>
+      <c r="E31" s="4">
+        <v>1</v>
+      </c>
+      <c r="F31" s="4">
+        <v>1</v>
+      </c>
+      <c r="G31" s="21">
+        <v>2</v>
+      </c>
+      <c r="H31" s="14">
+        <v>1</v>
+      </c>
+      <c r="I31" s="17">
+        <v>2</v>
+      </c>
+      <c r="J31" s="4">
+        <v>1</v>
+      </c>
+      <c r="K31" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M31" s="4">
+        <v>0</v>
+      </c>
+      <c r="N31" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P31" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q31" s="4">
+        <v>2</v>
+      </c>
+      <c r="R31" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" ht="18.5" customHeight="1" spans="1:18">
+      <c r="A32" s="23"/>
+      <c r="B32" s="23">
+        <v>24</v>
+      </c>
+      <c r="C32" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="D32" s="23">
+        <v>1</v>
+      </c>
+      <c r="E32" s="23">
+        <v>1</v>
+      </c>
+      <c r="F32" s="23">
+        <v>1</v>
+      </c>
+      <c r="G32" s="16">
+        <v>5</v>
+      </c>
+      <c r="H32" s="25">
+        <v>2</v>
+      </c>
+      <c r="I32" s="28">
+        <v>4</v>
+      </c>
+      <c r="J32" s="23">
+        <v>1</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="L32" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="M32" s="23">
+        <v>0</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="O32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P32" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q32" s="23">
+        <v>2</v>
+      </c>
+      <c r="R32" s="23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" ht="16.5" spans="2:18">
+      <c r="B33" s="22">
+        <v>25</v>
+      </c>
+      <c r="C33" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="22">
+        <v>2</v>
+      </c>
+      <c r="E33" s="22">
+        <v>1</v>
+      </c>
+      <c r="F33" s="22">
+        <v>0</v>
+      </c>
+      <c r="G33" s="26">
+        <v>3</v>
+      </c>
+      <c r="H33" s="27">
+        <v>0</v>
+      </c>
+      <c r="I33" s="28">
+        <v>4</v>
+      </c>
+      <c r="J33" s="22">
+        <v>0</v>
+      </c>
+      <c r="K33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="L33" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="22">
+        <v>0</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="O33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P33" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q33" s="4">
+        <v>2</v>
+      </c>
+      <c r="R33" s="22">
+        <v>0</v>
+      </c>
     </row>
     <row r="34" spans="7:8">
-      <c r="G34" s="18"/>
-      <c r="H34" s="19"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="27"/>
     </row>
     <row r="35" spans="7:8">
-      <c r="G35" s="18"/>
-      <c r="H35" s="19"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="27"/>
     </row>
     <row r="36" spans="7:8">
-      <c r="G36" s="18"/>
-      <c r="H36" s="19"/>
+      <c r="G36" s="26"/>
+      <c r="H36" s="27"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="18"/>
+      <c r="G37" s="26"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="18"/>
+      <c r="G38" s="26"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="18"/>
+      <c r="G39" s="26"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="18"/>
+      <c r="G40" s="26"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="18"/>
+      <c r="G41" s="26"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="18"/>
+      <c r="G42" s="26"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="18"/>
+      <c r="G43" s="26"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="18"/>
+      <c r="G44" s="26"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="18"/>
+      <c r="G45" s="26"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="18"/>
+      <c r="G46" s="26"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="18"/>
+      <c r="G47" s="26"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="18"/>
+      <c r="G48" s="26"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="18"/>
+      <c r="G49" s="26"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="18"/>
+      <c r="G50" s="26"/>
     </row>
     <row r="51" spans="7:7">
-      <c r="G51" s="18"/>
+      <c r="G51" s="26"/>
     </row>
     <row r="52" spans="7:7">
-      <c r="G52" s="18"/>
+      <c r="G52" s="26"/>
     </row>
     <row r="53" spans="7:7">
-      <c r="G53" s="18"/>
+      <c r="G53" s="26"/>
     </row>
     <row r="54" spans="7:7">
-      <c r="G54" s="18"/>
+      <c r="G54" s="26"/>
     </row>
     <row r="55" spans="7:7">
-      <c r="G55" s="18"/>
+      <c r="G55" s="26"/>
     </row>
     <row r="56" spans="7:7">
-      <c r="G56" s="18"/>
+      <c r="G56" s="26"/>
     </row>
   </sheetData>
   <autoFilter ref="A5:Q30">
@@ -4985,8 +5219,8 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="Q24" sqref="Q24"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="O20" sqref="O20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -4999,7 +5233,7 @@
     <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
     <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
     <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="22.2" customWidth="1"/>
+    <col min="11" max="11" width="46.4666666666667" customWidth="1"/>
     <col min="12" max="12" width="8.675" customWidth="1"/>
     <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
     <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
@@ -5021,7 +5255,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -5029,7 +5263,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="15"/>
+      <c r="L1" s="20"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -5042,7 +5276,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -5057,7 +5291,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="15"/>
+      <c r="L2" s="20"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -5081,7 +5315,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="15"/>
+      <c r="L3" s="20"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -5283,7 +5517,7 @@
         <v>100000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -5294,23 +5528,23 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
-        <v>3</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="14">
+        <v>3</v>
+      </c>
+      <c r="I8" s="17">
         <v>22</v>
       </c>
       <c r="J8" s="4">
         <v>3</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>81</v>
+      <c r="K8" s="20" t="s">
+        <v>87</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -5337,7 +5571,7 @@
         <v>100001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -5348,23 +5582,23 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
-        <v>2</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="G9" s="13">
+        <v>2</v>
+      </c>
+      <c r="H9" s="14">
+        <v>1</v>
+      </c>
+      <c r="I9" s="17">
         <v>4</v>
       </c>
       <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="15" t="s">
-        <v>84</v>
+      <c r="K9" s="20" t="s">
+        <v>90</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -5391,7 +5625,7 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -5402,23 +5636,23 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="4">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
-        <v>1</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="13">
+        <v>2</v>
+      </c>
+      <c r="H10" s="14">
+        <v>1</v>
+      </c>
+      <c r="I10" s="17">
         <v>2</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="15" t="s">
-        <v>87</v>
+      <c r="K10" s="20" t="s">
+        <v>93</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
@@ -5445,7 +5679,7 @@
         <v>100003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -5456,20 +5690,20 @@
       <c r="F11" s="4">
         <v>1</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
-        <v>2</v>
-      </c>
-      <c r="I11" s="4">
-        <v>2</v>
+      <c r="G11" s="13">
+        <v>2</v>
+      </c>
+      <c r="H11" s="14">
+        <v>2</v>
+      </c>
+      <c r="I11" s="17">
+        <v>1</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
-      <c r="K11" s="15" t="s">
-        <v>90</v>
+      <c r="K11" s="20" t="s">
+        <v>96</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>50</v>
@@ -5478,7 +5712,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="O11" s="4">
         <v>3</v>
@@ -5499,7 +5733,7 @@
         <v>100004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -5510,20 +5744,20 @@
       <c r="F12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>2</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="13">
+        <v>3</v>
+      </c>
+      <c r="H12" s="14">
+        <v>0</v>
+      </c>
+      <c r="I12" s="17">
         <v>5</v>
       </c>
       <c r="J12" s="4">
         <v>0</v>
       </c>
-      <c r="K12" s="15" t="s">
-        <v>93</v>
+      <c r="K12" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>50</v>
@@ -5532,7 +5766,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O12" s="4">
         <v>-1</v>
@@ -5551,7 +5785,7 @@
         <v>100005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -5562,23 +5796,23 @@
       <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="13">
         <v>5</v>
       </c>
-      <c r="H13" s="4">
-        <v>4</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="H13" s="14">
+        <v>1</v>
+      </c>
+      <c r="I13" s="17">
         <v>8</v>
       </c>
       <c r="J13" s="4">
         <v>2</v>
       </c>
-      <c r="K13" s="15" t="s">
-        <v>96</v>
+      <c r="K13" s="20" t="s">
+        <v>102</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
@@ -5605,10 +5839,10 @@
         <v>100006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -5616,19 +5850,21 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
-        <v>1</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="G14" s="21">
+        <v>1</v>
+      </c>
+      <c r="H14" s="14">
+        <v>0</v>
+      </c>
+      <c r="I14" s="17">
         <v>3</v>
       </c>
       <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4"/>
+        <v>1</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>105</v>
+      </c>
       <c r="L14" s="4" t="s">
         <v>50</v>
       </c>
@@ -5636,17 +5872,15 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="O14" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P14" s="4">
         <v>-1</v>
       </c>
-      <c r="Q14" s="4">
-        <v>2</v>
-      </c>
+      <c r="Q14" s="4"/>
       <c r="R14" s="4">
         <v>0</v>
       </c>
@@ -5656,10 +5890,10 @@
         <v>100007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E15" s="4">
         <v>1</v>
@@ -5667,19 +5901,21 @@
       <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="4">
-        <v>1</v>
-      </c>
-      <c r="H15" s="4">
-        <v>4</v>
-      </c>
-      <c r="I15" s="4">
-        <v>2</v>
+      <c r="G15" s="21">
+        <v>5</v>
+      </c>
+      <c r="H15" s="14">
+        <v>0</v>
+      </c>
+      <c r="I15" s="17">
+        <v>0</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
-      <c r="K15" s="4"/>
+      <c r="K15" s="4" t="s">
+        <v>108</v>
+      </c>
       <c r="L15" s="4" t="s">
         <v>50</v>
       </c>
@@ -5687,17 +5923,15 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>58</v>
+        <v>109</v>
       </c>
       <c r="O15" s="4">
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="P15" s="4">
         <v>-1</v>
       </c>
-      <c r="Q15" s="4">
-        <v>2</v>
-      </c>
+      <c r="Q15" s="4"/>
       <c r="R15" s="4">
         <v>0</v>
       </c>
@@ -5707,7 +5941,7 @@
         <v>100008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -5718,13 +5952,13 @@
       <c r="F16" s="4">
         <v>1</v>
       </c>
-      <c r="G16" s="4">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4">
-        <v>1</v>
-      </c>
-      <c r="I16" s="4">
+      <c r="G16" s="13">
+        <v>1</v>
+      </c>
+      <c r="H16" s="14">
+        <v>1</v>
+      </c>
+      <c r="I16" s="17">
         <v>3</v>
       </c>
       <c r="J16" s="4">
@@ -5758,7 +5992,7 @@
         <v>100009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>101</v>
+        <v>111</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -5769,13 +6003,13 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="4">
-        <v>1</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="13">
+        <v>1</v>
+      </c>
+      <c r="H17" s="14">
+        <v>3</v>
+      </c>
+      <c r="I17" s="17">
         <v>1</v>
       </c>
       <c r="J17" s="4">
@@ -5809,7 +6043,7 @@
         <v>100010</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -5820,13 +6054,13 @@
       <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="G18" s="4">
-        <v>2</v>
-      </c>
-      <c r="H18" s="4">
-        <v>3</v>
-      </c>
-      <c r="I18" s="4">
+      <c r="G18" s="13">
+        <v>2</v>
+      </c>
+      <c r="H18" s="14">
+        <v>3</v>
+      </c>
+      <c r="I18" s="17">
         <v>5</v>
       </c>
       <c r="J18" s="4">
@@ -5860,7 +6094,7 @@
         <v>100011</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -5871,13 +6105,13 @@
       <c r="F19" s="4">
         <v>1</v>
       </c>
-      <c r="G19" s="4">
-        <v>2</v>
-      </c>
-      <c r="H19" s="4">
-        <v>3</v>
-      </c>
-      <c r="I19" s="4">
+      <c r="G19" s="13">
+        <v>2</v>
+      </c>
+      <c r="H19" s="14">
+        <v>3</v>
+      </c>
+      <c r="I19" s="17">
         <v>3</v>
       </c>
       <c r="J19" s="4">
@@ -5911,7 +6145,7 @@
         <v>100012</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -5922,13 +6156,13 @@
       <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="4">
-        <v>3</v>
-      </c>
-      <c r="H20" s="4">
+      <c r="G20" s="13">
+        <v>3</v>
+      </c>
+      <c r="H20" s="14">
         <v>4</v>
       </c>
-      <c r="I20" s="4">
+      <c r="I20" s="17">
         <v>6</v>
       </c>
       <c r="J20" s="4">
@@ -5962,7 +6196,7 @@
         <v>100013</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -5973,13 +6207,13 @@
       <c r="F21" s="4">
         <v>1</v>
       </c>
-      <c r="G21" s="4">
-        <v>3</v>
-      </c>
-      <c r="H21" s="4">
-        <v>3</v>
-      </c>
-      <c r="I21" s="4">
+      <c r="G21" s="13">
+        <v>3</v>
+      </c>
+      <c r="H21" s="14">
+        <v>3</v>
+      </c>
+      <c r="I21" s="17">
         <v>5</v>
       </c>
       <c r="J21" s="4">
@@ -6037,82 +6271,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="63"/>
     <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6126,7 +6360,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:R17"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6162,7 +6396,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -6183,7 +6417,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -6424,7 +6658,7 @@
         <v>200000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -6435,20 +6669,20 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="G8" s="13">
+        <v>3</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
         <v>5</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>93</v>
+      <c r="K8" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -6457,7 +6691,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -6476,7 +6710,7 @@
         <v>200001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -6487,13 +6721,13 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>3</v>
+      </c>
+      <c r="I9" s="17">
         <v>22</v>
       </c>
       <c r="J9" s="4">
@@ -6528,7 +6762,7 @@
         <v>200002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -6539,13 +6773,13 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>3</v>
+      </c>
+      <c r="I10" s="17">
         <v>3</v>
       </c>
       <c r="J10" s="4">
@@ -6580,7 +6814,7 @@
         <v>200003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -6591,13 +6825,13 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
         <v>4</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="17">
         <v>2</v>
       </c>
       <c r="J11" s="4">
@@ -6631,7 +6865,7 @@
         <v>200004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -6642,13 +6876,13 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17">
         <v>3</v>
       </c>
       <c r="J12" s="4">
@@ -6683,7 +6917,7 @@
         <v>200005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -6694,13 +6928,13 @@
       <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>3</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>3</v>
+      </c>
+      <c r="I13" s="17">
         <v>1</v>
       </c>
       <c r="J13" s="4">
@@ -6735,7 +6969,7 @@
         <v>200006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -6746,13 +6980,13 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="G14" s="13">
+        <v>2</v>
+      </c>
+      <c r="H14" s="14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="17">
         <v>5</v>
       </c>
       <c r="J14" s="4">
@@ -6787,7 +7021,7 @@
         <v>200007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -6798,13 +7032,13 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="G15" s="13">
+        <v>2</v>
+      </c>
+      <c r="H15" s="14">
+        <v>3</v>
+      </c>
+      <c r="I15" s="17">
         <v>3</v>
       </c>
       <c r="J15" s="4">
@@ -6839,7 +7073,7 @@
         <v>200008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -6850,13 +7084,13 @@
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="4">
-        <v>3</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="13">
+        <v>3</v>
+      </c>
+      <c r="H16" s="14">
         <v>4</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="17">
         <v>6</v>
       </c>
       <c r="J16" s="4">
@@ -6891,7 +7125,7 @@
         <v>200009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -6902,13 +7136,13 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="4">
-        <v>3</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="15">
+        <v>3</v>
+      </c>
+      <c r="H17" s="14">
+        <v>3</v>
+      </c>
+      <c r="I17" s="17">
         <v>5</v>
       </c>
       <c r="J17" s="4">
@@ -6951,82 +7185,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="63"/>
     <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7040,7 +7274,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:R17"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7075,7 +7309,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -7096,7 +7330,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -7220,55 +7454,55 @@
       </c>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="18" t="s">
         <v>28</v>
       </c>
       <c r="R6" s="11" t="s">
@@ -7276,55 +7510,55 @@
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="19" t="s">
         <v>46</v>
       </c>
       <c r="R7" s="12" t="s">
@@ -7337,7 +7571,7 @@
         <v>300000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -7348,20 +7582,20 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="G8" s="13">
+        <v>3</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
         <v>5</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>93</v>
+      <c r="K8" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -7370,7 +7604,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -7388,7 +7622,7 @@
         <v>300001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>121</v>
+        <v>131</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -7399,13 +7633,13 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>3</v>
+      </c>
+      <c r="I9" s="17">
         <v>22</v>
       </c>
       <c r="J9" s="4">
@@ -7439,7 +7673,7 @@
         <v>300002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>122</v>
+        <v>132</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -7450,13 +7684,13 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>3</v>
+      </c>
+      <c r="I10" s="17">
         <v>3</v>
       </c>
       <c r="J10" s="4">
@@ -7490,7 +7724,7 @@
         <v>300003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>123</v>
+        <v>133</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -7501,13 +7735,13 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
         <v>4</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="17">
         <v>2</v>
       </c>
       <c r="J11" s="4">
@@ -7540,7 +7774,7 @@
         <v>300004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>124</v>
+        <v>134</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7551,13 +7785,13 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17">
         <v>3</v>
       </c>
       <c r="J12" s="4">
@@ -7591,7 +7825,7 @@
         <v>300005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7602,13 +7836,13 @@
       <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>3</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>3</v>
+      </c>
+      <c r="I13" s="17">
         <v>1</v>
       </c>
       <c r="J13" s="4">
@@ -7642,7 +7876,7 @@
         <v>300006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>126</v>
+        <v>136</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -7653,13 +7887,13 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="G14" s="13">
+        <v>2</v>
+      </c>
+      <c r="H14" s="14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="17">
         <v>5</v>
       </c>
       <c r="J14" s="4">
@@ -7693,7 +7927,7 @@
         <v>300007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>127</v>
+        <v>137</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -7704,13 +7938,13 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="G15" s="13">
+        <v>2</v>
+      </c>
+      <c r="H15" s="14">
+        <v>3</v>
+      </c>
+      <c r="I15" s="17">
         <v>3</v>
       </c>
       <c r="J15" s="4">
@@ -7744,7 +7978,7 @@
         <v>300008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>128</v>
+        <v>138</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7755,13 +7989,13 @@
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="4">
-        <v>3</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="13">
+        <v>3</v>
+      </c>
+      <c r="H16" s="14">
         <v>4</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="17">
         <v>6</v>
       </c>
       <c r="J16" s="4">
@@ -7795,7 +8029,7 @@
         <v>300009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>129</v>
+        <v>139</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -7806,13 +8040,13 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="4">
-        <v>3</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="15">
+        <v>3</v>
+      </c>
+      <c r="H17" s="14">
+        <v>3</v>
+      </c>
+      <c r="I17" s="17">
         <v>5</v>
       </c>
       <c r="J17" s="4">
@@ -7843,82 +8077,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="63"/>
     <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7932,7 +8166,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:R17"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7967,7 +8201,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -7988,7 +8222,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>131</v>
+        <v>141</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -8112,55 +8346,55 @@
       </c>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="18" t="s">
         <v>28</v>
       </c>
       <c r="R6" s="11" t="s">
@@ -8168,55 +8402,55 @@
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="19" t="s">
         <v>46</v>
       </c>
       <c r="R7" s="12" t="s">
@@ -8229,7 +8463,7 @@
         <v>400000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -8240,20 +8474,20 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="G8" s="13">
+        <v>3</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
         <v>5</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>93</v>
+      <c r="K8" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -8262,7 +8496,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -8280,7 +8514,7 @@
         <v>400001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -8291,13 +8525,13 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>3</v>
+      </c>
+      <c r="I9" s="17">
         <v>22</v>
       </c>
       <c r="J9" s="4">
@@ -8331,7 +8565,7 @@
         <v>400002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>134</v>
+        <v>144</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -8342,13 +8576,13 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>3</v>
+      </c>
+      <c r="I10" s="17">
         <v>3</v>
       </c>
       <c r="J10" s="4">
@@ -8382,7 +8616,7 @@
         <v>400003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>135</v>
+        <v>145</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -8393,13 +8627,13 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
         <v>4</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="17">
         <v>2</v>
       </c>
       <c r="J11" s="4">
@@ -8432,7 +8666,7 @@
         <v>400004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>136</v>
+        <v>146</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -8443,13 +8677,13 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17">
         <v>3</v>
       </c>
       <c r="J12" s="4">
@@ -8483,7 +8717,7 @@
         <v>400005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>137</v>
+        <v>147</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -8494,13 +8728,13 @@
       <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>3</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>3</v>
+      </c>
+      <c r="I13" s="17">
         <v>1</v>
       </c>
       <c r="J13" s="4">
@@ -8534,7 +8768,7 @@
         <v>400006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>138</v>
+        <v>148</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -8545,13 +8779,13 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="G14" s="13">
+        <v>2</v>
+      </c>
+      <c r="H14" s="14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="17">
         <v>5</v>
       </c>
       <c r="J14" s="4">
@@ -8585,7 +8819,7 @@
         <v>400007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>139</v>
+        <v>149</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -8596,13 +8830,13 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="G15" s="13">
+        <v>2</v>
+      </c>
+      <c r="H15" s="14">
+        <v>3</v>
+      </c>
+      <c r="I15" s="17">
         <v>3</v>
       </c>
       <c r="J15" s="4">
@@ -8636,7 +8870,7 @@
         <v>400008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -8647,13 +8881,13 @@
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="4">
-        <v>3</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="13">
+        <v>3</v>
+      </c>
+      <c r="H16" s="14">
         <v>4</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="17">
         <v>6</v>
       </c>
       <c r="J16" s="4">
@@ -8687,7 +8921,7 @@
         <v>400009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>141</v>
+        <v>151</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -8698,13 +8932,13 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="4">
-        <v>3</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="15">
+        <v>3</v>
+      </c>
+      <c r="H17" s="14">
+        <v>3</v>
+      </c>
+      <c r="I17" s="17">
         <v>5</v>
       </c>
       <c r="J17" s="4">
@@ -8735,82 +8969,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="63"/>
     <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8824,7 +9058,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R5" sqref="R5:R17"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8859,7 +9093,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>142</v>
+        <v>152</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -8880,7 +9114,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>143</v>
+        <v>153</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -9004,55 +9238,55 @@
       </c>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A6" s="13" t="s">
+      <c r="A6" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="13" t="s">
+      <c r="B6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="13" t="s">
+      <c r="C6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="13" t="s">
+      <c r="D6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="13" t="s">
+      <c r="E6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="13" t="s">
+      <c r="G6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="13" t="s">
+      <c r="H6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="13" t="s">
+      <c r="I6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="13" t="s">
+      <c r="J6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="K6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="13" t="s">
+      <c r="L6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="13" t="s">
+      <c r="M6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="13" t="s">
+      <c r="N6" s="18" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="13" t="s">
+      <c r="O6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="13" t="s">
+      <c r="P6" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="13" t="s">
+      <c r="Q6" s="18" t="s">
         <v>28</v>
       </c>
       <c r="R6" s="11" t="s">
@@ -9060,55 +9294,55 @@
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A7" s="13" t="s">
+      <c r="A7" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="14" t="s">
+      <c r="G7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="H7" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="14" t="s">
+      <c r="K7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="14" t="s">
+      <c r="L7" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="14" t="s">
+      <c r="M7" s="19" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="14" t="s">
+      <c r="N7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="14" t="s">
+      <c r="O7" s="19" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="14" t="s">
+      <c r="P7" s="19" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="14" t="s">
+      <c r="Q7" s="19" t="s">
         <v>46</v>
       </c>
       <c r="R7" s="12" t="s">
@@ -9121,7 +9355,7 @@
         <v>500000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>144</v>
+        <v>154</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -9132,20 +9366,20 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="G8" s="13">
+        <v>3</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
         <v>5</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="15" t="s">
-        <v>93</v>
+      <c r="K8" s="20" t="s">
+        <v>99</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -9154,7 +9388,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -9172,7 +9406,7 @@
         <v>500001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -9183,13 +9417,13 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>3</v>
+      </c>
+      <c r="I9" s="17">
         <v>22</v>
       </c>
       <c r="J9" s="4">
@@ -9223,7 +9457,7 @@
         <v>500002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>146</v>
+        <v>156</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -9234,13 +9468,13 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>3</v>
+      </c>
+      <c r="I10" s="17">
         <v>3</v>
       </c>
       <c r="J10" s="4">
@@ -9274,7 +9508,7 @@
         <v>500003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>147</v>
+        <v>157</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -9285,13 +9519,13 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
         <v>4</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="17">
         <v>2</v>
       </c>
       <c r="J11" s="4">
@@ -9324,7 +9558,7 @@
         <v>500004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -9335,13 +9569,13 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17">
         <v>3</v>
       </c>
       <c r="J12" s="4">
@@ -9375,7 +9609,7 @@
         <v>500005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -9386,13 +9620,13 @@
       <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>3</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>3</v>
+      </c>
+      <c r="I13" s="17">
         <v>1</v>
       </c>
       <c r="J13" s="4">
@@ -9426,7 +9660,7 @@
         <v>500006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>150</v>
+        <v>160</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -9437,13 +9671,13 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="G14" s="13">
+        <v>2</v>
+      </c>
+      <c r="H14" s="14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="17">
         <v>5</v>
       </c>
       <c r="J14" s="4">
@@ -9477,7 +9711,7 @@
         <v>500007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>151</v>
+        <v>161</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -9488,13 +9722,13 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="G15" s="13">
+        <v>2</v>
+      </c>
+      <c r="H15" s="14">
+        <v>3</v>
+      </c>
+      <c r="I15" s="17">
         <v>3</v>
       </c>
       <c r="J15" s="4">
@@ -9528,7 +9762,7 @@
         <v>500008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>152</v>
+        <v>162</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -9539,13 +9773,13 @@
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="4">
-        <v>3</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="13">
+        <v>3</v>
+      </c>
+      <c r="H16" s="14">
         <v>4</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="17">
         <v>6</v>
       </c>
       <c r="J16" s="4">
@@ -9579,7 +9813,7 @@
         <v>500009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -9590,13 +9824,13 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="4">
-        <v>3</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="15">
+        <v>3</v>
+      </c>
+      <c r="H17" s="14">
+        <v>3</v>
+      </c>
+      <c r="I17" s="17">
         <v>5</v>
       </c>
       <c r="J17" s="4">
@@ -9627,82 +9861,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="63"/>
     <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9713,10 +9947,10 @@
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:R17"/>
+  <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+    <sheetView topLeftCell="C3" workbookViewId="0">
+      <selection activeCell="L33" sqref="L33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9752,7 +9986,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>154</v>
+        <v>164</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -9773,7 +10007,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -10014,7 +10248,7 @@
         <v>600000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -10025,20 +10259,20 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="4">
-        <v>1</v>
-      </c>
-      <c r="H8" s="4">
-        <v>2</v>
-      </c>
-      <c r="I8" s="4">
+      <c r="G8" s="13">
+        <v>3</v>
+      </c>
+      <c r="H8" s="14">
+        <v>0</v>
+      </c>
+      <c r="I8" s="17">
         <v>5</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -10047,7 +10281,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -10066,7 +10300,7 @@
         <v>600001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>157</v>
+        <v>167</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -10077,13 +10311,13 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="4">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
-        <v>3</v>
-      </c>
-      <c r="I9" s="4">
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="14">
+        <v>3</v>
+      </c>
+      <c r="I9" s="17">
         <v>22</v>
       </c>
       <c r="J9" s="4">
@@ -10118,7 +10352,7 @@
         <v>600002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>158</v>
+        <v>168</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -10129,13 +10363,13 @@
       <c r="F10" s="4">
         <v>0</v>
       </c>
-      <c r="G10" s="4">
-        <v>1</v>
-      </c>
-      <c r="H10" s="4">
-        <v>3</v>
-      </c>
-      <c r="I10" s="4">
+      <c r="G10" s="13">
+        <v>1</v>
+      </c>
+      <c r="H10" s="14">
+        <v>3</v>
+      </c>
+      <c r="I10" s="17">
         <v>3</v>
       </c>
       <c r="J10" s="4">
@@ -10170,7 +10404,7 @@
         <v>600003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>159</v>
+        <v>169</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -10181,13 +10415,13 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="4">
-        <v>1</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="13">
+        <v>1</v>
+      </c>
+      <c r="H11" s="14">
         <v>4</v>
       </c>
-      <c r="I11" s="4">
+      <c r="I11" s="17">
         <v>2</v>
       </c>
       <c r="J11" s="4">
@@ -10222,7 +10456,7 @@
         <v>600004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>160</v>
+        <v>170</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -10233,13 +10467,13 @@
       <c r="F12" s="4">
         <v>1</v>
       </c>
-      <c r="G12" s="4">
-        <v>1</v>
-      </c>
-      <c r="H12" s="4">
-        <v>1</v>
-      </c>
-      <c r="I12" s="4">
+      <c r="G12" s="13">
+        <v>1</v>
+      </c>
+      <c r="H12" s="14">
+        <v>1</v>
+      </c>
+      <c r="I12" s="17">
         <v>3</v>
       </c>
       <c r="J12" s="4">
@@ -10274,7 +10508,7 @@
         <v>600005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>161</v>
+        <v>171</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -10285,13 +10519,13 @@
       <c r="F13" s="4">
         <v>1</v>
       </c>
-      <c r="G13" s="4">
-        <v>1</v>
-      </c>
-      <c r="H13" s="4">
-        <v>3</v>
-      </c>
-      <c r="I13" s="4">
+      <c r="G13" s="13">
+        <v>1</v>
+      </c>
+      <c r="H13" s="14">
+        <v>3</v>
+      </c>
+      <c r="I13" s="17">
         <v>1</v>
       </c>
       <c r="J13" s="4">
@@ -10326,7 +10560,7 @@
         <v>600006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>162</v>
+        <v>172</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -10337,13 +10571,13 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="4">
-        <v>2</v>
-      </c>
-      <c r="H14" s="4">
-        <v>3</v>
-      </c>
-      <c r="I14" s="4">
+      <c r="G14" s="13">
+        <v>2</v>
+      </c>
+      <c r="H14" s="14">
+        <v>3</v>
+      </c>
+      <c r="I14" s="17">
         <v>5</v>
       </c>
       <c r="J14" s="4">
@@ -10378,7 +10612,7 @@
         <v>600007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>163</v>
+        <v>173</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -10389,13 +10623,13 @@
       <c r="F15" s="4">
         <v>1</v>
       </c>
-      <c r="G15" s="4">
-        <v>2</v>
-      </c>
-      <c r="H15" s="4">
-        <v>3</v>
-      </c>
-      <c r="I15" s="4">
+      <c r="G15" s="13">
+        <v>2</v>
+      </c>
+      <c r="H15" s="14">
+        <v>3</v>
+      </c>
+      <c r="I15" s="17">
         <v>3</v>
       </c>
       <c r="J15" s="4">
@@ -10430,7 +10664,7 @@
         <v>600008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -10441,13 +10675,13 @@
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="4">
-        <v>3</v>
-      </c>
-      <c r="H16" s="4">
+      <c r="G16" s="13">
+        <v>3</v>
+      </c>
+      <c r="H16" s="14">
         <v>4</v>
       </c>
-      <c r="I16" s="4">
+      <c r="I16" s="17">
         <v>6</v>
       </c>
       <c r="J16" s="4">
@@ -10482,7 +10716,7 @@
         <v>600009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -10493,13 +10727,13 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="4">
-        <v>3</v>
-      </c>
-      <c r="H17" s="4">
-        <v>3</v>
-      </c>
-      <c r="I17" s="4">
+      <c r="G17" s="15">
+        <v>3</v>
+      </c>
+      <c r="H17" s="14">
+        <v>3</v>
+      </c>
+      <c r="I17" s="17">
         <v>5</v>
       </c>
       <c r="J17" s="4">
@@ -10528,80 +10762,83 @@
         <v>3</v>
       </c>
     </row>
+    <row r="18" ht="16.5" spans="7:7">
+      <c r="G18" s="16"/>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="B5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="43"/>
     <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="XueYuan" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">common!$A$5:$Q$30</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">common!$A$5:$Q$33</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1233,7 +1233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="180">
   <si>
     <t>导出类型</t>
   </si>
@@ -1437,6 +1437,9 @@
     <t>翼骑兵</t>
   </si>
   <si>
+    <t>机动: 移动力+1</t>
+  </si>
+  <si>
     <t>重装骑士</t>
   </si>
   <si>
@@ -1488,6 +1491,15 @@
     <t>抽两张卡</t>
   </si>
   <si>
+    <t>药品走私贩</t>
+  </si>
+  <si>
+    <t>部署:选择一个单位，为其恢复3点血量</t>
+  </si>
+  <si>
+    <t>[2,1,12,1]</t>
+  </si>
+  <si>
     <t>Cards1={</t>
   </si>
   <si>
@@ -1527,9 +1539,6 @@
     <t>部署：对一个单位造成一点伤害</t>
   </si>
   <si>
-    <t>[2,1,12,1]</t>
-  </si>
-  <si>
     <t>兵营</t>
   </si>
   <si>
@@ -1542,10 +1551,10 @@
     <t>冠军骑士</t>
   </si>
   <si>
-    <t>机动：移动力+1\n冲锋：本回合每移动一格，攻击力+1，且对目标背后的单位造成同等伤害</t>
-  </si>
-  <si>
-    <t>[2]</t>
+    <t>机动：移动力+1\n冲锋：本回合每移动一格，攻击力+1，\n穿透攻击：对目标背后的单位造成同等伤害</t>
+  </si>
+  <si>
+    <t>[2,5]</t>
   </si>
   <si>
     <t>隐匿</t>
@@ -1557,6 +1566,12 @@
     <t>[10,1]</t>
   </si>
   <si>
+    <t>灵能之刃</t>
+  </si>
+  <si>
+    <t>使一个友方单位获得+1/+1,/n且获得穿透攻击：对目标背后的单位造成同等伤害</t>
+  </si>
+  <si>
     <t>刺杀</t>
   </si>
   <si>
@@ -1564,9 +1579,6 @@
   </si>
   <si>
     <t>[14,1]</t>
-  </si>
-  <si>
-    <t>圣堂远程凑数1</t>
   </si>
   <si>
     <t>圣堂远程凑数2</t>
@@ -2906,7 +2918,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2950,9 +2962,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2968,29 +2977,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="114">
@@ -3402,30 +3396,30 @@
   <sheetPr/>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" style="22" customWidth="1"/>
-    <col min="2" max="2" width="12.0083333333333" style="22" customWidth="1"/>
-    <col min="3" max="3" width="13.0083333333333" style="22" customWidth="1"/>
-    <col min="4" max="4" width="11.3416666666667" style="22" customWidth="1"/>
-    <col min="5" max="5" width="10.3416666666667" style="22" customWidth="1"/>
-    <col min="6" max="6" width="12.0083333333333" style="22" customWidth="1"/>
-    <col min="7" max="7" width="10.3416666666667" style="22" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" style="22" customWidth="1"/>
-    <col min="10" max="10" width="9.00833333333333" style="22" customWidth="1"/>
-    <col min="11" max="11" width="25.3416666666667" style="22" customWidth="1"/>
-    <col min="12" max="12" width="10.3416666666667" style="22" customWidth="1"/>
-    <col min="13" max="13" width="14.0083333333333" style="22" customWidth="1"/>
-    <col min="14" max="14" width="14.675" style="22" customWidth="1"/>
-    <col min="15" max="15" width="9.675" style="22" customWidth="1"/>
-    <col min="16" max="16" width="10.175" style="22" customWidth="1"/>
-    <col min="17" max="17" width="21.8416666666667" style="22" customWidth="1"/>
-    <col min="18" max="18" width="11.175" style="22" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="22"/>
+    <col min="1" max="1" width="10.3416666666667" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.0083333333333" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.3416666666667" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.3416666666667" style="20" customWidth="1"/>
+    <col min="6" max="6" width="12.0083333333333" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.3416666666667" style="20" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" style="20" customWidth="1"/>
+    <col min="10" max="10" width="9.00833333333333" style="20" customWidth="1"/>
+    <col min="11" max="11" width="25.3416666666667" style="20" customWidth="1"/>
+    <col min="12" max="12" width="10.3416666666667" style="20" customWidth="1"/>
+    <col min="13" max="13" width="14.0083333333333" style="20" customWidth="1"/>
+    <col min="14" max="14" width="14.675" style="20" customWidth="1"/>
+    <col min="15" max="15" width="9.675" style="20" customWidth="1"/>
+    <col min="16" max="16" width="10.175" style="20" customWidth="1"/>
+    <col min="17" max="17" width="21.8416666666667" style="20" customWidth="1"/>
+    <col min="18" max="18" width="11.175" style="20" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -3713,13 +3707,13 @@
       <c r="F8" s="4">
         <v>0</v>
       </c>
-      <c r="G8" s="21">
+      <c r="G8" s="15">
         <v>0</v>
       </c>
       <c r="H8" s="14">
         <v>0</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>0</v>
       </c>
       <c r="J8" s="4">
@@ -3765,13 +3759,13 @@
       <c r="F9" s="4">
         <v>0</v>
       </c>
-      <c r="G9" s="21">
+      <c r="G9" s="15">
         <v>1</v>
       </c>
       <c r="H9" s="14">
         <v>2</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>3</v>
       </c>
       <c r="J9" s="4">
@@ -3817,13 +3811,13 @@
       <c r="F10" s="4">
         <v>1</v>
       </c>
-      <c r="G10" s="21">
+      <c r="G10" s="15">
         <v>2</v>
       </c>
       <c r="H10" s="14">
         <v>2</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>1</v>
       </c>
       <c r="J10" s="4">
@@ -3869,13 +3863,13 @@
       <c r="F11" s="4">
         <v>0</v>
       </c>
-      <c r="G11" s="21">
+      <c r="G11" s="15">
         <v>1</v>
       </c>
       <c r="H11" s="14">
         <v>1</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>2</v>
       </c>
       <c r="J11" s="4">
@@ -3921,13 +3915,13 @@
       <c r="F12" s="4">
         <v>0</v>
       </c>
-      <c r="G12" s="21">
+      <c r="G12" s="15">
         <v>2</v>
       </c>
       <c r="H12" s="14">
         <v>2</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>3</v>
       </c>
       <c r="J12" s="4">
@@ -3973,13 +3967,13 @@
       <c r="F13" s="4">
         <v>0</v>
       </c>
-      <c r="G13" s="21">
+      <c r="G13" s="15">
         <v>2</v>
       </c>
       <c r="H13" s="14">
         <v>3</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>2</v>
       </c>
       <c r="J13" s="4">
@@ -4025,13 +4019,13 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="15">
         <v>3</v>
       </c>
       <c r="H14" s="14">
         <v>3</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>4</v>
       </c>
       <c r="J14" s="4">
@@ -4077,13 +4071,13 @@
       <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="21">
+      <c r="G15" s="15">
         <v>3</v>
       </c>
       <c r="H15" s="14">
         <v>4</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>3</v>
       </c>
       <c r="J15" s="4">
@@ -4129,13 +4123,13 @@
       <c r="F16" s="4">
         <v>0</v>
       </c>
-      <c r="G16" s="21">
+      <c r="G16" s="15">
         <v>4</v>
       </c>
       <c r="H16" s="14">
         <v>4</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>5</v>
       </c>
       <c r="J16" s="4">
@@ -4181,13 +4175,13 @@
       <c r="F17" s="4">
         <v>0</v>
       </c>
-      <c r="G17" s="21">
+      <c r="G17" s="15">
         <v>4</v>
       </c>
       <c r="H17" s="14">
         <v>5</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <v>4</v>
       </c>
       <c r="J17" s="4">
@@ -4233,13 +4227,13 @@
       <c r="F18" s="4">
         <v>0</v>
       </c>
-      <c r="G18" s="21">
+      <c r="G18" s="15">
         <v>5</v>
       </c>
       <c r="H18" s="14">
         <v>5</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="16">
         <v>6</v>
       </c>
       <c r="J18" s="4">
@@ -4269,7 +4263,7 @@
       </c>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A19" s="23"/>
+      <c r="A19" s="4"/>
       <c r="B19" s="4">
         <v>11</v>
       </c>
@@ -4285,19 +4279,21 @@
       <c r="F19" s="4">
         <v>0</v>
       </c>
-      <c r="G19" s="21">
+      <c r="G19" s="15">
         <v>5</v>
       </c>
       <c r="H19" s="14">
         <v>3</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="16">
         <v>8</v>
       </c>
       <c r="J19" s="4">
         <v>0</v>
       </c>
-      <c r="K19" s="4"/>
+      <c r="K19" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="L19" s="4" t="s">
         <v>50</v>
       </c>
@@ -4321,12 +4317,12 @@
       </c>
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A20" s="23"/>
+      <c r="A20" s="4"/>
       <c r="B20" s="4">
         <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -4337,13 +4333,13 @@
       <c r="F20" s="4">
         <v>0</v>
       </c>
-      <c r="G20" s="21">
+      <c r="G20" s="15">
         <v>6</v>
       </c>
       <c r="H20" s="14">
         <v>6</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="16">
         <v>7</v>
       </c>
       <c r="J20" s="4">
@@ -4373,12 +4369,12 @@
       </c>
     </row>
     <row r="21" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A21" s="23"/>
+      <c r="A21" s="4"/>
       <c r="B21" s="4">
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -4389,13 +4385,13 @@
       <c r="F21" s="4">
         <v>0</v>
       </c>
-      <c r="G21" s="21">
+      <c r="G21" s="15">
         <v>6</v>
       </c>
       <c r="H21" s="14">
         <v>7</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="16">
         <v>6</v>
       </c>
       <c r="J21" s="4">
@@ -4425,12 +4421,12 @@
       </c>
     </row>
     <row r="22" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A22" s="23"/>
+      <c r="A22" s="4"/>
       <c r="B22" s="4">
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -4441,13 +4437,13 @@
       <c r="F22" s="4">
         <v>0</v>
       </c>
-      <c r="G22" s="21">
+      <c r="G22" s="15">
         <v>6</v>
       </c>
       <c r="H22" s="14">
         <v>6</v>
       </c>
-      <c r="I22" s="17">
+      <c r="I22" s="16">
         <v>9</v>
       </c>
       <c r="J22" s="4">
@@ -4477,12 +4473,12 @@
       </c>
     </row>
     <row r="23" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A23" s="23"/>
+      <c r="A23" s="4"/>
       <c r="B23" s="4">
         <v>15</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -4493,13 +4489,13 @@
       <c r="F23" s="4">
         <v>1</v>
       </c>
-      <c r="G23" s="21">
+      <c r="G23" s="15">
         <v>2</v>
       </c>
       <c r="H23" s="14">
         <v>2</v>
       </c>
-      <c r="I23" s="17">
+      <c r="I23" s="16">
         <v>1</v>
       </c>
       <c r="J23" s="4">
@@ -4529,12 +4525,12 @@
       </c>
     </row>
     <row r="24" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A24" s="23"/>
+      <c r="A24" s="4"/>
       <c r="B24" s="4">
         <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -4545,13 +4541,13 @@
       <c r="F24" s="4">
         <v>1</v>
       </c>
-      <c r="G24" s="21">
+      <c r="G24" s="15">
         <v>3</v>
       </c>
       <c r="H24" s="14">
         <v>3</v>
       </c>
-      <c r="I24" s="17">
+      <c r="I24" s="16">
         <v>2</v>
       </c>
       <c r="J24" s="4">
@@ -4581,12 +4577,12 @@
       </c>
     </row>
     <row r="25" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A25" s="23"/>
+      <c r="A25" s="4"/>
       <c r="B25" s="4">
         <v>17</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -4597,13 +4593,13 @@
       <c r="F25" s="4">
         <v>1</v>
       </c>
-      <c r="G25" s="21">
+      <c r="G25" s="15">
         <v>3</v>
       </c>
       <c r="H25" s="14">
         <v>2</v>
       </c>
-      <c r="I25" s="17">
+      <c r="I25" s="16">
         <v>3</v>
       </c>
       <c r="J25" s="4">
@@ -4633,12 +4629,12 @@
       </c>
     </row>
     <row r="26" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A26" s="23"/>
+      <c r="A26" s="4"/>
       <c r="B26" s="4">
         <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -4649,13 +4645,13 @@
       <c r="F26" s="4">
         <v>1</v>
       </c>
-      <c r="G26" s="21">
+      <c r="G26" s="15">
         <v>4</v>
       </c>
       <c r="H26" s="14">
         <v>4</v>
       </c>
-      <c r="I26" s="17">
+      <c r="I26" s="16">
         <v>3</v>
       </c>
       <c r="J26" s="4">
@@ -4685,12 +4681,12 @@
       </c>
     </row>
     <row r="27" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A27" s="23"/>
+      <c r="A27" s="4"/>
       <c r="B27" s="4">
         <v>19</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -4701,13 +4697,13 @@
       <c r="F27" s="4">
         <v>1</v>
       </c>
-      <c r="G27" s="21">
+      <c r="G27" s="15">
         <v>4</v>
       </c>
       <c r="H27" s="14">
         <v>2</v>
       </c>
-      <c r="I27" s="17">
+      <c r="I27" s="16">
         <v>4</v>
       </c>
       <c r="J27" s="4">
@@ -4737,12 +4733,12 @@
       </c>
     </row>
     <row r="28" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A28" s="23"/>
+      <c r="A28" s="4"/>
       <c r="B28" s="4">
         <v>20</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -4753,13 +4749,13 @@
       <c r="F28" s="4">
         <v>1</v>
       </c>
-      <c r="G28" s="21">
+      <c r="G28" s="15">
         <v>5</v>
       </c>
       <c r="H28" s="14">
         <v>5</v>
       </c>
-      <c r="I28" s="17">
+      <c r="I28" s="16">
         <v>4</v>
       </c>
       <c r="J28" s="4">
@@ -4789,12 +4785,12 @@
       </c>
     </row>
     <row r="29" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A29" s="23"/>
+      <c r="A29" s="4"/>
       <c r="B29" s="4">
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -4805,13 +4801,13 @@
       <c r="F29" s="4">
         <v>1</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="15">
         <v>5</v>
       </c>
       <c r="H29" s="14">
         <v>4</v>
       </c>
-      <c r="I29" s="17">
+      <c r="I29" s="16">
         <v>5</v>
       </c>
       <c r="J29" s="4">
@@ -4841,12 +4837,12 @@
       </c>
     </row>
     <row r="30" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A30" s="23"/>
+      <c r="A30" s="4"/>
       <c r="B30" s="4">
         <v>22</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -4857,13 +4853,13 @@
       <c r="F30" s="4">
         <v>1</v>
       </c>
-      <c r="G30" s="21">
+      <c r="G30" s="15">
         <v>6</v>
       </c>
       <c r="H30" s="14">
         <v>5</v>
       </c>
-      <c r="I30" s="17">
+      <c r="I30" s="16">
         <v>6</v>
       </c>
       <c r="J30" s="4">
@@ -4893,12 +4889,12 @@
       </c>
     </row>
     <row r="31" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A31" s="23"/>
+      <c r="A31" s="4"/>
       <c r="B31" s="4">
         <v>23</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -4909,20 +4905,20 @@
       <c r="F31" s="4">
         <v>1</v>
       </c>
-      <c r="G31" s="21">
+      <c r="G31" s="15">
         <v>2</v>
       </c>
       <c r="H31" s="14">
         <v>1</v>
       </c>
-      <c r="I31" s="17">
+      <c r="I31" s="16">
         <v>2</v>
       </c>
       <c r="J31" s="4">
         <v>1</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>50</v>
@@ -4942,46 +4938,46 @@
       <c r="Q31" s="4">
         <v>2</v>
       </c>
-      <c r="R31" s="23">
+      <c r="R31" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="32" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A32" s="23"/>
-      <c r="B32" s="23">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4">
         <v>24</v>
       </c>
-      <c r="C32" s="24" t="s">
-        <v>80</v>
-      </c>
-      <c r="D32" s="23">
-        <v>1</v>
-      </c>
-      <c r="E32" s="23">
-        <v>1</v>
-      </c>
-      <c r="F32" s="23">
-        <v>1</v>
-      </c>
-      <c r="G32" s="16">
+      <c r="C32" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D32" s="4">
+        <v>1</v>
+      </c>
+      <c r="E32" s="4">
+        <v>1</v>
+      </c>
+      <c r="F32" s="4">
+        <v>1</v>
+      </c>
+      <c r="G32" s="15">
         <v>5</v>
       </c>
-      <c r="H32" s="25">
-        <v>2</v>
-      </c>
-      <c r="I32" s="28">
+      <c r="H32" s="14">
+        <v>2</v>
+      </c>
+      <c r="I32" s="16">
         <v>4</v>
       </c>
-      <c r="J32" s="23">
+      <c r="J32" s="4">
         <v>1</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="L32" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="L32" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="M32" s="23">
+      <c r="M32" s="4">
         <v>0</v>
       </c>
       <c r="N32" s="4" t="s">
@@ -4993,55 +4989,55 @@
       <c r="P32" s="4">
         <v>-1</v>
       </c>
-      <c r="Q32" s="23">
-        <v>2</v>
-      </c>
-      <c r="R32" s="23">
+      <c r="Q32" s="4">
+        <v>2</v>
+      </c>
+      <c r="R32" s="4">
         <v>0</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:18">
-      <c r="B33" s="22">
+      <c r="B33" s="20">
         <v>25</v>
       </c>
-      <c r="C33" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="D33" s="22">
-        <v>2</v>
-      </c>
-      <c r="E33" s="22">
-        <v>1</v>
-      </c>
-      <c r="F33" s="22">
-        <v>0</v>
-      </c>
-      <c r="G33" s="26">
-        <v>3</v>
-      </c>
-      <c r="H33" s="27">
-        <v>0</v>
-      </c>
-      <c r="I33" s="28">
+      <c r="C33" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D33" s="20">
+        <v>2</v>
+      </c>
+      <c r="E33" s="20">
+        <v>1</v>
+      </c>
+      <c r="F33" s="20">
+        <v>0</v>
+      </c>
+      <c r="G33" s="21">
+        <v>3</v>
+      </c>
+      <c r="H33" s="22">
+        <v>0</v>
+      </c>
+      <c r="I33" s="16">
         <v>4</v>
       </c>
-      <c r="J33" s="22">
+      <c r="J33" s="20">
         <v>0</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="L33" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="L33" s="20" t="s">
         <v>50</v>
       </c>
-      <c r="M33" s="22">
+      <c r="M33" s="20">
         <v>0</v>
       </c>
       <c r="N33" s="4" t="s">
         <v>51</v>
       </c>
       <c r="O33" s="4">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="P33" s="4">
         <v>-1</v>
@@ -5049,84 +5045,133 @@
       <c r="Q33" s="4">
         <v>2</v>
       </c>
-      <c r="R33" s="22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="7:8">
-      <c r="G34" s="26"/>
-      <c r="H34" s="27"/>
+      <c r="R33" s="20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" ht="33" spans="2:18">
+      <c r="B34" s="4">
+        <v>26</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D34" s="4">
+        <v>1</v>
+      </c>
+      <c r="E34" s="4">
+        <v>1</v>
+      </c>
+      <c r="F34" s="4">
+        <v>1</v>
+      </c>
+      <c r="G34" s="15">
+        <v>3</v>
+      </c>
+      <c r="H34" s="14">
+        <v>3</v>
+      </c>
+      <c r="I34" s="16">
+        <v>3</v>
+      </c>
+      <c r="J34" s="4">
+        <v>1</v>
+      </c>
+      <c r="K34" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="L34" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M34" s="4">
+        <v>0</v>
+      </c>
+      <c r="N34" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P34" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q34" s="4">
+        <v>2</v>
+      </c>
+      <c r="R34" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="35" spans="7:8">
-      <c r="G35" s="26"/>
-      <c r="H35" s="27"/>
+      <c r="G35" s="21"/>
+      <c r="H35" s="22"/>
     </row>
     <row r="36" spans="7:8">
-      <c r="G36" s="26"/>
-      <c r="H36" s="27"/>
+      <c r="G36" s="21"/>
+      <c r="H36" s="22"/>
     </row>
     <row r="37" spans="7:7">
-      <c r="G37" s="26"/>
+      <c r="G37" s="21"/>
     </row>
     <row r="38" spans="7:7">
-      <c r="G38" s="26"/>
+      <c r="G38" s="21"/>
     </row>
     <row r="39" spans="7:7">
-      <c r="G39" s="26"/>
+      <c r="G39" s="21"/>
     </row>
     <row r="40" spans="7:7">
-      <c r="G40" s="26"/>
+      <c r="G40" s="21"/>
     </row>
     <row r="41" spans="7:7">
-      <c r="G41" s="26"/>
+      <c r="G41" s="21"/>
     </row>
     <row r="42" spans="7:7">
-      <c r="G42" s="26"/>
+      <c r="G42" s="21"/>
     </row>
     <row r="43" spans="7:7">
-      <c r="G43" s="26"/>
+      <c r="G43" s="21"/>
     </row>
     <row r="44" spans="7:7">
-      <c r="G44" s="26"/>
+      <c r="G44" s="21"/>
     </row>
     <row r="45" spans="7:7">
-      <c r="G45" s="26"/>
+      <c r="G45" s="21"/>
     </row>
     <row r="46" spans="7:7">
-      <c r="G46" s="26"/>
+      <c r="G46" s="21"/>
     </row>
     <row r="47" spans="7:7">
-      <c r="G47" s="26"/>
+      <c r="G47" s="21"/>
     </row>
     <row r="48" spans="7:7">
-      <c r="G48" s="26"/>
+      <c r="G48" s="21"/>
     </row>
     <row r="49" spans="7:7">
-      <c r="G49" s="26"/>
+      <c r="G49" s="21"/>
     </row>
     <row r="50" spans="7:7">
-      <c r="G50" s="26"/>
+      <c r="G50" s="21"/>
     </row>
     <row r="51" spans="7:7">
-      <c r="G51" s="26"/>
+      <c r="G51" s="21"/>
     </row>
     <row r="52" spans="7:7">
-      <c r="G52" s="26"/>
+      <c r="G52" s="21"/>
     </row>
     <row r="53" spans="7:7">
-      <c r="G53" s="26"/>
+      <c r="G53" s="21"/>
     </row>
     <row r="54" spans="7:7">
-      <c r="G54" s="26"/>
+      <c r="G54" s="21"/>
     </row>
     <row r="55" spans="7:7">
-      <c r="G55" s="26"/>
+      <c r="G55" s="21"/>
     </row>
     <row r="56" spans="7:7">
-      <c r="G56" s="26"/>
+      <c r="G56" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:Q30">
+  <autoFilter ref="A5:Q33">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B5:C5">
@@ -5219,8 +5264,8 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="O20" sqref="O20"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5255,7 +5300,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -5263,7 +5308,7 @@
       <c r="I1" s="4"/>
       <c r="J1" s="4"/>
       <c r="K1" s="4"/>
-      <c r="L1" s="20"/>
+      <c r="L1" s="19"/>
       <c r="M1" s="4"/>
       <c r="N1" s="4"/>
       <c r="O1" s="4"/>
@@ -5276,7 +5321,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -5291,7 +5336,7 @@
       <c r="I2" s="4"/>
       <c r="J2" s="4"/>
       <c r="K2" s="4"/>
-      <c r="L2" s="20"/>
+      <c r="L2" s="19"/>
       <c r="M2" s="4"/>
       <c r="N2" s="4"/>
       <c r="O2" s="4"/>
@@ -5315,7 +5360,7 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
-      <c r="L3" s="20"/>
+      <c r="L3" s="19"/>
       <c r="M3" s="4"/>
       <c r="N3" s="4"/>
       <c r="O3" s="4"/>
@@ -5517,7 +5562,7 @@
         <v>100000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -5534,17 +5579,17 @@
       <c r="H8" s="14">
         <v>3</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>22</v>
       </c>
       <c r="J8" s="4">
         <v>3</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>87</v>
+      <c r="K8" s="19" t="s">
+        <v>91</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -5571,7 +5616,7 @@
         <v>100001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -5588,17 +5633,17 @@
       <c r="H9" s="14">
         <v>1</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>4</v>
       </c>
       <c r="J9" s="4">
         <v>1</v>
       </c>
-      <c r="K9" s="20" t="s">
-        <v>90</v>
+      <c r="K9" s="19" t="s">
+        <v>94</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -5625,7 +5670,7 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -5642,17 +5687,17 @@
       <c r="H10" s="14">
         <v>1</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>2</v>
       </c>
       <c r="J10" s="4">
         <v>0</v>
       </c>
-      <c r="K10" s="20" t="s">
-        <v>93</v>
+      <c r="K10" s="19" t="s">
+        <v>97</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
@@ -5679,7 +5724,7 @@
         <v>100003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -5696,14 +5741,14 @@
       <c r="H11" s="14">
         <v>2</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>1</v>
       </c>
       <c r="J11" s="4">
         <v>1</v>
       </c>
-      <c r="K11" s="20" t="s">
-        <v>96</v>
+      <c r="K11" s="19" t="s">
+        <v>100</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>50</v>
@@ -5712,7 +5757,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="O11" s="4">
         <v>3</v>
@@ -5733,7 +5778,7 @@
         <v>100004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -5750,14 +5795,14 @@
       <c r="H12" s="14">
         <v>0</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>5</v>
       </c>
       <c r="J12" s="4">
         <v>0</v>
       </c>
-      <c r="K12" s="20" t="s">
-        <v>99</v>
+      <c r="K12" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>50</v>
@@ -5766,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O12" s="4">
         <v>-1</v>
@@ -5785,7 +5830,7 @@
         <v>100005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -5802,17 +5847,17 @@
       <c r="H13" s="14">
         <v>1</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>8</v>
       </c>
       <c r="J13" s="4">
         <v>2</v>
       </c>
-      <c r="K13" s="20" t="s">
-        <v>102</v>
+      <c r="K13" s="19" t="s">
+        <v>105</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
@@ -5839,7 +5884,7 @@
         <v>100006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -5850,20 +5895,20 @@
       <c r="F14" s="4">
         <v>0</v>
       </c>
-      <c r="G14" s="21">
+      <c r="G14" s="15">
         <v>1</v>
       </c>
       <c r="H14" s="14">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
       </c>
       <c r="J14" s="4">
         <v>1</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>50</v>
@@ -5872,7 +5917,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="O14" s="4">
         <v>1</v>
@@ -5885,12 +5930,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="16.5" spans="2:18">
+    <row r="15" ht="33" spans="2:18">
       <c r="B15" s="4">
         <v>100007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -5901,20 +5946,20 @@
       <c r="F15" s="4">
         <v>0</v>
       </c>
-      <c r="G15" s="21">
-        <v>5</v>
+      <c r="G15" s="15">
+        <v>3</v>
       </c>
       <c r="H15" s="14">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I15" s="16">
+        <v>1</v>
       </c>
       <c r="J15" s="4">
         <v>1</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>50</v>
@@ -5941,30 +5986,32 @@
         <v>100008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D16" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E16" s="4">
         <v>1</v>
       </c>
       <c r="F16" s="4">
-        <v>1</v>
-      </c>
-      <c r="G16" s="13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G16" s="15">
+        <v>5</v>
       </c>
       <c r="H16" s="14">
-        <v>1</v>
-      </c>
-      <c r="I16" s="17">
-        <v>3</v>
+        <v>0</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0</v>
       </c>
       <c r="J16" s="4">
         <v>1</v>
       </c>
-      <c r="K16" s="4"/>
+      <c r="K16" s="4" t="s">
+        <v>113</v>
+      </c>
       <c r="L16" s="4" t="s">
         <v>50</v>
       </c>
@@ -5972,19 +6019,17 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>58</v>
+        <v>114</v>
       </c>
       <c r="O16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P16" s="4">
         <v>-1</v>
       </c>
-      <c r="Q16" s="4">
-        <v>2</v>
-      </c>
+      <c r="Q16" s="4"/>
       <c r="R16" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:18">
@@ -5992,7 +6037,7 @@
         <v>100009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -6009,7 +6054,7 @@
       <c r="H17" s="14">
         <v>3</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <v>1</v>
       </c>
       <c r="J17" s="4">
@@ -6043,7 +6088,7 @@
         <v>100010</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -6060,7 +6105,7 @@
       <c r="H18" s="14">
         <v>3</v>
       </c>
-      <c r="I18" s="17">
+      <c r="I18" s="16">
         <v>5</v>
       </c>
       <c r="J18" s="4">
@@ -6094,7 +6139,7 @@
         <v>100011</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -6111,7 +6156,7 @@
       <c r="H19" s="14">
         <v>3</v>
       </c>
-      <c r="I19" s="17">
+      <c r="I19" s="16">
         <v>3</v>
       </c>
       <c r="J19" s="4">
@@ -6145,7 +6190,7 @@
         <v>100012</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -6162,7 +6207,7 @@
       <c r="H20" s="14">
         <v>4</v>
       </c>
-      <c r="I20" s="17">
+      <c r="I20" s="16">
         <v>6</v>
       </c>
       <c r="J20" s="4">
@@ -6196,7 +6241,7 @@
         <v>100013</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -6213,7 +6258,7 @@
       <c r="H21" s="14">
         <v>3</v>
       </c>
-      <c r="I21" s="17">
+      <c r="I21" s="16">
         <v>5</v>
       </c>
       <c r="J21" s="4">
@@ -6396,7 +6441,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -6417,7 +6462,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -6658,7 +6703,7 @@
         <v>200000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -6675,14 +6720,14 @@
       <c r="H8" s="14">
         <v>0</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>5</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>99</v>
+      <c r="K8" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -6691,7 +6736,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -6710,7 +6755,7 @@
         <v>200001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -6727,7 +6772,7 @@
       <c r="H9" s="14">
         <v>3</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>22</v>
       </c>
       <c r="J9" s="4">
@@ -6762,7 +6807,7 @@
         <v>200002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -6779,7 +6824,7 @@
       <c r="H10" s="14">
         <v>3</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>3</v>
       </c>
       <c r="J10" s="4">
@@ -6814,7 +6859,7 @@
         <v>200003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -6831,7 +6876,7 @@
       <c r="H11" s="14">
         <v>4</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>2</v>
       </c>
       <c r="J11" s="4">
@@ -6865,7 +6910,7 @@
         <v>200004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -6882,7 +6927,7 @@
       <c r="H12" s="14">
         <v>1</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>3</v>
       </c>
       <c r="J12" s="4">
@@ -6917,7 +6962,7 @@
         <v>200005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -6934,7 +6979,7 @@
       <c r="H13" s="14">
         <v>3</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>1</v>
       </c>
       <c r="J13" s="4">
@@ -6969,7 +7014,7 @@
         <v>200006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -6986,7 +7031,7 @@
       <c r="H14" s="14">
         <v>3</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>5</v>
       </c>
       <c r="J14" s="4">
@@ -7021,7 +7066,7 @@
         <v>200007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -7038,7 +7083,7 @@
       <c r="H15" s="14">
         <v>3</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>3</v>
       </c>
       <c r="J15" s="4">
@@ -7073,7 +7118,7 @@
         <v>200008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7090,7 +7135,7 @@
       <c r="H16" s="14">
         <v>4</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>6</v>
       </c>
       <c r="J16" s="4">
@@ -7125,7 +7170,7 @@
         <v>200009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -7136,13 +7181,13 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <v>3</v>
       </c>
       <c r="H17" s="14">
         <v>3</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <v>5</v>
       </c>
       <c r="J17" s="4">
@@ -7309,7 +7354,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -7330,7 +7375,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -7454,55 +7499,55 @@
       </c>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R6" s="11" t="s">
@@ -7510,55 +7555,55 @@
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="18" t="s">
         <v>46</v>
       </c>
       <c r="R7" s="12" t="s">
@@ -7571,7 +7616,7 @@
         <v>300000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -7588,14 +7633,14 @@
       <c r="H8" s="14">
         <v>0</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>5</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>99</v>
+      <c r="K8" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -7604,7 +7649,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -7622,7 +7667,7 @@
         <v>300001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -7639,7 +7684,7 @@
       <c r="H9" s="14">
         <v>3</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>22</v>
       </c>
       <c r="J9" s="4">
@@ -7673,7 +7718,7 @@
         <v>300002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -7690,7 +7735,7 @@
       <c r="H10" s="14">
         <v>3</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>3</v>
       </c>
       <c r="J10" s="4">
@@ -7724,7 +7769,7 @@
         <v>300003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -7741,7 +7786,7 @@
       <c r="H11" s="14">
         <v>4</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>2</v>
       </c>
       <c r="J11" s="4">
@@ -7774,7 +7819,7 @@
         <v>300004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7791,7 +7836,7 @@
       <c r="H12" s="14">
         <v>1</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>3</v>
       </c>
       <c r="J12" s="4">
@@ -7825,7 +7870,7 @@
         <v>300005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7842,7 +7887,7 @@
       <c r="H13" s="14">
         <v>3</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>1</v>
       </c>
       <c r="J13" s="4">
@@ -7876,7 +7921,7 @@
         <v>300006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -7893,7 +7938,7 @@
       <c r="H14" s="14">
         <v>3</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>5</v>
       </c>
       <c r="J14" s="4">
@@ -7927,7 +7972,7 @@
         <v>300007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -7944,7 +7989,7 @@
       <c r="H15" s="14">
         <v>3</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>3</v>
       </c>
       <c r="J15" s="4">
@@ -7978,7 +8023,7 @@
         <v>300008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7995,7 +8040,7 @@
       <c r="H16" s="14">
         <v>4</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>6</v>
       </c>
       <c r="J16" s="4">
@@ -8029,7 +8074,7 @@
         <v>300009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -8040,13 +8085,13 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <v>3</v>
       </c>
       <c r="H17" s="14">
         <v>3</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <v>5</v>
       </c>
       <c r="J17" s="4">
@@ -8201,7 +8246,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -8222,7 +8267,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -8346,55 +8391,55 @@
       </c>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R6" s="11" t="s">
@@ -8402,55 +8447,55 @@
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="18" t="s">
         <v>46</v>
       </c>
       <c r="R7" s="12" t="s">
@@ -8463,7 +8508,7 @@
         <v>400000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -8480,14 +8525,14 @@
       <c r="H8" s="14">
         <v>0</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>5</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>99</v>
+      <c r="K8" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -8496,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -8514,7 +8559,7 @@
         <v>400001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -8531,7 +8576,7 @@
       <c r="H9" s="14">
         <v>3</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>22</v>
       </c>
       <c r="J9" s="4">
@@ -8565,7 +8610,7 @@
         <v>400002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -8582,7 +8627,7 @@
       <c r="H10" s="14">
         <v>3</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>3</v>
       </c>
       <c r="J10" s="4">
@@ -8616,7 +8661,7 @@
         <v>400003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -8633,7 +8678,7 @@
       <c r="H11" s="14">
         <v>4</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>2</v>
       </c>
       <c r="J11" s="4">
@@ -8666,7 +8711,7 @@
         <v>400004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -8683,7 +8728,7 @@
       <c r="H12" s="14">
         <v>1</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>3</v>
       </c>
       <c r="J12" s="4">
@@ -8717,7 +8762,7 @@
         <v>400005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -8734,7 +8779,7 @@
       <c r="H13" s="14">
         <v>3</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>1</v>
       </c>
       <c r="J13" s="4">
@@ -8768,7 +8813,7 @@
         <v>400006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -8785,7 +8830,7 @@
       <c r="H14" s="14">
         <v>3</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>5</v>
       </c>
       <c r="J14" s="4">
@@ -8819,7 +8864,7 @@
         <v>400007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -8836,7 +8881,7 @@
       <c r="H15" s="14">
         <v>3</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>3</v>
       </c>
       <c r="J15" s="4">
@@ -8870,7 +8915,7 @@
         <v>400008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -8887,7 +8932,7 @@
       <c r="H16" s="14">
         <v>4</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>6</v>
       </c>
       <c r="J16" s="4">
@@ -8921,7 +8966,7 @@
         <v>400009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -8932,13 +8977,13 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <v>3</v>
       </c>
       <c r="H17" s="14">
         <v>3</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <v>5</v>
       </c>
       <c r="J17" s="4">
@@ -9093,7 +9138,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -9114,7 +9159,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -9238,55 +9283,55 @@
       </c>
     </row>
     <row r="6" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="17" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="C6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="D6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="E6" s="18" t="s">
+      <c r="E6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="18" t="s">
+      <c r="G6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H6" s="18" t="s">
+      <c r="H6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="I6" s="18" t="s">
+      <c r="I6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="J6" s="18" t="s">
+      <c r="J6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="18" t="s">
+      <c r="K6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="L6" s="18" t="s">
+      <c r="L6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="M6" s="18" t="s">
+      <c r="M6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="N6" s="18" t="s">
+      <c r="N6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="18" t="s">
+      <c r="O6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="P6" s="18" t="s">
+      <c r="P6" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="Q6" s="18" t="s">
+      <c r="Q6" s="17" t="s">
         <v>28</v>
       </c>
       <c r="R6" s="11" t="s">
@@ -9294,55 +9339,55 @@
       </c>
     </row>
     <row r="7" ht="18.5" customHeight="1" spans="1:18">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>35</v>
       </c>
-      <c r="G7" s="19" t="s">
+      <c r="G7" s="18" t="s">
         <v>36</v>
       </c>
-      <c r="H7" s="19" t="s">
+      <c r="H7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="J7" s="19" t="s">
+      <c r="J7" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="19" t="s">
+      <c r="K7" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="L7" s="19" t="s">
+      <c r="L7" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="N7" s="19" t="s">
+      <c r="N7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="19" t="s">
+      <c r="O7" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="P7" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="18" t="s">
         <v>46</v>
       </c>
       <c r="R7" s="12" t="s">
@@ -9355,7 +9400,7 @@
         <v>500000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -9372,14 +9417,14 @@
       <c r="H8" s="14">
         <v>0</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>5</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>99</v>
+      <c r="K8" s="19" t="s">
+        <v>102</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -9388,7 +9433,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -9406,7 +9451,7 @@
         <v>500001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -9423,7 +9468,7 @@
       <c r="H9" s="14">
         <v>3</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>22</v>
       </c>
       <c r="J9" s="4">
@@ -9457,7 +9502,7 @@
         <v>500002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -9474,7 +9519,7 @@
       <c r="H10" s="14">
         <v>3</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>3</v>
       </c>
       <c r="J10" s="4">
@@ -9508,7 +9553,7 @@
         <v>500003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -9525,7 +9570,7 @@
       <c r="H11" s="14">
         <v>4</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>2</v>
       </c>
       <c r="J11" s="4">
@@ -9558,7 +9603,7 @@
         <v>500004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -9575,7 +9620,7 @@
       <c r="H12" s="14">
         <v>1</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>3</v>
       </c>
       <c r="J12" s="4">
@@ -9609,7 +9654,7 @@
         <v>500005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -9626,7 +9671,7 @@
       <c r="H13" s="14">
         <v>3</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>1</v>
       </c>
       <c r="J13" s="4">
@@ -9660,7 +9705,7 @@
         <v>500006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -9677,7 +9722,7 @@
       <c r="H14" s="14">
         <v>3</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>5</v>
       </c>
       <c r="J14" s="4">
@@ -9711,7 +9756,7 @@
         <v>500007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -9728,7 +9773,7 @@
       <c r="H15" s="14">
         <v>3</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>3</v>
       </c>
       <c r="J15" s="4">
@@ -9762,7 +9807,7 @@
         <v>500008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -9779,7 +9824,7 @@
       <c r="H16" s="14">
         <v>4</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>6</v>
       </c>
       <c r="J16" s="4">
@@ -9813,7 +9858,7 @@
         <v>500009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -9824,13 +9869,13 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <v>3</v>
       </c>
       <c r="H17" s="14">
         <v>3</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <v>5</v>
       </c>
       <c r="J17" s="4">
@@ -9986,7 +10031,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -10007,7 +10052,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -10248,7 +10293,7 @@
         <v>600000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -10265,14 +10310,14 @@
       <c r="H8" s="14">
         <v>0</v>
       </c>
-      <c r="I8" s="17">
+      <c r="I8" s="16">
         <v>5</v>
       </c>
       <c r="J8" s="4">
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -10281,7 +10326,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -10300,7 +10345,7 @@
         <v>600001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -10317,7 +10362,7 @@
       <c r="H9" s="14">
         <v>3</v>
       </c>
-      <c r="I9" s="17">
+      <c r="I9" s="16">
         <v>22</v>
       </c>
       <c r="J9" s="4">
@@ -10352,7 +10397,7 @@
         <v>600002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -10369,7 +10414,7 @@
       <c r="H10" s="14">
         <v>3</v>
       </c>
-      <c r="I10" s="17">
+      <c r="I10" s="16">
         <v>3</v>
       </c>
       <c r="J10" s="4">
@@ -10404,7 +10449,7 @@
         <v>600003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -10421,7 +10466,7 @@
       <c r="H11" s="14">
         <v>4</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="16">
         <v>2</v>
       </c>
       <c r="J11" s="4">
@@ -10456,7 +10501,7 @@
         <v>600004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -10473,7 +10518,7 @@
       <c r="H12" s="14">
         <v>1</v>
       </c>
-      <c r="I12" s="17">
+      <c r="I12" s="16">
         <v>3</v>
       </c>
       <c r="J12" s="4">
@@ -10508,7 +10553,7 @@
         <v>600005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -10525,7 +10570,7 @@
       <c r="H13" s="14">
         <v>3</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="16">
         <v>1</v>
       </c>
       <c r="J13" s="4">
@@ -10560,7 +10605,7 @@
         <v>600006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -10577,7 +10622,7 @@
       <c r="H14" s="14">
         <v>3</v>
       </c>
-      <c r="I14" s="17">
+      <c r="I14" s="16">
         <v>5</v>
       </c>
       <c r="J14" s="4">
@@ -10612,7 +10657,7 @@
         <v>600007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -10629,7 +10674,7 @@
       <c r="H15" s="14">
         <v>3</v>
       </c>
-      <c r="I15" s="17">
+      <c r="I15" s="16">
         <v>3</v>
       </c>
       <c r="J15" s="4">
@@ -10664,7 +10709,7 @@
         <v>600008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -10681,7 +10726,7 @@
       <c r="H16" s="14">
         <v>4</v>
       </c>
-      <c r="I16" s="17">
+      <c r="I16" s="16">
         <v>6</v>
       </c>
       <c r="J16" s="4">
@@ -10716,7 +10761,7 @@
         <v>600009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -10727,13 +10772,13 @@
       <c r="F17" s="4">
         <v>1</v>
       </c>
-      <c r="G17" s="15">
+      <c r="G17" s="13">
         <v>3</v>
       </c>
       <c r="H17" s="14">
         <v>3</v>
       </c>
-      <c r="I17" s="17">
+      <c r="I17" s="16">
         <v>5</v>
       </c>
       <c r="J17" s="4">
@@ -10763,7 +10808,7 @@
       </c>
     </row>
     <row r="18" ht="16.5" spans="7:7">
-      <c r="G18" s="16"/>
+      <c r="G18" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:E5">

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -16,7 +16,7 @@
     <sheet name="XueYuan" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">common!$A$5:$Q$33</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">common!$A$5:$Q$34</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1233,7 +1233,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="182">
   <si>
     <t>导出类型</t>
   </si>
@@ -1498,6 +1498,12 @@
   </si>
   <si>
     <t>[2,1,12,1]</t>
+  </si>
+  <si>
+    <t>猫头鹰</t>
+  </si>
+  <si>
+    <t>部署:选择一个单位，将其沉默</t>
   </si>
   <si>
     <t>Cards1={</t>
@@ -3396,8 +3402,8 @@
   <sheetPr/>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5102,9 +5108,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="7:8">
-      <c r="G35" s="21"/>
-      <c r="H35" s="22"/>
+    <row r="35" ht="16.5" spans="2:18">
+      <c r="B35" s="4">
+        <v>27</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" s="4">
+        <v>1</v>
+      </c>
+      <c r="E35" s="4">
+        <v>1</v>
+      </c>
+      <c r="F35" s="4">
+        <v>1</v>
+      </c>
+      <c r="G35" s="15">
+        <v>2</v>
+      </c>
+      <c r="H35" s="14">
+        <v>2</v>
+      </c>
+      <c r="I35" s="16">
+        <v>1</v>
+      </c>
+      <c r="J35" s="4">
+        <v>1</v>
+      </c>
+      <c r="K35" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="O35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="P35" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q35" s="4">
+        <v>2</v>
+      </c>
+      <c r="R35" s="4">
+        <v>0</v>
+      </c>
     </row>
     <row r="36" spans="7:8">
       <c r="G36" s="21"/>
@@ -5171,7 +5226,7 @@
       <c r="G56" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:Q33">
+  <autoFilter ref="A5:Q34">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B5:C5">
@@ -5300,7 +5355,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -5321,7 +5376,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -5562,7 +5617,7 @@
         <v>100000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -5586,10 +5641,10 @@
         <v>3</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -5616,7 +5671,7 @@
         <v>100001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -5640,10 +5695,10 @@
         <v>1</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
@@ -5670,7 +5725,7 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -5694,10 +5749,10 @@
         <v>0</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
@@ -5724,7 +5779,7 @@
         <v>100003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -5748,7 +5803,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>50</v>
@@ -5778,7 +5833,7 @@
         <v>100004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -5802,7 +5857,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>50</v>
@@ -5811,7 +5866,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O12" s="4">
         <v>-1</v>
@@ -5830,7 +5885,7 @@
         <v>100005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -5854,10 +5909,10 @@
         <v>2</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
@@ -5884,7 +5939,7 @@
         <v>100006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -5908,7 +5963,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>50</v>
@@ -5917,7 +5972,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O14" s="4">
         <v>1</v>
@@ -5935,7 +5990,7 @@
         <v>100007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -5959,7 +6014,7 @@
         <v>1</v>
       </c>
       <c r="K15" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L15" s="4" t="s">
         <v>50</v>
@@ -5968,7 +6023,7 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="O15" s="4">
         <v>1</v>
@@ -5986,7 +6041,7 @@
         <v>100008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -6010,7 +6065,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>50</v>
@@ -6019,7 +6074,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="O16" s="4">
         <v>1</v>
@@ -6037,7 +6092,7 @@
         <v>100009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -6088,7 +6143,7 @@
         <v>100010</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -6139,7 +6194,7 @@
         <v>100011</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -6190,7 +6245,7 @@
         <v>100012</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -6241,7 +6296,7 @@
         <v>100013</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -6441,7 +6496,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -6462,7 +6517,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -6703,7 +6758,7 @@
         <v>200000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -6727,7 +6782,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -6736,7 +6791,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -6755,7 +6810,7 @@
         <v>200001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -6807,7 +6862,7 @@
         <v>200002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -6859,7 +6914,7 @@
         <v>200003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -6910,7 +6965,7 @@
         <v>200004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -6962,7 +7017,7 @@
         <v>200005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7014,7 +7069,7 @@
         <v>200006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -7066,7 +7121,7 @@
         <v>200007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -7118,7 +7173,7 @@
         <v>200008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7170,7 +7225,7 @@
         <v>200009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -7354,7 +7409,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -7375,7 +7430,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -7616,7 +7671,7 @@
         <v>300000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -7640,7 +7695,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -7649,7 +7704,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -7667,7 +7722,7 @@
         <v>300001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -7718,7 +7773,7 @@
         <v>300002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -7769,7 +7824,7 @@
         <v>300003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -7819,7 +7874,7 @@
         <v>300004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7870,7 +7925,7 @@
         <v>300005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7921,7 +7976,7 @@
         <v>300006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -7972,7 +8027,7 @@
         <v>300007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -8023,7 +8078,7 @@
         <v>300008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -8074,7 +8129,7 @@
         <v>300009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -8246,7 +8301,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -8267,7 +8322,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -8508,7 +8563,7 @@
         <v>400000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -8532,7 +8587,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -8541,7 +8596,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -8559,7 +8614,7 @@
         <v>400001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -8610,7 +8665,7 @@
         <v>400002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -8661,7 +8716,7 @@
         <v>400003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -8711,7 +8766,7 @@
         <v>400004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -8762,7 +8817,7 @@
         <v>400005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -8813,7 +8868,7 @@
         <v>400006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -8864,7 +8919,7 @@
         <v>400007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -8915,7 +8970,7 @@
         <v>400008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -8966,7 +9021,7 @@
         <v>400009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -9138,7 +9193,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -9159,7 +9214,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -9400,7 +9455,7 @@
         <v>500000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -9424,7 +9479,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -9433,7 +9488,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -9451,7 +9506,7 @@
         <v>500001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -9502,7 +9557,7 @@
         <v>500002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -9553,7 +9608,7 @@
         <v>500003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -9603,7 +9658,7 @@
         <v>500004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -9654,7 +9709,7 @@
         <v>500005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -9705,7 +9760,7 @@
         <v>500006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -9756,7 +9811,7 @@
         <v>500007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -9807,7 +9862,7 @@
         <v>500008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -9858,7 +9913,7 @@
         <v>500009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -10031,7 +10086,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -10052,7 +10107,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -10293,7 +10348,7 @@
         <v>600000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -10317,7 +10372,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -10326,7 +10381,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="O8" s="4">
         <v>-1</v>
@@ -10345,7 +10400,7 @@
         <v>600001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -10397,7 +10452,7 @@
         <v>600002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -10449,7 +10504,7 @@
         <v>600003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -10501,7 +10556,7 @@
         <v>600004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -10553,7 +10608,7 @@
         <v>600005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -10605,7 +10660,7 @@
         <v>600006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -10657,7 +10712,7 @@
         <v>600007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -10709,7 +10764,7 @@
         <v>600008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -10761,7 +10816,7 @@
         <v>600009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="XueYuan" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">common!$A$5:$Q$34</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">common!$A$5:$Q$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1350,7 +1350,7 @@
     <t>attack</t>
   </si>
   <si>
-    <t>health</t>
+    <t>hp</t>
   </si>
   <si>
     <t>quality</t>
@@ -3402,8 +3402,8 @@
   <sheetPr/>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5226,7 +5226,7 @@
       <c r="G56" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:Q34">
+  <autoFilter ref="A5:Q35">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B5:C5">
@@ -5319,8 +5319,8 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B4" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6460,7 +6460,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7285,82 +7285,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="65"/>
     <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7374,7 +7378,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7634,7 +7638,7 @@
       <c r="H7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="12" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="18" t="s">
@@ -8177,82 +8181,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="65"/>
     <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8266,7 +8274,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8526,7 +8534,7 @@
       <c r="H7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="12" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="18" t="s">
@@ -9069,82 +9077,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="65"/>
     <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9158,7 +9170,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9418,7 +9430,7 @@
       <c r="H7" s="18" t="s">
         <v>37</v>
       </c>
-      <c r="I7" s="18" t="s">
+      <c r="I7" s="12" t="s">
         <v>38</v>
       </c>
       <c r="J7" s="18" t="s">
@@ -9961,82 +9973,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="65"/>
     <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -10050,7 +10066,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10867,78 +10883,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="45"/>
     <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="25596" windowHeight="12095"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -1470,7 +1470,7 @@
     <t>骑射手</t>
   </si>
   <si>
-    <t>精锐骑射手</t>
+    <t>重装骑射手</t>
   </si>
   <si>
     <t>搬运工</t>
@@ -2117,12 +2117,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3402,29 +3402,29 @@
   <sheetPr/>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="G41" sqref="G41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.0083333333333" style="20" customWidth="1"/>
-    <col min="3" max="3" width="13.0083333333333" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11.3416666666667" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.3416666666667" style="20" customWidth="1"/>
-    <col min="6" max="6" width="12.0083333333333" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.3416666666667" style="20" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9.00833333333333" style="20" customWidth="1"/>
-    <col min="11" max="11" width="25.3416666666667" style="20" customWidth="1"/>
-    <col min="12" max="12" width="10.3416666666667" style="20" customWidth="1"/>
-    <col min="13" max="13" width="14.0083333333333" style="20" customWidth="1"/>
-    <col min="14" max="14" width="14.675" style="20" customWidth="1"/>
-    <col min="15" max="15" width="9.675" style="20" customWidth="1"/>
-    <col min="16" max="16" width="10.175" style="20" customWidth="1"/>
-    <col min="17" max="17" width="21.8416666666667" style="20" customWidth="1"/>
-    <col min="18" max="18" width="11.175" style="20" customWidth="1"/>
+    <col min="1" max="1" width="10.3425925925926" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.0092592592593" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.0092592592593" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.3425925925926" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.3425925925926" style="20" customWidth="1"/>
+    <col min="6" max="6" width="12.0092592592593" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.3425925925926" style="20" customWidth="1"/>
+    <col min="8" max="9" width="8.50925925925926" style="20" customWidth="1"/>
+    <col min="10" max="10" width="9.00925925925926" style="20" customWidth="1"/>
+    <col min="11" max="11" width="25.3425925925926" style="20" customWidth="1"/>
+    <col min="12" max="12" width="10.3425925925926" style="20" customWidth="1"/>
+    <col min="13" max="13" width="14.0092592592593" style="20" customWidth="1"/>
+    <col min="14" max="14" width="14.6759259259259" style="20" customWidth="1"/>
+    <col min="15" max="15" width="9.67592592592593" style="20" customWidth="1"/>
+    <col min="16" max="16" width="10.1759259259259" style="20" customWidth="1"/>
+    <col min="17" max="17" width="21.8425925925926" style="20" customWidth="1"/>
+    <col min="18" max="18" width="11.1759259259259" style="20" customWidth="1"/>
     <col min="19" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
@@ -4444,7 +4444,7 @@
         <v>0</v>
       </c>
       <c r="G22" s="15">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H22" s="14">
         <v>6</v>
@@ -5002,7 +5002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="2:18">
+    <row r="33" ht="15" spans="2:18">
       <c r="B33" s="20">
         <v>25</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="33" spans="2:18">
+    <row r="34" ht="30" spans="2:18">
       <c r="B34" s="4">
         <v>26</v>
       </c>
@@ -5108,7 +5108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="2:18">
+    <row r="35" ht="30" spans="2:18">
       <c r="B35" s="4">
         <v>27</v>
       </c>
@@ -5319,28 +5319,28 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B4" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
-    <col min="2" max="3" width="12.0083333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="7.84166666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="46.4666666666667" customWidth="1"/>
-    <col min="12" max="12" width="8.675" customWidth="1"/>
-    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="14.675" customWidth="1"/>
-    <col min="16" max="16" width="9.675" customWidth="1"/>
-    <col min="17" max="17" width="10.175" customWidth="1"/>
-    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
+    <col min="2" max="3" width="12.0092592592593" customWidth="1"/>
+    <col min="4" max="4" width="11.3425925925926" customWidth="1"/>
+    <col min="5" max="5" width="11.0092592592593" customWidth="1"/>
+    <col min="6" max="6" width="7.84259259259259" customWidth="1"/>
+    <col min="7" max="7" width="12.0092592592593" customWidth="1"/>
+    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
+    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="46.462962962963" customWidth="1"/>
+    <col min="12" max="12" width="8.67592592592593" customWidth="1"/>
+    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
+    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="14.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="9.67592592592593" customWidth="1"/>
+    <col min="17" max="17" width="10.1759259259259" customWidth="1"/>
+    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -5985,7 +5985,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="2:18">
+    <row r="15" ht="30" spans="2:18">
       <c r="B15" s="4">
         <v>100007</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="2:18">
+    <row r="16" ht="15" spans="2:18">
       <c r="B16" s="4">
         <v>100008</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="2:18">
+    <row r="17" ht="30" spans="2:18">
       <c r="B17" s="4">
         <v>100009</v>
       </c>
@@ -6138,7 +6138,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="2:18">
+    <row r="18" ht="30" spans="2:18">
       <c r="B18" s="4">
         <v>100010</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="2:18">
+    <row r="19" ht="30" spans="2:18">
       <c r="B19" s="4">
         <v>100011</v>
       </c>
@@ -6240,7 +6240,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="2:18">
+    <row r="20" ht="30" spans="2:18">
       <c r="B20" s="4">
         <v>100012</v>
       </c>
@@ -6291,7 +6291,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="2:18">
+    <row r="21" ht="30" spans="2:18">
       <c r="B21" s="4">
         <v>100013</v>
       </c>
@@ -6342,31 +6342,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="18:18">
+    <row r="22" ht="15" spans="18:18">
       <c r="R22" s="4"/>
     </row>
-    <row r="23" ht="16.5" spans="18:18">
+    <row r="23" ht="15" spans="18:18">
       <c r="R23" s="4"/>
     </row>
-    <row r="24" ht="16.5" spans="18:18">
+    <row r="24" ht="15" spans="18:18">
       <c r="R24" s="4"/>
     </row>
-    <row r="25" ht="16.5" spans="18:18">
+    <row r="25" ht="15" spans="18:18">
       <c r="R25" s="4"/>
     </row>
-    <row r="26" ht="16.5" spans="18:18">
+    <row r="26" ht="15" spans="18:18">
       <c r="R26" s="4"/>
     </row>
-    <row r="27" ht="16.5" spans="18:18">
+    <row r="27" ht="15" spans="18:18">
       <c r="R27" s="4"/>
     </row>
-    <row r="28" ht="16.5" spans="18:18">
+    <row r="28" ht="15" spans="18:18">
       <c r="R28" s="4"/>
     </row>
-    <row r="29" ht="16.5" spans="18:18">
+    <row r="29" ht="15" spans="18:18">
       <c r="R29" s="4"/>
     </row>
-    <row r="30" ht="16.5" spans="18:18">
+    <row r="30" ht="15" spans="18:18">
       <c r="R30" s="4"/>
     </row>
   </sheetData>
@@ -6463,25 +6463,25 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.0083333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="7.84166666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.00833333333333" customWidth="1"/>
-    <col min="12" max="12" width="30.675" customWidth="1"/>
-    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="14.675" customWidth="1"/>
-    <col min="16" max="16" width="9.675" customWidth="1"/>
-    <col min="17" max="17" width="10.175" customWidth="1"/>
-    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
+    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
+    <col min="3" max="3" width="14.0092592592593" customWidth="1"/>
+    <col min="4" max="4" width="11.3425925925926" customWidth="1"/>
+    <col min="5" max="5" width="11.0092592592593" customWidth="1"/>
+    <col min="6" max="6" width="7.84259259259259" customWidth="1"/>
+    <col min="7" max="7" width="12.0092592592593" customWidth="1"/>
+    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
+    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="9.00925925925926" customWidth="1"/>
+    <col min="12" max="12" width="30.6759259259259" customWidth="1"/>
+    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
+    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="14.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="9.67592592592593" customWidth="1"/>
+    <col min="17" max="17" width="10.1759259259259" customWidth="1"/>
+    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -7271,16 +7271,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="18:18">
+    <row r="18" ht="15" spans="18:18">
       <c r="R18" s="4"/>
     </row>
-    <row r="19" ht="16.5" spans="18:18">
+    <row r="19" ht="15" spans="18:18">
       <c r="R19" s="4"/>
     </row>
-    <row r="20" ht="16.5" spans="18:18">
+    <row r="20" ht="15" spans="18:18">
       <c r="R20" s="4"/>
     </row>
-    <row r="21" ht="16.5" spans="18:18">
+    <row r="21" ht="15" spans="18:18">
       <c r="R21" s="4"/>
     </row>
   </sheetData>
@@ -7381,24 +7381,24 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
-    <col min="3" max="4" width="11.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.3416666666667" customWidth="1"/>
-    <col min="6" max="6" width="7.675" customWidth="1"/>
-    <col min="7" max="7" width="11.5083333333333" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="8.50833333333333" customWidth="1"/>
-    <col min="12" max="12" width="33.0083333333333" customWidth="1"/>
-    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="13.675" customWidth="1"/>
-    <col min="16" max="16" width="9.00833333333333" customWidth="1"/>
-    <col min="17" max="17" width="9.34166666666667" customWidth="1"/>
-    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
+    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
+    <col min="3" max="4" width="11.3425925925926" customWidth="1"/>
+    <col min="5" max="5" width="10.3425925925926" customWidth="1"/>
+    <col min="6" max="6" width="7.67592592592593" customWidth="1"/>
+    <col min="7" max="7" width="11.5092592592593" customWidth="1"/>
+    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
+    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="8.50925925925926" customWidth="1"/>
+    <col min="12" max="12" width="33.0092592592593" customWidth="1"/>
+    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
+    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="13.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="9.00925925925926" customWidth="1"/>
+    <col min="17" max="17" width="9.34259259259259" customWidth="1"/>
+    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -7721,7 +7721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="33" spans="2:18">
+    <row r="9" ht="30" spans="2:18">
       <c r="B9" s="4">
         <v>300001</v>
       </c>
@@ -7772,7 +7772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="33" spans="2:18">
+    <row r="10" ht="30" spans="2:18">
       <c r="B10" s="4">
         <v>300002</v>
       </c>
@@ -7823,7 +7823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="33" spans="2:18">
+    <row r="11" ht="30" spans="2:18">
       <c r="B11" s="4">
         <v>300003</v>
       </c>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="33" spans="2:18">
+    <row r="12" ht="30" spans="2:18">
       <c r="B12" s="4">
         <v>300004</v>
       </c>
@@ -7924,7 +7924,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="33" spans="2:18">
+    <row r="13" ht="30" spans="2:18">
       <c r="B13" s="4">
         <v>300005</v>
       </c>
@@ -7975,7 +7975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="33" spans="2:18">
+    <row r="14" ht="30" spans="2:18">
       <c r="B14" s="4">
         <v>300006</v>
       </c>
@@ -8026,7 +8026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="2:18">
+    <row r="15" ht="30" spans="2:18">
       <c r="B15" s="4">
         <v>300007</v>
       </c>
@@ -8077,7 +8077,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="2:18">
+    <row r="16" ht="30" spans="2:18">
       <c r="B16" s="4">
         <v>300008</v>
       </c>
@@ -8128,7 +8128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="2:18">
+    <row r="17" ht="30" spans="2:18">
       <c r="B17" s="4">
         <v>300009</v>
       </c>
@@ -8277,24 +8277,24 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
-    <col min="3" max="4" width="11.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.3416666666667" customWidth="1"/>
-    <col min="6" max="6" width="7.675" customWidth="1"/>
-    <col min="7" max="7" width="11.5083333333333" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="8.50833333333333" customWidth="1"/>
-    <col min="12" max="12" width="33.0083333333333" customWidth="1"/>
-    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="13.675" customWidth="1"/>
-    <col min="16" max="16" width="9.00833333333333" customWidth="1"/>
-    <col min="17" max="17" width="9.34166666666667" customWidth="1"/>
-    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
+    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
+    <col min="3" max="4" width="11.3425925925926" customWidth="1"/>
+    <col min="5" max="5" width="10.3425925925926" customWidth="1"/>
+    <col min="6" max="6" width="7.67592592592593" customWidth="1"/>
+    <col min="7" max="7" width="11.5092592592593" customWidth="1"/>
+    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
+    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="8.50925925925926" customWidth="1"/>
+    <col min="12" max="12" width="33.0092592592593" customWidth="1"/>
+    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
+    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="13.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="9.00925925925926" customWidth="1"/>
+    <col min="17" max="17" width="9.34259259259259" customWidth="1"/>
+    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -8617,7 +8617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="33" spans="2:18">
+    <row r="9" ht="30" spans="2:18">
       <c r="B9" s="4">
         <v>400001</v>
       </c>
@@ -8668,7 +8668,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="33" spans="2:18">
+    <row r="10" ht="30" spans="2:18">
       <c r="B10" s="4">
         <v>400002</v>
       </c>
@@ -8719,7 +8719,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="33" spans="2:18">
+    <row r="11" ht="30" spans="2:18">
       <c r="B11" s="4">
         <v>400003</v>
       </c>
@@ -8769,7 +8769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="33" spans="2:18">
+    <row r="12" ht="30" spans="2:18">
       <c r="B12" s="4">
         <v>400004</v>
       </c>
@@ -8820,7 +8820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="33" spans="2:18">
+    <row r="13" ht="30" spans="2:18">
       <c r="B13" s="4">
         <v>400005</v>
       </c>
@@ -8871,7 +8871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="33" spans="2:18">
+    <row r="14" ht="30" spans="2:18">
       <c r="B14" s="4">
         <v>400006</v>
       </c>
@@ -8922,7 +8922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="2:18">
+    <row r="15" ht="30" spans="2:18">
       <c r="B15" s="4">
         <v>400007</v>
       </c>
@@ -8973,7 +8973,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="2:18">
+    <row r="16" ht="30" spans="2:18">
       <c r="B16" s="4">
         <v>400008</v>
       </c>
@@ -9024,7 +9024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="2:18">
+    <row r="17" ht="30" spans="2:18">
       <c r="B17" s="4">
         <v>400009</v>
       </c>
@@ -9173,24 +9173,24 @@
       <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
-    <col min="3" max="4" width="11.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.3416666666667" customWidth="1"/>
-    <col min="6" max="6" width="7.675" customWidth="1"/>
-    <col min="7" max="7" width="11.5083333333333" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="8.50833333333333" customWidth="1"/>
-    <col min="12" max="12" width="33.0083333333333" customWidth="1"/>
-    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="13.675" customWidth="1"/>
-    <col min="16" max="16" width="9.00833333333333" customWidth="1"/>
-    <col min="17" max="17" width="9.34166666666667" customWidth="1"/>
-    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
+    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
+    <col min="3" max="4" width="11.3425925925926" customWidth="1"/>
+    <col min="5" max="5" width="10.3425925925926" customWidth="1"/>
+    <col min="6" max="6" width="7.67592592592593" customWidth="1"/>
+    <col min="7" max="7" width="11.5092592592593" customWidth="1"/>
+    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
+    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="8.50925925925926" customWidth="1"/>
+    <col min="12" max="12" width="33.0092592592593" customWidth="1"/>
+    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
+    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="13.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="9.00925925925926" customWidth="1"/>
+    <col min="17" max="17" width="9.34259259259259" customWidth="1"/>
+    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -9513,7 +9513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="33" spans="2:18">
+    <row r="9" ht="30" spans="2:18">
       <c r="B9" s="4">
         <v>500001</v>
       </c>
@@ -9564,7 +9564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="33" spans="2:18">
+    <row r="10" ht="30" spans="2:18">
       <c r="B10" s="4">
         <v>500002</v>
       </c>
@@ -9615,7 +9615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="33" spans="2:18">
+    <row r="11" ht="30" spans="2:18">
       <c r="B11" s="4">
         <v>500003</v>
       </c>
@@ -9665,7 +9665,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="33" spans="2:18">
+    <row r="12" ht="30" spans="2:18">
       <c r="B12" s="4">
         <v>500004</v>
       </c>
@@ -9716,7 +9716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="33" spans="2:18">
+    <row r="13" ht="30" spans="2:18">
       <c r="B13" s="4">
         <v>500005</v>
       </c>
@@ -9767,7 +9767,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="33" spans="2:18">
+    <row r="14" ht="30" spans="2:18">
       <c r="B14" s="4">
         <v>500006</v>
       </c>
@@ -9818,7 +9818,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="2:18">
+    <row r="15" ht="30" spans="2:18">
       <c r="B15" s="4">
         <v>500007</v>
       </c>
@@ -9869,7 +9869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="2:18">
+    <row r="16" ht="30" spans="2:18">
       <c r="B16" s="4">
         <v>500008</v>
       </c>
@@ -9920,7 +9920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="2:18">
+    <row r="17" ht="30" spans="2:18">
       <c r="B17" s="4">
         <v>500009</v>
       </c>
@@ -10069,25 +10069,25 @@
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.0083333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="7.84166666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.00833333333333" customWidth="1"/>
-    <col min="12" max="12" width="30.675" customWidth="1"/>
-    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="14.675" customWidth="1"/>
-    <col min="16" max="16" width="9.675" customWidth="1"/>
-    <col min="17" max="17" width="10.175" customWidth="1"/>
-    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
+    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
+    <col min="3" max="3" width="14.0092592592593" customWidth="1"/>
+    <col min="4" max="4" width="11.3425925925926" customWidth="1"/>
+    <col min="5" max="5" width="11.0092592592593" customWidth="1"/>
+    <col min="6" max="6" width="7.84259259259259" customWidth="1"/>
+    <col min="7" max="7" width="12.0092592592593" customWidth="1"/>
+    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
+    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="9.00925925925926" customWidth="1"/>
+    <col min="12" max="12" width="30.6759259259259" customWidth="1"/>
+    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
+    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="14.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="9.67592592592593" customWidth="1"/>
+    <col min="17" max="17" width="10.1759259259259" customWidth="1"/>
+    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -10878,7 +10878,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="7:7">
+    <row r="18" ht="15" spans="7:7">
       <c r="G18" s="15"/>
     </row>
   </sheetData>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25596" windowHeight="12095"/>
+    <workbookView windowWidth="24045" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -193,9 +193,12 @@
 10:友方地图实体,
 11:敌方地图实体,
 12:所有地图实体
-13:友方非英雄实体,
-14:敌方非英雄实体,
-15:所有非英雄实体
+13:友方单位或建筑,
+14:敌方单位或建筑,
+15:所有单位或建筑,
+16:友方英雄,
+17:敌方英雄,
+18:任意英雄,
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -364,9 +367,12 @@
 10:友方地图实体,
 11:敌方地图实体,
 12:所有地图实体
-13:友方非英雄实体,
-14:敌方非英雄实体,
-15:所有非英雄实体
+13:友方单位或建筑,
+14:敌方单位或建筑,
+15:所有单位或建筑,
+16:友方英雄,
+17:敌方英雄,
+18:任意英雄,
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -535,9 +541,12 @@
 10:友方地图实体,
 11:敌方地图实体,
 12:所有地图实体
-13:友方非英雄实体,
-14:敌方非英雄实体,
-15:所有非英雄实体
+13:友方单位或建筑,
+14:敌方单位或建筑,
+15:所有单位或建筑,
+16:友方英雄,
+17:敌方英雄,
+18:任意英雄,
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -706,9 +715,12 @@
 10:友方地图实体,
 11:敌方地图实体,
 12:所有地图实体
-13:友方非英雄实体,
-14:敌方非英雄实体,
-15:所有非英雄实体
+13:友方单位或建筑,
+14:敌方单位或建筑,
+15:所有单位或建筑,
+16:友方英雄,
+17:敌方英雄,
+18:任意英雄,
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -877,9 +889,12 @@
 10:友方地图实体,
 11:敌方地图实体,
 12:所有地图实体
-13:友方非英雄实体,
-14:敌方非英雄实体,
-15:所有非英雄实体
+13:友方单位或建筑,
+14:敌方单位或建筑,
+15:所有单位或建筑,
+16:友方英雄,
+17:敌方英雄,
+18:任意英雄,
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -1048,9 +1063,12 @@
 10:友方地图实体,
 11:敌方地图实体,
 12:所有地图实体
-13:友方非英雄实体,
-14:敌方非英雄实体,
-15:所有非英雄实体
+13:友方单位或建筑,
+14:敌方单位或建筑,
+15:所有单位或建筑,
+16:友方英雄,
+17:敌方英雄,
+18:任意英雄,
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -1219,9 +1237,12 @@
 10:友方地图实体,
 11:敌方地图实体,
 12:所有地图实体
-13:友方非英雄实体,
-14:敌方非英雄实体,
-15:所有非英雄实体
+13:友方单位或建筑,
+14:敌方单位或建筑,
+15:所有单位或建筑,
+16:友方英雄,
+17:敌方英雄,
+18:任意英雄,
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -2117,12 +2138,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3402,29 +3423,29 @@
   <sheetPr/>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="J23" sqref="J23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3425925925926" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.0092592592593" style="20" customWidth="1"/>
-    <col min="3" max="3" width="13.0092592592593" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11.3425925925926" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.3425925925926" style="20" customWidth="1"/>
-    <col min="6" max="6" width="12.0092592592593" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.3425925925926" style="20" customWidth="1"/>
-    <col min="8" max="9" width="8.50925925925926" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9.00925925925926" style="20" customWidth="1"/>
-    <col min="11" max="11" width="25.3425925925926" style="20" customWidth="1"/>
-    <col min="12" max="12" width="10.3425925925926" style="20" customWidth="1"/>
-    <col min="13" max="13" width="14.0092592592593" style="20" customWidth="1"/>
-    <col min="14" max="14" width="14.6759259259259" style="20" customWidth="1"/>
-    <col min="15" max="15" width="9.67592592592593" style="20" customWidth="1"/>
-    <col min="16" max="16" width="10.1759259259259" style="20" customWidth="1"/>
-    <col min="17" max="17" width="21.8425925925926" style="20" customWidth="1"/>
-    <col min="18" max="18" width="11.1759259259259" style="20" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.0083333333333" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.3416666666667" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.3416666666667" style="20" customWidth="1"/>
+    <col min="6" max="6" width="12.0083333333333" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.3416666666667" style="20" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" style="20" customWidth="1"/>
+    <col min="10" max="10" width="9.00833333333333" style="20" customWidth="1"/>
+    <col min="11" max="11" width="25.3416666666667" style="20" customWidth="1"/>
+    <col min="12" max="12" width="10.3416666666667" style="20" customWidth="1"/>
+    <col min="13" max="13" width="14.0083333333333" style="20" customWidth="1"/>
+    <col min="14" max="14" width="14.675" style="20" customWidth="1"/>
+    <col min="15" max="15" width="9.675" style="20" customWidth="1"/>
+    <col min="16" max="16" width="10.175" style="20" customWidth="1"/>
+    <col min="17" max="17" width="21.8416666666667" style="20" customWidth="1"/>
+    <col min="18" max="18" width="11.175" style="20" customWidth="1"/>
     <col min="19" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
@@ -4909,7 +4930,7 @@
         <v>1</v>
       </c>
       <c r="F31" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" s="15">
         <v>2</v>
@@ -4963,7 +4984,7 @@
         <v>1</v>
       </c>
       <c r="F32" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G32" s="15">
         <v>5</v>
@@ -5002,7 +5023,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="2:18">
+    <row r="33" ht="16.5" spans="2:18">
       <c r="B33" s="20">
         <v>25</v>
       </c>
@@ -5055,7 +5076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="30" spans="2:18">
+    <row r="34" ht="33" spans="2:18">
       <c r="B34" s="4">
         <v>26</v>
       </c>
@@ -5108,7 +5129,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="30" spans="2:18">
+    <row r="35" ht="16.5" spans="2:18">
       <c r="B35" s="4">
         <v>27</v>
       </c>
@@ -5122,7 +5143,7 @@
         <v>1</v>
       </c>
       <c r="F35" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G35" s="15">
         <v>2</v>
@@ -5320,27 +5341,27 @@
   <dimension ref="A1:R30"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
-    <col min="2" max="3" width="12.0092592592593" customWidth="1"/>
-    <col min="4" max="4" width="11.3425925925926" customWidth="1"/>
-    <col min="5" max="5" width="11.0092592592593" customWidth="1"/>
-    <col min="6" max="6" width="7.84259259259259" customWidth="1"/>
-    <col min="7" max="7" width="12.0092592592593" customWidth="1"/>
-    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
-    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="46.462962962963" customWidth="1"/>
-    <col min="12" max="12" width="8.67592592592593" customWidth="1"/>
-    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
-    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="14.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="9.67592592592593" customWidth="1"/>
-    <col min="17" max="17" width="10.1759259259259" customWidth="1"/>
-    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
+    <col min="2" max="3" width="12.0083333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.84166666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="46.4666666666667" customWidth="1"/>
+    <col min="12" max="12" width="8.675" customWidth="1"/>
+    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="14.675" customWidth="1"/>
+    <col min="16" max="16" width="9.675" customWidth="1"/>
+    <col min="17" max="17" width="10.175" customWidth="1"/>
+    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -5985,7 +6006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="30" spans="2:18">
+    <row r="15" ht="33" spans="2:18">
       <c r="B15" s="4">
         <v>100007</v>
       </c>
@@ -6036,7 +6057,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="2:18">
+    <row r="16" ht="16.5" spans="2:18">
       <c r="B16" s="4">
         <v>100008</v>
       </c>
@@ -6087,7 +6108,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="2:18">
+    <row r="17" ht="16.5" spans="2:18">
       <c r="B17" s="4">
         <v>100009</v>
       </c>
@@ -6138,7 +6159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" ht="30" spans="2:18">
+    <row r="18" ht="16.5" spans="2:18">
       <c r="B18" s="4">
         <v>100010</v>
       </c>
@@ -6189,7 +6210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="30" spans="2:18">
+    <row r="19" ht="16.5" spans="2:18">
       <c r="B19" s="4">
         <v>100011</v>
       </c>
@@ -6240,7 +6261,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="30" spans="2:18">
+    <row r="20" ht="16.5" spans="2:18">
       <c r="B20" s="4">
         <v>100012</v>
       </c>
@@ -6291,7 +6312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="30" spans="2:18">
+    <row r="21" ht="16.5" spans="2:18">
       <c r="B21" s="4">
         <v>100013</v>
       </c>
@@ -6342,111 +6363,111 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="18:18">
+    <row r="22" ht="16.5" spans="18:18">
       <c r="R22" s="4"/>
     </row>
-    <row r="23" ht="15" spans="18:18">
+    <row r="23" ht="16.5" spans="18:18">
       <c r="R23" s="4"/>
     </row>
-    <row r="24" ht="15" spans="18:18">
+    <row r="24" ht="16.5" spans="18:18">
       <c r="R24" s="4"/>
     </row>
-    <row r="25" ht="15" spans="18:18">
+    <row r="25" ht="16.5" spans="18:18">
       <c r="R25" s="4"/>
     </row>
-    <row r="26" ht="15" spans="18:18">
+    <row r="26" ht="16.5" spans="18:18">
       <c r="R26" s="4"/>
     </row>
-    <row r="27" ht="15" spans="18:18">
+    <row r="27" ht="16.5" spans="18:18">
       <c r="R27" s="4"/>
     </row>
-    <row r="28" ht="15" spans="18:18">
+    <row r="28" ht="16.5" spans="18:18">
       <c r="R28" s="4"/>
     </row>
-    <row r="29" ht="15" spans="18:18">
+    <row r="29" ht="16.5" spans="18:18">
       <c r="R29" s="4"/>
     </row>
-    <row r="30" ht="15" spans="18:18">
+    <row r="30" ht="16.5" spans="18:18">
       <c r="R30" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
     <cfRule type="duplicateValues" dxfId="0" priority="17"/>
     <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
     <cfRule type="duplicateValues" dxfId="0" priority="11"/>
     <cfRule type="duplicateValues" dxfId="1" priority="12"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
     <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
     <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="1" priority="70"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I5:K5 G5">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="65"/>
     <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6460,28 +6481,28 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
-    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
-    <col min="3" max="3" width="14.0092592592593" customWidth="1"/>
-    <col min="4" max="4" width="11.3425925925926" customWidth="1"/>
-    <col min="5" max="5" width="11.0092592592593" customWidth="1"/>
-    <col min="6" max="6" width="7.84259259259259" customWidth="1"/>
-    <col min="7" max="7" width="12.0092592592593" customWidth="1"/>
-    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
-    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="9.00925925925926" customWidth="1"/>
-    <col min="12" max="12" width="30.6759259259259" customWidth="1"/>
-    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
-    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="14.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="9.67592592592593" customWidth="1"/>
-    <col min="17" max="17" width="10.1759259259259" customWidth="1"/>
-    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.0083333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.84166666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="9.00833333333333" customWidth="1"/>
+    <col min="12" max="12" width="30.675" customWidth="1"/>
+    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="14.675" customWidth="1"/>
+    <col min="16" max="16" width="9.675" customWidth="1"/>
+    <col min="17" max="17" width="10.175" customWidth="1"/>
+    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -7271,100 +7292,100 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="18:18">
+    <row r="18" ht="16.5" spans="18:18">
       <c r="R18" s="4"/>
     </row>
-    <row r="19" ht="15" spans="18:18">
+    <row r="19" ht="16.5" spans="18:18">
       <c r="R19" s="4"/>
     </row>
-    <row r="20" ht="15" spans="18:18">
+    <row r="20" ht="16.5" spans="18:18">
       <c r="R20" s="4"/>
     </row>
-    <row r="21" ht="15" spans="18:18">
+    <row r="21" ht="16.5" spans="18:18">
       <c r="R21" s="4"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="25"/>
     <cfRule type="duplicateValues" dxfId="1" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="67"/>
     <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7378,27 +7399,27 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
-    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
-    <col min="3" max="4" width="11.3425925925926" customWidth="1"/>
-    <col min="5" max="5" width="10.3425925925926" customWidth="1"/>
-    <col min="6" max="6" width="7.67592592592593" customWidth="1"/>
-    <col min="7" max="7" width="11.5092592592593" customWidth="1"/>
-    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
-    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="8.50925925925926" customWidth="1"/>
-    <col min="12" max="12" width="33.0092592592593" customWidth="1"/>
-    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
-    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="13.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="9.00925925925926" customWidth="1"/>
-    <col min="17" max="17" width="9.34259259259259" customWidth="1"/>
-    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
+    <col min="3" max="4" width="11.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="10.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="7.675" customWidth="1"/>
+    <col min="7" max="7" width="11.5083333333333" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="8.50833333333333" customWidth="1"/>
+    <col min="12" max="12" width="33.0083333333333" customWidth="1"/>
+    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="13.675" customWidth="1"/>
+    <col min="16" max="16" width="9.00833333333333" customWidth="1"/>
+    <col min="17" max="17" width="9.34166666666667" customWidth="1"/>
+    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -7721,7 +7742,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="2:18">
+    <row r="9" ht="33" spans="2:18">
       <c r="B9" s="4">
         <v>300001</v>
       </c>
@@ -7772,7 +7793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="2:18">
+    <row r="10" ht="33" spans="2:18">
       <c r="B10" s="4">
         <v>300002</v>
       </c>
@@ -7823,7 +7844,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="2:18">
+    <row r="11" ht="33" spans="2:18">
       <c r="B11" s="4">
         <v>300003</v>
       </c>
@@ -7873,7 +7894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="2:18">
+    <row r="12" ht="33" spans="2:18">
       <c r="B12" s="4">
         <v>300004</v>
       </c>
@@ -7924,7 +7945,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="30" spans="2:18">
+    <row r="13" ht="33" spans="2:18">
       <c r="B13" s="4">
         <v>300005</v>
       </c>
@@ -7975,7 +7996,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="2:18">
+    <row r="14" ht="33" spans="2:18">
       <c r="B14" s="4">
         <v>300006</v>
       </c>
@@ -8026,7 +8047,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="30" spans="2:18">
+    <row r="15" ht="33" spans="2:18">
       <c r="B15" s="4">
         <v>300007</v>
       </c>
@@ -8077,7 +8098,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="2:18">
+    <row r="16" ht="33" spans="2:18">
       <c r="B16" s="4">
         <v>300008</v>
       </c>
@@ -8128,7 +8149,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="2:18">
+    <row r="17" ht="33" spans="2:18">
       <c r="B17" s="4">
         <v>300009</v>
       </c>
@@ -8181,86 +8202,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="25"/>
     <cfRule type="duplicateValues" dxfId="1" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="67"/>
     <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8274,27 +8295,27 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
-    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
-    <col min="3" max="4" width="11.3425925925926" customWidth="1"/>
-    <col min="5" max="5" width="10.3425925925926" customWidth="1"/>
-    <col min="6" max="6" width="7.67592592592593" customWidth="1"/>
-    <col min="7" max="7" width="11.5092592592593" customWidth="1"/>
-    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
-    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="8.50925925925926" customWidth="1"/>
-    <col min="12" max="12" width="33.0092592592593" customWidth="1"/>
-    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
-    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="13.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="9.00925925925926" customWidth="1"/>
-    <col min="17" max="17" width="9.34259259259259" customWidth="1"/>
-    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
+    <col min="3" max="4" width="11.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="10.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="7.675" customWidth="1"/>
+    <col min="7" max="7" width="11.5083333333333" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="8.50833333333333" customWidth="1"/>
+    <col min="12" max="12" width="33.0083333333333" customWidth="1"/>
+    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="13.675" customWidth="1"/>
+    <col min="16" max="16" width="9.00833333333333" customWidth="1"/>
+    <col min="17" max="17" width="9.34166666666667" customWidth="1"/>
+    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -8617,7 +8638,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="2:18">
+    <row r="9" ht="33" spans="2:18">
       <c r="B9" s="4">
         <v>400001</v>
       </c>
@@ -8668,7 +8689,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="2:18">
+    <row r="10" ht="33" spans="2:18">
       <c r="B10" s="4">
         <v>400002</v>
       </c>
@@ -8719,7 +8740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="2:18">
+    <row r="11" ht="33" spans="2:18">
       <c r="B11" s="4">
         <v>400003</v>
       </c>
@@ -8769,7 +8790,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="2:18">
+    <row r="12" ht="33" spans="2:18">
       <c r="B12" s="4">
         <v>400004</v>
       </c>
@@ -8820,7 +8841,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="30" spans="2:18">
+    <row r="13" ht="33" spans="2:18">
       <c r="B13" s="4">
         <v>400005</v>
       </c>
@@ -8871,7 +8892,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="2:18">
+    <row r="14" ht="33" spans="2:18">
       <c r="B14" s="4">
         <v>400006</v>
       </c>
@@ -8922,7 +8943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="30" spans="2:18">
+    <row r="15" ht="33" spans="2:18">
       <c r="B15" s="4">
         <v>400007</v>
       </c>
@@ -8973,7 +8994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="2:18">
+    <row r="16" ht="33" spans="2:18">
       <c r="B16" s="4">
         <v>400008</v>
       </c>
@@ -9024,7 +9045,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="2:18">
+    <row r="17" ht="33" spans="2:18">
       <c r="B17" s="4">
         <v>400009</v>
       </c>
@@ -9077,86 +9098,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="25"/>
     <cfRule type="duplicateValues" dxfId="1" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="67"/>
     <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9170,27 +9191,27 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
-    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
-    <col min="3" max="4" width="11.3425925925926" customWidth="1"/>
-    <col min="5" max="5" width="10.3425925925926" customWidth="1"/>
-    <col min="6" max="6" width="7.67592592592593" customWidth="1"/>
-    <col min="7" max="7" width="11.5092592592593" customWidth="1"/>
-    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
-    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="8.50925925925926" customWidth="1"/>
-    <col min="12" max="12" width="33.0092592592593" customWidth="1"/>
-    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
-    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="13.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="9.00925925925926" customWidth="1"/>
-    <col min="17" max="17" width="9.34259259259259" customWidth="1"/>
-    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
+    <col min="3" max="4" width="11.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="10.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="7.675" customWidth="1"/>
+    <col min="7" max="7" width="11.5083333333333" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="8.50833333333333" customWidth="1"/>
+    <col min="12" max="12" width="33.0083333333333" customWidth="1"/>
+    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="13.675" customWidth="1"/>
+    <col min="16" max="16" width="9.00833333333333" customWidth="1"/>
+    <col min="17" max="17" width="9.34166666666667" customWidth="1"/>
+    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -9513,7 +9534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="2:18">
+    <row r="9" ht="33" spans="2:18">
       <c r="B9" s="4">
         <v>500001</v>
       </c>
@@ -9564,7 +9585,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="2:18">
+    <row r="10" ht="33" spans="2:18">
       <c r="B10" s="4">
         <v>500002</v>
       </c>
@@ -9615,7 +9636,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="2:18">
+    <row r="11" ht="33" spans="2:18">
       <c r="B11" s="4">
         <v>500003</v>
       </c>
@@ -9665,7 +9686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="2:18">
+    <row r="12" ht="33" spans="2:18">
       <c r="B12" s="4">
         <v>500004</v>
       </c>
@@ -9716,7 +9737,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="30" spans="2:18">
+    <row r="13" ht="33" spans="2:18">
       <c r="B13" s="4">
         <v>500005</v>
       </c>
@@ -9767,7 +9788,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="2:18">
+    <row r="14" ht="33" spans="2:18">
       <c r="B14" s="4">
         <v>500006</v>
       </c>
@@ -9818,7 +9839,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="30" spans="2:18">
+    <row r="15" ht="33" spans="2:18">
       <c r="B15" s="4">
         <v>500007</v>
       </c>
@@ -9869,7 +9890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="2:18">
+    <row r="16" ht="33" spans="2:18">
       <c r="B16" s="4">
         <v>500008</v>
       </c>
@@ -9920,7 +9941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="2:18">
+    <row r="17" ht="33" spans="2:18">
       <c r="B17" s="4">
         <v>500009</v>
       </c>
@@ -9973,86 +9994,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="25"/>
     <cfRule type="duplicateValues" dxfId="1" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="67"/>
     <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -10066,28 +10087,28 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
-    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
-    <col min="3" max="3" width="14.0092592592593" customWidth="1"/>
-    <col min="4" max="4" width="11.3425925925926" customWidth="1"/>
-    <col min="5" max="5" width="11.0092592592593" customWidth="1"/>
-    <col min="6" max="6" width="7.84259259259259" customWidth="1"/>
-    <col min="7" max="7" width="12.0092592592593" customWidth="1"/>
-    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
-    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="9.00925925925926" customWidth="1"/>
-    <col min="12" max="12" width="30.6759259259259" customWidth="1"/>
-    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
-    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="14.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="9.67592592592593" customWidth="1"/>
-    <col min="17" max="17" width="10.1759259259259" customWidth="1"/>
-    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.0083333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.84166666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="9.00833333333333" customWidth="1"/>
+    <col min="12" max="12" width="30.675" customWidth="1"/>
+    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="14.675" customWidth="1"/>
+    <col min="16" max="16" width="9.675" customWidth="1"/>
+    <col min="17" max="17" width="10.175" customWidth="1"/>
+    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -10878,87 +10899,87 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="7:7">
+    <row r="18" ht="16.5" spans="7:7">
       <c r="G18" s="15"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="25"/>
     <cfRule type="duplicateValues" dxfId="1" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="23"/>
     <cfRule type="duplicateValues" dxfId="1" priority="24"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="47"/>
     <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -199,6 +199,7 @@
 16:友方英雄,
 17:敌方英雄,
 18:任意英雄,
+19:任意格子,
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -373,6 +374,7 @@
 16:友方英雄,
 17:敌方英雄,
 18:任意英雄,
+19:任意格子,
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -547,6 +549,7 @@
 16:友方英雄,
 17:敌方英雄,
 18:任意英雄,
+19:任意格子,
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -721,6 +724,7 @@
 16:友方英雄,
 17:敌方英雄,
 18:任意英雄,
+19:任意格子,
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -895,6 +899,7 @@
 16:友方英雄,
 17:敌方英雄,
 18:任意英雄,
+19:任意格子,
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -1069,6 +1074,7 @@
 16:友方英雄,
 17:敌方英雄,
 18:任意英雄,
+19:任意格子,
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -1243,6 +1249,7 @@
 16:友方英雄,
 17:敌方英雄,
 18:任意英雄,
+19:任意格子,
 下标1数据表示:
 作用者数量,有的卡可能要选择多个目标,如果是负数则说明可以选择同一单位,如果是正数则不允许选择重复的单位
 </t>
@@ -1254,7 +1261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="184">
   <si>
     <t>导出类型</t>
   </si>
@@ -1608,7 +1615,13 @@
     <t>[14,1]</t>
   </si>
   <si>
-    <t>圣堂远程凑数2</t>
+    <t>灵能陷阱</t>
+  </si>
+  <si>
+    <t>选择一个任意位置，对其1格范围内的敌人造成1点伤害</t>
+  </si>
+  <si>
+    <t>[19,1]</t>
   </si>
   <si>
     <t>圣堂近战凑数3</t>
@@ -3424,7 +3437,7 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5340,8 +5353,8 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6116,19 +6129,19 @@
         <v>117</v>
       </c>
       <c r="D17" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E17" s="4">
         <v>1</v>
       </c>
       <c r="F17" s="4">
-        <v>1</v>
-      </c>
-      <c r="G17" s="13">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="G17" s="15">
+        <v>3</v>
       </c>
       <c r="H17" s="14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I17" s="16">
         <v>1</v>
@@ -6136,7 +6149,9 @@
       <c r="J17" s="4">
         <v>1</v>
       </c>
-      <c r="K17" s="4"/>
+      <c r="K17" s="4" t="s">
+        <v>118</v>
+      </c>
       <c r="L17" s="4" t="s">
         <v>50</v>
       </c>
@@ -6144,19 +6159,17 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>58</v>
+        <v>119</v>
       </c>
       <c r="O17" s="4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="P17" s="4">
         <v>-1</v>
       </c>
-      <c r="Q17" s="4">
-        <v>2</v>
-      </c>
+      <c r="Q17" s="4"/>
       <c r="R17" s="4">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:18">
@@ -6164,7 +6177,7 @@
         <v>100010</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -6215,7 +6228,7 @@
         <v>100011</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -6266,7 +6279,7 @@
         <v>100012</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -6317,7 +6330,7 @@
         <v>100013</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -6392,82 +6405,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="25"/>
     <cfRule type="duplicateValues" dxfId="1" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
     <cfRule type="duplicateValues" dxfId="0" priority="19"/>
     <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
     <cfRule type="duplicateValues" dxfId="0" priority="13"/>
     <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
     <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
     <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="1" priority="72"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I5:K5 G5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="67"/>
     <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6517,7 +6530,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -6538,7 +6551,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -6779,7 +6792,7 @@
         <v>200000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -6831,7 +6844,7 @@
         <v>200001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -6883,7 +6896,7 @@
         <v>200002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -6935,7 +6948,7 @@
         <v>200003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -6986,7 +6999,7 @@
         <v>200004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7038,7 +7051,7 @@
         <v>200005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7090,7 +7103,7 @@
         <v>200006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -7142,7 +7155,7 @@
         <v>200007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -7194,7 +7207,7 @@
         <v>200008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7246,7 +7259,7 @@
         <v>200009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -7306,86 +7319,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="27"/>
     <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
     <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
     <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="1" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I5:K5 G5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="69"/>
     <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7434,7 +7447,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -7455,7 +7468,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -7696,7 +7709,7 @@
         <v>300000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -7747,7 +7760,7 @@
         <v>300001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -7798,7 +7811,7 @@
         <v>300002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -7849,7 +7862,7 @@
         <v>300003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -7899,7 +7912,7 @@
         <v>300004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7950,7 +7963,7 @@
         <v>300005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -8001,7 +8014,7 @@
         <v>300006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -8052,7 +8065,7 @@
         <v>300007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -8103,7 +8116,7 @@
         <v>300008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -8154,7 +8167,7 @@
         <v>300009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -8202,86 +8215,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="27"/>
     <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
     <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
     <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="1" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I5:K5 G5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="69"/>
     <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8295,7 +8308,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8330,7 +8343,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -8351,7 +8364,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -8592,7 +8605,7 @@
         <v>400000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -8643,7 +8656,7 @@
         <v>400001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -8694,7 +8707,7 @@
         <v>400002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -8745,7 +8758,7 @@
         <v>400003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -8795,7 +8808,7 @@
         <v>400004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -8846,7 +8859,7 @@
         <v>400005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -8897,7 +8910,7 @@
         <v>400006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -8948,7 +8961,7 @@
         <v>400007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -8999,7 +9012,7 @@
         <v>400008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -9050,7 +9063,7 @@
         <v>400009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -9098,86 +9111,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="27"/>
     <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
     <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
     <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="1" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I5:K5 G5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="69"/>
     <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9226,7 +9239,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -9247,7 +9260,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -9488,7 +9501,7 @@
         <v>500000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -9539,7 +9552,7 @@
         <v>500001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -9590,7 +9603,7 @@
         <v>500002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -9641,7 +9654,7 @@
         <v>500003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -9691,7 +9704,7 @@
         <v>500004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -9742,7 +9755,7 @@
         <v>500005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -9793,7 +9806,7 @@
         <v>500006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -9844,7 +9857,7 @@
         <v>500007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -9895,7 +9908,7 @@
         <v>500008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -9946,7 +9959,7 @@
         <v>500009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -9994,86 +10007,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="27"/>
     <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
     <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
     <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="1" priority="74"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I5:K5 G5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="69"/>
     <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -10087,7 +10100,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10123,7 +10136,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -10144,7 +10157,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -10385,7 +10398,7 @@
         <v>600000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -10437,7 +10450,7 @@
         <v>600001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -10489,7 +10502,7 @@
         <v>600002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -10541,7 +10554,7 @@
         <v>600003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -10593,7 +10606,7 @@
         <v>600004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -10645,7 +10658,7 @@
         <v>600005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -10697,7 +10710,7 @@
         <v>600006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -10749,7 +10762,7 @@
         <v>600007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -10801,7 +10814,7 @@
         <v>600008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -10853,7 +10866,7 @@
         <v>600009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -10904,82 +10917,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="27"/>
     <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
     <cfRule type="duplicateValues" dxfId="0" priority="21"/>
     <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="N5">
     <cfRule type="duplicateValues" dxfId="1" priority="2"/>
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
     <cfRule type="duplicateValues" dxfId="0" priority="15"/>
     <cfRule type="duplicateValues" dxfId="1" priority="16"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
   <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
     <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
     <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
     <cfRule type="duplicateValues" dxfId="1" priority="54"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I5:K5 G5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="49"/>
     <cfRule type="duplicateValues" dxfId="1" priority="50"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24045" windowHeight="12255"/>
+    <workbookView windowWidth="30720" windowHeight="13380"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -1408,7 +1408,7 @@
     <t>atkRange</t>
   </si>
   <si>
-    <t>硬币</t>
+    <t>魔法硬币</t>
   </si>
   <si>
     <t>获得一点费用</t>
@@ -3437,28 +3437,28 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.0083333333333" style="20" customWidth="1"/>
-    <col min="3" max="3" width="13.0083333333333" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11.3416666666667" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.3416666666667" style="20" customWidth="1"/>
-    <col min="6" max="6" width="12.0083333333333" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.3416666666667" style="20" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9.00833333333333" style="20" customWidth="1"/>
-    <col min="11" max="11" width="25.3416666666667" style="20" customWidth="1"/>
-    <col min="12" max="12" width="10.3416666666667" style="20" customWidth="1"/>
-    <col min="13" max="13" width="14.0083333333333" style="20" customWidth="1"/>
-    <col min="14" max="14" width="14.675" style="20" customWidth="1"/>
-    <col min="15" max="15" width="9.675" style="20" customWidth="1"/>
-    <col min="16" max="16" width="10.175" style="20" customWidth="1"/>
-    <col min="17" max="17" width="21.8416666666667" style="20" customWidth="1"/>
-    <col min="18" max="18" width="11.175" style="20" customWidth="1"/>
+    <col min="1" max="1" width="10.3425925925926" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.0092592592593" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.0092592592593" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.3425925925926" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.3425925925926" style="20" customWidth="1"/>
+    <col min="6" max="6" width="12.0092592592593" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.3425925925926" style="20" customWidth="1"/>
+    <col min="8" max="9" width="8.50925925925926" style="20" customWidth="1"/>
+    <col min="10" max="10" width="9.00925925925926" style="20" customWidth="1"/>
+    <col min="11" max="11" width="25.3425925925926" style="20" customWidth="1"/>
+    <col min="12" max="12" width="10.3425925925926" style="20" customWidth="1"/>
+    <col min="13" max="13" width="14.0092592592593" style="20" customWidth="1"/>
+    <col min="14" max="14" width="14.6759259259259" style="20" customWidth="1"/>
+    <col min="15" max="15" width="9.67592592592593" style="20" customWidth="1"/>
+    <col min="16" max="16" width="10.1759259259259" style="20" customWidth="1"/>
+    <col min="17" max="17" width="21.8425925925926" style="20" customWidth="1"/>
+    <col min="18" max="18" width="11.1759259259259" style="20" customWidth="1"/>
     <col min="19" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="16.5" spans="2:18">
+    <row r="33" ht="15" spans="2:18">
       <c r="B33" s="20">
         <v>25</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="33" spans="2:18">
+    <row r="34" ht="30" spans="2:18">
       <c r="B34" s="4">
         <v>26</v>
       </c>
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="16.5" spans="2:18">
+    <row r="35" ht="30" spans="2:18">
       <c r="B35" s="4">
         <v>27</v>
       </c>
@@ -5357,24 +5357,24 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
-    <col min="2" max="3" width="12.0083333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="7.84166666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="46.4666666666667" customWidth="1"/>
-    <col min="12" max="12" width="8.675" customWidth="1"/>
-    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="14.675" customWidth="1"/>
-    <col min="16" max="16" width="9.675" customWidth="1"/>
-    <col min="17" max="17" width="10.175" customWidth="1"/>
-    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
+    <col min="2" max="3" width="12.0092592592593" customWidth="1"/>
+    <col min="4" max="4" width="11.3425925925926" customWidth="1"/>
+    <col min="5" max="5" width="11.0092592592593" customWidth="1"/>
+    <col min="6" max="6" width="7.84259259259259" customWidth="1"/>
+    <col min="7" max="7" width="12.0092592592593" customWidth="1"/>
+    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
+    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="46.462962962963" customWidth="1"/>
+    <col min="12" max="12" width="8.67592592592593" customWidth="1"/>
+    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
+    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="14.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="9.67592592592593" customWidth="1"/>
+    <col min="17" max="17" width="10.1759259259259" customWidth="1"/>
+    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="2:18">
+    <row r="15" ht="30" spans="2:18">
       <c r="B15" s="4">
         <v>100007</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="16.5" spans="2:18">
+    <row r="16" ht="15" spans="2:18">
       <c r="B16" s="4">
         <v>100008</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="16.5" spans="2:18">
+    <row r="17" ht="15" spans="2:18">
       <c r="B17" s="4">
         <v>100009</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="2:18">
+    <row r="18" ht="30" spans="2:18">
       <c r="B18" s="4">
         <v>100010</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="16.5" spans="2:18">
+    <row r="19" ht="30" spans="2:18">
       <c r="B19" s="4">
         <v>100011</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="16.5" spans="2:18">
+    <row r="20" ht="30" spans="2:18">
       <c r="B20" s="4">
         <v>100012</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="16.5" spans="2:18">
+    <row r="21" ht="30" spans="2:18">
       <c r="B21" s="4">
         <v>100013</v>
       </c>
@@ -6376,31 +6376,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" ht="16.5" spans="18:18">
+    <row r="22" ht="15" spans="18:18">
       <c r="R22" s="4"/>
     </row>
-    <row r="23" ht="16.5" spans="18:18">
+    <row r="23" ht="15" spans="18:18">
       <c r="R23" s="4"/>
     </row>
-    <row r="24" ht="16.5" spans="18:18">
+    <row r="24" ht="15" spans="18:18">
       <c r="R24" s="4"/>
     </row>
-    <row r="25" ht="16.5" spans="18:18">
+    <row r="25" ht="15" spans="18:18">
       <c r="R25" s="4"/>
     </row>
-    <row r="26" ht="16.5" spans="18:18">
+    <row r="26" ht="15" spans="18:18">
       <c r="R26" s="4"/>
     </row>
-    <row r="27" ht="16.5" spans="18:18">
+    <row r="27" ht="15" spans="18:18">
       <c r="R27" s="4"/>
     </row>
-    <row r="28" ht="16.5" spans="18:18">
+    <row r="28" ht="15" spans="18:18">
       <c r="R28" s="4"/>
     </row>
-    <row r="29" ht="16.5" spans="18:18">
+    <row r="29" ht="15" spans="18:18">
       <c r="R29" s="4"/>
     </row>
-    <row r="30" ht="16.5" spans="18:18">
+    <row r="30" ht="15" spans="18:18">
       <c r="R30" s="4"/>
     </row>
   </sheetData>
@@ -6497,25 +6497,25 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.0083333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="7.84166666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.00833333333333" customWidth="1"/>
-    <col min="12" max="12" width="30.675" customWidth="1"/>
-    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="14.675" customWidth="1"/>
-    <col min="16" max="16" width="9.675" customWidth="1"/>
-    <col min="17" max="17" width="10.175" customWidth="1"/>
-    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
+    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
+    <col min="3" max="3" width="14.0092592592593" customWidth="1"/>
+    <col min="4" max="4" width="11.3425925925926" customWidth="1"/>
+    <col min="5" max="5" width="11.0092592592593" customWidth="1"/>
+    <col min="6" max="6" width="7.84259259259259" customWidth="1"/>
+    <col min="7" max="7" width="12.0092592592593" customWidth="1"/>
+    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
+    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="9.00925925925926" customWidth="1"/>
+    <col min="12" max="12" width="30.6759259259259" customWidth="1"/>
+    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
+    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="14.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="9.67592592592593" customWidth="1"/>
+    <col min="17" max="17" width="10.1759259259259" customWidth="1"/>
+    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -7305,16 +7305,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="18:18">
+    <row r="18" ht="15" spans="18:18">
       <c r="R18" s="4"/>
     </row>
-    <row r="19" ht="16.5" spans="18:18">
+    <row r="19" ht="15" spans="18:18">
       <c r="R19" s="4"/>
     </row>
-    <row r="20" ht="16.5" spans="18:18">
+    <row r="20" ht="15" spans="18:18">
       <c r="R20" s="4"/>
     </row>
-    <row r="21" ht="16.5" spans="18:18">
+    <row r="21" ht="15" spans="18:18">
       <c r="R21" s="4"/>
     </row>
   </sheetData>
@@ -7415,24 +7415,24 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
-    <col min="3" max="4" width="11.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.3416666666667" customWidth="1"/>
-    <col min="6" max="6" width="7.675" customWidth="1"/>
-    <col min="7" max="7" width="11.5083333333333" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="8.50833333333333" customWidth="1"/>
-    <col min="12" max="12" width="33.0083333333333" customWidth="1"/>
-    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="13.675" customWidth="1"/>
-    <col min="16" max="16" width="9.00833333333333" customWidth="1"/>
-    <col min="17" max="17" width="9.34166666666667" customWidth="1"/>
-    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
+    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
+    <col min="3" max="4" width="11.3425925925926" customWidth="1"/>
+    <col min="5" max="5" width="10.3425925925926" customWidth="1"/>
+    <col min="6" max="6" width="7.67592592592593" customWidth="1"/>
+    <col min="7" max="7" width="11.5092592592593" customWidth="1"/>
+    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
+    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="8.50925925925926" customWidth="1"/>
+    <col min="12" max="12" width="33.0092592592593" customWidth="1"/>
+    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
+    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="13.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="9.00925925925926" customWidth="1"/>
+    <col min="17" max="17" width="9.34259259259259" customWidth="1"/>
+    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="33" spans="2:18">
+    <row r="9" ht="30" spans="2:18">
       <c r="B9" s="4">
         <v>300001</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="33" spans="2:18">
+    <row r="10" ht="30" spans="2:18">
       <c r="B10" s="4">
         <v>300002</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="33" spans="2:18">
+    <row r="11" ht="30" spans="2:18">
       <c r="B11" s="4">
         <v>300003</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="33" spans="2:18">
+    <row r="12" ht="30" spans="2:18">
       <c r="B12" s="4">
         <v>300004</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="33" spans="2:18">
+    <row r="13" ht="30" spans="2:18">
       <c r="B13" s="4">
         <v>300005</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="33" spans="2:18">
+    <row r="14" ht="30" spans="2:18">
       <c r="B14" s="4">
         <v>300006</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="2:18">
+    <row r="15" ht="30" spans="2:18">
       <c r="B15" s="4">
         <v>300007</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="2:18">
+    <row r="16" ht="30" spans="2:18">
       <c r="B16" s="4">
         <v>300008</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="2:18">
+    <row r="17" ht="30" spans="2:18">
       <c r="B17" s="4">
         <v>300009</v>
       </c>
@@ -8311,24 +8311,24 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
-    <col min="3" max="4" width="11.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.3416666666667" customWidth="1"/>
-    <col min="6" max="6" width="7.675" customWidth="1"/>
-    <col min="7" max="7" width="11.5083333333333" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="8.50833333333333" customWidth="1"/>
-    <col min="12" max="12" width="33.0083333333333" customWidth="1"/>
-    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="13.675" customWidth="1"/>
-    <col min="16" max="16" width="9.00833333333333" customWidth="1"/>
-    <col min="17" max="17" width="9.34166666666667" customWidth="1"/>
-    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
+    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
+    <col min="3" max="4" width="11.3425925925926" customWidth="1"/>
+    <col min="5" max="5" width="10.3425925925926" customWidth="1"/>
+    <col min="6" max="6" width="7.67592592592593" customWidth="1"/>
+    <col min="7" max="7" width="11.5092592592593" customWidth="1"/>
+    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
+    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="8.50925925925926" customWidth="1"/>
+    <col min="12" max="12" width="33.0092592592593" customWidth="1"/>
+    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
+    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="13.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="9.00925925925926" customWidth="1"/>
+    <col min="17" max="17" width="9.34259259259259" customWidth="1"/>
+    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="33" spans="2:18">
+    <row r="9" ht="30" spans="2:18">
       <c r="B9" s="4">
         <v>400001</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="33" spans="2:18">
+    <row r="10" ht="30" spans="2:18">
       <c r="B10" s="4">
         <v>400002</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="33" spans="2:18">
+    <row r="11" ht="30" spans="2:18">
       <c r="B11" s="4">
         <v>400003</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="33" spans="2:18">
+    <row r="12" ht="30" spans="2:18">
       <c r="B12" s="4">
         <v>400004</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="33" spans="2:18">
+    <row r="13" ht="30" spans="2:18">
       <c r="B13" s="4">
         <v>400005</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="33" spans="2:18">
+    <row r="14" ht="30" spans="2:18">
       <c r="B14" s="4">
         <v>400006</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="2:18">
+    <row r="15" ht="30" spans="2:18">
       <c r="B15" s="4">
         <v>400007</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="2:18">
+    <row r="16" ht="30" spans="2:18">
       <c r="B16" s="4">
         <v>400008</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="2:18">
+    <row r="17" ht="30" spans="2:18">
       <c r="B17" s="4">
         <v>400009</v>
       </c>
@@ -9207,24 +9207,24 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
-    <col min="3" max="4" width="11.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="10.3416666666667" customWidth="1"/>
-    <col min="6" max="6" width="7.675" customWidth="1"/>
-    <col min="7" max="7" width="11.5083333333333" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="8.50833333333333" customWidth="1"/>
-    <col min="12" max="12" width="33.0083333333333" customWidth="1"/>
-    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="13.675" customWidth="1"/>
-    <col min="16" max="16" width="9.00833333333333" customWidth="1"/>
-    <col min="17" max="17" width="9.34166666666667" customWidth="1"/>
-    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
+    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
+    <col min="3" max="4" width="11.3425925925926" customWidth="1"/>
+    <col min="5" max="5" width="10.3425925925926" customWidth="1"/>
+    <col min="6" max="6" width="7.67592592592593" customWidth="1"/>
+    <col min="7" max="7" width="11.5092592592593" customWidth="1"/>
+    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
+    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="8.50925925925926" customWidth="1"/>
+    <col min="12" max="12" width="33.0092592592593" customWidth="1"/>
+    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
+    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="13.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="9.00925925925926" customWidth="1"/>
+    <col min="17" max="17" width="9.34259259259259" customWidth="1"/>
+    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="33" spans="2:18">
+    <row r="9" ht="30" spans="2:18">
       <c r="B9" s="4">
         <v>500001</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="33" spans="2:18">
+    <row r="10" ht="30" spans="2:18">
       <c r="B10" s="4">
         <v>500002</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="33" spans="2:18">
+    <row r="11" ht="30" spans="2:18">
       <c r="B11" s="4">
         <v>500003</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="33" spans="2:18">
+    <row r="12" ht="30" spans="2:18">
       <c r="B12" s="4">
         <v>500004</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="33" spans="2:18">
+    <row r="13" ht="30" spans="2:18">
       <c r="B13" s="4">
         <v>500005</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="33" spans="2:18">
+    <row r="14" ht="30" spans="2:18">
       <c r="B14" s="4">
         <v>500006</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="33" spans="2:18">
+    <row r="15" ht="30" spans="2:18">
       <c r="B15" s="4">
         <v>500007</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="33" spans="2:18">
+    <row r="16" ht="30" spans="2:18">
       <c r="B16" s="4">
         <v>500008</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="33" spans="2:18">
+    <row r="17" ht="30" spans="2:18">
       <c r="B17" s="4">
         <v>500009</v>
       </c>
@@ -10103,25 +10103,25 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
   <cols>
-    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
-    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
-    <col min="3" max="3" width="14.0083333333333" customWidth="1"/>
-    <col min="4" max="4" width="11.3416666666667" customWidth="1"/>
-    <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
-    <col min="6" max="6" width="7.84166666666667" customWidth="1"/>
-    <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
-    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
-    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
-    <col min="11" max="11" width="9.00833333333333" customWidth="1"/>
-    <col min="12" max="12" width="30.675" customWidth="1"/>
-    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
-    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
-    <col min="15" max="15" width="14.675" customWidth="1"/>
-    <col min="16" max="16" width="9.675" customWidth="1"/>
-    <col min="17" max="17" width="10.175" customWidth="1"/>
-    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
+    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
+    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
+    <col min="3" max="3" width="14.0092592592593" customWidth="1"/>
+    <col min="4" max="4" width="11.3425925925926" customWidth="1"/>
+    <col min="5" max="5" width="11.0092592592593" customWidth="1"/>
+    <col min="6" max="6" width="7.84259259259259" customWidth="1"/>
+    <col min="7" max="7" width="12.0092592592593" customWidth="1"/>
+    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
+    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
+    <col min="11" max="11" width="9.00925925925926" customWidth="1"/>
+    <col min="12" max="12" width="30.6759259259259" customWidth="1"/>
+    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
+    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
+    <col min="15" max="15" width="14.6759259259259" customWidth="1"/>
+    <col min="16" max="16" width="9.67592592592593" customWidth="1"/>
+    <col min="17" max="17" width="10.1759259259259" customWidth="1"/>
+    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -10912,7 +10912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" ht="16.5" spans="7:7">
+    <row r="18" ht="15" spans="7:7">
       <c r="G18" s="15"/>
     </row>
   </sheetData>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="30720" windowHeight="13380"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="common" sheetId="1" r:id="rId1"/>
@@ -3437,28 +3437,28 @@
   <dimension ref="A1:R56"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3425925925926" style="20" customWidth="1"/>
-    <col min="2" max="2" width="12.0092592592593" style="20" customWidth="1"/>
-    <col min="3" max="3" width="13.0092592592593" style="20" customWidth="1"/>
-    <col min="4" max="4" width="11.3425925925926" style="20" customWidth="1"/>
-    <col min="5" max="5" width="10.3425925925926" style="20" customWidth="1"/>
-    <col min="6" max="6" width="12.0092592592593" style="20" customWidth="1"/>
-    <col min="7" max="7" width="10.3425925925926" style="20" customWidth="1"/>
-    <col min="8" max="9" width="8.50925925925926" style="20" customWidth="1"/>
-    <col min="10" max="10" width="9.00925925925926" style="20" customWidth="1"/>
-    <col min="11" max="11" width="25.3425925925926" style="20" customWidth="1"/>
-    <col min="12" max="12" width="10.3425925925926" style="20" customWidth="1"/>
-    <col min="13" max="13" width="14.0092592592593" style="20" customWidth="1"/>
-    <col min="14" max="14" width="14.6759259259259" style="20" customWidth="1"/>
-    <col min="15" max="15" width="9.67592592592593" style="20" customWidth="1"/>
-    <col min="16" max="16" width="10.1759259259259" style="20" customWidth="1"/>
-    <col min="17" max="17" width="21.8425925925926" style="20" customWidth="1"/>
-    <col min="18" max="18" width="11.1759259259259" style="20" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" style="20" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" style="20" customWidth="1"/>
+    <col min="3" max="3" width="13.0083333333333" style="20" customWidth="1"/>
+    <col min="4" max="4" width="11.3416666666667" style="20" customWidth="1"/>
+    <col min="5" max="5" width="10.3416666666667" style="20" customWidth="1"/>
+    <col min="6" max="6" width="12.0083333333333" style="20" customWidth="1"/>
+    <col min="7" max="7" width="10.3416666666667" style="20" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" style="20" customWidth="1"/>
+    <col min="10" max="10" width="9.00833333333333" style="20" customWidth="1"/>
+    <col min="11" max="11" width="25.3416666666667" style="20" customWidth="1"/>
+    <col min="12" max="12" width="10.3416666666667" style="20" customWidth="1"/>
+    <col min="13" max="13" width="14.0083333333333" style="20" customWidth="1"/>
+    <col min="14" max="14" width="14.675" style="20" customWidth="1"/>
+    <col min="15" max="15" width="9.675" style="20" customWidth="1"/>
+    <col min="16" max="16" width="10.175" style="20" customWidth="1"/>
+    <col min="17" max="17" width="21.8416666666667" style="20" customWidth="1"/>
+    <col min="18" max="18" width="11.175" style="20" customWidth="1"/>
     <col min="19" max="16384" width="9" style="20"/>
   </cols>
   <sheetData>
@@ -5036,7 +5036,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" ht="15" spans="2:18">
+    <row r="33" ht="16.5" spans="2:18">
       <c r="B33" s="20">
         <v>25</v>
       </c>
@@ -5089,7 +5089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" ht="30" spans="2:18">
+    <row r="34" ht="33" spans="2:18">
       <c r="B34" s="4">
         <v>26</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>1</v>
       </c>
       <c r="F34" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" s="15">
         <v>3</v>
@@ -5142,7 +5142,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" ht="30" spans="2:18">
+    <row r="35" ht="16.5" spans="2:18">
       <c r="B35" s="4">
         <v>27</v>
       </c>
@@ -5357,24 +5357,24 @@
       <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
-    <col min="2" max="3" width="12.0092592592593" customWidth="1"/>
-    <col min="4" max="4" width="11.3425925925926" customWidth="1"/>
-    <col min="5" max="5" width="11.0092592592593" customWidth="1"/>
-    <col min="6" max="6" width="7.84259259259259" customWidth="1"/>
-    <col min="7" max="7" width="12.0092592592593" customWidth="1"/>
-    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
-    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="46.462962962963" customWidth="1"/>
-    <col min="12" max="12" width="8.67592592592593" customWidth="1"/>
-    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
-    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="14.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="9.67592592592593" customWidth="1"/>
-    <col min="17" max="17" width="10.1759259259259" customWidth="1"/>
-    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
+    <col min="2" max="3" width="12.0083333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.84166666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="46.4666666666667" customWidth="1"/>
+    <col min="12" max="12" width="8.675" customWidth="1"/>
+    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="14.675" customWidth="1"/>
+    <col min="16" max="16" width="9.675" customWidth="1"/>
+    <col min="17" max="17" width="10.175" customWidth="1"/>
+    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -6019,7 +6019,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="30" spans="2:18">
+    <row r="15" ht="33" spans="2:18">
       <c r="B15" s="4">
         <v>100007</v>
       </c>
@@ -6070,7 +6070,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" ht="15" spans="2:18">
+    <row r="16" ht="16.5" spans="2:18">
       <c r="B16" s="4">
         <v>100008</v>
       </c>
@@ -6121,7 +6121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="2:18">
+    <row r="17" ht="16.5" spans="2:18">
       <c r="B17" s="4">
         <v>100009</v>
       </c>
@@ -6172,7 +6172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" ht="30" spans="2:18">
+    <row r="18" ht="16.5" spans="2:18">
       <c r="B18" s="4">
         <v>100010</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" ht="30" spans="2:18">
+    <row r="19" ht="16.5" spans="2:18">
       <c r="B19" s="4">
         <v>100011</v>
       </c>
@@ -6274,7 +6274,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" ht="30" spans="2:18">
+    <row r="20" ht="16.5" spans="2:18">
       <c r="B20" s="4">
         <v>100012</v>
       </c>
@@ -6325,7 +6325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" ht="30" spans="2:18">
+    <row r="21" ht="16.5" spans="2:18">
       <c r="B21" s="4">
         <v>100013</v>
       </c>
@@ -6376,31 +6376,31 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" ht="15" spans="18:18">
+    <row r="22" ht="16.5" spans="18:18">
       <c r="R22" s="4"/>
     </row>
-    <row r="23" ht="15" spans="18:18">
+    <row r="23" ht="16.5" spans="18:18">
       <c r="R23" s="4"/>
     </row>
-    <row r="24" ht="15" spans="18:18">
+    <row r="24" ht="16.5" spans="18:18">
       <c r="R24" s="4"/>
     </row>
-    <row r="25" ht="15" spans="18:18">
+    <row r="25" ht="16.5" spans="18:18">
       <c r="R25" s="4"/>
     </row>
-    <row r="26" ht="15" spans="18:18">
+    <row r="26" ht="16.5" spans="18:18">
       <c r="R26" s="4"/>
     </row>
-    <row r="27" ht="15" spans="18:18">
+    <row r="27" ht="16.5" spans="18:18">
       <c r="R27" s="4"/>
     </row>
-    <row r="28" ht="15" spans="18:18">
+    <row r="28" ht="16.5" spans="18:18">
       <c r="R28" s="4"/>
     </row>
-    <row r="29" ht="15" spans="18:18">
+    <row r="29" ht="16.5" spans="18:18">
       <c r="R29" s="4"/>
     </row>
-    <row r="30" ht="15" spans="18:18">
+    <row r="30" ht="16.5" spans="18:18">
       <c r="R30" s="4"/>
     </row>
   </sheetData>
@@ -6497,25 +6497,25 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
-    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
-    <col min="3" max="3" width="14.0092592592593" customWidth="1"/>
-    <col min="4" max="4" width="11.3425925925926" customWidth="1"/>
-    <col min="5" max="5" width="11.0092592592593" customWidth="1"/>
-    <col min="6" max="6" width="7.84259259259259" customWidth="1"/>
-    <col min="7" max="7" width="12.0092592592593" customWidth="1"/>
-    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
-    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="9.00925925925926" customWidth="1"/>
-    <col min="12" max="12" width="30.6759259259259" customWidth="1"/>
-    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
-    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="14.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="9.67592592592593" customWidth="1"/>
-    <col min="17" max="17" width="10.1759259259259" customWidth="1"/>
-    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.0083333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.84166666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="9.00833333333333" customWidth="1"/>
+    <col min="12" max="12" width="30.675" customWidth="1"/>
+    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="14.675" customWidth="1"/>
+    <col min="16" max="16" width="9.675" customWidth="1"/>
+    <col min="17" max="17" width="10.175" customWidth="1"/>
+    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -7305,16 +7305,16 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="18:18">
+    <row r="18" ht="16.5" spans="18:18">
       <c r="R18" s="4"/>
     </row>
-    <row r="19" ht="15" spans="18:18">
+    <row r="19" ht="16.5" spans="18:18">
       <c r="R19" s="4"/>
     </row>
-    <row r="20" ht="15" spans="18:18">
+    <row r="20" ht="16.5" spans="18:18">
       <c r="R20" s="4"/>
     </row>
-    <row r="21" ht="15" spans="18:18">
+    <row r="21" ht="16.5" spans="18:18">
       <c r="R21" s="4"/>
     </row>
   </sheetData>
@@ -7415,24 +7415,24 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
-    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
-    <col min="3" max="4" width="11.3425925925926" customWidth="1"/>
-    <col min="5" max="5" width="10.3425925925926" customWidth="1"/>
-    <col min="6" max="6" width="7.67592592592593" customWidth="1"/>
-    <col min="7" max="7" width="11.5092592592593" customWidth="1"/>
-    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
-    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="8.50925925925926" customWidth="1"/>
-    <col min="12" max="12" width="33.0092592592593" customWidth="1"/>
-    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
-    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="13.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="9.00925925925926" customWidth="1"/>
-    <col min="17" max="17" width="9.34259259259259" customWidth="1"/>
-    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
+    <col min="3" max="4" width="11.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="10.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="7.675" customWidth="1"/>
+    <col min="7" max="7" width="11.5083333333333" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="8.50833333333333" customWidth="1"/>
+    <col min="12" max="12" width="33.0083333333333" customWidth="1"/>
+    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="13.675" customWidth="1"/>
+    <col min="16" max="16" width="9.00833333333333" customWidth="1"/>
+    <col min="17" max="17" width="9.34166666666667" customWidth="1"/>
+    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -7755,7 +7755,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="2:18">
+    <row r="9" ht="33" spans="2:18">
       <c r="B9" s="4">
         <v>300001</v>
       </c>
@@ -7806,7 +7806,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="2:18">
+    <row r="10" ht="33" spans="2:18">
       <c r="B10" s="4">
         <v>300002</v>
       </c>
@@ -7857,7 +7857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="2:18">
+    <row r="11" ht="33" spans="2:18">
       <c r="B11" s="4">
         <v>300003</v>
       </c>
@@ -7907,7 +7907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="2:18">
+    <row r="12" ht="33" spans="2:18">
       <c r="B12" s="4">
         <v>300004</v>
       </c>
@@ -7958,7 +7958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="30" spans="2:18">
+    <row r="13" ht="33" spans="2:18">
       <c r="B13" s="4">
         <v>300005</v>
       </c>
@@ -8009,7 +8009,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="2:18">
+    <row r="14" ht="33" spans="2:18">
       <c r="B14" s="4">
         <v>300006</v>
       </c>
@@ -8060,7 +8060,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="30" spans="2:18">
+    <row r="15" ht="33" spans="2:18">
       <c r="B15" s="4">
         <v>300007</v>
       </c>
@@ -8111,7 +8111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="2:18">
+    <row r="16" ht="33" spans="2:18">
       <c r="B16" s="4">
         <v>300008</v>
       </c>
@@ -8162,7 +8162,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="2:18">
+    <row r="17" ht="33" spans="2:18">
       <c r="B17" s="4">
         <v>300009</v>
       </c>
@@ -8311,24 +8311,24 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
-    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
-    <col min="3" max="4" width="11.3425925925926" customWidth="1"/>
-    <col min="5" max="5" width="10.3425925925926" customWidth="1"/>
-    <col min="6" max="6" width="7.67592592592593" customWidth="1"/>
-    <col min="7" max="7" width="11.5092592592593" customWidth="1"/>
-    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
-    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="8.50925925925926" customWidth="1"/>
-    <col min="12" max="12" width="33.0092592592593" customWidth="1"/>
-    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
-    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="13.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="9.00925925925926" customWidth="1"/>
-    <col min="17" max="17" width="9.34259259259259" customWidth="1"/>
-    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
+    <col min="3" max="4" width="11.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="10.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="7.675" customWidth="1"/>
+    <col min="7" max="7" width="11.5083333333333" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="8.50833333333333" customWidth="1"/>
+    <col min="12" max="12" width="33.0083333333333" customWidth="1"/>
+    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="13.675" customWidth="1"/>
+    <col min="16" max="16" width="9.00833333333333" customWidth="1"/>
+    <col min="17" max="17" width="9.34166666666667" customWidth="1"/>
+    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -8651,7 +8651,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="2:18">
+    <row r="9" ht="33" spans="2:18">
       <c r="B9" s="4">
         <v>400001</v>
       </c>
@@ -8702,7 +8702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="2:18">
+    <row r="10" ht="33" spans="2:18">
       <c r="B10" s="4">
         <v>400002</v>
       </c>
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="2:18">
+    <row r="11" ht="33" spans="2:18">
       <c r="B11" s="4">
         <v>400003</v>
       </c>
@@ -8803,7 +8803,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="2:18">
+    <row r="12" ht="33" spans="2:18">
       <c r="B12" s="4">
         <v>400004</v>
       </c>
@@ -8854,7 +8854,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="30" spans="2:18">
+    <row r="13" ht="33" spans="2:18">
       <c r="B13" s="4">
         <v>400005</v>
       </c>
@@ -8905,7 +8905,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="2:18">
+    <row r="14" ht="33" spans="2:18">
       <c r="B14" s="4">
         <v>400006</v>
       </c>
@@ -8956,7 +8956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="30" spans="2:18">
+    <row r="15" ht="33" spans="2:18">
       <c r="B15" s="4">
         <v>400007</v>
       </c>
@@ -9007,7 +9007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="2:18">
+    <row r="16" ht="33" spans="2:18">
       <c r="B16" s="4">
         <v>400008</v>
       </c>
@@ -9058,7 +9058,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="2:18">
+    <row r="17" ht="33" spans="2:18">
       <c r="B17" s="4">
         <v>400009</v>
       </c>
@@ -9207,24 +9207,24 @@
       <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
-    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
-    <col min="3" max="4" width="11.3425925925926" customWidth="1"/>
-    <col min="5" max="5" width="10.3425925925926" customWidth="1"/>
-    <col min="6" max="6" width="7.67592592592593" customWidth="1"/>
-    <col min="7" max="7" width="11.5092592592593" customWidth="1"/>
-    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
-    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="8.50925925925926" customWidth="1"/>
-    <col min="12" max="12" width="33.0092592592593" customWidth="1"/>
-    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
-    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="13.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="9.00925925925926" customWidth="1"/>
-    <col min="17" max="17" width="9.34259259259259" customWidth="1"/>
-    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
+    <col min="3" max="4" width="11.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="10.3416666666667" customWidth="1"/>
+    <col min="6" max="6" width="7.675" customWidth="1"/>
+    <col min="7" max="7" width="11.5083333333333" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="8.50833333333333" customWidth="1"/>
+    <col min="12" max="12" width="33.0083333333333" customWidth="1"/>
+    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="13.675" customWidth="1"/>
+    <col min="16" max="16" width="9.00833333333333" customWidth="1"/>
+    <col min="17" max="17" width="9.34166666666667" customWidth="1"/>
+    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -9547,7 +9547,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" ht="30" spans="2:18">
+    <row r="9" ht="33" spans="2:18">
       <c r="B9" s="4">
         <v>500001</v>
       </c>
@@ -9598,7 +9598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" ht="30" spans="2:18">
+    <row r="10" ht="33" spans="2:18">
       <c r="B10" s="4">
         <v>500002</v>
       </c>
@@ -9649,7 +9649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" ht="30" spans="2:18">
+    <row r="11" ht="33" spans="2:18">
       <c r="B11" s="4">
         <v>500003</v>
       </c>
@@ -9699,7 +9699,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" ht="30" spans="2:18">
+    <row r="12" ht="33" spans="2:18">
       <c r="B12" s="4">
         <v>500004</v>
       </c>
@@ -9750,7 +9750,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" ht="30" spans="2:18">
+    <row r="13" ht="33" spans="2:18">
       <c r="B13" s="4">
         <v>500005</v>
       </c>
@@ -9801,7 +9801,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" ht="30" spans="2:18">
+    <row r="14" ht="33" spans="2:18">
       <c r="B14" s="4">
         <v>500006</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" ht="30" spans="2:18">
+    <row r="15" ht="33" spans="2:18">
       <c r="B15" s="4">
         <v>500007</v>
       </c>
@@ -9903,7 +9903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" ht="30" spans="2:18">
+    <row r="16" ht="33" spans="2:18">
       <c r="B16" s="4">
         <v>500008</v>
       </c>
@@ -9954,7 +9954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" ht="30" spans="2:18">
+    <row r="17" ht="33" spans="2:18">
       <c r="B17" s="4">
         <v>500009</v>
       </c>
@@ -10103,25 +10103,25 @@
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="10.3425925925926" customWidth="1"/>
-    <col min="2" max="2" width="12.0092592592593" customWidth="1"/>
-    <col min="3" max="3" width="14.0092592592593" customWidth="1"/>
-    <col min="4" max="4" width="11.3425925925926" customWidth="1"/>
-    <col min="5" max="5" width="11.0092592592593" customWidth="1"/>
-    <col min="6" max="6" width="7.84259259259259" customWidth="1"/>
-    <col min="7" max="7" width="12.0092592592593" customWidth="1"/>
-    <col min="8" max="9" width="8.50925925925926" customWidth="1"/>
-    <col min="10" max="10" width="10.3425925925926" customWidth="1"/>
-    <col min="11" max="11" width="9.00925925925926" customWidth="1"/>
-    <col min="12" max="12" width="30.6759259259259" customWidth="1"/>
-    <col min="13" max="13" width="10.3425925925926" customWidth="1"/>
-    <col min="14" max="14" width="14.0092592592593" customWidth="1"/>
-    <col min="15" max="15" width="14.6759259259259" customWidth="1"/>
-    <col min="16" max="16" width="9.67592592592593" customWidth="1"/>
-    <col min="17" max="17" width="10.1759259259259" customWidth="1"/>
-    <col min="18" max="18" width="21.8425925925926" customWidth="1"/>
+    <col min="1" max="1" width="10.3416666666667" customWidth="1"/>
+    <col min="2" max="2" width="12.0083333333333" customWidth="1"/>
+    <col min="3" max="3" width="14.0083333333333" customWidth="1"/>
+    <col min="4" max="4" width="11.3416666666667" customWidth="1"/>
+    <col min="5" max="5" width="11.0083333333333" customWidth="1"/>
+    <col min="6" max="6" width="7.84166666666667" customWidth="1"/>
+    <col min="7" max="7" width="12.0083333333333" customWidth="1"/>
+    <col min="8" max="9" width="8.50833333333333" customWidth="1"/>
+    <col min="10" max="10" width="10.3416666666667" customWidth="1"/>
+    <col min="11" max="11" width="9.00833333333333" customWidth="1"/>
+    <col min="12" max="12" width="30.675" customWidth="1"/>
+    <col min="13" max="13" width="10.3416666666667" customWidth="1"/>
+    <col min="14" max="14" width="14.0083333333333" customWidth="1"/>
+    <col min="15" max="15" width="14.675" customWidth="1"/>
+    <col min="16" max="16" width="9.675" customWidth="1"/>
+    <col min="17" max="17" width="10.175" customWidth="1"/>
+    <col min="18" max="18" width="21.8416666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.5" customHeight="1" spans="1:18">
@@ -10912,7 +10912,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" ht="15" spans="7:7">
+    <row r="18" ht="16.5" spans="7:7">
       <c r="G18" s="15"/>
     </row>
   </sheetData>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="common" sheetId="1" r:id="rId1"/>
+    <sheet name="Common" sheetId="1" r:id="rId1"/>
     <sheet name="ShengTang" sheetId="2" r:id="rId2"/>
     <sheet name="WangLing" sheetId="3" r:id="rId3"/>
     <sheet name="YouMu" sheetId="4" r:id="rId4"/>
@@ -16,7 +16,7 @@
     <sheet name="XueYuan" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">common!$A$5:$Q$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Common!$A$5:$Q$35</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1261,7 +1261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="741" uniqueCount="184">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="187">
   <si>
     <t>导出类型</t>
   </si>
@@ -1333,7 +1333,7 @@
 </t>
   </si>
   <si>
-    <t>特效id</t>
+    <t>特效数据</t>
   </si>
   <si>
     <t>音效id</t>
@@ -1396,7 +1396,7 @@
     <t>useCondition</t>
   </si>
   <si>
-    <t>effectId</t>
+    <t>effectList</t>
   </si>
   <si>
     <t>soundId</t>
@@ -1429,6 +1429,9 @@
     <t>[11,1]</t>
   </si>
   <si>
+    <t>[1]</t>
+  </si>
+  <si>
     <t>单位反制</t>
   </si>
   <si>
@@ -1480,6 +1483,9 @@
     <t>步弓手</t>
   </si>
   <si>
+    <t>[0]</t>
+  </si>
+  <si>
     <t>弩手</t>
   </si>
   <si>
@@ -1555,24 +1561,21 @@
     <t>举盾：自身和相邻友军受到远程攻击时伤害-1</t>
   </si>
   <si>
-    <t>[1]</t>
-  </si>
-  <si>
     <t>农夫</t>
   </si>
   <si>
     <t>务农：回合开始阶段获得一点费用</t>
   </si>
   <si>
-    <t>[0]</t>
-  </si>
-  <si>
     <t>巫师学徒</t>
   </si>
   <si>
     <t>部署：对一个单位造成一点伤害</t>
   </si>
   <si>
+    <t>[3]</t>
+  </si>
+  <si>
     <t>兵营</t>
   </si>
   <si>
@@ -1630,10 +1633,16 @@
     <t>圣堂远程凑数3</t>
   </si>
   <si>
+    <t>[4]</t>
+  </si>
+  <si>
     <t>圣堂近战凑数4</t>
   </si>
   <si>
     <t>圣堂远程凑数4</t>
+  </si>
+  <si>
+    <t>[5]</t>
   </si>
   <si>
     <t>Cards2={</t>
@@ -3436,8 +3445,8 @@
   <sheetPr/>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3662,7 +3671,7 @@
         <v>28</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>29</v>
@@ -3771,8 +3780,8 @@
       <c r="N8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="4">
-        <v>-1</v>
+      <c r="O8" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P8" s="4">
         <v>-1</v>
@@ -3823,8 +3832,8 @@
       <c r="N9" s="4" t="s">
         <v>54</v>
       </c>
-      <c r="O9" s="4">
-        <v>1</v>
+      <c r="O9" s="4" t="s">
+        <v>55</v>
       </c>
       <c r="P9" s="4">
         <v>-1</v>
@@ -3840,7 +3849,7 @@
         <v>2</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D10" s="4">
         <v>4</v>
@@ -3864,7 +3873,7 @@
         <v>2</v>
       </c>
       <c r="K10" s="4" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>50</v>
@@ -3875,8 +3884,8 @@
       <c r="N10" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O10" s="4">
-        <v>-1</v>
+      <c r="O10" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P10" s="4">
         <v>-1</v>
@@ -3892,7 +3901,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -3923,10 +3932,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P11" s="4">
         <v>-1</v>
@@ -3944,7 +3953,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -3975,10 +3984,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P12" s="4">
         <v>-1</v>
@@ -3996,7 +4005,7 @@
         <v>5</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -4027,10 +4036,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P13" s="4">
         <v>-1</v>
@@ -4048,7 +4057,7 @@
         <v>6</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -4079,10 +4088,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P14" s="4">
         <v>-1</v>
@@ -4100,7 +4109,7 @@
         <v>7</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -4131,10 +4140,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P15" s="4">
         <v>-1</v>
@@ -4152,7 +4161,7 @@
         <v>8</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -4183,10 +4192,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P16" s="4">
         <v>-1</v>
@@ -4204,7 +4213,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -4235,10 +4244,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P17" s="4">
         <v>-1</v>
@@ -4256,7 +4265,7 @@
         <v>10</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -4287,10 +4296,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O18" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P18" s="4">
         <v>-1</v>
@@ -4308,7 +4317,7 @@
         <v>11</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -4332,7 +4341,7 @@
         <v>0</v>
       </c>
       <c r="K19" s="4" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="L19" s="4" t="s">
         <v>50</v>
@@ -4341,10 +4350,10 @@
         <v>0</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O19" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P19" s="4">
         <v>-1</v>
@@ -4362,7 +4371,7 @@
         <v>12</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -4393,10 +4402,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O20" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P20" s="4">
         <v>-1</v>
@@ -4414,7 +4423,7 @@
         <v>13</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -4445,10 +4454,10 @@
         <v>0</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O21" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P21" s="4">
         <v>-1</v>
@@ -4466,7 +4475,7 @@
         <v>14</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="D22" s="4">
         <v>1</v>
@@ -4497,10 +4506,10 @@
         <v>0</v>
       </c>
       <c r="N22" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O22" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O22" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P22" s="4">
         <v>-1</v>
@@ -4518,7 +4527,7 @@
         <v>15</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D23" s="4">
         <v>1</v>
@@ -4549,10 +4558,10 @@
         <v>0</v>
       </c>
       <c r="N23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O23" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="O23" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="P23" s="4">
         <v>-1</v>
@@ -4570,7 +4579,7 @@
         <v>16</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="D24" s="4">
         <v>1</v>
@@ -4601,10 +4610,10 @@
         <v>0</v>
       </c>
       <c r="N24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O24" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="O24" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="P24" s="4">
         <v>-1</v>
@@ -4622,7 +4631,7 @@
         <v>17</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="D25" s="4">
         <v>1</v>
@@ -4653,10 +4662,10 @@
         <v>0</v>
       </c>
       <c r="N25" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O25" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="O25" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="P25" s="4">
         <v>-1</v>
@@ -4674,7 +4683,7 @@
         <v>18</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D26" s="4">
         <v>1</v>
@@ -4705,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="N26" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O26" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="O26" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="P26" s="4">
         <v>-1</v>
@@ -4726,7 +4735,7 @@
         <v>19</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="D27" s="4">
         <v>1</v>
@@ -4757,10 +4766,10 @@
         <v>0</v>
       </c>
       <c r="N27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O27" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="O27" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="P27" s="4">
         <v>-1</v>
@@ -4778,7 +4787,7 @@
         <v>20</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D28" s="4">
         <v>1</v>
@@ -4809,10 +4818,10 @@
         <v>0</v>
       </c>
       <c r="N28" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O28" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="O28" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="P28" s="4">
         <v>-1</v>
@@ -4830,7 +4839,7 @@
         <v>21</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D29" s="4">
         <v>1</v>
@@ -4861,10 +4870,10 @@
         <v>0</v>
       </c>
       <c r="N29" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O29" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="O29" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="P29" s="4">
         <v>-1</v>
@@ -4882,7 +4891,7 @@
         <v>22</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="D30" s="4">
         <v>1</v>
@@ -4913,10 +4922,10 @@
         <v>0</v>
       </c>
       <c r="N30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O30" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="O30" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="P30" s="4">
         <v>-1</v>
@@ -4934,7 +4943,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="D31" s="4">
         <v>1</v>
@@ -4958,7 +4967,7 @@
         <v>1</v>
       </c>
       <c r="K31" s="4" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="L31" s="4" t="s">
         <v>50</v>
@@ -4967,10 +4976,10 @@
         <v>0</v>
       </c>
       <c r="N31" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O31" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O31" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P31" s="4">
         <v>-1</v>
@@ -4988,7 +4997,7 @@
         <v>24</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="D32" s="4">
         <v>1</v>
@@ -5012,7 +5021,7 @@
         <v>1</v>
       </c>
       <c r="K32" s="4" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>50</v>
@@ -5021,10 +5030,10 @@
         <v>0</v>
       </c>
       <c r="N32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O32" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O32" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P32" s="4">
         <v>-1</v>
@@ -5041,7 +5050,7 @@
         <v>25</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="D33" s="20">
         <v>2</v>
@@ -5065,7 +5074,7 @@
         <v>0</v>
       </c>
       <c r="K33" s="4" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="L33" s="20" t="s">
         <v>50</v>
@@ -5076,8 +5085,8 @@
       <c r="N33" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O33" s="4">
-        <v>0</v>
+      <c r="O33" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P33" s="4">
         <v>-1</v>
@@ -5094,7 +5103,7 @@
         <v>26</v>
       </c>
       <c r="C34" s="4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D34" s="4">
         <v>1</v>
@@ -5118,7 +5127,7 @@
         <v>1</v>
       </c>
       <c r="K34" s="4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>50</v>
@@ -5127,10 +5136,10 @@
         <v>0</v>
       </c>
       <c r="N34" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O34" s="4">
-        <v>-1</v>
+        <v>89</v>
+      </c>
+      <c r="O34" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P34" s="4">
         <v>-1</v>
@@ -5147,7 +5156,7 @@
         <v>27</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
@@ -5171,19 +5180,19 @@
         <v>1</v>
       </c>
       <c r="K35" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L35" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M35" s="4">
+        <v>0</v>
+      </c>
+      <c r="N35" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="L35" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M35" s="4">
-        <v>0</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O35" s="4">
-        <v>-1</v>
+      <c r="O35" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P35" s="4">
         <v>-1</v>
@@ -5353,8 +5362,8 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="O22" sqref="O22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5389,7 +5398,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -5410,7 +5419,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -5577,7 +5586,7 @@
         <v>28</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>29</v>
@@ -5651,7 +5660,7 @@
         <v>100000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -5675,10 +5684,10 @@
         <v>3</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -5686,8 +5695,8 @@
       <c r="N8" s="4" t="s">
         <v>51</v>
       </c>
-      <c r="O8" s="4">
-        <v>-1</v>
+      <c r="O8" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P8" s="4">
         <v>-1</v>
@@ -5705,7 +5714,7 @@
         <v>100001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -5729,19 +5738,19 @@
         <v>1</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>97</v>
+        <v>55</v>
       </c>
       <c r="M9" s="4">
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P9" s="4">
         <v>-1</v>
@@ -5759,7 +5768,7 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -5783,19 +5792,19 @@
         <v>0</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="M10" s="4">
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="4">
-        <v>2</v>
+        <v>59</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P10" s="4">
         <v>-1</v>
@@ -5846,10 +5855,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="O11" s="4">
-        <v>3</v>
+        <v>89</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="P11" s="4">
         <v>-1</v>
@@ -5867,7 +5876,7 @@
         <v>100004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -5891,7 +5900,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>50</v>
@@ -5900,10 +5909,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O12" s="4">
-        <v>-1</v>
+        <v>106</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P12" s="4">
         <v>-1</v>
@@ -5919,7 +5928,7 @@
         <v>100005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -5943,19 +5952,19 @@
         <v>2</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P13" s="4">
         <v>-1</v>
@@ -5973,7 +5982,7 @@
         <v>100006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -5997,7 +6006,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>50</v>
@@ -6006,10 +6015,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O14" s="4">
-        <v>1</v>
+        <v>112</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P14" s="4">
         <v>-1</v>
@@ -6024,43 +6033,43 @@
         <v>100007</v>
       </c>
       <c r="C15" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D15" s="4">
+        <v>2</v>
+      </c>
+      <c r="E15" s="4">
+        <v>1</v>
+      </c>
+      <c r="F15" s="4">
+        <v>0</v>
+      </c>
+      <c r="G15" s="15">
+        <v>3</v>
+      </c>
+      <c r="H15" s="14">
+        <v>1</v>
+      </c>
+      <c r="I15" s="16">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="4">
-        <v>2</v>
-      </c>
-      <c r="E15" s="4">
-        <v>1</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="15">
-        <v>3</v>
-      </c>
-      <c r="H15" s="14">
-        <v>1</v>
-      </c>
-      <c r="I15" s="16">
-        <v>1</v>
-      </c>
-      <c r="J15" s="4">
-        <v>1</v>
-      </c>
-      <c r="K15" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="O15" s="4">
-        <v>1</v>
+      <c r="O15" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P15" s="4">
         <v>-1</v>
@@ -6075,7 +6084,7 @@
         <v>100008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -6099,7 +6108,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>50</v>
@@ -6108,10 +6117,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="O16" s="4">
-        <v>1</v>
+        <v>117</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P16" s="4">
         <v>-1</v>
@@ -6126,7 +6135,7 @@
         <v>100009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -6150,7 +6159,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>50</v>
@@ -6159,10 +6168,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>119</v>
-      </c>
-      <c r="O17" s="4">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="P17" s="4">
         <v>-1</v>
@@ -6177,7 +6186,7 @@
         <v>100010</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -6208,10 +6217,10 @@
         <v>0</v>
       </c>
       <c r="N18" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O18" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O18" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P18" s="4">
         <v>-1</v>
@@ -6228,7 +6237,7 @@
         <v>100011</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -6259,10 +6268,10 @@
         <v>0</v>
       </c>
       <c r="N19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O19" s="4">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P19" s="4">
         <v>-1</v>
@@ -6279,7 +6288,7 @@
         <v>100012</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -6310,10 +6319,10 @@
         <v>0</v>
       </c>
       <c r="N20" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O20" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O20" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P20" s="4">
         <v>-1</v>
@@ -6330,7 +6339,7 @@
         <v>100013</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -6361,10 +6370,10 @@
         <v>0</v>
       </c>
       <c r="N21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O21" s="4">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="O21" s="4" t="s">
+        <v>126</v>
       </c>
       <c r="P21" s="4">
         <v>-1</v>
@@ -6405,82 +6414,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="27"/>
     <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="25"/>
     <cfRule type="duplicateValues" dxfId="1" priority="26"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="69"/>
     <cfRule type="duplicateValues" dxfId="1" priority="70"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6494,7 +6503,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O5" sqref="O5:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6530,7 +6539,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -6551,7 +6560,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -6718,7 +6727,7 @@
         <v>28</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>29</v>
@@ -6792,7 +6801,7 @@
         <v>200000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -6816,7 +6825,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -6825,10 +6834,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" s="4">
-        <v>-1</v>
+        <v>106</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P8" s="4">
         <v>-1</v>
@@ -6844,7 +6853,7 @@
         <v>200001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -6875,10 +6884,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P9" s="4">
         <v>-1</v>
@@ -6896,7 +6905,7 @@
         <v>200002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -6927,10 +6936,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P10" s="4">
         <v>-1</v>
@@ -6948,7 +6957,7 @@
         <v>200003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -6978,10 +6987,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P11" s="4">
         <v>-1</v>
@@ -6999,7 +7008,7 @@
         <v>200004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7030,10 +7039,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P12" s="4">
         <v>-1</v>
@@ -7051,7 +7060,7 @@
         <v>200005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7082,10 +7091,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="4">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P13" s="4">
         <v>-1</v>
@@ -7103,7 +7112,7 @@
         <v>200006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -7134,10 +7143,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P14" s="4">
         <v>-1</v>
@@ -7155,7 +7164,7 @@
         <v>200007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -7186,10 +7195,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="4">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P15" s="4">
         <v>-1</v>
@@ -7207,7 +7216,7 @@
         <v>200008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7238,10 +7247,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P16" s="4">
         <v>-1</v>
@@ -7259,7 +7268,7 @@
         <v>200009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -7290,10 +7299,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="4">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P17" s="4">
         <v>-1</v>
@@ -7319,86 +7328,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
     <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="27"/>
     <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="71"/>
     <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7412,7 +7421,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O5" sqref="O5:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7447,7 +7456,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -7468,7 +7477,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -7634,8 +7643,8 @@
       <c r="N6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="17" t="s">
-        <v>29</v>
+      <c r="O6" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="P6" s="17" t="s">
         <v>29</v>
@@ -7690,7 +7699,7 @@
       <c r="N7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="12" t="s">
         <v>44</v>
       </c>
       <c r="P7" s="18" t="s">
@@ -7709,7 +7718,7 @@
         <v>300000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -7733,7 +7742,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -7742,10 +7751,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" s="4">
-        <v>-1</v>
+        <v>106</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P8" s="4">
         <v>-1</v>
@@ -7760,7 +7769,7 @@
         <v>300001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -7791,10 +7800,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P9" s="4">
         <v>-1</v>
@@ -7811,7 +7820,7 @@
         <v>300002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -7842,10 +7851,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P10" s="4">
         <v>-1</v>
@@ -7862,7 +7871,7 @@
         <v>300003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -7892,10 +7901,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P11" s="4">
         <v>-1</v>
@@ -7912,7 +7921,7 @@
         <v>300004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7943,10 +7952,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P12" s="4">
         <v>-1</v>
@@ -7963,7 +7972,7 @@
         <v>300005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7994,10 +8003,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="4">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P13" s="4">
         <v>-1</v>
@@ -8014,7 +8023,7 @@
         <v>300006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -8045,10 +8054,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P14" s="4">
         <v>-1</v>
@@ -8065,7 +8074,7 @@
         <v>300007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -8096,10 +8105,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="4">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P15" s="4">
         <v>-1</v>
@@ -8116,7 +8125,7 @@
         <v>300008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -8147,10 +8156,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P16" s="4">
         <v>-1</v>
@@ -8167,7 +8176,7 @@
         <v>300009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -8198,10 +8207,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="4">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P17" s="4">
         <v>-1</v>
@@ -8215,86 +8224,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
     <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="27"/>
     <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="71"/>
     <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8308,7 +8317,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O5" sqref="O5:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8343,7 +8352,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -8364,7 +8373,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -8530,8 +8539,8 @@
       <c r="N6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="17" t="s">
-        <v>29</v>
+      <c r="O6" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="P6" s="17" t="s">
         <v>29</v>
@@ -8586,7 +8595,7 @@
       <c r="N7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="12" t="s">
         <v>44</v>
       </c>
       <c r="P7" s="18" t="s">
@@ -8605,7 +8614,7 @@
         <v>400000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -8629,7 +8638,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -8638,10 +8647,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" s="4">
-        <v>-1</v>
+        <v>106</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P8" s="4">
         <v>-1</v>
@@ -8656,7 +8665,7 @@
         <v>400001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -8687,10 +8696,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P9" s="4">
         <v>-1</v>
@@ -8707,7 +8716,7 @@
         <v>400002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -8738,10 +8747,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P10" s="4">
         <v>-1</v>
@@ -8758,7 +8767,7 @@
         <v>400003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -8788,10 +8797,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P11" s="4">
         <v>-1</v>
@@ -8808,7 +8817,7 @@
         <v>400004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -8839,10 +8848,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P12" s="4">
         <v>-1</v>
@@ -8859,7 +8868,7 @@
         <v>400005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -8890,10 +8899,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="4">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P13" s="4">
         <v>-1</v>
@@ -8910,7 +8919,7 @@
         <v>400006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -8941,10 +8950,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P14" s="4">
         <v>-1</v>
@@ -8961,7 +8970,7 @@
         <v>400007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -8992,10 +9001,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="4">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P15" s="4">
         <v>-1</v>
@@ -9012,7 +9021,7 @@
         <v>400008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -9043,10 +9052,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P16" s="4">
         <v>-1</v>
@@ -9063,7 +9072,7 @@
         <v>400009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -9094,10 +9103,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="4">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P17" s="4">
         <v>-1</v>
@@ -9111,86 +9120,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
     <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="27"/>
     <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="71"/>
     <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9204,7 +9213,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection activeCell="O5" sqref="O5:O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9239,7 +9248,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -9260,7 +9269,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -9426,8 +9435,8 @@
       <c r="N6" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="O6" s="17" t="s">
-        <v>29</v>
+      <c r="O6" s="11" t="s">
+        <v>28</v>
       </c>
       <c r="P6" s="17" t="s">
         <v>29</v>
@@ -9482,7 +9491,7 @@
       <c r="N7" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="O7" s="18" t="s">
+      <c r="O7" s="12" t="s">
         <v>44</v>
       </c>
       <c r="P7" s="18" t="s">
@@ -9501,7 +9510,7 @@
         <v>500000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -9525,7 +9534,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -9534,10 +9543,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" s="4">
-        <v>-1</v>
+        <v>106</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P8" s="4">
         <v>-1</v>
@@ -9552,7 +9561,7 @@
         <v>500001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -9583,10 +9592,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P9" s="4">
         <v>-1</v>
@@ -9603,7 +9612,7 @@
         <v>500002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -9634,10 +9643,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P10" s="4">
         <v>-1</v>
@@ -9654,7 +9663,7 @@
         <v>500003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -9684,10 +9693,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P11" s="4">
         <v>-1</v>
@@ -9704,7 +9713,7 @@
         <v>500004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -9735,10 +9744,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P12" s="4">
         <v>-1</v>
@@ -9755,7 +9764,7 @@
         <v>500005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -9786,10 +9795,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="4">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P13" s="4">
         <v>-1</v>
@@ -9806,7 +9815,7 @@
         <v>500006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -9837,10 +9846,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P14" s="4">
         <v>-1</v>
@@ -9857,7 +9866,7 @@
         <v>500007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -9888,10 +9897,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="4">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P15" s="4">
         <v>-1</v>
@@ -9908,7 +9917,7 @@
         <v>500008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -9939,10 +9948,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P16" s="4">
         <v>-1</v>
@@ -9959,7 +9968,7 @@
         <v>500009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -9990,10 +9999,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="4">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P17" s="4">
         <v>-1</v>
@@ -10007,86 +10016,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
     <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="27"/>
     <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="71"/>
     <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -10100,7 +10109,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10136,7 +10145,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -10157,7 +10166,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -10324,7 +10333,7 @@
         <v>28</v>
       </c>
       <c r="O6" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P6" s="11" t="s">
         <v>29</v>
@@ -10398,7 +10407,7 @@
         <v>600000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -10422,7 +10431,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -10431,10 +10440,10 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="O8" s="4">
-        <v>-1</v>
+        <v>106</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P8" s="4">
         <v>-1</v>
@@ -10450,7 +10459,7 @@
         <v>600001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -10481,10 +10490,10 @@
         <v>0</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O9" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P9" s="4">
         <v>-1</v>
@@ -10502,7 +10511,7 @@
         <v>600002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -10533,10 +10542,10 @@
         <v>0</v>
       </c>
       <c r="N10" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O10" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O10" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P10" s="4">
         <v>-1</v>
@@ -10554,7 +10563,7 @@
         <v>600003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -10585,10 +10594,10 @@
         <v>0</v>
       </c>
       <c r="N11" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O11" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O11" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P11" s="4">
         <v>-1</v>
@@ -10606,7 +10615,7 @@
         <v>600004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -10637,10 +10646,10 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
+        <v>59</v>
+      </c>
+      <c r="O12" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P12" s="4">
         <v>-1</v>
@@ -10658,7 +10667,7 @@
         <v>600005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -10689,10 +10698,10 @@
         <v>0</v>
       </c>
       <c r="N13" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O13" s="4">
-        <v>3</v>
+        <v>59</v>
+      </c>
+      <c r="O13" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P13" s="4">
         <v>-1</v>
@@ -10710,7 +10719,7 @@
         <v>600006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -10741,10 +10750,10 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O14" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O14" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P14" s="4">
         <v>-1</v>
@@ -10762,7 +10771,7 @@
         <v>600007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -10793,10 +10802,10 @@
         <v>0</v>
       </c>
       <c r="N15" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O15" s="4">
-        <v>4</v>
+        <v>59</v>
+      </c>
+      <c r="O15" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P15" s="4">
         <v>-1</v>
@@ -10814,7 +10823,7 @@
         <v>600008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -10845,10 +10854,10 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O16" s="4">
-        <v>-1</v>
+        <v>59</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="P16" s="4">
         <v>-1</v>
@@ -10866,7 +10875,7 @@
         <v>600009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -10897,10 +10906,10 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="O17" s="4">
-        <v>5</v>
+        <v>59</v>
+      </c>
+      <c r="O17" s="4" t="s">
+        <v>123</v>
       </c>
       <c r="P17" s="4">
         <v>-1</v>
@@ -10917,82 +10926,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:E5">
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F5">
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
     <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F5">
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="27"/>
     <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="51"/>
     <cfRule type="duplicateValues" dxfId="1" priority="52"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="45"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="46"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="39"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="40"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" activeTab="1"/>
+    <workbookView windowWidth="27945" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="XueYuan" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Common!$A$5:$Q$35</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Common!$A$5:$Q$36</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -110,7 +110,7 @@
           <t xml:space="preserve">
 攻击类型:0近战,1远程
 事件类型:0公共,1秘密
-建筑类型:0基础兵营建筑(每个职业只有一个),1出兵建筑</t>
+建筑类型:0出兵建筑</t>
         </r>
       </text>
     </comment>
@@ -285,7 +285,7 @@
           <t xml:space="preserve">
 攻击类型:0近战,1远程
 事件类型:0公共,1秘密
-建筑类型:0基础兵营建筑(每个职业只有一个),1出兵建筑</t>
+建筑类型:0出兵建筑</t>
         </r>
       </text>
     </comment>
@@ -460,7 +460,7 @@
           <t xml:space="preserve">
 攻击类型:0近战,1远程
 事件类型:0公共,1秘密
-建筑类型:0基础兵营建筑(每个职业只有一个),1出兵建筑</t>
+建筑类型:0出兵建筑</t>
         </r>
       </text>
     </comment>
@@ -635,7 +635,7 @@
           <t xml:space="preserve">
 攻击类型:0近战,1远程
 事件类型:0公共,1秘密
-建筑类型:0基础兵营建筑(每个职业只有一个),1出兵建筑</t>
+建筑类型:0出兵建筑</t>
         </r>
       </text>
     </comment>
@@ -810,7 +810,7 @@
           <t xml:space="preserve">
 攻击类型:0近战,1远程
 事件类型:0公共,1秘密
-建筑类型:0基础兵营建筑(每个职业只有一个),1出兵建筑</t>
+建筑类型:0出兵建筑</t>
         </r>
       </text>
     </comment>
@@ -985,7 +985,7 @@
           <t xml:space="preserve">
 攻击类型:0近战,1远程
 事件类型:0公共,1秘密
-建筑类型:0基础兵营建筑(每个职业只有一个),1出兵建筑</t>
+建筑类型:0出兵建筑</t>
         </r>
       </text>
     </comment>
@@ -1160,7 +1160,7 @@
           <t xml:space="preserve">
 攻击类型:0近战,1远程
 事件类型:0公共,1秘密
-建筑类型:0基础兵营建筑(每个职业只有一个),1出兵建筑</t>
+建筑类型:0出兵建筑</t>
         </r>
       </text>
     </comment>
@@ -1261,7 +1261,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="838" uniqueCount="189">
   <si>
     <t>导出类型</t>
   </si>
@@ -1540,6 +1540,15 @@
     <t>部署:选择一个单位，将其沉默</t>
   </si>
   <si>
+    <t>箭塔</t>
+  </si>
+  <si>
+    <t>回合结束时,对射程内的一个随机敌人发动攻击</t>
+  </si>
+  <si>
+    <t>[1,1]</t>
+  </si>
+  <si>
     <t>Cards1={</t>
   </si>
   <si>
@@ -1549,7 +1558,7 @@
     <t>神圣骑士王</t>
   </si>
   <si>
-    <t>神圣护甲：受到的所有伤害-1\n英雄集结：5费及以上的卡牌需要的费用降低1</t>
+    <t>神圣护甲：受到的伤害-1\n英雄集结：5费及以上的卡牌需要的费用降低1</t>
   </si>
   <si>
     <t>[3,4]</t>
@@ -1582,9 +1591,6 @@
     <t>出兵建筑:单位必须放置于出兵建筑附近</t>
   </si>
   <si>
-    <t>[1,1]</t>
-  </si>
-  <si>
     <t>冠军骑士</t>
   </si>
   <si>
@@ -1606,7 +1612,7 @@
     <t>灵能之刃</t>
   </si>
   <si>
-    <t>使一个友方单位获得+1/+1,/n且获得穿透攻击：对目标背后的单位造成同等伤害</t>
+    <t>使一个友方单位获得+1/+1,\n且获得穿透攻击：对目标背后的单位造成同等伤害</t>
   </si>
   <si>
     <t>刺杀</t>
@@ -3445,8 +3451,8 @@
   <sheetPr/>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5204,9 +5210,58 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="7:8">
-      <c r="G36" s="21"/>
-      <c r="H36" s="22"/>
+    <row r="36" ht="33" spans="2:18">
+      <c r="B36" s="20">
+        <v>28</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>92</v>
+      </c>
+      <c r="D36" s="4">
+        <v>3</v>
+      </c>
+      <c r="E36" s="4">
+        <v>1</v>
+      </c>
+      <c r="F36" s="4">
+        <v>1</v>
+      </c>
+      <c r="G36" s="13">
+        <v>4</v>
+      </c>
+      <c r="H36" s="14">
+        <v>3</v>
+      </c>
+      <c r="I36" s="16">
+        <v>10</v>
+      </c>
+      <c r="J36" s="4">
+        <v>1</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M36" s="4">
+        <v>0</v>
+      </c>
+      <c r="N36" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="O36" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="P36" s="4">
+        <v>-1</v>
+      </c>
+      <c r="Q36" s="20">
+        <v>0</v>
+      </c>
+      <c r="R36" s="20">
+        <v>3</v>
+      </c>
     </row>
     <row r="37" spans="7:7">
       <c r="G37" s="21"/>
@@ -5269,7 +5324,7 @@
       <c r="G56" s="21"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:Q35">
+  <autoFilter ref="A5:Q36">
     <extLst/>
   </autoFilter>
   <conditionalFormatting sqref="B5:C5">
@@ -5362,8 +5417,8 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O22" sqref="O22"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5398,7 +5453,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -5419,7 +5474,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -5660,7 +5715,7 @@
         <v>100000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="D8" s="4">
         <v>0</v>
@@ -5684,10 +5739,10 @@
         <v>3</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="M8" s="4">
         <v>0</v>
@@ -5714,7 +5769,7 @@
         <v>100001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="D9" s="4">
         <v>1</v>
@@ -5738,7 +5793,7 @@
         <v>1</v>
       </c>
       <c r="K9" s="19" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="L9" s="4" t="s">
         <v>55</v>
@@ -5768,7 +5823,7 @@
         <v>100002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -5792,7 +5847,7 @@
         <v>0</v>
       </c>
       <c r="K10" s="19" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="L10" s="4" t="s">
         <v>73</v>
@@ -5822,7 +5877,7 @@
         <v>100003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -5846,7 +5901,7 @@
         <v>1</v>
       </c>
       <c r="K11" s="19" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="L11" s="4" t="s">
         <v>50</v>
@@ -5858,7 +5913,7 @@
         <v>89</v>
       </c>
       <c r="O11" s="4" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="P11" s="4">
         <v>-1</v>
@@ -5876,7 +5931,7 @@
         <v>100004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="D12" s="4">
         <v>3</v>
@@ -5900,7 +5955,7 @@
         <v>0</v>
       </c>
       <c r="K12" s="19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L12" s="4" t="s">
         <v>50</v>
@@ -5909,7 +5964,7 @@
         <v>0</v>
       </c>
       <c r="N12" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O12" s="4" t="s">
         <v>50</v>
@@ -5928,7 +5983,7 @@
         <v>100005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -5952,10 +6007,10 @@
         <v>2</v>
       </c>
       <c r="K13" s="19" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="M13" s="4">
         <v>0</v>
@@ -5982,7 +6037,7 @@
         <v>100006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D14" s="4">
         <v>2</v>
@@ -6006,7 +6061,7 @@
         <v>1</v>
       </c>
       <c r="K14" s="4" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L14" s="4" t="s">
         <v>50</v>
@@ -6015,7 +6070,7 @@
         <v>0</v>
       </c>
       <c r="N14" s="4" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="O14" s="4" t="s">
         <v>50</v>
@@ -6033,7 +6088,7 @@
         <v>100007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D15" s="4">
         <v>2</v>
@@ -6057,16 +6112,16 @@
         <v>1</v>
       </c>
       <c r="K15" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="4" t="s">
         <v>114</v>
-      </c>
-      <c r="L15" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M15" s="4">
-        <v>0</v>
-      </c>
-      <c r="N15" s="4" t="s">
-        <v>112</v>
       </c>
       <c r="O15" s="4" t="s">
         <v>50</v>
@@ -6084,7 +6139,7 @@
         <v>100008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D16" s="4">
         <v>2</v>
@@ -6108,7 +6163,7 @@
         <v>1</v>
       </c>
       <c r="K16" s="4" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="L16" s="4" t="s">
         <v>50</v>
@@ -6117,7 +6172,7 @@
         <v>0</v>
       </c>
       <c r="N16" s="4" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="O16" s="4" t="s">
         <v>50</v>
@@ -6135,7 +6190,7 @@
         <v>100009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D17" s="4">
         <v>2</v>
@@ -6159,7 +6214,7 @@
         <v>1</v>
       </c>
       <c r="K17" s="4" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="L17" s="4" t="s">
         <v>50</v>
@@ -6168,7 +6223,7 @@
         <v>0</v>
       </c>
       <c r="N17" s="4" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="O17" s="4" t="s">
         <v>73</v>
@@ -6186,7 +6241,7 @@
         <v>100010</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="D18" s="4">
         <v>1</v>
@@ -6237,7 +6292,7 @@
         <v>100011</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D19" s="4">
         <v>1</v>
@@ -6271,7 +6326,7 @@
         <v>59</v>
       </c>
       <c r="O19" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P19" s="4">
         <v>-1</v>
@@ -6288,7 +6343,7 @@
         <v>100012</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D20" s="4">
         <v>1</v>
@@ -6339,7 +6394,7 @@
         <v>100013</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="D21" s="4">
         <v>1</v>
@@ -6373,7 +6428,7 @@
         <v>59</v>
       </c>
       <c r="O21" s="4" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="P21" s="4">
         <v>-1</v>
@@ -6414,82 +6469,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
-    <cfRule type="duplicateValues" dxfId="0" priority="29"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="30"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="27"/>
     <cfRule type="duplicateValues" dxfId="1" priority="28"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="21"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="22"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="I7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="71"/>
     <cfRule type="duplicateValues" dxfId="1" priority="72"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="65"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="66"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="73"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -6503,7 +6558,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6539,7 +6594,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -6560,7 +6615,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -6801,7 +6856,7 @@
         <v>200000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -6825,7 +6880,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -6834,7 +6889,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>50</v>
@@ -6853,7 +6908,7 @@
         <v>200001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -6905,7 +6960,7 @@
         <v>200002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -6957,7 +7012,7 @@
         <v>200003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -7008,7 +7063,7 @@
         <v>200004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7042,7 +7097,7 @@
         <v>59</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P12" s="4">
         <v>-1</v>
@@ -7060,7 +7115,7 @@
         <v>200005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -7094,7 +7149,7 @@
         <v>59</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P13" s="4">
         <v>-1</v>
@@ -7112,7 +7167,7 @@
         <v>200006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -7164,7 +7219,7 @@
         <v>200007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -7198,7 +7253,7 @@
         <v>59</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P15" s="4">
         <v>-1</v>
@@ -7216,7 +7271,7 @@
         <v>200008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -7268,7 +7323,7 @@
         <v>200009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -7302,7 +7357,7 @@
         <v>59</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P17" s="4">
         <v>-1</v>
@@ -7328,86 +7383,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
     <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="73"/>
     <cfRule type="duplicateValues" dxfId="1" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -7421,7 +7476,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7456,7 +7511,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -7477,7 +7532,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -7718,7 +7773,7 @@
         <v>300000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -7742,7 +7797,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -7751,7 +7806,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>50</v>
@@ -7769,7 +7824,7 @@
         <v>300001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -7820,7 +7875,7 @@
         <v>300002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -7871,7 +7926,7 @@
         <v>300003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -7921,7 +7976,7 @@
         <v>300004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -7955,7 +8010,7 @@
         <v>59</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P12" s="4">
         <v>-1</v>
@@ -7972,7 +8027,7 @@
         <v>300005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -8006,7 +8061,7 @@
         <v>59</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P13" s="4">
         <v>-1</v>
@@ -8023,7 +8078,7 @@
         <v>300006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -8074,7 +8129,7 @@
         <v>300007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -8108,7 +8163,7 @@
         <v>59</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P15" s="4">
         <v>-1</v>
@@ -8125,7 +8180,7 @@
         <v>300008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -8176,7 +8231,7 @@
         <v>300009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -8210,7 +8265,7 @@
         <v>59</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P17" s="4">
         <v>-1</v>
@@ -8224,86 +8279,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
     <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="73"/>
     <cfRule type="duplicateValues" dxfId="1" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -8317,7 +8372,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8352,7 +8407,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -8373,7 +8428,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -8614,7 +8669,7 @@
         <v>400000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -8638,7 +8693,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -8647,7 +8702,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>50</v>
@@ -8665,7 +8720,7 @@
         <v>400001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -8716,7 +8771,7 @@
         <v>400002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -8767,7 +8822,7 @@
         <v>400003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -8817,7 +8872,7 @@
         <v>400004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -8851,7 +8906,7 @@
         <v>59</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P12" s="4">
         <v>-1</v>
@@ -8868,7 +8923,7 @@
         <v>400005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -8902,7 +8957,7 @@
         <v>59</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P13" s="4">
         <v>-1</v>
@@ -8919,7 +8974,7 @@
         <v>400006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -8970,7 +9025,7 @@
         <v>400007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -9004,7 +9059,7 @@
         <v>59</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P15" s="4">
         <v>-1</v>
@@ -9021,7 +9076,7 @@
         <v>400008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -9072,7 +9127,7 @@
         <v>400009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -9106,7 +9161,7 @@
         <v>59</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P17" s="4">
         <v>-1</v>
@@ -9120,86 +9175,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
     <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="73"/>
     <cfRule type="duplicateValues" dxfId="1" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -9213,7 +9268,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="O5" sqref="O5:O7"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9248,7 +9303,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -9269,7 +9324,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -9510,7 +9565,7 @@
         <v>500000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -9534,7 +9589,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="19" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -9543,7 +9598,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>50</v>
@@ -9561,7 +9616,7 @@
         <v>500001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -9612,7 +9667,7 @@
         <v>500002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -9663,7 +9718,7 @@
         <v>500003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -9713,7 +9768,7 @@
         <v>500004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -9747,7 +9802,7 @@
         <v>59</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P12" s="4">
         <v>-1</v>
@@ -9764,7 +9819,7 @@
         <v>500005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -9798,7 +9853,7 @@
         <v>59</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P13" s="4">
         <v>-1</v>
@@ -9815,7 +9870,7 @@
         <v>500006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -9866,7 +9921,7 @@
         <v>500007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -9900,7 +9955,7 @@
         <v>59</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P15" s="4">
         <v>-1</v>
@@ -9917,7 +9972,7 @@
         <v>500008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -9968,7 +10023,7 @@
         <v>500009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -10002,7 +10057,7 @@
         <v>59</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P17" s="4">
         <v>-1</v>
@@ -10016,86 +10071,86 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:C5">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="53"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="54"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="D5:E5">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="79"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="80"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="69"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="70"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="63"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="64"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
     <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="77"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="78"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="73"/>
     <cfRule type="duplicateValues" dxfId="1" priority="74"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="67"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="68"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="61"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="62"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="75"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="76"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="71"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="72"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -10109,7 +10164,7 @@
   <dimension ref="A1:R18"/>
   <sheetViews>
     <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="R16" sqref="R16"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10145,7 +10200,7 @@
         <v>2</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="F1" s="4"/>
       <c r="G1" s="4"/>
@@ -10166,7 +10221,7 @@
         <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="3" t="s">
@@ -10407,7 +10462,7 @@
         <v>600000</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D8" s="4">
         <v>3</v>
@@ -10431,7 +10486,7 @@
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="L8" s="4" t="s">
         <v>50</v>
@@ -10440,7 +10495,7 @@
         <v>0</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>50</v>
@@ -10459,7 +10514,7 @@
         <v>600001</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D9" s="4">
         <v>0</v>
@@ -10511,7 +10566,7 @@
         <v>600002</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D10" s="4">
         <v>1</v>
@@ -10563,7 +10618,7 @@
         <v>600003</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="D11" s="4">
         <v>1</v>
@@ -10615,7 +10670,7 @@
         <v>600004</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D12" s="4">
         <v>1</v>
@@ -10649,7 +10704,7 @@
         <v>59</v>
       </c>
       <c r="O12" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P12" s="4">
         <v>-1</v>
@@ -10667,7 +10722,7 @@
         <v>600005</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="D13" s="4">
         <v>1</v>
@@ -10701,7 +10756,7 @@
         <v>59</v>
       </c>
       <c r="O13" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P13" s="4">
         <v>-1</v>
@@ -10719,7 +10774,7 @@
         <v>600006</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="D14" s="4">
         <v>1</v>
@@ -10771,7 +10826,7 @@
         <v>600007</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D15" s="4">
         <v>1</v>
@@ -10805,7 +10860,7 @@
         <v>59</v>
       </c>
       <c r="O15" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P15" s="4">
         <v>-1</v>
@@ -10823,7 +10878,7 @@
         <v>600008</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="D16" s="4">
         <v>1</v>
@@ -10875,7 +10930,7 @@
         <v>600009</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D17" s="4">
         <v>1</v>
@@ -10909,7 +10964,7 @@
         <v>59</v>
       </c>
       <c r="O17" s="4" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="P17" s="4">
         <v>-1</v>
@@ -10926,82 +10981,82 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B5:E5">
-    <cfRule type="duplicateValues" dxfId="0" priority="31"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="32"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="33"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="34"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="F5">
+    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H5">
+    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
+    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M5">
+    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N5">
+    <cfRule type="duplicateValues" dxfId="1" priority="6"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="5"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O5">
+    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P5">
+    <cfRule type="duplicateValues" dxfId="0" priority="19"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="20"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q5">
+    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R5">
+    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:E7">
+    <cfRule type="duplicateValues" dxfId="0" priority="59"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="60"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F7">
+    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="H7">
+    <cfRule type="duplicateValues" dxfId="0" priority="37"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="38"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I7">
+    <cfRule type="duplicateValues" dxfId="1" priority="10"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="9"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="M7">
+    <cfRule type="duplicateValues" dxfId="0" priority="49"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="50"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N7">
+    <cfRule type="duplicateValues" dxfId="0" priority="43"/>
+    <cfRule type="duplicateValues" dxfId="1" priority="44"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B1:B3">
+    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:B3">
+    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I5:K5 G5">
     <cfRule type="duplicateValues" dxfId="0" priority="29"/>
     <cfRule type="duplicateValues" dxfId="1" priority="30"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H5">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="0" priority="25"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="26"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M5">
-    <cfRule type="duplicateValues" dxfId="0" priority="23"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="24"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N5">
-    <cfRule type="duplicateValues" dxfId="1" priority="4"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="3"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="O5">
-    <cfRule type="duplicateValues" dxfId="1" priority="2"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P5">
-    <cfRule type="duplicateValues" dxfId="0" priority="17"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="18"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="Q5">
-    <cfRule type="duplicateValues" dxfId="0" priority="13"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="14"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="R5">
-    <cfRule type="duplicateValues" dxfId="1" priority="12"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="11"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B7:E7">
-    <cfRule type="duplicateValues" dxfId="0" priority="57"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="58"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F7">
+  <conditionalFormatting sqref="J7:L7 G7">
     <cfRule type="duplicateValues" dxfId="0" priority="53"/>
     <cfRule type="duplicateValues" dxfId="1" priority="54"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H7">
-    <cfRule type="duplicateValues" dxfId="0" priority="35"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="36"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I7">
-    <cfRule type="duplicateValues" dxfId="1" priority="8"/>
-    <cfRule type="duplicateValues" dxfId="0" priority="7"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="M7">
-    <cfRule type="duplicateValues" dxfId="0" priority="47"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="48"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="N7">
-    <cfRule type="duplicateValues" dxfId="0" priority="41"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="42"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B1:B3">
-    <cfRule type="duplicateValues" dxfId="0" priority="55"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B2:B3">
-    <cfRule type="duplicateValues" dxfId="1" priority="56"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="I5:K5 G5">
-    <cfRule type="duplicateValues" dxfId="0" priority="27"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="28"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="J7:L7 G7">
-    <cfRule type="duplicateValues" dxfId="0" priority="51"/>
-    <cfRule type="duplicateValues" dxfId="1" priority="52"/>
   </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>

--- a/excel/C-卡片配置.xlsx
+++ b/excel/C-卡片配置.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255"/>
+    <workbookView windowWidth="23985" windowHeight="12255" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Common" sheetId="1" r:id="rId1"/>
@@ -2166,12 +2166,12 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -3451,8 +3451,8 @@
   <sheetPr/>
   <dimension ref="A1:R56"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -3794,7 +3794,7 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="1:18">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="Q9" s="4"/>
       <c r="R9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="18.5" customHeight="1" spans="1:18">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="Q10" s="4"/>
       <c r="R10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="18.5" customHeight="1" spans="1:18">
@@ -3950,7 +3950,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="18.5" customHeight="1" spans="1:18">
@@ -4002,7 +4002,7 @@
         <v>2</v>
       </c>
       <c r="R12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="18.5" customHeight="1" spans="1:18">
@@ -4054,7 +4054,7 @@
         <v>2</v>
       </c>
       <c r="R13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="18.5" customHeight="1" spans="1:18">
@@ -4106,7 +4106,7 @@
         <v>2</v>
       </c>
       <c r="R14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="18.5" customHeight="1" spans="1:18">
@@ -4158,7 +4158,7 @@
         <v>2</v>
       </c>
       <c r="R15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="18.5" customHeight="1" spans="1:18">
@@ -4210,7 +4210,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="18.5" customHeight="1" spans="1:18">
@@ -4262,7 +4262,7 @@
         <v>2</v>
       </c>
       <c r="R17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="18.5" customHeight="1" spans="1:18">
@@ -4314,7 +4314,7 @@
         <v>2</v>
       </c>
       <c r="R18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="18.5" customHeight="1" spans="1:18">
@@ -4368,7 +4368,7 @@
         <v>3</v>
       </c>
       <c r="R19" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" ht="18.5" customHeight="1" spans="1:18">
@@ -4420,7 +4420,7 @@
         <v>2</v>
       </c>
       <c r="R20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="18.5" customHeight="1" spans="1:18">
@@ -4472,7 +4472,7 @@
         <v>2</v>
       </c>
       <c r="R21" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" ht="18.5" customHeight="1" spans="1:18">
@@ -4524,7 +4524,7 @@
         <v>3</v>
       </c>
       <c r="R22" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" ht="18.5" customHeight="1" spans="1:18">
@@ -4994,7 +4994,7 @@
         <v>2</v>
       </c>
       <c r="R31" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" ht="18.5" customHeight="1" spans="1:18">
@@ -5048,7 +5048,7 @@
         <v>2</v>
       </c>
       <c r="R32" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" ht="16.5" spans="2:18">
@@ -5100,8 +5100,8 @@
       <c r="Q33" s="4">
         <v>2</v>
       </c>
-      <c r="R33" s="20">
-        <v>0</v>
+      <c r="R33" s="4">
+        <v>1</v>
       </c>
     </row>
     <row r="34" ht="33" spans="2:18">
@@ -5154,7 +5154,7 @@
         <v>2</v>
       </c>
       <c r="R34" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" ht="16.5" spans="2:18">
@@ -5207,7 +5207,7 @@
         <v>2</v>
       </c>
       <c r="R35" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" ht="33" spans="2:18">
@@ -5417,8 +5417,8 @@
   <sheetPr/>
   <dimension ref="A1:R30"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -5760,7 +5760,7 @@
         <v>2</v>
       </c>
       <c r="R8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="1:18">
@@ -5814,7 +5814,7 @@
         <v>2</v>
       </c>
       <c r="R9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="18.5" customHeight="1" spans="1:18">
@@ -5868,7 +5868,7 @@
         <v>2</v>
       </c>
       <c r="R10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="18.5" customHeight="1" spans="1:18">
@@ -5974,7 +5974,7 @@
       </c>
       <c r="Q12" s="4"/>
       <c r="R12" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" ht="35" customHeight="1" spans="1:18">
@@ -6028,7 +6028,7 @@
         <v>3</v>
       </c>
       <c r="R13" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" ht="18.5" customHeight="1" spans="1:18">
@@ -6080,7 +6080,7 @@
       </c>
       <c r="Q14" s="4"/>
       <c r="R14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="33" spans="2:18">
@@ -6131,7 +6131,7 @@
       </c>
       <c r="Q15" s="4"/>
       <c r="R15" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" ht="16.5" spans="2:18">
@@ -6182,7 +6182,7 @@
       </c>
       <c r="Q16" s="4"/>
       <c r="R16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="16.5" spans="2:18">
@@ -6233,7 +6233,7 @@
       </c>
       <c r="Q17" s="4"/>
       <c r="R17" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" ht="16.5" spans="2:18">
@@ -6284,7 +6284,7 @@
         <v>2</v>
       </c>
       <c r="R18" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" ht="16.5" spans="2:18">
@@ -6386,7 +6386,7 @@
         <v>2</v>
       </c>
       <c r="R20" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" ht="16.5" spans="2:18">
@@ -6558,7 +6558,7 @@
   <dimension ref="A1:R21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -6899,7 +6899,7 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="1:18">
@@ -6951,7 +6951,7 @@
         <v>2</v>
       </c>
       <c r="R9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="18.5" customHeight="1" spans="1:18">
@@ -7003,7 +7003,7 @@
         <v>2</v>
       </c>
       <c r="R10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="18.5" customHeight="1" spans="1:18">
@@ -7054,7 +7054,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="18.5" customHeight="1" spans="1:18">
@@ -7210,7 +7210,7 @@
         <v>2</v>
       </c>
       <c r="R14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="18.5" customHeight="1" spans="1:18">
@@ -7314,7 +7314,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="18.5" customHeight="1" spans="1:18">
@@ -7476,7 +7476,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="R16" sqref="R14 R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -7816,7 +7816,7 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="33" spans="2:18">
@@ -7867,7 +7867,7 @@
         <v>2</v>
       </c>
       <c r="R9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="33" spans="2:18">
@@ -7918,7 +7918,7 @@
         <v>2</v>
       </c>
       <c r="R10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="33" spans="2:18">
@@ -7968,7 +7968,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="33" spans="2:18">
@@ -8121,7 +8121,7 @@
         <v>2</v>
       </c>
       <c r="R14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="33" spans="2:18">
@@ -8223,7 +8223,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="33" spans="2:18">
@@ -8372,7 +8372,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -8712,7 +8712,7 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="33" spans="2:18">
@@ -8763,7 +8763,7 @@
         <v>2</v>
       </c>
       <c r="R9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="33" spans="2:18">
@@ -8814,7 +8814,7 @@
         <v>2</v>
       </c>
       <c r="R10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="33" spans="2:18">
@@ -8864,7 +8864,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="33" spans="2:18">
@@ -9017,7 +9017,7 @@
         <v>2</v>
       </c>
       <c r="R14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="33" spans="2:18">
@@ -9119,7 +9119,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="33" spans="2:18">
@@ -9268,7 +9268,7 @@
   <dimension ref="A1:R17"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="R16" sqref="R16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -9608,7 +9608,7 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="33" spans="2:18">
@@ -9659,7 +9659,7 @@
         <v>2</v>
       </c>
       <c r="R9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="33" spans="2:18">
@@ -9710,7 +9710,7 @@
         <v>2</v>
       </c>
       <c r="R10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="33" spans="2:18">
@@ -9760,7 +9760,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="33" spans="2:18">
@@ -9913,7 +9913,7 @@
         <v>2</v>
       </c>
       <c r="R14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="33" spans="2:18">
@@ -10015,7 +10015,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="33" spans="2:18">
@@ -10163,8 +10163,8 @@
   <sheetPr/>
   <dimension ref="A1:R18"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="D3" workbookViewId="0">
+      <selection activeCell="R20" sqref="R20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
@@ -10505,7 +10505,7 @@
       </c>
       <c r="Q8" s="4"/>
       <c r="R8" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" ht="18.5" customHeight="1" spans="1:18">
@@ -10557,7 +10557,7 @@
         <v>2</v>
       </c>
       <c r="R9" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" ht="18.5" customHeight="1" spans="1:18">
@@ -10609,7 +10609,7 @@
         <v>2</v>
       </c>
       <c r="R10" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" ht="18.5" customHeight="1" spans="1:18">
@@ -10661,7 +10661,7 @@
         <v>2</v>
       </c>
       <c r="R11" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" ht="18.5" customHeight="1" spans="1:18">
@@ -10817,7 +10817,7 @@
         <v>2</v>
       </c>
       <c r="R14" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" ht="18.5" customHeight="1" spans="1:18">
@@ -10921,7 +10921,7 @@
         <v>2</v>
       </c>
       <c r="R16" s="4">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" ht="18.5" customHeight="1" spans="1:18">
